--- a/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_SMA_2_9.xlsx
+++ b/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_SMA_2_9.xlsx
@@ -369,4616 +369,6250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DQ130"/>
+  <dimension ref="A1:FH173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:121">
+    <row r="1" spans="1:164">
       <c r="B1" s="1">
+        <v>30956</v>
+      </c>
+      <c r="C1" s="1">
+        <v>31048</v>
+      </c>
+      <c r="D1" s="1">
+        <v>31138</v>
+      </c>
+      <c r="E1" s="1">
+        <v>31229</v>
+      </c>
+      <c r="F1" s="1">
+        <v>31321</v>
+      </c>
+      <c r="G1" s="1">
+        <v>31413</v>
+      </c>
+      <c r="H1" s="1">
+        <v>31503</v>
+      </c>
+      <c r="I1" s="1">
+        <v>31594</v>
+      </c>
+      <c r="J1" s="1">
+        <v>31686</v>
+      </c>
+      <c r="K1" s="1">
+        <v>31778</v>
+      </c>
+      <c r="L1" s="1">
+        <v>31868</v>
+      </c>
+      <c r="M1" s="1">
+        <v>31959</v>
+      </c>
+      <c r="N1" s="1">
+        <v>32051</v>
+      </c>
+      <c r="O1" s="1">
+        <v>32143</v>
+      </c>
+      <c r="P1" s="1">
+        <v>32234</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>32325</v>
+      </c>
+      <c r="R1" s="1">
+        <v>32417</v>
+      </c>
+      <c r="S1" s="1">
+        <v>32509</v>
+      </c>
+      <c r="T1" s="1">
+        <v>32599</v>
+      </c>
+      <c r="U1" s="1">
+        <v>32690</v>
+      </c>
+      <c r="V1" s="1">
+        <v>32782</v>
+      </c>
+      <c r="W1" s="1">
+        <v>32874</v>
+      </c>
+      <c r="X1" s="1">
+        <v>32964</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>33055</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>33147</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>33239</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>33329</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>33420</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>33512</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>33604</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>33695</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>33786</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33878</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33970</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34060</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>34151</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>34243</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>34335</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>34425</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>34516</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>34608</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>34700</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34790</v>
+      </c>
+      <c r="AS1" s="1">
         <v>34881</v>
       </c>
-      <c r="C1" s="1">
+      <c r="AT1" s="1">
         <v>34973</v>
       </c>
-      <c r="D1" s="1">
+      <c r="AU1" s="1">
         <v>35065</v>
       </c>
-      <c r="E1" s="1">
+      <c r="AV1" s="1">
         <v>35156</v>
       </c>
-      <c r="F1" s="1">
+      <c r="AW1" s="1">
         <v>35247</v>
       </c>
-      <c r="G1" s="1">
+      <c r="AX1" s="1">
         <v>35339</v>
       </c>
-      <c r="H1" s="1">
+      <c r="AY1" s="1">
         <v>35431</v>
       </c>
-      <c r="I1" s="1">
+      <c r="AZ1" s="1">
         <v>35521</v>
       </c>
-      <c r="J1" s="1">
+      <c r="BA1" s="1">
         <v>35612</v>
       </c>
-      <c r="K1" s="1">
+      <c r="BB1" s="1">
         <v>35704</v>
       </c>
-      <c r="L1" s="1">
+      <c r="BC1" s="1">
         <v>35796</v>
       </c>
-      <c r="M1" s="1">
+      <c r="BD1" s="1">
         <v>35886</v>
       </c>
-      <c r="N1" s="1">
+      <c r="BE1" s="1">
         <v>35977</v>
       </c>
-      <c r="O1" s="1">
+      <c r="BF1" s="1">
         <v>36069</v>
       </c>
-      <c r="P1" s="1">
+      <c r="BG1" s="1">
         <v>36161</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="BH1" s="1">
         <v>36251</v>
       </c>
-      <c r="R1" s="1">
+      <c r="BI1" s="1">
         <v>36342</v>
       </c>
-      <c r="S1" s="1">
+      <c r="BJ1" s="1">
         <v>36434</v>
       </c>
-      <c r="T1" s="1">
+      <c r="BK1" s="1">
         <v>36526</v>
       </c>
-      <c r="U1" s="1">
+      <c r="BL1" s="1">
         <v>36617</v>
       </c>
-      <c r="V1" s="1">
+      <c r="BM1" s="1">
         <v>36708</v>
       </c>
-      <c r="W1" s="1">
+      <c r="BN1" s="1">
         <v>36800</v>
       </c>
-      <c r="X1" s="1">
+      <c r="BO1" s="1">
         <v>36892</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="BP1" s="1">
         <v>36982</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="BQ1" s="1">
         <v>37073</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="BR1" s="1">
         <v>37165</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="BS1" s="1">
         <v>37257</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="BT1" s="1">
         <v>37347</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="BU1" s="1">
         <v>37438</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="BV1" s="1">
         <v>37530</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="BW1" s="1">
         <v>37622</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="BX1" s="1">
         <v>37712</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="BY1" s="1">
         <v>37803</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="BZ1" s="1">
         <v>37895</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="CA1" s="1">
         <v>37987</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="CB1" s="1">
         <v>38078</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="CC1" s="1">
         <v>38169</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="CD1" s="1">
         <v>38261</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="CE1" s="1">
         <v>38353</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="CF1" s="1">
         <v>38443</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="CG1" s="1">
         <v>38534</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="CH1" s="1">
         <v>38626</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="CI1" s="1">
         <v>38718</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="CJ1" s="1">
         <v>38808</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="CK1" s="1">
         <v>38899</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="CL1" s="1">
         <v>38991</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="CM1" s="1">
         <v>39083</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="CN1" s="1">
         <v>39173</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="CO1" s="1">
         <v>39264</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="CP1" s="1">
         <v>39356</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="CQ1" s="1">
         <v>39448</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="CR1" s="1">
         <v>39539</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="CS1" s="1">
         <v>39630</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="CT1" s="1">
         <v>39722</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="CU1" s="1">
         <v>39814</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="CV1" s="1">
         <v>39904</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="CW1" s="1">
         <v>39995</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="CX1" s="1">
         <v>40087</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="CY1" s="1">
         <v>40179</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="CZ1" s="1">
         <v>40269</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="DA1" s="1">
         <v>40360</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="DB1" s="1">
         <v>40452</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="DC1" s="1">
         <v>40544</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="DD1" s="1">
         <v>40634</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="DE1" s="1">
         <v>40725</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="DF1" s="1">
         <v>40817</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="DG1" s="1">
         <v>40909</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="DH1" s="1">
         <v>41000</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="DI1" s="1">
         <v>41091</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="DJ1" s="1">
         <v>41183</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="DK1" s="1">
         <v>41275</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="DL1" s="1">
         <v>41365</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="DM1" s="1">
         <v>41456</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="DN1" s="1">
         <v>41548</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="DO1" s="1">
         <v>41640</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="DP1" s="1">
         <v>41730</v>
       </c>
-      <c r="BZ1" s="1">
+      <c r="DQ1" s="1">
         <v>41821</v>
       </c>
-      <c r="CA1" s="1">
+      <c r="DR1" s="1">
         <v>41913</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="DS1" s="1">
         <v>42005</v>
       </c>
-      <c r="CC1" s="1">
+      <c r="DT1" s="1">
         <v>42095</v>
       </c>
-      <c r="CD1" s="1">
+      <c r="DU1" s="1">
         <v>42186</v>
       </c>
-      <c r="CE1" s="1">
+      <c r="DV1" s="1">
         <v>42278</v>
       </c>
-      <c r="CF1" s="1">
+      <c r="DW1" s="1">
         <v>42370</v>
       </c>
-      <c r="CG1" s="1">
+      <c r="DX1" s="1">
         <v>42461</v>
       </c>
-      <c r="CH1" s="1">
+      <c r="DY1" s="1">
         <v>42552</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="DZ1" s="1">
         <v>42644</v>
       </c>
-      <c r="CJ1" s="1">
+      <c r="EA1" s="1">
         <v>42736</v>
       </c>
-      <c r="CK1" s="1">
+      <c r="EB1" s="1">
         <v>42826</v>
       </c>
-      <c r="CL1" s="1">
+      <c r="EC1" s="1">
         <v>42917</v>
       </c>
-      <c r="CM1" s="1">
+      <c r="ED1" s="1">
         <v>43009</v>
       </c>
-      <c r="CN1" s="1">
+      <c r="EE1" s="1">
         <v>43101</v>
       </c>
-      <c r="CO1" s="1">
+      <c r="EF1" s="1">
         <v>43191</v>
       </c>
-      <c r="CP1" s="1">
+      <c r="EG1" s="1">
         <v>43282</v>
       </c>
-      <c r="CQ1" s="1">
+      <c r="EH1" s="1">
         <v>43374</v>
       </c>
-      <c r="CR1" s="1">
+      <c r="EI1" s="1">
         <v>43466</v>
       </c>
-      <c r="CS1" s="1">
+      <c r="EJ1" s="1">
         <v>43556</v>
       </c>
-      <c r="CT1" s="1">
+      <c r="EK1" s="1">
         <v>43647</v>
       </c>
-      <c r="CU1" s="1">
+      <c r="EL1" s="1">
         <v>43739</v>
       </c>
-      <c r="CV1" s="1">
+      <c r="EM1" s="1">
         <v>43831</v>
       </c>
-      <c r="CW1" s="1">
+      <c r="EN1" s="1">
         <v>43922</v>
       </c>
-      <c r="CX1" s="1">
+      <c r="EO1" s="1">
         <v>44013</v>
       </c>
-      <c r="CY1" s="1">
+      <c r="EP1" s="1">
         <v>44105</v>
       </c>
-      <c r="CZ1" s="1">
+      <c r="EQ1" s="1">
         <v>44197</v>
       </c>
-      <c r="DA1" s="1">
+      <c r="ER1" s="1">
         <v>44287</v>
       </c>
-      <c r="DB1" s="1">
+      <c r="ES1" s="1">
         <v>44378</v>
       </c>
-      <c r="DC1" s="1">
+      <c r="ET1" s="1">
         <v>44470</v>
       </c>
-      <c r="DD1" s="1">
+      <c r="EU1" s="1">
         <v>44562</v>
       </c>
-      <c r="DE1" s="1">
+      <c r="EV1" s="1">
         <v>44652</v>
       </c>
-      <c r="DF1" s="1">
+      <c r="EW1" s="1">
         <v>44743</v>
       </c>
-      <c r="DG1" s="1">
+      <c r="EX1" s="1">
         <v>44835</v>
       </c>
-      <c r="DH1" s="1">
+      <c r="EY1" s="1">
         <v>44927</v>
       </c>
-      <c r="DI1" s="1">
+      <c r="EZ1" s="1">
         <v>45017</v>
       </c>
-      <c r="DJ1" s="1">
+      <c r="FA1" s="1">
         <v>45108</v>
       </c>
-      <c r="DK1" s="1">
+      <c r="FB1" s="1">
         <v>45200</v>
       </c>
-      <c r="DL1" s="1">
+      <c r="FC1" s="1">
         <v>45292</v>
       </c>
-      <c r="DM1" s="1">
+      <c r="FD1" s="1">
         <v>45383</v>
       </c>
-      <c r="DN1" s="1">
+      <c r="FE1" s="1">
         <v>45474</v>
       </c>
-      <c r="DO1" s="1">
+      <c r="FF1" s="1">
         <v>45566</v>
       </c>
-      <c r="DP1" s="1">
+      <c r="FG1" s="1">
         <v>45658</v>
       </c>
-      <c r="DQ1" s="1">
+      <c r="FH1" s="1">
         <v>45748</v>
       </c>
     </row>
-    <row r="2" spans="1:121">
+    <row r="2" spans="1:164">
       <c r="A2" s="1">
-        <v>34881</v>
+        <v>30956</v>
       </c>
       <c r="B2">
-        <v>0.6401426592241428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:121">
+        <v>0.5800442104986655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:164">
       <c r="A3" s="1">
-        <v>34973</v>
+        <v>31048</v>
       </c>
       <c r="B3">
-        <v>0.8533335613145069</v>
+        <v>1.653991347285219</v>
       </c>
       <c r="C3">
-        <v>0.5266667957441251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:121">
+        <v>1.782789416692813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:164">
       <c r="A4" s="1">
-        <v>35065</v>
+        <v>31138</v>
       </c>
       <c r="B4">
-        <v>0.7467381102693249</v>
+        <v>1.117017778891942</v>
       </c>
       <c r="C4">
-        <v>0.2567379619137522</v>
+        <v>1.310214883003333</v>
       </c>
       <c r="D4">
-        <v>-0.1513997253654748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:121">
+        <v>0.1537088278912822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:164">
       <c r="A5" s="1">
-        <v>35156</v>
+        <v>31229</v>
       </c>
       <c r="B5">
-        <v>0.800035835791916</v>
+        <v>1.38550456308858</v>
       </c>
       <c r="C5">
-        <v>0.3917023788289387</v>
+        <v>1.546502149848073</v>
       </c>
       <c r="D5">
-        <v>-0.2798352505399755</v>
+        <v>-0.1882569328200034</v>
       </c>
       <c r="E5">
-        <v>-0.2640753477522876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:121">
+        <v>0.2235169403701076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:164">
       <c r="A6" s="1">
-        <v>35247</v>
+        <v>31321</v>
       </c>
       <c r="B6">
-        <v>0.7733869730306204</v>
+        <v>1.251261170990261</v>
       </c>
       <c r="C6">
-        <v>0.3242201703713454</v>
+        <v>1.428358516425703</v>
       </c>
       <c r="D6">
-        <v>-0.2156174879527252</v>
+        <v>-0.01727405246436062</v>
       </c>
       <c r="E6">
-        <v>-0.3169782286978106</v>
+        <v>0.6003867573208059</v>
       </c>
       <c r="F6">
-        <v>0.504844752474134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:121">
+        <v>1.139692865703407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164">
       <c r="A7" s="1">
-        <v>35339</v>
+        <v>31413</v>
       </c>
       <c r="B7">
-        <v>0.7867114044112682</v>
+        <v>1.318382867039421</v>
       </c>
       <c r="C7">
-        <v>0.357961274600142</v>
+        <v>1.487430333136888</v>
       </c>
       <c r="D7">
-        <v>-0.2477263692463504</v>
+        <v>-0.102765492642182</v>
       </c>
       <c r="E7">
-        <v>-0.2905267882250491</v>
+        <v>0.4119518488454568</v>
       </c>
       <c r="F7">
-        <v>0.9947341471808635</v>
+        <v>1.220911011419358</v>
       </c>
       <c r="G7">
-        <v>1.133475278544638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:121">
+        <v>0.9550423447653338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164">
       <c r="A8" s="1">
-        <v>35431</v>
+        <v>31503</v>
       </c>
       <c r="B8">
-        <v>0.7800491887209443</v>
+        <v>1.284822019014841</v>
       </c>
       <c r="C8">
-        <v>0.3410907224857437</v>
+        <v>1.457894424781295</v>
       </c>
       <c r="D8">
-        <v>-0.2316719285995378</v>
+        <v>-0.06001977255327131</v>
       </c>
       <c r="E8">
-        <v>-0.3037525084614298</v>
+        <v>0.5061693030831314</v>
       </c>
       <c r="F8">
-        <v>0.7497894498274987</v>
+        <v>1.180301938561383</v>
       </c>
       <c r="G8">
-        <v>0.9715430715000479</v>
+        <v>0.7814989385803457</v>
       </c>
       <c r="H8">
-        <v>0.4109914905100568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:121">
+        <v>0.01910207558994503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:164">
       <c r="A9" s="1">
-        <v>35521</v>
+        <v>31594</v>
       </c>
       <c r="B9">
-        <v>0.7833802965661063</v>
+        <v>1.301602443027131</v>
       </c>
       <c r="C9">
-        <v>0.3495259985429429</v>
+        <v>1.472662378959092</v>
       </c>
       <c r="D9">
-        <v>-0.2396991489229441</v>
+        <v>-0.08139263259772665</v>
       </c>
       <c r="E9">
-        <v>-0.2971396483432395</v>
+        <v>0.4590605759642941</v>
       </c>
       <c r="F9">
-        <v>0.8722617985041812</v>
+        <v>1.200606474990371</v>
       </c>
       <c r="G9">
-        <v>1.052509175022343</v>
+        <v>0.8682706416728397</v>
       </c>
       <c r="H9">
-        <v>0.2443759940886188</v>
+        <v>-0.2753246528127612</v>
       </c>
       <c r="I9">
-        <v>0.2590304689838107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:121">
+        <v>0.2968225208873098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:164">
       <c r="A10" s="1">
-        <v>35612</v>
+        <v>31686</v>
       </c>
       <c r="B10">
-        <v>0.7817147426435254</v>
+        <v>1.293212231020986</v>
       </c>
       <c r="C10">
-        <v>0.3453083605143433</v>
+        <v>1.465278401870194</v>
       </c>
       <c r="D10">
-        <v>-0.2356855387612409</v>
+        <v>-0.07070620257549898</v>
       </c>
       <c r="E10">
-        <v>-0.3004460784023346</v>
+        <v>0.4826149395237127</v>
       </c>
       <c r="F10">
-        <v>0.81102562416584</v>
+        <v>1.190454206775877</v>
       </c>
       <c r="G10">
-        <v>1.012026123261196</v>
+        <v>0.8248847901265928</v>
       </c>
       <c r="H10">
-        <v>0.3276837422993378</v>
+        <v>-0.1281112886114081</v>
       </c>
       <c r="I10">
-        <v>0.3496654546421256</v>
+        <v>0.7301094719386985</v>
       </c>
       <c r="J10">
-        <v>0.6546750680543985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:121">
+        <v>0.950733570231741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:164">
       <c r="A11" s="1">
-        <v>35704</v>
+        <v>31778</v>
       </c>
       <c r="B11">
-        <v>0.7825475196048158</v>
+        <v>1.297407337024058</v>
       </c>
       <c r="C11">
-        <v>0.3474171795286431</v>
+        <v>1.468970390414643</v>
       </c>
       <c r="D11">
-        <v>-0.2376923438420925</v>
+        <v>-0.07604941758661282</v>
       </c>
       <c r="E11">
-        <v>-0.298792863372787</v>
+        <v>0.4708377577440034</v>
       </c>
       <c r="F11">
-        <v>0.8416437113350106</v>
+        <v>1.195530340883124</v>
       </c>
       <c r="G11">
-        <v>1.032267649141769</v>
+        <v>0.8465777158997163</v>
       </c>
       <c r="H11">
-        <v>0.2860298681939784</v>
+        <v>-0.2017179707120846</v>
       </c>
       <c r="I11">
-        <v>0.3043479618129682</v>
+        <v>0.5134659964130042</v>
       </c>
       <c r="J11">
-        <v>0.8325843276533162</v>
+        <v>0.844402143852568</v>
       </c>
       <c r="K11">
-        <v>0.8963072768758295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:121">
+        <v>0.8631570148961837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:164">
       <c r="A12" s="1">
-        <v>35796</v>
+        <v>31868</v>
       </c>
       <c r="C12">
-        <v>0.3463627700214932</v>
+        <v>1.467124396142418</v>
       </c>
       <c r="D12">
-        <v>-0.2366889413016667</v>
+        <v>-0.0733778100810559</v>
       </c>
       <c r="E12">
-        <v>-0.2996194708875608</v>
+        <v>0.476726348633858</v>
       </c>
       <c r="F12">
-        <v>0.8263346677504253</v>
+        <v>1.1929922738295</v>
       </c>
       <c r="G12">
-        <v>1.022146886201482</v>
+        <v>0.8357312530131545</v>
       </c>
       <c r="H12">
-        <v>0.3068568052466581</v>
+        <v>-0.1649146296617464</v>
       </c>
       <c r="I12">
-        <v>0.3270067082275469</v>
+        <v>0.6217877341758513</v>
       </c>
       <c r="J12">
-        <v>0.7436296978538574</v>
+        <v>0.8975678570421545</v>
       </c>
       <c r="K12">
-        <v>0.8392795681634853</v>
+        <v>0.9257001636075781</v>
       </c>
       <c r="L12">
-        <v>0.4927914526996163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:121">
+        <v>-0.7628380198992291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:164">
       <c r="A13" s="1">
-        <v>35886</v>
+        <v>31959</v>
       </c>
       <c r="D13">
-        <v>-0.2371906425718796</v>
+        <v>-0.07471361383383436</v>
       </c>
       <c r="E13">
-        <v>-0.2992061671301739</v>
+        <v>0.4737820531889307</v>
       </c>
       <c r="F13">
-        <v>0.8339891895427179</v>
+        <v>1.194261307356312</v>
       </c>
       <c r="G13">
-        <v>1.027207267671626</v>
+        <v>0.8411544844564354</v>
       </c>
       <c r="H13">
-        <v>0.2964433367203182</v>
+        <v>-0.1833163001869155</v>
       </c>
       <c r="I13">
-        <v>0.3156773350202575</v>
+        <v>0.5676268652944277</v>
       </c>
       <c r="J13">
-        <v>0.7881070127535867</v>
+        <v>0.8709850004473612</v>
       </c>
       <c r="K13">
-        <v>0.8677934225196573</v>
+        <v>0.8944285892518808</v>
       </c>
       <c r="L13">
-        <v>0.3864874227328907</v>
+        <v>-1.63837868600833</v>
       </c>
       <c r="M13">
-        <v>0.6289573203813391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:121">
+        <v>-0.1320029436253474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:164">
       <c r="A14" s="1">
-        <v>35977</v>
+        <v>32051</v>
       </c>
       <c r="E14">
-        <v>-0.2994128190088673</v>
+        <v>0.4752542009113944</v>
       </c>
       <c r="F14">
-        <v>0.8301619286465716</v>
+        <v>1.193626790592906</v>
       </c>
       <c r="G14">
-        <v>1.024677076936554</v>
+        <v>0.8384428687347949</v>
       </c>
       <c r="H14">
-        <v>0.3016500709834882</v>
+        <v>-0.1741154649243309</v>
       </c>
       <c r="I14">
-        <v>0.3213420216239022</v>
+        <v>0.5947072997351395</v>
       </c>
       <c r="J14">
-        <v>0.765868355303722</v>
+        <v>0.8842764287447578</v>
       </c>
       <c r="K14">
-        <v>0.8535364953415713</v>
+        <v>0.9100643764297295</v>
       </c>
       <c r="L14">
-        <v>0.4396394377162535</v>
+        <v>-1.200608352953779</v>
       </c>
       <c r="M14">
-        <v>0.790608675426831</v>
+        <v>1.058955260620694</v>
       </c>
       <c r="N14">
-        <v>0.7727312346850435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:121">
+        <v>1.480406969400192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:164">
       <c r="A15" s="1">
-        <v>36069</v>
+        <v>32143</v>
       </c>
       <c r="F15">
-        <v>0.8320755590946447</v>
+        <v>1.193944048974609</v>
       </c>
       <c r="G15">
-        <v>1.02594217230409</v>
+        <v>0.8397986765956151</v>
       </c>
       <c r="H15">
-        <v>0.2990467038519032</v>
+        <v>-0.1787158825556232</v>
       </c>
       <c r="I15">
-        <v>0.3185096783220799</v>
+        <v>0.5811670825147837</v>
       </c>
       <c r="J15">
-        <v>0.7769876840286544</v>
+        <v>0.8776307145960595</v>
       </c>
       <c r="K15">
-        <v>0.8606649589306143</v>
+        <v>0.9022464828408052</v>
       </c>
       <c r="L15">
-        <v>0.413063430224572</v>
+        <v>-1.419493519481055</v>
       </c>
       <c r="M15">
-        <v>0.7097829979040851</v>
+        <v>0.4634761584976735</v>
       </c>
       <c r="N15">
-        <v>0.4367751951623106</v>
+        <v>1.09565372166692</v>
       </c>
       <c r="O15">
-        <v>0.4535218834435705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:121">
+        <v>1.145366203353378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:164">
       <c r="A16" s="1">
-        <v>36161</v>
+        <v>32234</v>
       </c>
       <c r="G16">
-        <v>1.025309624620322</v>
+        <v>0.839120772665205</v>
       </c>
       <c r="H16">
-        <v>0.3003483874176957</v>
+        <v>-0.1764156737399771</v>
       </c>
       <c r="I16">
-        <v>0.3199258499729911</v>
+        <v>0.5879371911249616</v>
       </c>
       <c r="J16">
-        <v>0.7714280196661882</v>
+        <v>0.8809535716704087</v>
       </c>
       <c r="K16">
-        <v>0.8571007271360929</v>
+        <v>0.9061554296352674</v>
       </c>
       <c r="L16">
-        <v>0.4263514339704128</v>
+        <v>-1.310050936217417</v>
       </c>
       <c r="M16">
-        <v>0.750195836665458</v>
+        <v>0.7612157095591841</v>
       </c>
       <c r="N16">
-        <v>0.6047532149236771</v>
+        <v>1.288030345533556</v>
       </c>
       <c r="O16">
-        <v>0.6613792334829371</v>
+        <v>1.362599068063243</v>
       </c>
       <c r="P16">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1">
-        <v>36251</v>
+        <v>32325</v>
       </c>
       <c r="H17">
-        <v>0.2996975456347994</v>
+        <v>-0.1775657781478001</v>
       </c>
       <c r="I17">
-        <v>0.3192177641475354</v>
+        <v>0.5845521368198726</v>
       </c>
       <c r="J17">
-        <v>0.7742078518474214</v>
+        <v>0.8792921431332341</v>
       </c>
       <c r="K17">
-        <v>0.8588828430333536</v>
+        <v>0.9042009562380363</v>
       </c>
       <c r="L17">
-        <v>0.4197074320974924</v>
+        <v>-1.364772227849236</v>
       </c>
       <c r="M17">
-        <v>0.7299894172847715</v>
+        <v>0.6123459340284287</v>
       </c>
       <c r="N17">
-        <v>0.5207642050429938</v>
+        <v>1.191842033600238</v>
       </c>
       <c r="O17">
-        <v>0.5574505584632539</v>
+        <v>1.25398263570831</v>
       </c>
       <c r="P17">
-        <v>-0.06055438989470946</v>
+        <v>-0.275128052544647</v>
       </c>
       <c r="Q17">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1">
-        <v>36342</v>
+        <v>32417</v>
       </c>
       <c r="I18">
-        <v>0.3195718070602632</v>
+        <v>0.586244663972417</v>
       </c>
       <c r="J18">
-        <v>0.7728179357568048</v>
+        <v>0.8801228574018214</v>
       </c>
       <c r="K18">
-        <v>0.8579917850847232</v>
+        <v>0.9051781929366518</v>
       </c>
       <c r="L18">
-        <v>0.4230294330339526</v>
+        <v>-1.337411582033326</v>
       </c>
       <c r="M18">
-        <v>0.7400926269751147</v>
+        <v>0.6867808217938064</v>
       </c>
       <c r="N18">
-        <v>0.5627587099833354</v>
+        <v>1.239936189566897</v>
       </c>
       <c r="O18">
-        <v>0.6094148959730955</v>
+        <v>1.308290851885777</v>
       </c>
       <c r="P18">
-        <v>0.09662155187375546</v>
+        <v>0.03403194500831216</v>
       </c>
       <c r="Q18">
-        <v>0.2938052288496958</v>
+        <v>1.141412612461321</v>
       </c>
       <c r="R18">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1">
-        <v>36434</v>
+        <v>32509</v>
       </c>
       <c r="J19">
-        <v>0.7735128938021131</v>
+        <v>0.8797075002675278</v>
       </c>
       <c r="K19">
-        <v>0.8584373140590384</v>
+        <v>0.904689574587344</v>
       </c>
       <c r="L19">
-        <v>0.4213684325657225</v>
+        <v>-1.351091904941281</v>
       </c>
       <c r="M19">
-        <v>0.735041022129943</v>
+        <v>0.6495633779111176</v>
       </c>
       <c r="N19">
-        <v>0.5417614575131646</v>
+        <v>1.215889111583567</v>
       </c>
       <c r="O19">
-        <v>0.5834327272181747</v>
+        <v>1.281136743797044</v>
       </c>
       <c r="P19">
-        <v>0.018033580989523</v>
+        <v>-0.1205480537681674</v>
       </c>
       <c r="Q19">
-        <v>0.221581385077941</v>
+        <v>0.8022691691093399</v>
       </c>
       <c r="R19">
-        <v>0.1451397385481178</v>
+        <v>1.278830433079562</v>
       </c>
       <c r="S19">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1">
-        <v>36526</v>
+        <v>32599</v>
       </c>
       <c r="K20">
-        <v>0.8582145495718808</v>
+        <v>0.9049338837619979</v>
       </c>
       <c r="L20">
-        <v>0.4221989327998376</v>
+        <v>-1.344251743487304</v>
       </c>
       <c r="M20">
-        <v>0.7375668245525289</v>
+        <v>0.6681720998524621</v>
       </c>
       <c r="N20">
-        <v>0.5522600837482501</v>
+        <v>1.227912650575232</v>
       </c>
       <c r="O20">
-        <v>0.5964238115956351</v>
+        <v>1.29471379784141</v>
       </c>
       <c r="P20">
-        <v>0.05732756643163923</v>
+        <v>-0.04325805437992763</v>
       </c>
       <c r="Q20">
-        <v>0.2576933069638184</v>
+        <v>0.9718408907853304</v>
       </c>
       <c r="R20">
-        <v>0.1965186775403361</v>
+        <v>1.368975277427182</v>
       </c>
       <c r="S20">
-        <v>0.5652085762098784</v>
+        <v>1.174732493913138</v>
       </c>
       <c r="T20">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1">
-        <v>36617</v>
+        <v>32690</v>
       </c>
       <c r="L21">
-        <v>0.42178368268278</v>
+        <v>-1.347671824214292</v>
       </c>
       <c r="M21">
-        <v>0.736303923341236</v>
+        <v>0.6588677388817898</v>
       </c>
       <c r="N21">
-        <v>0.5470107706307074</v>
+        <v>1.2219008810794</v>
       </c>
       <c r="O21">
-        <v>0.5899282694069049</v>
+        <v>1.287925270819227</v>
       </c>
       <c r="P21">
-        <v>0.03768057371058112</v>
+        <v>-0.08190305407404752</v>
       </c>
       <c r="Q21">
-        <v>0.2396373460208797</v>
+        <v>0.8870550299473352</v>
       </c>
       <c r="R21">
-        <v>0.170829208044227</v>
+        <v>1.323902855253372</v>
       </c>
       <c r="S21">
-        <v>0.4886326403553836</v>
+        <v>1.162033868991669</v>
       </c>
       <c r="T21">
-        <v>0.7348434074988387</v>
+        <v>1.069263205169784</v>
       </c>
       <c r="U21">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1">
-        <v>36708</v>
+        <v>32782</v>
       </c>
       <c r="M22">
-        <v>0.7369353739468825</v>
+        <v>0.663519919367126</v>
       </c>
       <c r="N22">
-        <v>0.5496354271894788</v>
+        <v>1.224906765827316</v>
       </c>
       <c r="O22">
-        <v>0.59317604050127</v>
+        <v>1.291319534330318</v>
       </c>
       <c r="P22">
-        <v>0.04750407007111017</v>
+        <v>-0.06258055422698758</v>
       </c>
       <c r="Q22">
-        <v>0.2486653264923491</v>
+        <v>0.9294479603663328</v>
       </c>
       <c r="R22">
-        <v>0.1836739427922815</v>
+        <v>1.346439066340277</v>
       </c>
       <c r="S22">
-        <v>0.526920608282631</v>
+        <v>1.168383181452403</v>
       </c>
       <c r="T22">
-        <v>0.7567153730283596</v>
+        <v>1.091074294934166</v>
       </c>
       <c r="U22">
-        <v>0.6717893215577675</v>
+        <v>0.5657376675777759</v>
       </c>
       <c r="V22">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1">
-        <v>36800</v>
+        <v>32874</v>
       </c>
       <c r="N23">
-        <v>0.5483230989100931</v>
+        <v>1.223403823453358</v>
       </c>
       <c r="O23">
-        <v>0.5915521549540874</v>
+        <v>1.289622402574773</v>
       </c>
       <c r="P23">
-        <v>0.04259232189084564</v>
+        <v>-0.07224180415051755</v>
       </c>
       <c r="Q23">
-        <v>0.2441513362566144</v>
+        <v>0.908251495156834</v>
       </c>
       <c r="R23">
-        <v>0.1772515754182543</v>
+        <v>1.335170960796825</v>
       </c>
       <c r="S23">
-        <v>0.5077766243190073</v>
+        <v>1.165208525222036</v>
       </c>
       <c r="T23">
-        <v>0.7457793902635992</v>
+        <v>1.080168750051975</v>
       </c>
       <c r="U23">
-        <v>0.6778741691941992</v>
+        <v>0.6423882272549831</v>
       </c>
       <c r="V23">
-        <v>1.054246487276782</v>
+        <v>0.7784645872928038</v>
       </c>
       <c r="W23">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1">
-        <v>36892</v>
+        <v>32964</v>
       </c>
       <c r="O24">
-        <v>0.5923640977276787</v>
+        <v>1.290470968452545</v>
       </c>
       <c r="P24">
-        <v>0.04504819598097791</v>
+        <v>-0.06741117918875256</v>
       </c>
       <c r="Q24">
-        <v>0.2464083313744817</v>
+        <v>0.9188497277615835</v>
       </c>
       <c r="R24">
-        <v>0.1804627591052679</v>
+        <v>1.340805013568551</v>
       </c>
       <c r="S24">
-        <v>0.5173486163008192</v>
+        <v>1.16679585333722</v>
       </c>
       <c r="T24">
-        <v>0.7512473816459794</v>
+        <v>1.08562152249307</v>
       </c>
       <c r="U24">
-        <v>0.6748317453759833</v>
+        <v>0.6040629474163794</v>
       </c>
       <c r="V24">
-        <v>1.007226814764826</v>
+        <v>0.7174599141145634</v>
       </c>
       <c r="W24">
-        <v>0.7087762601347514</v>
+        <v>1.105813645460245</v>
       </c>
       <c r="X24">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1">
-        <v>36982</v>
+        <v>33055</v>
       </c>
       <c r="P25">
-        <v>0.04382025893591178</v>
+        <v>-0.06982649166963506</v>
       </c>
       <c r="Q25">
-        <v>0.2452798338155481</v>
+        <v>0.9135506114592087</v>
       </c>
       <c r="R25">
-        <v>0.1788571672617611</v>
+        <v>1.337987987182688</v>
       </c>
       <c r="S25">
-        <v>0.5125626203099132</v>
+        <v>1.166002189279628</v>
       </c>
       <c r="T25">
-        <v>0.7485133859547892</v>
+        <v>1.082895136272523</v>
       </c>
       <c r="U25">
-        <v>0.6763529572850913</v>
+        <v>0.6232255873356813</v>
       </c>
       <c r="V25">
-        <v>1.030736651020804</v>
+        <v>0.7479622507036836</v>
       </c>
       <c r="W25">
-        <v>0.7807361188262868</v>
+        <v>1.071590360158418</v>
       </c>
       <c r="X25">
-        <v>0.225536295748106</v>
+        <v>1.84881110786925</v>
       </c>
       <c r="Y25">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1">
-        <v>37073</v>
+        <v>33147</v>
       </c>
       <c r="Q26">
-        <v>0.2458440825950149</v>
+        <v>0.9162001696103961</v>
       </c>
       <c r="R26">
-        <v>0.1796599631835145</v>
+        <v>1.33939650037562</v>
       </c>
       <c r="S26">
-        <v>0.5149556183053662</v>
+        <v>1.166399021308424</v>
       </c>
       <c r="T26">
-        <v>0.7498803838003842</v>
+        <v>1.084258329382796</v>
       </c>
       <c r="U26">
-        <v>0.6755923513305373</v>
+        <v>0.6136442673760304</v>
       </c>
       <c r="V26">
-        <v>1.018981732892815</v>
+        <v>0.7327110824091235</v>
       </c>
       <c r="W26">
-        <v>0.744756189480519</v>
+        <v>1.088702002809331</v>
       </c>
       <c r="X26">
-        <v>0.2347700641179045</v>
+        <v>1.736385959235025</v>
       </c>
       <c r="Y26">
-        <v>0.3298207137893182</v>
+        <v>0.8822722342438082</v>
       </c>
       <c r="Z26">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="1">
-        <v>37165</v>
+        <v>33239</v>
       </c>
       <c r="R27">
-        <v>0.1792585652226378</v>
+        <v>1.338692243779154</v>
       </c>
       <c r="S27">
-        <v>0.5137591193076396</v>
+        <v>1.166200605294026</v>
       </c>
       <c r="T27">
-        <v>0.7491968848775867</v>
+        <v>1.083576732827659</v>
       </c>
       <c r="U27">
-        <v>0.6759726543078143</v>
+        <v>0.6184349273558558</v>
       </c>
       <c r="V27">
-        <v>1.024859191956809</v>
+        <v>0.7403366665564035</v>
       </c>
       <c r="W27">
-        <v>0.7627461541534029</v>
+        <v>1.080146181483875</v>
       </c>
       <c r="X27">
-        <v>0.2301531799330053</v>
+        <v>1.792598533552138</v>
       </c>
       <c r="Y27">
-        <v>0.3093620546591833</v>
+        <v>1.080837096059457</v>
       </c>
       <c r="Z27">
-        <v>0.0769698550409129</v>
+        <v>1.705473919747275</v>
       </c>
       <c r="AA27">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="1">
-        <v>37257</v>
+        <v>33329</v>
       </c>
       <c r="S28">
-        <v>0.5143573688065028</v>
+        <v>1.166299813301225</v>
       </c>
       <c r="T28">
-        <v>0.7495386343389855</v>
+        <v>1.083917531105228</v>
       </c>
       <c r="U28">
-        <v>0.6757825028191757</v>
+        <v>0.6160395973659432</v>
       </c>
       <c r="V28">
-        <v>1.021920462424812</v>
+        <v>0.7365238744827636</v>
       </c>
       <c r="W28">
-        <v>0.7537511718169609</v>
+        <v>1.084424092146603</v>
       </c>
       <c r="X28">
-        <v>0.2324616220254549</v>
+        <v>1.764492246393581</v>
       </c>
       <c r="Y28">
-        <v>0.3195913842242507</v>
+        <v>0.9815546651516327</v>
       </c>
       <c r="Z28">
-        <v>0.1305681326873131</v>
+        <v>1.502085351558148</v>
       </c>
       <c r="AA28">
-        <v>-0.1133821134826466</v>
+        <v>1.857849998073919</v>
       </c>
       <c r="AB28">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="1">
-        <v>37347</v>
+        <v>33420</v>
       </c>
       <c r="T29">
-        <v>0.7493677596082862</v>
+        <v>1.083747131966444</v>
       </c>
       <c r="U29">
-        <v>0.675877578563495</v>
+        <v>0.6172372623608995</v>
       </c>
       <c r="V29">
-        <v>1.023389827190811</v>
+        <v>0.7384302705195835</v>
       </c>
       <c r="W29">
-        <v>0.7582486629851819</v>
+        <v>1.082285136815239</v>
       </c>
       <c r="X29">
-        <v>0.2313074009792301</v>
+        <v>1.77854538997286</v>
       </c>
       <c r="Y29">
-        <v>0.314476719441717</v>
+        <v>1.031195880605545</v>
       </c>
       <c r="Z29">
-        <v>0.103768993864113</v>
+        <v>1.603779635652712</v>
       </c>
       <c r="AA29">
-        <v>-0.09952287794418677</v>
+        <v>1.900250174415854</v>
       </c>
       <c r="AB29">
-        <v>-0.2324764069694901</v>
+        <v>2.51207774235798</v>
       </c>
       <c r="AC29">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="1">
-        <v>37438</v>
+        <v>33512</v>
       </c>
       <c r="U30">
-        <v>0.6758300406913353</v>
+        <v>0.6166384298634213</v>
       </c>
       <c r="V30">
-        <v>1.022655144807811</v>
+        <v>0.7374770725011736</v>
       </c>
       <c r="W30">
-        <v>0.7559999174010714</v>
+        <v>1.083354614480921</v>
       </c>
       <c r="X30">
-        <v>0.2318845115023425</v>
+        <v>1.77151881818322</v>
       </c>
       <c r="Y30">
-        <v>0.3170340518329838</v>
+        <v>1.006375272878589</v>
       </c>
       <c r="Z30">
-        <v>0.1171685632757131</v>
+        <v>1.55293249360543</v>
       </c>
       <c r="AA30">
-        <v>-0.1064524957134167</v>
+        <v>1.879050086244887</v>
       </c>
       <c r="AB30">
-        <v>-0.2215959663864384</v>
+        <v>2.388906392863325</v>
       </c>
       <c r="AC30">
-        <v>0.0638833287732315</v>
+        <v>1.524817966271419</v>
       </c>
       <c r="AD30">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1">
-        <v>37530</v>
+        <v>33604</v>
       </c>
       <c r="V31">
-        <v>1.023022485999311</v>
+        <v>0.7379536715103785</v>
       </c>
       <c r="W31">
-        <v>0.7571242901931267</v>
+        <v>1.08281987564808</v>
       </c>
       <c r="X31">
-        <v>0.2315959562407863</v>
+        <v>1.77503210407804</v>
       </c>
       <c r="Y31">
-        <v>0.3157553856373504</v>
+        <v>1.018785576742067</v>
       </c>
       <c r="Z31">
-        <v>0.110468778569913</v>
+        <v>1.578356064629071</v>
       </c>
       <c r="AA31">
-        <v>-0.1029876868288017</v>
+        <v>1.889650130330371</v>
       </c>
       <c r="AB31">
-        <v>-0.2270361866779643</v>
+        <v>2.450492067610653</v>
       </c>
       <c r="AC31">
-        <v>0.010863225955094</v>
+        <v>1.730418378784065</v>
       </c>
       <c r="AD31">
-        <v>0.2751082404448018</v>
+        <v>-0.1711983913927853</v>
       </c>
       <c r="AE31">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1">
-        <v>37622</v>
+        <v>33695</v>
       </c>
       <c r="W32">
-        <v>0.7565621037970991</v>
+        <v>1.083087245064501</v>
       </c>
       <c r="X32">
-        <v>0.2317402338715644</v>
+        <v>1.77327546113063</v>
       </c>
       <c r="Y32">
-        <v>0.3163947187351671</v>
+        <v>1.012580424810328</v>
       </c>
       <c r="Z32">
-        <v>0.1138186709228131</v>
+        <v>1.56564427911725</v>
       </c>
       <c r="AA32">
-        <v>-0.1047200912711092</v>
+        <v>1.884350108287629</v>
       </c>
       <c r="AB32">
-        <v>-0.2243160765322013</v>
+        <v>2.419699230236989</v>
       </c>
       <c r="AC32">
-        <v>0.03737327736416275</v>
+        <v>1.627618172527742</v>
       </c>
       <c r="AD32">
-        <v>0.2764693095393227</v>
+        <v>0.04293753071370045</v>
       </c>
       <c r="AE32">
-        <v>0.2387903651556644</v>
+        <v>0.5023063541420429</v>
       </c>
       <c r="AF32">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="1">
-        <v>37712</v>
+        <v>33786</v>
       </c>
       <c r="X33">
-        <v>0.2316680950561753</v>
+        <v>1.774153782604335</v>
       </c>
       <c r="Y33">
-        <v>0.3160750521862588</v>
+        <v>1.015683000776197</v>
       </c>
       <c r="Z33">
-        <v>0.1121437247463631</v>
+        <v>1.57200017187316</v>
       </c>
       <c r="AA33">
-        <v>-0.1038538890499555</v>
+        <v>1.887000119309</v>
       </c>
       <c r="AB33">
-        <v>-0.2256761316050828</v>
+        <v>2.435095648923821</v>
       </c>
       <c r="AC33">
-        <v>0.02411825165962838</v>
+        <v>1.679018275655904</v>
       </c>
       <c r="AD33">
-        <v>0.2757887749920622</v>
+        <v>-0.06413043033954241</v>
       </c>
       <c r="AE33">
-        <v>0.2242129063571066</v>
+        <v>0.3186769225174096</v>
       </c>
       <c r="AF33">
-        <v>0.05244773721118953</v>
+        <v>1.228931905015229</v>
       </c>
       <c r="AG33">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="1">
-        <v>37803</v>
+        <v>33878</v>
       </c>
       <c r="Y34">
-        <v>0.3162348854607129</v>
+        <v>1.014131712793263</v>
       </c>
       <c r="Z34">
-        <v>0.1129811978345881</v>
+        <v>1.568822225495205</v>
       </c>
       <c r="AA34">
-        <v>-0.1042869901605323</v>
+        <v>1.885675113798314</v>
       </c>
       <c r="AB34">
-        <v>-0.2249961040686421</v>
+        <v>2.427397439580405</v>
       </c>
       <c r="AC34">
-        <v>0.03074576451189556</v>
+        <v>1.653318224091823</v>
       </c>
       <c r="AD34">
-        <v>0.2761290422656925</v>
+        <v>-0.01059644981292098</v>
       </c>
       <c r="AE34">
-        <v>0.2315016357563855</v>
+        <v>0.4104916383297263</v>
       </c>
       <c r="AF34">
-        <v>0.09473747588406395</v>
+        <v>1.169037457077909</v>
       </c>
       <c r="AG34">
-        <v>-0.1782854511548901</v>
+        <v>0.3063117683388086</v>
       </c>
       <c r="AH34">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="1">
-        <v>37895</v>
+        <v>33970</v>
       </c>
       <c r="Z35">
-        <v>0.1125624612904756</v>
+        <v>1.570411198684183</v>
       </c>
       <c r="AA35">
-        <v>-0.1040704396052439</v>
+        <v>1.886337616553657</v>
       </c>
       <c r="AB35">
-        <v>-0.2253361178368624</v>
+        <v>2.431246544252113</v>
       </c>
       <c r="AC35">
-        <v>0.02743200808576197</v>
+        <v>1.666168249873863</v>
       </c>
       <c r="AD35">
-        <v>0.2759589086288773</v>
+        <v>-0.0373634400762317</v>
       </c>
       <c r="AE35">
-        <v>0.227857271056746</v>
+        <v>0.3645842804235679</v>
       </c>
       <c r="AF35">
-        <v>0.07359260654762674</v>
+        <v>1.198984681046569</v>
       </c>
       <c r="AG35">
-        <v>-0.1539264993181683</v>
+        <v>0.4800466070973187</v>
       </c>
       <c r="AH35">
-        <v>-0.106900804249073</v>
+        <v>-0.1235203309865541</v>
       </c>
       <c r="AI35">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="1">
-        <v>37987</v>
+        <v>34060</v>
       </c>
       <c r="AA36">
-        <v>-0.1041787148828881</v>
+        <v>1.886006365175986</v>
       </c>
       <c r="AB36">
-        <v>-0.2251661109527522</v>
+        <v>2.429321991916259</v>
       </c>
       <c r="AC36">
-        <v>0.02908888629882877</v>
+        <v>1.659743236982843</v>
       </c>
       <c r="AD36">
-        <v>0.2760439754472849</v>
+        <v>-0.02397994494457634</v>
       </c>
       <c r="AE36">
-        <v>0.2296794534065658</v>
+        <v>0.3875379593766471</v>
       </c>
       <c r="AF36">
-        <v>0.08416504121584534</v>
+        <v>1.184011069062239</v>
       </c>
       <c r="AG36">
-        <v>-0.1661059752365292</v>
+        <v>0.3931791877180637</v>
       </c>
       <c r="AH36">
-        <v>-0.1291922959303458</v>
+        <v>-0.1097932606851637</v>
       </c>
       <c r="AI36">
-        <v>0.1238985445456072</v>
+        <v>-0.140836401402502</v>
       </c>
       <c r="AJ36">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1">
-        <v>38078</v>
+        <v>34151</v>
       </c>
       <c r="AB37">
-        <v>-0.2252511143948073</v>
+        <v>2.430284268084186</v>
       </c>
       <c r="AC37">
-        <v>0.02826044719229537</v>
+        <v>1.662955743428353</v>
       </c>
       <c r="AD37">
-        <v>0.2760014420380811</v>
+        <v>-0.03067169251040402</v>
       </c>
       <c r="AE37">
-        <v>0.2287683622316559</v>
+        <v>0.3760611199001075</v>
       </c>
       <c r="AF37">
-        <v>0.07887882388173603</v>
+        <v>1.191497875054404</v>
       </c>
       <c r="AG37">
-        <v>-0.1600162372773488</v>
+        <v>0.4366128974076912</v>
       </c>
       <c r="AH37">
-        <v>-0.1180465500897094</v>
+        <v>-0.1166567958358589</v>
       </c>
       <c r="AI37">
-        <v>0.07611038125140182</v>
+        <v>-0.1425260797669742</v>
       </c>
       <c r="AJ37">
-        <v>0.2110992836877943</v>
+        <v>-1.376415190280561</v>
       </c>
       <c r="AK37">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1">
-        <v>38169</v>
+        <v>34243</v>
       </c>
       <c r="AC38">
-        <v>0.02867466674556206</v>
+        <v>1.661349490205598</v>
       </c>
       <c r="AD38">
-        <v>0.276022708742683</v>
+        <v>-0.02732581872749018</v>
       </c>
       <c r="AE38">
-        <v>0.2292239078191108</v>
+        <v>0.3817995396383773</v>
       </c>
       <c r="AF38">
-        <v>0.08152193254879068</v>
+        <v>1.187754472058322</v>
       </c>
       <c r="AG38">
-        <v>-0.163061106256939</v>
+        <v>0.4148960425628775</v>
       </c>
       <c r="AH38">
-        <v>-0.1236194230100276</v>
+        <v>-0.1132250282605113</v>
       </c>
       <c r="AI38">
-        <v>0.1000044628985045</v>
+        <v>-0.1416812405847381</v>
       </c>
       <c r="AJ38">
-        <v>0.2091393300491075</v>
+        <v>-1.169922166012727</v>
       </c>
       <c r="AK38">
-        <v>0.3950732219757438</v>
+        <v>0.02567001265053659</v>
       </c>
       <c r="AL38">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1">
-        <v>38261</v>
+        <v>34335</v>
       </c>
       <c r="AD39">
-        <v>0.276012075390382</v>
+        <v>-0.0289987556189471</v>
       </c>
       <c r="AE39">
-        <v>0.2289961350253834</v>
+        <v>0.3789303297692425</v>
       </c>
       <c r="AF39">
-        <v>0.08020037821526335</v>
+        <v>1.189626173556363</v>
       </c>
       <c r="AG39">
-        <v>-0.1615386717671439</v>
+        <v>0.4257544699852843</v>
       </c>
       <c r="AH39">
-        <v>-0.1208329865498685</v>
+        <v>-0.1149409120481851</v>
       </c>
       <c r="AI39">
-        <v>0.08805742207495318</v>
+        <v>-0.1421036601758561</v>
       </c>
       <c r="AJ39">
-        <v>0.2101193068684509</v>
+        <v>-1.273168678146644</v>
       </c>
       <c r="AK39">
-        <v>0.3731093719124238</v>
+        <v>-0.2768418625939243</v>
       </c>
       <c r="AL39">
-        <v>0.4639212446633175</v>
+        <v>0.7008489282500356</v>
       </c>
       <c r="AM39">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="1">
-        <v>38353</v>
+        <v>34425</v>
       </c>
       <c r="AE40">
-        <v>0.2291100214222471</v>
+        <v>0.3803649347038099</v>
       </c>
       <c r="AF40">
-        <v>0.08086115538202701</v>
+        <v>1.188690322807342</v>
       </c>
       <c r="AG40">
-        <v>-0.1622998890120414</v>
+        <v>0.4203252562740809</v>
       </c>
       <c r="AH40">
-        <v>-0.122226204779948</v>
+        <v>-0.1140829701543482</v>
       </c>
       <c r="AI40">
-        <v>0.09403094248672886</v>
+        <v>-0.1418924503802971</v>
       </c>
       <c r="AJ40">
-        <v>0.2096293184587792</v>
+        <v>-1.221545422079686</v>
       </c>
       <c r="AK40">
-        <v>0.3840912969440838</v>
+        <v>-0.1255859249716939</v>
       </c>
       <c r="AL40">
-        <v>0.4581576271132333</v>
+        <v>0.6891564007316061</v>
       </c>
       <c r="AM40">
-        <v>0.1779846747513269</v>
+        <v>0.03587044272437677</v>
       </c>
       <c r="AN40">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="1">
-        <v>38443</v>
+        <v>34516</v>
       </c>
       <c r="AF41">
-        <v>0.08053076679864518</v>
+        <v>1.189158248181853</v>
       </c>
       <c r="AG41">
-        <v>-0.1619192803895926</v>
+        <v>0.4230398631296826</v>
       </c>
       <c r="AH41">
-        <v>-0.1215295956649083</v>
+        <v>-0.1145119411012666</v>
       </c>
       <c r="AI41">
-        <v>0.09104418228084102</v>
+        <v>-0.1419980552780766</v>
       </c>
       <c r="AJ41">
-        <v>0.2098743126636151</v>
+        <v>-1.247357050113165</v>
       </c>
       <c r="AK41">
-        <v>0.3786003344282538</v>
+        <v>-0.2012138937828091</v>
       </c>
       <c r="AL41">
-        <v>0.4610394358882754</v>
+        <v>0.6950026644908209</v>
       </c>
       <c r="AM41">
-        <v>0.2172406150315963</v>
+        <v>0.1505976994847965</v>
       </c>
       <c r="AN41">
-        <v>-0.1690621918602297</v>
+        <v>0.8348126273549168</v>
       </c>
       <c r="AO41">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="1">
-        <v>38534</v>
+        <v>34608</v>
       </c>
       <c r="AG42">
-        <v>-0.162109584700817</v>
+        <v>0.4216825597018817</v>
       </c>
       <c r="AH42">
-        <v>-0.1218779002224281</v>
+        <v>-0.1142974556278074</v>
       </c>
       <c r="AI42">
-        <v>0.09253756238378494</v>
+        <v>-0.1419452528291869</v>
       </c>
       <c r="AJ42">
-        <v>0.2097518155611972</v>
+        <v>-1.234451236096425</v>
       </c>
       <c r="AK42">
-        <v>0.3813458156861688</v>
+        <v>-0.1633999093772515</v>
       </c>
       <c r="AL42">
-        <v>0.4595985315007544</v>
+        <v>0.6920795326112135</v>
       </c>
       <c r="AM42">
-        <v>0.1976126448914616</v>
+        <v>0.09323407110458662</v>
       </c>
       <c r="AN42">
-        <v>-0.1372378966572215</v>
+        <v>0.6634131776630202</v>
       </c>
       <c r="AO42">
-        <v>0.7489732132872778</v>
+        <v>1.218680575783001</v>
       </c>
       <c r="AP42">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="1">
-        <v>38626</v>
+        <v>34700</v>
       </c>
       <c r="AH43">
-        <v>-0.1217037479436682</v>
+        <v>-0.114404698364537</v>
       </c>
       <c r="AI43">
-        <v>0.09179087233231298</v>
+        <v>-0.1419716540536318</v>
       </c>
       <c r="AJ43">
-        <v>0.2098130641124061</v>
+        <v>-1.240904143104795</v>
       </c>
       <c r="AK43">
-        <v>0.3799730750572113</v>
+        <v>-0.1823069015800303</v>
       </c>
       <c r="AL43">
-        <v>0.4603189836945148</v>
+        <v>0.6935410985510172</v>
       </c>
       <c r="AM43">
-        <v>0.2074266299615289</v>
+        <v>0.1219158852946915</v>
       </c>
       <c r="AN43">
-        <v>-0.1531500442587256</v>
+        <v>0.7491129025089684</v>
       </c>
       <c r="AO43">
-        <v>0.6014067364024267</v>
+        <v>1.211835734275619</v>
       </c>
       <c r="AP43">
-        <v>0.1954295528814108</v>
+        <v>0.7747502138269877</v>
       </c>
       <c r="AQ43">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1">
-        <v>38718</v>
+        <v>34790</v>
       </c>
       <c r="AI44">
-        <v>0.09216421735804896</v>
+        <v>-0.1419584534414093</v>
       </c>
       <c r="AJ44">
-        <v>0.2097824398368016</v>
+        <v>-1.23767768960061</v>
       </c>
       <c r="AK44">
-        <v>0.3806594453716901</v>
+        <v>-0.1728534054786409</v>
       </c>
       <c r="AL44">
-        <v>0.4599587575976346</v>
+        <v>0.6928103155811154</v>
       </c>
       <c r="AM44">
-        <v>0.2025196374264953</v>
+        <v>0.1075749781996391</v>
       </c>
       <c r="AN44">
-        <v>-0.1451939704579736</v>
+        <v>0.7062630400859944</v>
       </c>
       <c r="AO44">
-        <v>0.6751899748448522</v>
+        <v>1.21525815502931</v>
       </c>
       <c r="AP44">
-        <v>0.2882937278475308</v>
+        <v>0.8510202213221172</v>
       </c>
       <c r="AQ44">
-        <v>0.5212103711705466</v>
+        <v>0.6193245620764438</v>
       </c>
       <c r="AR44">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="1">
-        <v>38808</v>
+        <v>34881</v>
       </c>
       <c r="AJ45">
-        <v>0.2097977519746039</v>
+        <v>-1.239290916352703</v>
       </c>
       <c r="AK45">
-        <v>0.3803162602144507</v>
+        <v>-0.1775801535293356</v>
       </c>
       <c r="AL45">
-        <v>0.4601388706460747</v>
+        <v>0.6931757070660662</v>
       </c>
       <c r="AM45">
-        <v>0.2049731336940121</v>
+        <v>0.1147454317471653</v>
       </c>
       <c r="AN45">
-        <v>-0.1491720073583496</v>
+        <v>0.7276879712974814</v>
       </c>
       <c r="AO45">
-        <v>0.6382983556236395</v>
+        <v>1.213546944652464</v>
       </c>
       <c r="AP45">
-        <v>0.2418616403644708</v>
+        <v>0.8128852175745525</v>
       </c>
       <c r="AQ45">
-        <v>0.4715877331978943</v>
+        <v>0.6198055015364914</v>
       </c>
       <c r="AR45">
-        <v>0.162182854513893</v>
+        <v>0.3149113120716482</v>
       </c>
       <c r="AS45">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1">
-        <v>38899</v>
+        <v>34973</v>
       </c>
       <c r="AK46">
-        <v>0.3804878527930704</v>
+        <v>-0.1752167795039883</v>
       </c>
       <c r="AL46">
-        <v>0.4600488141218547</v>
+        <v>0.6929930113235908</v>
       </c>
       <c r="AM46">
-        <v>0.2037463855602537</v>
+        <v>0.1111602049734022</v>
       </c>
       <c r="AN46">
-        <v>-0.1471829889081616</v>
+        <v>0.716975505691738</v>
       </c>
       <c r="AO46">
-        <v>0.6567441652342458</v>
+        <v>1.214402549840887</v>
       </c>
       <c r="AP46">
-        <v>0.2650776841060008</v>
+        <v>0.8319527194483348</v>
       </c>
       <c r="AQ46">
-        <v>0.4963990521842204</v>
+        <v>0.6195650318064676</v>
       </c>
       <c r="AR46">
-        <v>0.2384614990198504</v>
+        <v>0.365486540585765</v>
       </c>
       <c r="AS46">
-        <v>0.2764159603736306</v>
+        <v>0.8533335613145069</v>
       </c>
       <c r="AT46">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>38991</v>
+        <v>35065</v>
       </c>
       <c r="AL47">
-        <v>0.4600938423839647</v>
+        <v>0.6930843591948286</v>
       </c>
       <c r="AM47">
-        <v>0.2043597596271329</v>
+        <v>0.1129528183602838</v>
       </c>
       <c r="AN47">
-        <v>-0.1481774981332556</v>
+        <v>0.7223317384946097</v>
       </c>
       <c r="AO47">
-        <v>0.6475212604289426</v>
+        <v>1.213974747246676</v>
       </c>
       <c r="AP47">
-        <v>0.2534696622352358</v>
+        <v>0.8224189685114436</v>
       </c>
       <c r="AQ47">
-        <v>0.4839933926910573</v>
+        <v>0.6196852666714795</v>
       </c>
       <c r="AR47">
-        <v>0.2003221767668717</v>
+        <v>0.3401989263287066</v>
       </c>
       <c r="AS47">
-        <v>0.2319491977472571</v>
+        <v>0.7467381102693249</v>
       </c>
       <c r="AT47">
-        <v>0.844691530107063</v>
+        <v>0.2567379619137522</v>
       </c>
       <c r="AU47">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="1">
-        <v>39083</v>
+        <v>35156</v>
       </c>
       <c r="AM48">
-        <v>0.2040530725936933</v>
+        <v>0.112056511666843</v>
       </c>
       <c r="AN48">
-        <v>-0.1476802435207086</v>
+        <v>0.7196536220931739</v>
       </c>
       <c r="AO48">
-        <v>0.6521327128315942</v>
+        <v>1.214188648543781</v>
       </c>
       <c r="AP48">
-        <v>0.2592736731706183</v>
+        <v>0.8271858439798891</v>
       </c>
       <c r="AQ48">
-        <v>0.4901962224376389</v>
+        <v>0.6196251492389735</v>
       </c>
       <c r="AR48">
-        <v>0.219391837893361</v>
+        <v>0.3528427334572358</v>
       </c>
       <c r="AS48">
-        <v>0.2541825790604439</v>
+        <v>0.800035835791916</v>
       </c>
       <c r="AT48">
-        <v>0.8165004853446378</v>
+        <v>0.3917023788289387</v>
       </c>
       <c r="AU48">
-        <v>0.74405834374321</v>
+        <v>-0.2798352505399755</v>
       </c>
       <c r="AV48">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
     </row>
     <row r="49" spans="1:64">
       <c r="A49" s="1">
-        <v>39173</v>
+        <v>35247</v>
       </c>
       <c r="AN49">
-        <v>-0.1479288708269821</v>
+        <v>0.7209926802938917</v>
       </c>
       <c r="AO49">
-        <v>0.6498269866302684</v>
+        <v>1.214081697895228</v>
       </c>
       <c r="AP49">
-        <v>0.2563716677029271</v>
+        <v>0.8248024062456664</v>
       </c>
       <c r="AQ49">
-        <v>0.4870948075643481</v>
+        <v>0.6196552079552264</v>
       </c>
       <c r="AR49">
-        <v>0.2098570073301164</v>
+        <v>0.3465208298929712</v>
       </c>
       <c r="AS49">
-        <v>0.2430658884038505</v>
+        <v>0.7733869730306204</v>
       </c>
       <c r="AT49">
-        <v>0.8305960077258504</v>
+        <v>0.3242201703713454</v>
       </c>
       <c r="AU49">
-        <v>0.7987625179829112</v>
+        <v>-0.2156174879527252</v>
       </c>
       <c r="AV49">
-        <v>0.8508954175013754</v>
+        <v>-0.3169782286978106</v>
       </c>
       <c r="AW49">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
     </row>
     <row r="50" spans="1:64">
       <c r="A50" s="1">
-        <v>39264</v>
+        <v>35339</v>
       </c>
       <c r="AO50">
-        <v>0.6509798497309314</v>
+        <v>1.214135173219505</v>
       </c>
       <c r="AP50">
-        <v>0.2578226704367727</v>
+        <v>0.8259941251127778</v>
       </c>
       <c r="AQ50">
-        <v>0.4886455150009935</v>
+        <v>0.6196401785971</v>
       </c>
       <c r="AR50">
-        <v>0.2146244226117387</v>
+        <v>0.3496817816751036</v>
       </c>
       <c r="AS50">
-        <v>0.2486242337321472</v>
+        <v>0.7867114044112682</v>
       </c>
       <c r="AT50">
-        <v>0.8235482465352442</v>
+        <v>0.357961274600142</v>
       </c>
       <c r="AU50">
-        <v>0.7714104308630606</v>
+        <v>-0.2477263692463504</v>
       </c>
       <c r="AV50">
-        <v>0.8399282975331487</v>
+        <v>-0.2905267882250491</v>
       </c>
       <c r="AW50">
-        <v>0.6291405647034829</v>
+        <v>0.9947341471808635</v>
       </c>
       <c r="AX50">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
     </row>
     <row r="51" spans="1:64">
       <c r="A51" s="1">
-        <v>39356</v>
+        <v>35431</v>
       </c>
       <c r="AP51">
-        <v>0.2570971690698499</v>
+        <v>0.825398265679222</v>
       </c>
       <c r="AQ51">
-        <v>0.4878701612826708</v>
+        <v>0.6196476932761632</v>
       </c>
       <c r="AR51">
-        <v>0.2122407149709275</v>
+        <v>0.3481013057840374</v>
       </c>
       <c r="AS51">
-        <v>0.2458450610679989</v>
+        <v>0.7800491887209443</v>
       </c>
       <c r="AT51">
-        <v>0.8270721271305472</v>
+        <v>0.3410907224857437</v>
       </c>
       <c r="AU51">
-        <v>0.785086474422986</v>
+        <v>-0.2316719285995378</v>
       </c>
       <c r="AV51">
-        <v>0.845411857517262</v>
+        <v>-0.3037525084614298</v>
       </c>
       <c r="AW51">
-        <v>0.6883719426912517</v>
+        <v>0.7497894498274987</v>
       </c>
       <c r="AX51">
-        <v>0.3294591916848381</v>
+        <v>0.9715430715000479</v>
       </c>
       <c r="AY51">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
     </row>
     <row r="52" spans="1:64">
       <c r="A52" s="1">
-        <v>39448</v>
+        <v>35521</v>
       </c>
       <c r="AQ52">
-        <v>0.4882578381418322</v>
+        <v>0.6196439359366316</v>
       </c>
       <c r="AR52">
-        <v>0.2134325687913331</v>
+        <v>0.3488915437295705</v>
       </c>
       <c r="AS52">
-        <v>0.247234647400073</v>
+        <v>0.7833802965661063</v>
       </c>
       <c r="AT52">
-        <v>0.8253101868328957</v>
+        <v>0.3495259985429429</v>
       </c>
       <c r="AU52">
-        <v>0.7782484526430233</v>
+        <v>-0.2396991489229441</v>
       </c>
       <c r="AV52">
-        <v>0.8426700775252054</v>
+        <v>-0.2971396483432395</v>
       </c>
       <c r="AW52">
-        <v>0.6587562536973672</v>
+        <v>0.8722617985041812</v>
       </c>
       <c r="AX52">
-        <v>0.3645471540426747</v>
+        <v>1.052509175022343</v>
       </c>
       <c r="AY52">
-        <v>0.5774281872050296</v>
+        <v>0.2443759940886188</v>
       </c>
       <c r="AZ52">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
     </row>
     <row r="53" spans="1:64">
       <c r="A53" s="1">
-        <v>39539</v>
+        <v>35612</v>
       </c>
       <c r="AR53">
-        <v>0.2128366418811303</v>
+        <v>0.348496424756804</v>
       </c>
       <c r="AS53">
-        <v>0.246539854234036</v>
+        <v>0.7817147426435254</v>
       </c>
       <c r="AT53">
-        <v>0.8261911569817215</v>
+        <v>0.3453083605143433</v>
       </c>
       <c r="AU53">
-        <v>0.7816674635330046</v>
+        <v>-0.2356855387612409</v>
       </c>
       <c r="AV53">
-        <v>0.8440409675212337</v>
+        <v>-0.3004460784023346</v>
       </c>
       <c r="AW53">
-        <v>0.6735640981943094</v>
+        <v>0.81102562416584</v>
       </c>
       <c r="AX53">
-        <v>0.3470031728637564</v>
+        <v>1.012026123261196</v>
       </c>
       <c r="AY53">
-        <v>0.5244040338323855</v>
+        <v>0.3276837422993378</v>
       </c>
       <c r="AZ53">
-        <v>0.3657769696641097</v>
+        <v>0.3496654546421256</v>
       </c>
       <c r="BA53">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
     </row>
     <row r="54" spans="1:64">
       <c r="A54" s="1">
-        <v>39630</v>
+        <v>35704</v>
       </c>
       <c r="AS54">
-        <v>0.2468872508170545</v>
+        <v>0.7825475196048158</v>
       </c>
       <c r="AT54">
-        <v>0.8257506719073087</v>
+        <v>0.3474171795286431</v>
       </c>
       <c r="AU54">
-        <v>0.779957958088014</v>
+        <v>-0.2376923438420925</v>
       </c>
       <c r="AV54">
-        <v>0.8433555225232195</v>
+        <v>-0.298792863372787</v>
       </c>
       <c r="AW54">
-        <v>0.6661601759458383</v>
+        <v>0.8416437113350106</v>
       </c>
       <c r="AX54">
-        <v>0.3557751634532155</v>
+        <v>1.032267649141769</v>
       </c>
       <c r="AY54">
-        <v>0.5509161105187076</v>
+        <v>0.2860298681939784</v>
       </c>
       <c r="AZ54">
-        <v>0.4156379315603818</v>
+        <v>0.3043479618129682</v>
       </c>
       <c r="BA54">
-        <v>1.212547250350672</v>
+        <v>0.8325843276533162</v>
       </c>
       <c r="BB54">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
     </row>
     <row r="55" spans="1:64">
       <c r="A55" s="1">
-        <v>39722</v>
+        <v>35796</v>
       </c>
       <c r="AT55">
-        <v>0.8259709144445151</v>
+        <v>0.3463627700214932</v>
       </c>
       <c r="AU55">
-        <v>0.7808127108105094</v>
+        <v>-0.2366889413016667</v>
       </c>
       <c r="AV55">
-        <v>0.8436982450222266</v>
+        <v>-0.2996194708875608</v>
       </c>
       <c r="AW55">
-        <v>0.6698621370700739</v>
+        <v>0.8263346677504253</v>
       </c>
       <c r="AX55">
-        <v>0.351389168158486</v>
+        <v>1.022146886201482</v>
       </c>
       <c r="AY55">
-        <v>0.5376600721755466</v>
+        <v>0.3068568052466581</v>
       </c>
       <c r="AZ55">
-        <v>0.3907074506122458</v>
+        <v>0.3270067082275469</v>
       </c>
       <c r="BA55">
-        <v>1.054798549604154</v>
+        <v>0.7436296978538574</v>
       </c>
       <c r="BB55">
-        <v>-0.05461585190805693</v>
+        <v>0.8392795681634853</v>
       </c>
       <c r="BC55">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
     </row>
     <row r="56" spans="1:64">
       <c r="A56" s="1">
-        <v>39814</v>
+        <v>35886</v>
       </c>
       <c r="AU56">
-        <v>0.7803853344492617</v>
+        <v>-0.2371906425718796</v>
       </c>
       <c r="AV56">
-        <v>0.843526883772723</v>
+        <v>-0.2992061671301739</v>
       </c>
       <c r="AW56">
-        <v>0.6680111565079561</v>
+        <v>0.8339891895427179</v>
       </c>
       <c r="AX56">
-        <v>0.3535821658058508</v>
+        <v>1.027207267671626</v>
       </c>
       <c r="AY56">
-        <v>0.5442880913471271</v>
+        <v>0.2964433367203182</v>
       </c>
       <c r="AZ56">
-        <v>0.4031726910863138</v>
+        <v>0.3156773350202575</v>
       </c>
       <c r="BA56">
-        <v>1.133672899977413</v>
+        <v>0.7881070127535867</v>
       </c>
       <c r="BB56">
-        <v>0.1659579600142429</v>
+        <v>0.8677934225196573</v>
       </c>
       <c r="BC56">
-        <v>-0.4990983644056786</v>
+        <v>0.3864874227328907</v>
       </c>
       <c r="BD56">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
     </row>
     <row r="57" spans="1:64">
       <c r="A57" s="1">
-        <v>39904</v>
+        <v>35977</v>
       </c>
       <c r="AV57">
-        <v>0.8436125643974748</v>
+        <v>-0.2994128190088673</v>
       </c>
       <c r="AW57">
-        <v>0.668936646789015</v>
+        <v>0.8301619286465716</v>
       </c>
       <c r="AX57">
-        <v>0.3524856669821684</v>
+        <v>1.024677076936554</v>
       </c>
       <c r="AY57">
-        <v>0.5409740817613369</v>
+        <v>0.3016500709834882</v>
       </c>
       <c r="AZ57">
-        <v>0.3969400708492798</v>
+        <v>0.3213420216239022</v>
       </c>
       <c r="BA57">
-        <v>1.094235724790783</v>
+        <v>0.765868355303722</v>
       </c>
       <c r="BB57">
-        <v>0.05567105405309299</v>
+        <v>0.8535364953415713</v>
       </c>
       <c r="BC57">
-        <v>-0.4864413983264211</v>
+        <v>0.4396394377162535</v>
       </c>
       <c r="BD57">
-        <v>-1.716506176625349</v>
+        <v>0.790608675426831</v>
       </c>
       <c r="BE57">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
     </row>
     <row r="58" spans="1:64">
       <c r="A58" s="1">
-        <v>39995</v>
+        <v>36069</v>
       </c>
       <c r="AW58">
-        <v>0.6684739016484855</v>
+        <v>0.8320755590946447</v>
       </c>
       <c r="AX58">
-        <v>0.3530339163940096</v>
+        <v>1.02594217230409</v>
       </c>
       <c r="AY58">
-        <v>0.542631086554232</v>
+        <v>0.2990467038519032</v>
       </c>
       <c r="AZ58">
-        <v>0.4000563809677968</v>
+        <v>0.3185096783220799</v>
       </c>
       <c r="BA58">
-        <v>1.113954312384098</v>
+        <v>0.7769876840286544</v>
       </c>
       <c r="BB58">
-        <v>0.1108145070336679</v>
+        <v>0.8606649589306143</v>
       </c>
       <c r="BC58">
-        <v>-0.4927698813660498</v>
+        <v>0.413063430224572</v>
       </c>
       <c r="BD58">
-        <v>-1.520788703426117</v>
+        <v>0.7097829979040851</v>
       </c>
       <c r="BE58">
-        <v>-3.407086136608664</v>
+        <v>0.4367751951623106</v>
       </c>
       <c r="BF58">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
     </row>
     <row r="59" spans="1:64">
       <c r="A59" s="1">
-        <v>40087</v>
+        <v>36161</v>
       </c>
       <c r="AX59">
-        <v>0.352759791688089</v>
+        <v>1.025309624620322</v>
       </c>
       <c r="AY59">
-        <v>0.5418025841577845</v>
+        <v>0.3003483874176957</v>
       </c>
       <c r="AZ59">
-        <v>0.3984982259085383</v>
+        <v>0.3199258499729911</v>
       </c>
       <c r="BA59">
-        <v>1.104095018587441</v>
+        <v>0.7714280196661882</v>
       </c>
       <c r="BB59">
-        <v>0.08324278054338047</v>
+        <v>0.8571007271360929</v>
       </c>
       <c r="BC59">
-        <v>-0.4896056398462355</v>
+        <v>0.4263514339704128</v>
       </c>
       <c r="BD59">
-        <v>-1.618647440025733</v>
+        <v>0.750195836665458</v>
       </c>
       <c r="BE59">
-        <v>-3.210248199430232</v>
+        <v>0.6047532149236771</v>
       </c>
       <c r="BF59">
-        <v>-0.6459317112939464</v>
+        <v>0.6613792334829371</v>
       </c>
       <c r="BG59">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
     </row>
     <row r="60" spans="1:64">
       <c r="A60" s="1">
-        <v>40179</v>
+        <v>36251</v>
       </c>
       <c r="AY60">
-        <v>0.5422168353560082</v>
+        <v>0.2996975456347994</v>
       </c>
       <c r="AZ60">
-        <v>0.3992773034381676</v>
+        <v>0.3192177641475354</v>
       </c>
       <c r="BA60">
-        <v>1.109024665485769</v>
+        <v>0.7742078518474214</v>
       </c>
       <c r="BB60">
-        <v>0.0970286437885242</v>
+        <v>0.8588828430333536</v>
       </c>
       <c r="BC60">
-        <v>-0.4911877606061427</v>
+        <v>0.4197074320974924</v>
       </c>
       <c r="BD60">
-        <v>-1.569718071725925</v>
+        <v>0.7299894172847715</v>
       </c>
       <c r="BE60">
-        <v>-3.308667168019448</v>
+        <v>0.5207642050429938</v>
       </c>
       <c r="BF60">
-        <v>-1.127658271261134</v>
+        <v>0.5574505584632539</v>
       </c>
       <c r="BG60">
-        <v>0.6566807131333594</v>
+        <v>-0.06055438989470946</v>
       </c>
       <c r="BH60">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
     </row>
     <row r="61" spans="1:64">
       <c r="A61" s="1">
-        <v>40269</v>
+        <v>36342</v>
       </c>
       <c r="AZ61">
-        <v>0.398887764673353</v>
+        <v>0.3195718070602632</v>
       </c>
       <c r="BA61">
-        <v>1.106559842036605</v>
+        <v>0.7728179357568048</v>
       </c>
       <c r="BB61">
-        <v>0.09013571216595234</v>
+        <v>0.8579917850847232</v>
       </c>
       <c r="BC61">
-        <v>-0.4903967002261891</v>
+        <v>0.4230294330339526</v>
       </c>
       <c r="BD61">
-        <v>-1.594182755875829</v>
+        <v>0.7400926269751147</v>
       </c>
       <c r="BE61">
-        <v>-3.25945768372484</v>
+        <v>0.5627587099833354</v>
       </c>
       <c r="BF61">
-        <v>-0.8867949912775404</v>
+        <v>0.6094148959730955</v>
       </c>
       <c r="BG61">
-        <v>0.6210015275983027</v>
+        <v>0.09662155187375546</v>
       </c>
       <c r="BH61">
-        <v>0.1891062178285661</v>
+        <v>0.2938052288496958</v>
       </c>
       <c r="BI61">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
     </row>
     <row r="62" spans="1:64">
       <c r="A62" s="1">
-        <v>40360</v>
+        <v>36434</v>
       </c>
       <c r="BA62">
-        <v>1.107792253761187</v>
+        <v>0.7735128938021131</v>
       </c>
       <c r="BB62">
-        <v>0.09358217797723828</v>
+        <v>0.8584373140590384</v>
       </c>
       <c r="BC62">
-        <v>-0.4907922304161659</v>
+        <v>0.4213684325657225</v>
       </c>
       <c r="BD62">
-        <v>-1.581950413800877</v>
+        <v>0.735041022129943</v>
       </c>
       <c r="BE62">
-        <v>-3.284062425872144</v>
+        <v>0.5417614575131646</v>
       </c>
       <c r="BF62">
-        <v>-1.007226631269337</v>
+        <v>0.5834327272181747</v>
       </c>
       <c r="BG62">
-        <v>0.6388411203658311</v>
+        <v>0.018033580989523</v>
       </c>
       <c r="BH62">
-        <v>0.2789051192692326</v>
+        <v>0.221581385077941</v>
       </c>
       <c r="BI62">
-        <v>0.1661786384253032</v>
+        <v>0.1451397385481178</v>
       </c>
       <c r="BJ62">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
     </row>
     <row r="63" spans="1:64">
       <c r="A63" s="1">
-        <v>40452</v>
+        <v>36526</v>
       </c>
       <c r="BB63">
-        <v>0.09185894507159531</v>
+        <v>0.8582145495718808</v>
       </c>
       <c r="BC63">
-        <v>-0.4905944653211775</v>
+        <v>0.4221989327998376</v>
       </c>
       <c r="BD63">
-        <v>-1.588066584838353</v>
+        <v>0.7375668245525289</v>
       </c>
       <c r="BE63">
-        <v>-3.271760054798492</v>
+        <v>0.5522600837482501</v>
       </c>
       <c r="BF63">
-        <v>-0.9470108112734389</v>
+        <v>0.5964238115956351</v>
       </c>
       <c r="BG63">
-        <v>0.6299213239820669</v>
+        <v>0.05732756643163923</v>
       </c>
       <c r="BH63">
-        <v>0.2340056685488994</v>
+        <v>0.2576933069638184</v>
       </c>
       <c r="BI63">
-        <v>0.1685921793539753</v>
+        <v>0.1965186775403361</v>
       </c>
       <c r="BJ63">
-        <v>1.752320525976649</v>
+        <v>0.5652085762098784</v>
       </c>
       <c r="BK63">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
     </row>
     <row r="64" spans="1:64">
       <c r="A64" s="1">
-        <v>40544</v>
+        <v>36617</v>
       </c>
       <c r="BC64">
-        <v>-0.4906933478686717</v>
+        <v>0.42178368268278</v>
       </c>
       <c r="BD64">
-        <v>-1.585008499319615</v>
+        <v>0.736303923341236</v>
       </c>
       <c r="BE64">
-        <v>-3.277911240335317</v>
+        <v>0.5470107706307074</v>
       </c>
       <c r="BF64">
-        <v>-0.9771187212713881</v>
+        <v>0.5899282694069049</v>
       </c>
       <c r="BG64">
-        <v>0.634381222173949</v>
+        <v>0.03768057371058112</v>
       </c>
       <c r="BH64">
-        <v>0.256455393909066</v>
+        <v>0.2396373460208797</v>
       </c>
       <c r="BI64">
-        <v>0.1673854088896393</v>
+        <v>0.170829208044227</v>
       </c>
       <c r="BJ64">
-        <v>1.53743488979266</v>
+        <v>0.4886326403553836</v>
       </c>
       <c r="BK64">
-        <v>1.099007754369777</v>
+        <v>0.7348434074988387</v>
       </c>
       <c r="BL64">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
     </row>
     <row r="65" spans="1:80">
       <c r="A65" s="1">
-        <v>40634</v>
+        <v>36708</v>
       </c>
       <c r="BD65">
-        <v>-1.586537542078984</v>
+        <v>0.7369353739468825</v>
       </c>
       <c r="BE65">
-        <v>-3.274835647566904</v>
+        <v>0.5496354271894788</v>
       </c>
       <c r="BF65">
-        <v>-0.9620647662724136</v>
+        <v>0.59317604050127</v>
       </c>
       <c r="BG65">
-        <v>0.6321512730780079</v>
+        <v>0.04750407007111017</v>
       </c>
       <c r="BH65">
-        <v>0.2452305312289827</v>
+        <v>0.2486653264923491</v>
       </c>
       <c r="BI65">
-        <v>0.1679887941218073</v>
+        <v>0.1836739427922815</v>
       </c>
       <c r="BJ65">
-        <v>1.644877707884655</v>
+        <v>0.526920608282631</v>
       </c>
       <c r="BK65">
-        <v>1.299503549262232</v>
+        <v>0.7567153730283596</v>
       </c>
       <c r="BL65">
-        <v>0.4480858266459196</v>
+        <v>0.6717893215577675</v>
       </c>
       <c r="BM65">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
     </row>
     <row r="66" spans="1:80">
       <c r="A66" s="1">
-        <v>40725</v>
+        <v>36800</v>
       </c>
       <c r="BE66">
-        <v>-3.276373443951111</v>
+        <v>0.5483230989100931</v>
       </c>
       <c r="BF66">
-        <v>-0.9695917437719008</v>
+        <v>0.5915521549540874</v>
       </c>
       <c r="BG66">
-        <v>0.6332662476259785</v>
+        <v>0.04259232189084564</v>
       </c>
       <c r="BH66">
-        <v>0.2508429625690244</v>
+        <v>0.2441513362566144</v>
       </c>
       <c r="BI66">
-        <v>0.1676871015057233</v>
+        <v>0.1772515754182543</v>
       </c>
       <c r="BJ66">
-        <v>1.591156298838657</v>
+        <v>0.5077766243190073</v>
       </c>
       <c r="BK66">
-        <v>1.199255651816005</v>
+        <v>0.7457793902635992</v>
       </c>
       <c r="BL66">
-        <v>0.4897301991572097</v>
+        <v>0.6778741691941992</v>
       </c>
       <c r="BM66">
-        <v>1.21557765202201</v>
+        <v>1.054246487276782</v>
       </c>
       <c r="BN66">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
     </row>
     <row r="67" spans="1:80">
       <c r="A67" s="1">
-        <v>40817</v>
+        <v>36892</v>
       </c>
       <c r="BF67">
-        <v>-0.9658282550221572</v>
+        <v>0.5923640977276787</v>
       </c>
       <c r="BG67">
-        <v>0.6327087603519932</v>
+        <v>0.04504819598097791</v>
       </c>
       <c r="BH67">
-        <v>0.2480367468990035</v>
+        <v>0.2464083313744817</v>
       </c>
       <c r="BI67">
-        <v>0.1678379478137653</v>
+        <v>0.1804627591052679</v>
       </c>
       <c r="BJ67">
-        <v>1.618017003361656</v>
+        <v>0.5173486163008192</v>
       </c>
       <c r="BK67">
-        <v>1.249379600539118</v>
+        <v>0.7512473816459794</v>
       </c>
       <c r="BL67">
-        <v>0.4689080129015646</v>
+        <v>0.6748317453759833</v>
       </c>
       <c r="BM67">
-        <v>1.073775345923261</v>
+        <v>1.007226814764826</v>
       </c>
       <c r="BN67">
-        <v>0.4263439515259838</v>
+        <v>0.7087762601347514</v>
       </c>
       <c r="BO67">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
     </row>
     <row r="68" spans="1:80">
       <c r="A68" s="1">
-        <v>40909</v>
+        <v>36982</v>
       </c>
       <c r="BG68">
-        <v>0.6329875039889858</v>
+        <v>0.04382025893591178</v>
       </c>
       <c r="BH68">
-        <v>0.249439854734014</v>
+        <v>0.2452798338155481</v>
       </c>
       <c r="BI68">
-        <v>0.1677625246597443</v>
+        <v>0.1788571672617611</v>
       </c>
       <c r="BJ68">
-        <v>1.604586651100157</v>
+        <v>0.5125626203099132</v>
       </c>
       <c r="BK68">
-        <v>1.224317626177561</v>
+        <v>0.7485133859547892</v>
       </c>
       <c r="BL68">
-        <v>0.4793191060293872</v>
+        <v>0.6763529572850913</v>
       </c>
       <c r="BM68">
-        <v>1.144676498972636</v>
+        <v>1.030736651020804</v>
       </c>
       <c r="BN68">
-        <v>0.5799047754181046</v>
+        <v>0.7807361188262868</v>
       </c>
       <c r="BO68">
-        <v>0.4460456798014769</v>
+        <v>0.225536295748106</v>
       </c>
       <c r="BP68">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
     </row>
     <row r="69" spans="1:80">
       <c r="A69" s="1">
-        <v>41000</v>
+        <v>37073</v>
       </c>
       <c r="BH69">
-        <v>0.2487383008165088</v>
+        <v>0.2458440825950149</v>
       </c>
       <c r="BI69">
-        <v>0.1678002362367548</v>
+        <v>0.1796599631835145</v>
       </c>
       <c r="BJ69">
-        <v>1.611301827230906</v>
+        <v>0.5149556183053662</v>
       </c>
       <c r="BK69">
-        <v>1.23684861335834</v>
+        <v>0.7498803838003842</v>
       </c>
       <c r="BL69">
-        <v>0.474113559465476</v>
+        <v>0.6755923513305373</v>
       </c>
       <c r="BM69">
-        <v>1.109225922447948</v>
+        <v>1.018981732892815</v>
       </c>
       <c r="BN69">
-        <v>0.5031243634720441</v>
+        <v>0.744756189480519</v>
       </c>
       <c r="BO69">
-        <v>0.4175594653762609</v>
+        <v>0.2347700641179045</v>
       </c>
       <c r="BP69">
-        <v>0.007645258158519366</v>
+        <v>0.3298207137893182</v>
       </c>
       <c r="BQ69">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
     </row>
     <row r="70" spans="1:80">
       <c r="A70" s="1">
-        <v>41091</v>
+        <v>37165</v>
       </c>
       <c r="BI70">
-        <v>0.1677813804482495</v>
+        <v>0.1792585652226378</v>
       </c>
       <c r="BJ70">
-        <v>1.607944239165532</v>
+        <v>0.5137591193076396</v>
       </c>
       <c r="BK70">
-        <v>1.230583119767951</v>
+        <v>0.7491968848775867</v>
       </c>
       <c r="BL70">
-        <v>0.4767163327474316</v>
+        <v>0.6759726543078143</v>
       </c>
       <c r="BM70">
-        <v>1.126951210710292</v>
+        <v>1.024859191956809</v>
       </c>
       <c r="BN70">
-        <v>0.5415145694450744</v>
+        <v>0.7627461541534029</v>
       </c>
       <c r="BO70">
-        <v>0.4318025725888689</v>
+        <v>0.2301531799330053</v>
       </c>
       <c r="BP70">
-        <v>0.1024017782989788</v>
+        <v>0.3093620546591833</v>
       </c>
       <c r="BQ70">
-        <v>0.3371512561638538</v>
+        <v>0.0769698550409129</v>
       </c>
       <c r="BR70">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
     </row>
     <row r="71" spans="1:80">
       <c r="A71" s="1">
-        <v>41183</v>
+        <v>37257</v>
       </c>
       <c r="BJ71">
-        <v>1.609623033198219</v>
+        <v>0.5143573688065028</v>
       </c>
       <c r="BK71">
-        <v>1.233715866563145</v>
+        <v>0.7495386343389855</v>
       </c>
       <c r="BL71">
-        <v>0.4754149461064537</v>
+        <v>0.6757825028191757</v>
       </c>
       <c r="BM71">
-        <v>1.11808856657912</v>
+        <v>1.021920462424812</v>
       </c>
       <c r="BN71">
-        <v>0.5223194664585593</v>
+        <v>0.7537511718169609</v>
       </c>
       <c r="BO71">
-        <v>0.4246810189825649</v>
+        <v>0.2324616220254549</v>
       </c>
       <c r="BP71">
-        <v>0.0550235182287491</v>
+        <v>0.3195913842242507</v>
       </c>
       <c r="BQ71">
-        <v>0.2506480831161448</v>
+        <v>0.1305681326873131</v>
       </c>
       <c r="BR71">
-        <v>0.3277258767658468</v>
+        <v>-0.1133821134826466</v>
       </c>
       <c r="BS71">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
     </row>
     <row r="72" spans="1:80">
       <c r="A72" s="1">
-        <v>41275</v>
+        <v>37347</v>
       </c>
       <c r="BK72">
-        <v>1.232149493165548</v>
+        <v>0.7493677596082862</v>
       </c>
       <c r="BL72">
-        <v>0.4760656394269427</v>
+        <v>0.675877578563495</v>
       </c>
       <c r="BM72">
-        <v>1.122519888644706</v>
+        <v>1.023389827190811</v>
       </c>
       <c r="BN72">
-        <v>0.5319170179518169</v>
+        <v>0.7582486629851819</v>
       </c>
       <c r="BO72">
-        <v>0.4282417957857169</v>
+        <v>0.2313074009792301</v>
       </c>
       <c r="BP72">
-        <v>0.07871264826386397</v>
+        <v>0.314476719441717</v>
       </c>
       <c r="BQ72">
-        <v>0.2938996696399993</v>
+        <v>0.103768993864113</v>
       </c>
       <c r="BR72">
-        <v>0.3562341860204489</v>
+        <v>-0.09952287794418677</v>
       </c>
       <c r="BS72">
-        <v>0.2431632756872647</v>
+        <v>-0.2324764069694901</v>
       </c>
       <c r="BT72">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
     </row>
     <row r="73" spans="1:80">
       <c r="A73" s="1">
-        <v>41365</v>
+        <v>37438</v>
       </c>
       <c r="BL73">
-        <v>0.4757402927666982</v>
+        <v>0.6758300406913353</v>
       </c>
       <c r="BM73">
-        <v>1.120304227611913</v>
+        <v>1.022655144807811</v>
       </c>
       <c r="BN73">
-        <v>0.5271182422051881</v>
+        <v>0.7559999174010714</v>
       </c>
       <c r="BO73">
-        <v>0.4264614073841408</v>
+        <v>0.2318845115023425</v>
       </c>
       <c r="BP73">
-        <v>0.06686808324630654</v>
+        <v>0.3170340518329838</v>
       </c>
       <c r="BQ73">
-        <v>0.2722738763780721</v>
+        <v>0.1171685632757131</v>
       </c>
       <c r="BR73">
-        <v>0.3419800313931478</v>
+        <v>-0.1064524957134167</v>
       </c>
       <c r="BS73">
-        <v>0.247754272782161</v>
+        <v>-0.2215959663864384</v>
       </c>
       <c r="BT73">
-        <v>-0.3858945379770188</v>
+        <v>0.0638833287732315</v>
       </c>
       <c r="BU73">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
     </row>
     <row r="74" spans="1:80">
       <c r="A74" s="1">
-        <v>41456</v>
+        <v>37530</v>
       </c>
       <c r="BM74">
-        <v>1.12141205812831</v>
+        <v>1.023022485999311</v>
       </c>
       <c r="BN74">
-        <v>0.5295176300785025</v>
+        <v>0.7571242901931267</v>
       </c>
       <c r="BO74">
-        <v>0.4273516015849289</v>
+        <v>0.2315959562407863</v>
       </c>
       <c r="BP74">
-        <v>0.07279036575508525</v>
+        <v>0.3157553856373504</v>
       </c>
       <c r="BQ74">
-        <v>0.2830867730090357</v>
+        <v>0.110468778569913</v>
       </c>
       <c r="BR74">
-        <v>0.3491071087067983</v>
+        <v>-0.1029876868288017</v>
       </c>
       <c r="BS74">
-        <v>0.2454587742347129</v>
+        <v>-0.2270361866779643</v>
       </c>
       <c r="BT74">
-        <v>-0.2825854105206065</v>
+        <v>0.010863225955094</v>
       </c>
       <c r="BU74">
-        <v>-0.125367684248052</v>
+        <v>0.2751082404448018</v>
       </c>
       <c r="BV74">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
     </row>
     <row r="75" spans="1:80">
       <c r="A75" s="1">
-        <v>41548</v>
+        <v>37622</v>
       </c>
       <c r="BN75">
-        <v>0.5283179361418453</v>
+        <v>0.7565621037970991</v>
       </c>
       <c r="BO75">
-        <v>0.4269065044845348</v>
+        <v>0.2317402338715644</v>
       </c>
       <c r="BP75">
-        <v>0.0698292245006959</v>
+        <v>0.3163947187351671</v>
       </c>
       <c r="BQ75">
-        <v>0.2776803246935539</v>
+        <v>0.1138186709228131</v>
       </c>
       <c r="BR75">
-        <v>0.345543570049973</v>
+        <v>-0.1047200912711092</v>
       </c>
       <c r="BS75">
-        <v>0.2466065235084369</v>
+        <v>-0.2243160765322013</v>
       </c>
       <c r="BT75">
-        <v>-0.3342399742488126</v>
+        <v>0.03737327736416275</v>
       </c>
       <c r="BU75">
-        <v>-0.2196942349879388</v>
+        <v>0.2764693095393227</v>
       </c>
       <c r="BV75">
-        <v>0.541076742718007</v>
+        <v>0.2387903651556644</v>
       </c>
       <c r="BW75">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
     </row>
     <row r="76" spans="1:80">
       <c r="A76" s="1">
-        <v>41640</v>
+        <v>37712</v>
       </c>
       <c r="BO76">
-        <v>0.4271290530347318</v>
+        <v>0.2316680950561753</v>
       </c>
       <c r="BP76">
-        <v>0.07130979512789057</v>
+        <v>0.3160750521862588</v>
       </c>
       <c r="BQ76">
-        <v>0.2803835488512948</v>
+        <v>0.1121437247463631</v>
       </c>
       <c r="BR76">
-        <v>0.3473253393783857</v>
+        <v>-0.1038538890499555</v>
       </c>
       <c r="BS76">
-        <v>0.2460326488715749</v>
+        <v>-0.2256761316050828</v>
       </c>
       <c r="BT76">
-        <v>-0.3084126923847096</v>
+        <v>0.02411825165962838</v>
       </c>
       <c r="BU76">
-        <v>-0.1725309596179954</v>
+        <v>0.2757887749920622</v>
       </c>
       <c r="BV76">
-        <v>0.4508972855983391</v>
+        <v>0.2242129063571066</v>
       </c>
       <c r="BW76">
-        <v>0.4220994460685052</v>
+        <v>0.05244773721118953</v>
       </c>
       <c r="BX76">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
     </row>
     <row r="77" spans="1:80">
       <c r="A77" s="1">
-        <v>41730</v>
+        <v>37803</v>
       </c>
       <c r="BP77">
-        <v>0.07056950981429323</v>
+        <v>0.3162348854607129</v>
       </c>
       <c r="BQ77">
-        <v>0.2790319367724243</v>
+        <v>0.1129811978345881</v>
       </c>
       <c r="BR77">
-        <v>0.3464344547141794</v>
+        <v>-0.1042869901605323</v>
       </c>
       <c r="BS77">
-        <v>0.2463195861900059</v>
+        <v>-0.2249961040686421</v>
       </c>
       <c r="BT77">
-        <v>-0.3213263333167611</v>
+        <v>0.03074576451189556</v>
       </c>
       <c r="BU77">
-        <v>-0.1961125973029671</v>
+        <v>0.2761290422656925</v>
       </c>
       <c r="BV77">
-        <v>0.495987014158173</v>
+        <v>0.2315016357563855</v>
       </c>
       <c r="BW77">
-        <v>0.4719888145499782</v>
+        <v>0.09473747588406395</v>
       </c>
       <c r="BX77">
-        <v>0.3683981156967425</v>
+        <v>-0.1782854511548901</v>
       </c>
       <c r="BY77">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
     </row>
     <row r="78" spans="1:80">
       <c r="A78" s="1">
-        <v>41821</v>
+        <v>37895</v>
       </c>
       <c r="BQ78">
-        <v>0.2797077428118596</v>
+        <v>0.1125624612904756</v>
       </c>
       <c r="BR78">
-        <v>0.3468798970462825</v>
+        <v>-0.1040704396052439</v>
       </c>
       <c r="BS78">
-        <v>0.2461761175307904</v>
+        <v>-0.2253361178368624</v>
       </c>
       <c r="BT78">
-        <v>-0.3148695128507353</v>
+        <v>0.02743200808576197</v>
       </c>
       <c r="BU78">
-        <v>-0.1843217784604813</v>
+        <v>0.2759589086288773</v>
       </c>
       <c r="BV78">
-        <v>0.4734421498782561</v>
+        <v>0.227857271056746</v>
       </c>
       <c r="BW78">
-        <v>0.4470441303092417</v>
+        <v>0.07359260654762674</v>
       </c>
       <c r="BX78">
-        <v>0.3607185479315453</v>
+        <v>-0.1539264993181683</v>
       </c>
       <c r="BY78">
-        <v>0.7093817025649646</v>
+        <v>-0.106900804249073</v>
       </c>
       <c r="BZ78">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
     </row>
     <row r="79" spans="1:80">
       <c r="A79" s="1">
-        <v>41913</v>
+        <v>37987</v>
       </c>
       <c r="BR79">
-        <v>0.3466571758802309</v>
+        <v>-0.1041787148828881</v>
       </c>
       <c r="BS79">
-        <v>0.2462478518603982</v>
+        <v>-0.2251661109527522</v>
       </c>
       <c r="BT79">
-        <v>-0.3180979230837482</v>
+        <v>0.02908888629882877</v>
       </c>
       <c r="BU79">
-        <v>-0.1902171878817242</v>
+        <v>0.2760439754472849</v>
       </c>
       <c r="BV79">
-        <v>0.4847145820182145</v>
+        <v>0.2296794534065658</v>
       </c>
       <c r="BW79">
-        <v>0.4595164724296099</v>
+        <v>0.08416504121584534</v>
       </c>
       <c r="BX79">
-        <v>0.3645583318141439</v>
+        <v>-0.1661059752365292</v>
       </c>
       <c r="BY79">
-        <v>0.6551109606753267</v>
+        <v>-0.1291922959303458</v>
       </c>
       <c r="BZ79">
-        <v>0.04605564502248959</v>
+        <v>0.1238985445456072</v>
       </c>
       <c r="CA79">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
     </row>
     <row r="80" spans="1:80">
       <c r="A80" s="1">
-        <v>42005</v>
+        <v>38078</v>
       </c>
       <c r="BS80">
-        <v>0.2462119846955943</v>
+        <v>-0.2252511143948073</v>
       </c>
       <c r="BT80">
-        <v>-0.3164837179672417</v>
+        <v>0.02826044719229537</v>
       </c>
       <c r="BU80">
-        <v>-0.1872694831711027</v>
+        <v>0.2760014420380811</v>
       </c>
       <c r="BV80">
-        <v>0.4790783659482353</v>
+        <v>0.2287683622316559</v>
       </c>
       <c r="BW80">
-        <v>0.4532803013694258</v>
+        <v>0.07887882388173603</v>
       </c>
       <c r="BX80">
-        <v>0.3626384398728446</v>
+        <v>-0.1600162372773488</v>
       </c>
       <c r="BY80">
-        <v>0.6822463316201457</v>
+        <v>-0.1180465500897094</v>
       </c>
       <c r="BZ80">
-        <v>0.1495225704011526</v>
+        <v>0.07611038125140182</v>
       </c>
       <c r="CA80">
-        <v>0.02840570147171118</v>
+        <v>0.2110992836877943</v>
       </c>
       <c r="CB80">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
     </row>
     <row r="81" spans="1:96">
       <c r="A81" s="1">
-        <v>42095</v>
+        <v>38169</v>
       </c>
       <c r="BT81">
-        <v>-0.317290820525495</v>
+        <v>0.02867466674556206</v>
       </c>
       <c r="BU81">
-        <v>-0.1887433355264135</v>
+        <v>0.276022708742683</v>
       </c>
       <c r="BV81">
-        <v>0.4818964739832249</v>
+        <v>0.2292239078191108</v>
       </c>
       <c r="BW81">
-        <v>0.4563983868995178</v>
+        <v>0.08152193254879068</v>
       </c>
       <c r="BX81">
-        <v>0.3635983858434942</v>
+        <v>-0.163061106256939</v>
       </c>
       <c r="BY81">
-        <v>0.6686786461477362</v>
+        <v>-0.1236194230100276</v>
       </c>
       <c r="BZ81">
-        <v>0.09778910771182112</v>
+        <v>0.1000044628985045</v>
       </c>
       <c r="CA81">
-        <v>0.009489702851021933</v>
+        <v>0.2091393300491075</v>
       </c>
       <c r="CB81">
-        <v>0.5413309289906566</v>
+        <v>0.3950732219757438</v>
       </c>
       <c r="CC81">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
     </row>
     <row r="82" spans="1:96">
       <c r="A82" s="1">
-        <v>42186</v>
+        <v>38261</v>
       </c>
       <c r="BU82">
-        <v>-0.1880064093487581</v>
+        <v>0.276012075390382</v>
       </c>
       <c r="BV82">
-        <v>0.4804874199657301</v>
+        <v>0.2289961350253834</v>
       </c>
       <c r="BW82">
-        <v>0.4548393441344718</v>
+        <v>0.08020037821526335</v>
       </c>
       <c r="BX82">
-        <v>0.3631184128581694</v>
+        <v>-0.1615386717671439</v>
       </c>
       <c r="BY82">
-        <v>0.6754624888839409</v>
+        <v>-0.1208329865498685</v>
       </c>
       <c r="BZ82">
-        <v>0.1236558390564869</v>
+        <v>0.08805742207495318</v>
       </c>
       <c r="CA82">
-        <v>0.01894770216136656</v>
+        <v>0.2101193068684509</v>
       </c>
       <c r="CB82">
-        <v>0.4621476794163958</v>
+        <v>0.3731093719124238</v>
       </c>
       <c r="CC82">
-        <v>0.379149709147475</v>
+        <v>0.4639212446633175</v>
       </c>
       <c r="CD82">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
     </row>
     <row r="83" spans="1:96">
       <c r="A83" s="1">
-        <v>42278</v>
+        <v>38353</v>
       </c>
       <c r="BV83">
-        <v>0.4811919469744775</v>
+        <v>0.2291100214222471</v>
       </c>
       <c r="BW83">
-        <v>0.4556188655169948</v>
+        <v>0.08086115538202701</v>
       </c>
       <c r="BX83">
-        <v>0.3633583993508318</v>
+        <v>-0.1622998890120414</v>
       </c>
       <c r="BY83">
-        <v>0.6720705675158385</v>
+        <v>-0.122226204779948</v>
       </c>
       <c r="BZ83">
-        <v>0.110722473384154</v>
+        <v>0.09403094248672886</v>
       </c>
       <c r="CA83">
-        <v>0.01421870250619424</v>
+        <v>0.2096293184587792</v>
       </c>
       <c r="CB83">
-        <v>0.5017393042035262</v>
+        <v>0.3840912969440838</v>
       </c>
       <c r="CC83">
-        <v>0.4325743289794255</v>
+        <v>0.4581576271132333</v>
       </c>
       <c r="CD83">
-        <v>0.41560477725035</v>
+        <v>0.1779846747513269</v>
       </c>
       <c r="CE83">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
     </row>
     <row r="84" spans="1:96">
       <c r="A84" s="1">
-        <v>42370</v>
+        <v>38443</v>
       </c>
       <c r="BW84">
-        <v>0.4552291048257333</v>
+        <v>0.08053076679864518</v>
       </c>
       <c r="BX84">
-        <v>0.3632384061045006</v>
+        <v>-0.1619192803895926</v>
       </c>
       <c r="BY84">
-        <v>0.6737665281998897</v>
+        <v>-0.1215295956649083</v>
       </c>
       <c r="BZ84">
-        <v>0.1171891562203204</v>
+        <v>0.09104418228084102</v>
       </c>
       <c r="CA84">
-        <v>0.0165832023337804</v>
+        <v>0.2098743126636151</v>
       </c>
       <c r="CB84">
-        <v>0.481943491809961</v>
+        <v>0.3786003344282538</v>
       </c>
       <c r="CC84">
-        <v>0.4058620190634502</v>
+        <v>0.4610394358882754</v>
       </c>
       <c r="CD84">
-        <v>0.4040884537896646</v>
+        <v>0.2172406150315963</v>
       </c>
       <c r="CE84">
-        <v>0.3466041618411014</v>
+        <v>-0.1690621918602297</v>
       </c>
       <c r="CF84">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="1">
-        <v>42461</v>
+        <v>38534</v>
       </c>
       <c r="BX85">
-        <v>0.3632984027276662</v>
+        <v>-0.162109584700817</v>
       </c>
       <c r="BY85">
-        <v>0.6729185478578641</v>
+        <v>-0.1218779002224281</v>
       </c>
       <c r="BZ85">
-        <v>0.1139558148022372</v>
+        <v>0.09253756238378494</v>
       </c>
       <c r="CA85">
-        <v>0.01540095241998732</v>
+        <v>0.2097518155611972</v>
       </c>
       <c r="CB85">
-        <v>0.4918413980067436</v>
+        <v>0.3813458156861688</v>
       </c>
       <c r="CC85">
-        <v>0.4192181740214379</v>
+        <v>0.4595985315007544</v>
       </c>
       <c r="CD85">
-        <v>0.4098466155200073</v>
+        <v>0.1976126448914616</v>
       </c>
       <c r="CE85">
-        <v>0.3619430388962047</v>
+        <v>-0.1372378966572215</v>
       </c>
       <c r="CF85">
-        <v>0.2712026772181096</v>
+        <v>0.7489732132872778</v>
       </c>
       <c r="CG85">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
     </row>
     <row r="86" spans="1:96">
       <c r="A86" s="1">
-        <v>42552</v>
+        <v>38626</v>
       </c>
       <c r="BY86">
-        <v>0.6733425380288769</v>
+        <v>-0.1217037479436682</v>
       </c>
       <c r="BZ86">
-        <v>0.1155724855112788</v>
+        <v>0.09179087233231298</v>
       </c>
       <c r="CA86">
-        <v>0.01599207737688386</v>
+        <v>0.2098130641124061</v>
       </c>
       <c r="CB86">
-        <v>0.4868924449083523</v>
+        <v>0.3799730750572113</v>
       </c>
       <c r="CC86">
-        <v>0.4125400965424441</v>
+        <v>0.4603189836945148</v>
       </c>
       <c r="CD86">
-        <v>0.406967534654836</v>
+        <v>0.2074266299615289</v>
       </c>
       <c r="CE86">
-        <v>0.3542736003686531</v>
+        <v>-0.1531500442587256</v>
       </c>
       <c r="CF86">
-        <v>0.2724576802392871</v>
+        <v>0.6014067364024267</v>
       </c>
       <c r="CG86">
-        <v>0.5661567198175934</v>
+        <v>0.1954295528814108</v>
       </c>
       <c r="CH86">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
     </row>
     <row r="87" spans="1:96">
       <c r="A87" s="1">
-        <v>42644</v>
+        <v>38718</v>
       </c>
       <c r="BZ87">
-        <v>0.114764150156758</v>
+        <v>0.09216421735804896</v>
       </c>
       <c r="CA87">
-        <v>0.01569651489843559</v>
+        <v>0.2097824398368016</v>
       </c>
       <c r="CB87">
-        <v>0.4893669214575479</v>
+        <v>0.3806594453716901</v>
       </c>
       <c r="CC87">
-        <v>0.415879135281941</v>
+        <v>0.4599587575976346</v>
       </c>
       <c r="CD87">
-        <v>0.4084070750874217</v>
+        <v>0.2025196374264953</v>
       </c>
       <c r="CE87">
-        <v>0.3581083196324288</v>
+        <v>-0.1451939704579736</v>
       </c>
       <c r="CF87">
-        <v>0.2718301787286984</v>
+        <v>0.6751899748448522</v>
       </c>
       <c r="CG87">
-        <v>0.516579378377287</v>
+        <v>0.2882937278475308</v>
       </c>
       <c r="CH87">
-        <v>0.4856189389344302</v>
+        <v>0.5212103711705466</v>
       </c>
       <c r="CI87">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
     </row>
     <row r="88" spans="1:96">
       <c r="A88" s="1">
-        <v>42736</v>
+        <v>38808</v>
       </c>
       <c r="CA88">
-        <v>0.01584429613765972</v>
+        <v>0.2097977519746039</v>
       </c>
       <c r="CB88">
-        <v>0.4881296831829501</v>
+        <v>0.3803162602144507</v>
       </c>
       <c r="CC88">
-        <v>0.4142096159121925</v>
+        <v>0.4601388706460747</v>
       </c>
       <c r="CD88">
-        <v>0.4076873048711288</v>
+        <v>0.2049731336940121</v>
       </c>
       <c r="CE88">
-        <v>0.356190960000541</v>
+        <v>-0.1491720073583496</v>
       </c>
       <c r="CF88">
-        <v>0.2721439294839928</v>
+        <v>0.6382983556236395</v>
       </c>
       <c r="CG88">
-        <v>0.5413680490974402</v>
+        <v>0.2418616403644708</v>
       </c>
       <c r="CH88">
-        <v>0.5227987246144021</v>
+        <v>0.4715877331978943</v>
       </c>
       <c r="CI88">
-        <v>0.2461660751693067</v>
+        <v>0.162182854513893</v>
       </c>
       <c r="CJ88">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
     </row>
     <row r="89" spans="1:96">
       <c r="A89" s="1">
-        <v>42826</v>
+        <v>38899</v>
       </c>
       <c r="CB89">
-        <v>0.488748302320249</v>
+        <v>0.3804878527930704</v>
       </c>
       <c r="CC89">
-        <v>0.4150443755970668</v>
+        <v>0.4600488141218547</v>
       </c>
       <c r="CD89">
-        <v>0.4080471899792752</v>
+        <v>0.2037463855602537</v>
       </c>
       <c r="CE89">
-        <v>0.3571496398164849</v>
+        <v>-0.1471829889081616</v>
       </c>
       <c r="CF89">
-        <v>0.2719870541063456</v>
+        <v>0.6567441652342458</v>
       </c>
       <c r="CG89">
-        <v>0.5289737137373636</v>
+        <v>0.2650776841060008</v>
       </c>
       <c r="CH89">
-        <v>0.5042088317744162</v>
+        <v>0.4963990521842204</v>
       </c>
       <c r="CI89">
-        <v>0.2736816239035033</v>
+        <v>0.2384614990198504</v>
       </c>
       <c r="CJ89">
-        <v>0.3543020839962042</v>
+        <v>0.2764159603736306</v>
       </c>
       <c r="CK89">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
     </row>
     <row r="90" spans="1:96">
       <c r="A90" s="1">
-        <v>42917</v>
+        <v>38991</v>
       </c>
       <c r="CC90">
-        <v>0.4146269957546296</v>
+        <v>0.4600938423839647</v>
       </c>
       <c r="CD90">
-        <v>0.407867247425202</v>
+        <v>0.2043597596271329</v>
       </c>
       <c r="CE90">
-        <v>0.356670299908513</v>
+        <v>-0.1481774981332556</v>
       </c>
       <c r="CF90">
-        <v>0.2720654917951692</v>
+        <v>0.6475212604289426</v>
       </c>
       <c r="CG90">
-        <v>0.5351708814174019</v>
+        <v>0.2534696622352358</v>
       </c>
       <c r="CH90">
-        <v>0.5135037781944092</v>
+        <v>0.4839933926910573</v>
       </c>
       <c r="CI90">
-        <v>0.259923849536405</v>
+        <v>0.2003221767668717</v>
       </c>
       <c r="CJ90">
-        <v>0.3179914128505155</v>
+        <v>0.2319491977472571</v>
       </c>
       <c r="CK90">
-        <v>0.5588536670596016</v>
+        <v>0.844691530107063</v>
       </c>
       <c r="CL90">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="1">
-        <v>43009</v>
+        <v>39083</v>
       </c>
       <c r="CD91">
-        <v>0.4079572187022387</v>
+        <v>0.2040530725936933</v>
       </c>
       <c r="CE91">
-        <v>0.3569099698624989</v>
+        <v>-0.1476802435207086</v>
       </c>
       <c r="CF91">
-        <v>0.2720262729507574</v>
+        <v>0.6521327128315942</v>
       </c>
       <c r="CG91">
-        <v>0.5320722975773827</v>
+        <v>0.2592736731706183</v>
       </c>
       <c r="CH91">
-        <v>0.5088563049844127</v>
+        <v>0.4901962224376389</v>
       </c>
       <c r="CI91">
-        <v>0.2668027367199541</v>
+        <v>0.219391837893361</v>
       </c>
       <c r="CJ91">
-        <v>0.3361467484233598</v>
+        <v>0.2541825790604439</v>
       </c>
       <c r="CK91">
-        <v>0.5353324087102191</v>
+        <v>0.8165004853446378</v>
       </c>
       <c r="CL91">
-        <v>0.6400463325260437</v>
+        <v>0.74405834374321</v>
       </c>
       <c r="CM91">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
     </row>
     <row r="92" spans="1:96">
       <c r="A92" s="1">
-        <v>43101</v>
+        <v>39173</v>
       </c>
       <c r="CE92">
-        <v>0.3567901348855059</v>
+        <v>-0.1479288708269821</v>
       </c>
       <c r="CF92">
-        <v>0.2720458823729633</v>
+        <v>0.6498269866302684</v>
       </c>
       <c r="CG92">
-        <v>0.5336215894973924</v>
+        <v>0.2563716677029271</v>
       </c>
       <c r="CH92">
-        <v>0.511180041589411</v>
+        <v>0.4870948075643481</v>
       </c>
       <c r="CI92">
-        <v>0.2633632931281796</v>
+        <v>0.2098570073301164</v>
       </c>
       <c r="CJ92">
-        <v>0.3270690806369376</v>
+        <v>0.2430658884038505</v>
       </c>
       <c r="CK92">
-        <v>0.5470930378849104</v>
+        <v>0.8305960077258504</v>
       </c>
       <c r="CL92">
-        <v>0.6518411417802218</v>
+        <v>0.7987625179829112</v>
       </c>
       <c r="CM92">
-        <v>0.7764302717704987</v>
+        <v>0.8508954175013754</v>
       </c>
       <c r="CN92">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="1">
-        <v>43191</v>
+        <v>39264</v>
       </c>
       <c r="CF93">
-        <v>0.2720360776618604</v>
+        <v>0.6509798497309314</v>
       </c>
       <c r="CG93">
-        <v>0.5328469435373875</v>
+        <v>0.2578226704367727</v>
       </c>
       <c r="CH93">
-        <v>0.5100181732869118</v>
+        <v>0.4886455150009935</v>
       </c>
       <c r="CI93">
-        <v>0.2650830149240668</v>
+        <v>0.2146244226117387</v>
       </c>
       <c r="CJ93">
-        <v>0.3316079145301487</v>
+        <v>0.2486242337321472</v>
       </c>
       <c r="CK93">
-        <v>0.5412127232975648</v>
+        <v>0.8235482465352442</v>
       </c>
       <c r="CL93">
-        <v>0.6459437371531327</v>
+        <v>0.7714104308630606</v>
       </c>
       <c r="CM93">
-        <v>0.7525574955678392</v>
+        <v>0.8399282975331487</v>
       </c>
       <c r="CN93">
-        <v>0.6390975905128384</v>
+        <v>0.6291405647034829</v>
       </c>
       <c r="CO93">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
     </row>
     <row r="94" spans="1:96">
       <c r="A94" s="1">
-        <v>43282</v>
+        <v>39356</v>
       </c>
       <c r="CG94">
-        <v>0.5332342665173899</v>
+        <v>0.2570971690698499</v>
       </c>
       <c r="CH94">
-        <v>0.5105991074381614</v>
+        <v>0.4878701612826708</v>
       </c>
       <c r="CI94">
-        <v>0.2642231540261232</v>
+        <v>0.2122407149709275</v>
       </c>
       <c r="CJ94">
-        <v>0.3293384975835432</v>
+        <v>0.2458450610679989</v>
       </c>
       <c r="CK94">
-        <v>0.5441528805912376</v>
+        <v>0.8270721271305472</v>
       </c>
       <c r="CL94">
-        <v>0.6488924394666773</v>
+        <v>0.785086474422986</v>
       </c>
       <c r="CM94">
-        <v>0.764493883669169</v>
+        <v>0.845411857517262</v>
       </c>
       <c r="CN94">
-        <v>0.6551629234188012</v>
+        <v>0.6883719426912517</v>
       </c>
       <c r="CO94">
-        <v>0.3747022977573667</v>
+        <v>0.3294591916848381</v>
       </c>
       <c r="CP94">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
     </row>
     <row r="95" spans="1:96">
       <c r="A95" s="1">
-        <v>43374</v>
+        <v>39448</v>
       </c>
       <c r="CH95">
-        <v>0.5103086403625365</v>
+        <v>0.4882578381418322</v>
       </c>
       <c r="CI95">
-        <v>0.264653084475095</v>
+        <v>0.2134325687913331</v>
       </c>
       <c r="CJ95">
-        <v>0.3304732060568459</v>
+        <v>0.247234647400073</v>
       </c>
       <c r="CK95">
-        <v>0.5426828019444012</v>
+        <v>0.8253101868328957</v>
       </c>
       <c r="CL95">
-        <v>0.647418088309905</v>
+        <v>0.7782484526430233</v>
       </c>
       <c r="CM95">
-        <v>0.7585256896185042</v>
+        <v>0.8426700775252054</v>
       </c>
       <c r="CN95">
-        <v>0.6471302569658198</v>
+        <v>0.6587562536973672</v>
       </c>
       <c r="CO95">
-        <v>0.4134130689146244</v>
+        <v>0.3645471540426747</v>
       </c>
       <c r="CP95">
-        <v>0.4302078859921395</v>
+        <v>0.5774281872050296</v>
       </c>
       <c r="CQ95">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
     </row>
     <row r="96" spans="1:96">
       <c r="A96" s="1">
-        <v>43466</v>
+        <v>39539</v>
       </c>
       <c r="CI96">
-        <v>0.2644381192506091</v>
+        <v>0.2128366418811303</v>
       </c>
       <c r="CJ96">
-        <v>0.3299058518201946</v>
+        <v>0.246539854234036</v>
       </c>
       <c r="CK96">
-        <v>0.5434178412678194</v>
+        <v>0.8261911569817215</v>
       </c>
       <c r="CL96">
-        <v>0.6481552638882911</v>
+        <v>0.7816674635330046</v>
       </c>
       <c r="CM96">
-        <v>0.7615097866438366</v>
+        <v>0.8440409675212337</v>
       </c>
       <c r="CN96">
-        <v>0.6511465901923106</v>
+        <v>0.6735640981943094</v>
       </c>
       <c r="CO96">
-        <v>0.3940576833359956</v>
+        <v>0.3470031728637564</v>
       </c>
       <c r="CP96">
-        <v>0.4195193843507815</v>
+        <v>0.5244040338323855</v>
       </c>
       <c r="CQ96">
-        <v>-0.036234926639532</v>
+        <v>0.3657769696641097</v>
       </c>
       <c r="CR96">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
     </row>
     <row r="97" spans="1:112">
       <c r="A97" s="1">
-        <v>43556</v>
+        <v>39630</v>
       </c>
       <c r="CJ97">
-        <v>0.3301895289385203</v>
+        <v>0.2468872508170545</v>
       </c>
       <c r="CK97">
-        <v>0.5430503216061103</v>
+        <v>0.8257506719073087</v>
       </c>
       <c r="CL97">
-        <v>0.647786676099098</v>
+        <v>0.779957958088014</v>
       </c>
       <c r="CM97">
-        <v>0.7600177381311704</v>
+        <v>0.8433555225232195</v>
       </c>
       <c r="CN97">
-        <v>0.6491384235790651</v>
+        <v>0.6661601759458383</v>
       </c>
       <c r="CO97">
-        <v>0.40373537612531</v>
+        <v>0.3557751634532155</v>
       </c>
       <c r="CP97">
-        <v>0.4248636351714605</v>
+        <v>0.5509161105187076</v>
       </c>
       <c r="CQ97">
-        <v>0.0450683760128659</v>
+        <v>0.4156379315603818</v>
       </c>
       <c r="CR97">
-        <v>-0.03671344824839344</v>
+        <v>1.212547250350672</v>
       </c>
       <c r="CS97">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
     </row>
     <row r="98" spans="1:112">
       <c r="A98" s="1">
-        <v>43647</v>
+        <v>39722</v>
       </c>
       <c r="CK98">
-        <v>0.5432340814369649</v>
+        <v>0.8259709144445151</v>
       </c>
       <c r="CL98">
-        <v>0.6479709699936946</v>
+        <v>0.7808127108105094</v>
       </c>
       <c r="CM98">
-        <v>0.7607637623875034</v>
+        <v>0.8436982450222266</v>
       </c>
       <c r="CN98">
-        <v>0.6501425068856879</v>
+        <v>0.6698621370700739</v>
       </c>
       <c r="CO98">
-        <v>0.3988965297306528</v>
+        <v>0.351389168158486</v>
       </c>
       <c r="CP98">
-        <v>0.422191509761121</v>
+        <v>0.5376600721755466</v>
       </c>
       <c r="CQ98">
-        <v>0.004416724686666953</v>
+        <v>0.3907074506122458</v>
       </c>
       <c r="CR98">
-        <v>-0.06373193070953084</v>
+        <v>1.054798549604154</v>
       </c>
       <c r="CS98">
-        <v>0.3225953634500986</v>
+        <v>-0.05461585190805693</v>
       </c>
       <c r="CT98">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
     </row>
     <row r="99" spans="1:112">
       <c r="A99" s="1">
-        <v>43739</v>
+        <v>39814</v>
       </c>
       <c r="CL99">
-        <v>0.6478788230463963</v>
+        <v>0.7803853344492617</v>
       </c>
       <c r="CM99">
-        <v>0.7603907502593369</v>
+        <v>0.843526883772723</v>
       </c>
       <c r="CN99">
-        <v>0.6496404652323765</v>
+        <v>0.6680111565079561</v>
       </c>
       <c r="CO99">
-        <v>0.4013159529279814</v>
+        <v>0.3535821658058508</v>
       </c>
       <c r="CP99">
-        <v>0.4235275724662908</v>
+        <v>0.5442880913471271</v>
       </c>
       <c r="CQ99">
-        <v>0.02474255034976643</v>
+        <v>0.4031726910863138</v>
       </c>
       <c r="CR99">
-        <v>-0.05022268947896214</v>
+        <v>1.133672899977413</v>
       </c>
       <c r="CS99">
-        <v>0.2717167223207291</v>
+        <v>0.1659579600142429</v>
       </c>
       <c r="CT99">
-        <v>0.04004655148291123</v>
+        <v>-0.4990983644056786</v>
       </c>
       <c r="CU99">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
     </row>
     <row r="100" spans="1:112">
       <c r="A100" s="1">
-        <v>43831</v>
+        <v>39904</v>
       </c>
       <c r="CM100">
-        <v>0.7605772563234201</v>
+        <v>0.8436125643974748</v>
       </c>
       <c r="CN100">
-        <v>0.6498914860590321</v>
+        <v>0.668936646789015</v>
       </c>
       <c r="CO100">
-        <v>0.400106241329317</v>
+        <v>0.3524856669821684</v>
       </c>
       <c r="CP100">
-        <v>0.4228595411137059</v>
+        <v>0.5409740817613369</v>
       </c>
       <c r="CQ100">
-        <v>0.01457963751821669</v>
+        <v>0.3969400708492798</v>
       </c>
       <c r="CR100">
-        <v>-0.05697731009424649</v>
+        <v>1.094235724790783</v>
       </c>
       <c r="CS100">
-        <v>0.2971560428854139</v>
+        <v>0.05567105405309299</v>
       </c>
       <c r="CT100">
-        <v>0.0974146129586579</v>
+        <v>-0.4864413983264211</v>
       </c>
       <c r="CU100">
-        <v>0.002485177906987678</v>
+        <v>-1.716506176625349</v>
       </c>
       <c r="CV100">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
     </row>
     <row r="101" spans="1:112">
       <c r="A101" s="1">
-        <v>43922</v>
+        <v>39995</v>
       </c>
       <c r="CN101">
-        <v>0.6497659756457044</v>
+        <v>0.6684739016484855</v>
       </c>
       <c r="CO101">
-        <v>0.4007110971286492</v>
+        <v>0.3530339163940096</v>
       </c>
       <c r="CP101">
-        <v>0.4231935567899984</v>
+        <v>0.542631086554232</v>
       </c>
       <c r="CQ101">
-        <v>0.01966109393399156</v>
+        <v>0.4000563809677968</v>
       </c>
       <c r="CR101">
-        <v>-0.05359999978660432</v>
+        <v>1.113954312384098</v>
       </c>
       <c r="CS101">
-        <v>0.2844363826030715</v>
+        <v>0.1108145070336679</v>
       </c>
       <c r="CT101">
-        <v>0.06873058222078457</v>
+        <v>-0.4927698813660498</v>
       </c>
       <c r="CU101">
-        <v>-0.0383519039829837</v>
+        <v>-1.520788703426117</v>
       </c>
       <c r="CV101">
-        <v>0.07008499958379664</v>
+        <v>-3.407086136608664</v>
       </c>
       <c r="CW101">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
     </row>
     <row r="102" spans="1:112">
       <c r="A102" s="1">
-        <v>44013</v>
+        <v>40087</v>
       </c>
       <c r="CO102">
-        <v>0.4004086692289831</v>
+        <v>0.352759791688089</v>
       </c>
       <c r="CP102">
-        <v>0.4230265489518522</v>
+        <v>0.5418025841577845</v>
       </c>
       <c r="CQ102">
-        <v>0.01712036572610412</v>
+        <v>0.3984982259085383</v>
       </c>
       <c r="CR102">
-        <v>-0.0552886549404254</v>
+        <v>1.104095018587441</v>
       </c>
       <c r="CS102">
-        <v>0.2907962127442427</v>
+        <v>0.08324278054338047</v>
       </c>
       <c r="CT102">
-        <v>0.08307259758972124</v>
+        <v>-0.4896056398462355</v>
       </c>
       <c r="CU102">
-        <v>-0.01793336303799801</v>
+        <v>-1.618647440025733</v>
       </c>
       <c r="CV102">
-        <v>0.09112973901735177</v>
+        <v>-3.210248199430232</v>
       </c>
       <c r="CW102">
-        <v>-1.692001297247127</v>
+        <v>-0.6459317112939464</v>
       </c>
       <c r="CX102">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
     </row>
     <row r="103" spans="1:112">
       <c r="A103" s="1">
-        <v>44105</v>
+        <v>40179</v>
       </c>
       <c r="CP103">
-        <v>0.4231100528709253</v>
+        <v>0.5422168353560082</v>
       </c>
       <c r="CQ103">
-        <v>0.01839072983004784</v>
+        <v>0.3992773034381676</v>
       </c>
       <c r="CR103">
-        <v>-0.05444432736351486</v>
+        <v>1.109024665485769</v>
       </c>
       <c r="CS103">
-        <v>0.287616297673657</v>
+        <v>0.0970286437885242</v>
       </c>
       <c r="CT103">
-        <v>0.07590158990525291</v>
+        <v>-0.4911877606061427</v>
       </c>
       <c r="CU103">
-        <v>-0.02814263351049086</v>
+        <v>-1.569718071725925</v>
       </c>
       <c r="CV103">
-        <v>0.08060736930057422</v>
+        <v>-3.308667168019448</v>
       </c>
       <c r="CW103">
-        <v>-1.427098286423338</v>
+        <v>-1.127658271261134</v>
       </c>
       <c r="CX103">
-        <v>-7.77289113451026</v>
+        <v>0.6566807131333594</v>
       </c>
       <c r="CY103">
-        <v>-0.6564850592266236</v>
+        <v>0.3687040207098991</v>
       </c>
     </row>
     <row r="104" spans="1:112">
       <c r="A104" s="1">
-        <v>44197</v>
+        <v>40269</v>
       </c>
       <c r="CQ104">
-        <v>0.01775554777807598</v>
+        <v>0.398887764673353</v>
       </c>
       <c r="CR104">
-        <v>-0.05486649115197013</v>
+        <v>1.106559842036605</v>
       </c>
       <c r="CS104">
-        <v>0.2892062552089498</v>
+        <v>0.09013571216595234</v>
       </c>
       <c r="CT104">
-        <v>0.07948709374748708</v>
+        <v>-0.4903967002261891</v>
       </c>
       <c r="CU104">
-        <v>-0.02303799827424444</v>
+        <v>-1.594182755875829</v>
       </c>
       <c r="CV104">
-        <v>0.085868554158963</v>
+        <v>-3.25945768372484</v>
       </c>
       <c r="CW104">
-        <v>-1.559549791835233</v>
+        <v>-0.8867949912775404</v>
       </c>
       <c r="CX104">
-        <v>-6.81385787688939</v>
+        <v>0.6210015275983027</v>
       </c>
       <c r="CY104">
-        <v>3.911909545579423</v>
+        <v>0.1891062178285661</v>
       </c>
       <c r="CZ104">
-        <v>4.426309542805707</v>
+        <v>0.1710057202826473</v>
       </c>
     </row>
     <row r="105" spans="1:112">
       <c r="A105" s="1">
-        <v>44287</v>
+        <v>40360</v>
       </c>
       <c r="CR105">
-        <v>-0.0546554092577425</v>
+        <v>1.107792253761187</v>
       </c>
       <c r="CS105">
-        <v>0.2884112764413034</v>
+        <v>0.09358217797723828</v>
       </c>
       <c r="CT105">
-        <v>0.07769434182637</v>
+        <v>-0.4907922304161659</v>
       </c>
       <c r="CU105">
-        <v>-0.02559031589236765</v>
+        <v>-1.581950413800877</v>
       </c>
       <c r="CV105">
-        <v>0.08323796172976861</v>
+        <v>-3.284062425872144</v>
       </c>
       <c r="CW105">
-        <v>-1.493324039129285</v>
+        <v>-1.007226631269337</v>
       </c>
       <c r="CX105">
-        <v>-7.293374505699825</v>
+        <v>0.6388411203658311</v>
       </c>
       <c r="CY105">
-        <v>1.6277122431764</v>
+        <v>0.2789051192692326</v>
       </c>
       <c r="CZ105">
-        <v>2.383471073106014</v>
+        <v>0.1661786384253032</v>
       </c>
       <c r="DA105">
-        <v>-0.6363230239575632</v>
+        <v>1.322549253608671</v>
       </c>
     </row>
     <row r="106" spans="1:112">
       <c r="A106" s="1">
-        <v>44378</v>
+        <v>40452</v>
       </c>
       <c r="CS106">
-        <v>0.2888087658251266</v>
+        <v>0.09185894507159531</v>
       </c>
       <c r="CT106">
-        <v>0.07859071778692854</v>
+        <v>-0.4905944653211775</v>
       </c>
       <c r="CU106">
-        <v>-0.02431415708330604</v>
+        <v>-1.588066584838353</v>
       </c>
       <c r="CV106">
-        <v>0.0845532579443658</v>
+        <v>-3.271760054798492</v>
       </c>
       <c r="CW106">
-        <v>-1.526436915482259</v>
+        <v>-0.9470108112734389</v>
       </c>
       <c r="CX106">
-        <v>-7.053616191294608</v>
+        <v>0.6299213239820669</v>
       </c>
       <c r="CY106">
-        <v>2.769810894377911</v>
+        <v>0.2340056685488994</v>
       </c>
       <c r="CZ106">
-        <v>3.40489030795586</v>
+        <v>0.1685921793539753</v>
       </c>
       <c r="DA106">
-        <v>-1.221630446175318</v>
+        <v>1.752320525976649</v>
       </c>
       <c r="DB106">
-        <v>-0.184891410987573</v>
+        <v>1.499999344154686</v>
       </c>
     </row>
     <row r="107" spans="1:112">
       <c r="A107" s="1">
-        <v>44470</v>
+        <v>40544</v>
       </c>
       <c r="CT107">
-        <v>0.07814252980664926</v>
+        <v>-0.4906933478686717</v>
       </c>
       <c r="CU107">
-        <v>-0.02495223648783684</v>
+        <v>-1.585008499319615</v>
       </c>
       <c r="CV107">
-        <v>0.0838956098370672</v>
+        <v>-3.277911240335317</v>
       </c>
       <c r="CW107">
-        <v>-1.509880477305772</v>
+        <v>-0.9771187212713881</v>
       </c>
       <c r="CX107">
-        <v>-7.173495348497216</v>
+        <v>0.634381222173949</v>
       </c>
       <c r="CY107">
-        <v>2.198761568777155</v>
+        <v>0.256455393909066</v>
       </c>
       <c r="CZ107">
-        <v>2.894180690530937</v>
+        <v>0.1673854088896393</v>
       </c>
       <c r="DA107">
-        <v>-0.9289767350664404</v>
+        <v>1.53743488979266</v>
       </c>
       <c r="DB107">
-        <v>0.7241003535713425</v>
+        <v>1.099007754369777</v>
       </c>
       <c r="DC107">
-        <v>1.857875335772226</v>
+        <v>0.5313745716684999</v>
       </c>
     </row>
     <row r="108" spans="1:112">
       <c r="A108" s="1">
-        <v>44562</v>
+        <v>40634</v>
       </c>
       <c r="CU108">
-        <v>-0.02463319678557144</v>
+        <v>-1.586537542078984</v>
       </c>
       <c r="CV108">
-        <v>0.0842244338907165</v>
+        <v>-3.274835647566904</v>
       </c>
       <c r="CW108">
-        <v>-1.518158696394015</v>
+        <v>-0.9620647662724136</v>
       </c>
       <c r="CX108">
-        <v>-7.113555769895912</v>
+        <v>0.6321512730780079</v>
       </c>
       <c r="CY108">
-        <v>2.484286231577533</v>
+        <v>0.2452305312289827</v>
       </c>
       <c r="CZ108">
-        <v>3.149535499243399</v>
+        <v>0.1679887941218073</v>
       </c>
       <c r="DA108">
-        <v>-1.075303590620879</v>
+        <v>1.644877707884655</v>
       </c>
       <c r="DB108">
-        <v>0.2696044712918848</v>
+        <v>1.299503549262232</v>
       </c>
       <c r="DC108">
-        <v>1.776070816158343</v>
+        <v>0.4480858266459196</v>
       </c>
       <c r="DD108">
-        <v>0.6611695376410593</v>
+        <v>0.9319730398245117</v>
       </c>
     </row>
     <row r="109" spans="1:112">
       <c r="A109" s="1">
-        <v>44652</v>
+        <v>40725</v>
       </c>
       <c r="CV109">
-        <v>0.08406002186389186</v>
+        <v>-3.276373443951111</v>
       </c>
       <c r="CW109">
-        <v>-1.514019586849894</v>
+        <v>-0.9695917437719008</v>
       </c>
       <c r="CX109">
-        <v>-7.143525559196564</v>
+        <v>0.6332662476259785</v>
       </c>
       <c r="CY109">
-        <v>2.341523900177344</v>
+        <v>0.2508429625690244</v>
       </c>
       <c r="CZ109">
-        <v>3.021858094887168</v>
+        <v>0.1676871015057233</v>
       </c>
       <c r="DA109">
-        <v>-1.00214016284366</v>
+        <v>1.591156298838657</v>
       </c>
       <c r="DB109">
-        <v>0.4968524124316136</v>
+        <v>1.199255651816005</v>
       </c>
       <c r="DC109">
-        <v>1.816973075965284</v>
+        <v>0.4897301991572097</v>
       </c>
       <c r="DD109">
-        <v>0.156989948514632</v>
+        <v>1.21557765202201</v>
       </c>
       <c r="DE109">
-        <v>-0.05589237209497491</v>
+        <v>0.7334655993102255</v>
       </c>
     </row>
     <row r="110" spans="1:112">
       <c r="A110" s="1">
-        <v>44743</v>
+        <v>40817</v>
       </c>
       <c r="CW110">
-        <v>-1.516089141621955</v>
+        <v>-0.9658282550221572</v>
       </c>
       <c r="CX110">
-        <v>-7.128540664546238</v>
+        <v>0.6327087603519932</v>
       </c>
       <c r="CY110">
-        <v>2.412905065877439</v>
+        <v>0.2480367468990035</v>
       </c>
       <c r="CZ110">
-        <v>3.085696797065284</v>
+        <v>0.1678379478137653</v>
       </c>
       <c r="DA110">
-        <v>-1.038721876732269</v>
+        <v>1.618017003361656</v>
       </c>
       <c r="DB110">
-        <v>0.3832284418617492</v>
+        <v>1.249379600539118</v>
       </c>
       <c r="DC110">
-        <v>1.796521946061813</v>
+        <v>0.4689080129015646</v>
       </c>
       <c r="DD110">
-        <v>0.4090797430778457</v>
+        <v>1.073775345923261</v>
       </c>
       <c r="DE110">
-        <v>0.08975626216343534</v>
+        <v>0.4263439515259838</v>
       </c>
       <c r="DF110">
-        <v>0.468925960670091</v>
+        <v>0.3890732509510448</v>
       </c>
     </row>
     <row r="111" spans="1:112">
       <c r="A111" s="1">
-        <v>44835</v>
+        <v>40909</v>
       </c>
       <c r="CX111">
-        <v>-7.1360331118714</v>
+        <v>0.6329875039889858</v>
       </c>
       <c r="CY111">
-        <v>2.377214483027392</v>
+        <v>0.249439854734014</v>
       </c>
       <c r="CZ111">
-        <v>3.053777445976226</v>
+        <v>0.1677625246597443</v>
       </c>
       <c r="DA111">
-        <v>-1.020431019787964</v>
+        <v>1.604586651100157</v>
       </c>
       <c r="DB111">
-        <v>0.4400404271466814</v>
+        <v>1.224317626177561</v>
       </c>
       <c r="DC111">
-        <v>1.806747511013549</v>
+        <v>0.4793191060293872</v>
       </c>
       <c r="DD111">
-        <v>0.2830348457962388</v>
+        <v>1.144676498972636</v>
       </c>
       <c r="DE111">
-        <v>0.01693194503423021</v>
+        <v>0.5799047754181046</v>
       </c>
       <c r="DF111">
-        <v>0.3043279081412894</v>
+        <v>0.4460456798014769</v>
       </c>
       <c r="DG111">
-        <v>0.2513087266968487</v>
+        <v>0.1971582984394383</v>
       </c>
     </row>
     <row r="112" spans="1:112">
       <c r="A112" s="1">
+        <v>41000</v>
+      </c>
+      <c r="CY112">
+        <v>0.2487383008165088</v>
+      </c>
+      <c r="CZ112">
+        <v>0.1678002362367548</v>
+      </c>
+      <c r="DA112">
+        <v>1.611301827230906</v>
+      </c>
+      <c r="DB112">
+        <v>1.23684861335834</v>
+      </c>
+      <c r="DC112">
+        <v>0.474113559465476</v>
+      </c>
+      <c r="DD112">
+        <v>1.109225922447948</v>
+      </c>
+      <c r="DE112">
+        <v>0.5031243634720441</v>
+      </c>
+      <c r="DF112">
+        <v>0.4175594653762609</v>
+      </c>
+      <c r="DG112">
+        <v>0.007645258158519366</v>
+      </c>
+      <c r="DH112">
+        <v>0.164144910068436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:128">
+      <c r="A113" s="1">
+        <v>41091</v>
+      </c>
+      <c r="CZ113">
+        <v>0.1677813804482495</v>
+      </c>
+      <c r="DA113">
+        <v>1.607944239165532</v>
+      </c>
+      <c r="DB113">
+        <v>1.230583119767951</v>
+      </c>
+      <c r="DC113">
+        <v>0.4767163327474316</v>
+      </c>
+      <c r="DD113">
+        <v>1.126951210710292</v>
+      </c>
+      <c r="DE113">
+        <v>0.5415145694450744</v>
+      </c>
+      <c r="DF113">
+        <v>0.4318025725888689</v>
+      </c>
+      <c r="DG113">
+        <v>0.1024017782989788</v>
+      </c>
+      <c r="DH113">
+        <v>0.3371512561638538</v>
+      </c>
+      <c r="DI113">
+        <v>0.3847424952750509</v>
+      </c>
+    </row>
+    <row r="114" spans="1:128">
+      <c r="A114" s="1">
+        <v>41183</v>
+      </c>
+      <c r="DA114">
+        <v>1.609623033198219</v>
+      </c>
+      <c r="DB114">
+        <v>1.233715866563145</v>
+      </c>
+      <c r="DC114">
+        <v>0.4754149461064537</v>
+      </c>
+      <c r="DD114">
+        <v>1.11808856657912</v>
+      </c>
+      <c r="DE114">
+        <v>0.5223194664585593</v>
+      </c>
+      <c r="DF114">
+        <v>0.4246810189825649</v>
+      </c>
+      <c r="DG114">
+        <v>0.0550235182287491</v>
+      </c>
+      <c r="DH114">
+        <v>0.2506480831161448</v>
+      </c>
+      <c r="DI114">
+        <v>0.3277258767658468</v>
+      </c>
+      <c r="DJ114">
+        <v>0.2523452698770574</v>
+      </c>
+    </row>
+    <row r="115" spans="1:128">
+      <c r="A115" s="1">
+        <v>41275</v>
+      </c>
+      <c r="DB115">
+        <v>1.232149493165548</v>
+      </c>
+      <c r="DC115">
+        <v>0.4760656394269427</v>
+      </c>
+      <c r="DD115">
+        <v>1.122519888644706</v>
+      </c>
+      <c r="DE115">
+        <v>0.5319170179518169</v>
+      </c>
+      <c r="DF115">
+        <v>0.4282417957857169</v>
+      </c>
+      <c r="DG115">
+        <v>0.07871264826386397</v>
+      </c>
+      <c r="DH115">
+        <v>0.2938996696399993</v>
+      </c>
+      <c r="DI115">
+        <v>0.3562341860204489</v>
+      </c>
+      <c r="DJ115">
+        <v>0.2431632756872647</v>
+      </c>
+      <c r="DK115">
+        <v>-0.1792762830641941</v>
+      </c>
+    </row>
+    <row r="116" spans="1:128">
+      <c r="A116" s="1">
+        <v>41365</v>
+      </c>
+      <c r="DC116">
+        <v>0.4757402927666982</v>
+      </c>
+      <c r="DD116">
+        <v>1.120304227611913</v>
+      </c>
+      <c r="DE116">
+        <v>0.5271182422051881</v>
+      </c>
+      <c r="DF116">
+        <v>0.4264614073841408</v>
+      </c>
+      <c r="DG116">
+        <v>0.06686808324630654</v>
+      </c>
+      <c r="DH116">
+        <v>0.2722738763780721</v>
+      </c>
+      <c r="DI116">
+        <v>0.3419800313931478</v>
+      </c>
+      <c r="DJ116">
+        <v>0.247754272782161</v>
+      </c>
+      <c r="DK116">
+        <v>-0.3858945379770188</v>
+      </c>
+      <c r="DL116">
+        <v>-0.3140207857278257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:128">
+      <c r="A117" s="1">
+        <v>41456</v>
+      </c>
+      <c r="DD117">
+        <v>1.12141205812831</v>
+      </c>
+      <c r="DE117">
+        <v>0.5295176300785025</v>
+      </c>
+      <c r="DF117">
+        <v>0.4273516015849289</v>
+      </c>
+      <c r="DG117">
+        <v>0.07279036575508525</v>
+      </c>
+      <c r="DH117">
+        <v>0.2830867730090357</v>
+      </c>
+      <c r="DI117">
+        <v>0.3491071087067983</v>
+      </c>
+      <c r="DJ117">
+        <v>0.2454587742347129</v>
+      </c>
+      <c r="DK117">
+        <v>-0.2825854105206065</v>
+      </c>
+      <c r="DL117">
+        <v>-0.125367684248052</v>
+      </c>
+      <c r="DM117">
+        <v>0.3607178284786713</v>
+      </c>
+    </row>
+    <row r="118" spans="1:128">
+      <c r="A118" s="1">
+        <v>41548</v>
+      </c>
+      <c r="DE118">
+        <v>0.5283179361418453</v>
+      </c>
+      <c r="DF118">
+        <v>0.4269065044845348</v>
+      </c>
+      <c r="DG118">
+        <v>0.0698292245006959</v>
+      </c>
+      <c r="DH118">
+        <v>0.2776803246935539</v>
+      </c>
+      <c r="DI118">
+        <v>0.345543570049973</v>
+      </c>
+      <c r="DJ118">
+        <v>0.2466065235084369</v>
+      </c>
+      <c r="DK118">
+        <v>-0.3342399742488126</v>
+      </c>
+      <c r="DL118">
+        <v>-0.2196942349879388</v>
+      </c>
+      <c r="DM118">
+        <v>0.541076742718007</v>
+      </c>
+      <c r="DN118">
+        <v>0.5218781830314511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:128">
+      <c r="A119" s="1">
+        <v>41640</v>
+      </c>
+      <c r="DF119">
+        <v>0.4271290530347318</v>
+      </c>
+      <c r="DG119">
+        <v>0.07130979512789057</v>
+      </c>
+      <c r="DH119">
+        <v>0.2803835488512948</v>
+      </c>
+      <c r="DI119">
+        <v>0.3473253393783857</v>
+      </c>
+      <c r="DJ119">
+        <v>0.2460326488715749</v>
+      </c>
+      <c r="DK119">
+        <v>-0.3084126923847096</v>
+      </c>
+      <c r="DL119">
+        <v>-0.1725309596179954</v>
+      </c>
+      <c r="DM119">
+        <v>0.4508972855983391</v>
+      </c>
+      <c r="DN119">
+        <v>0.4220994460685052</v>
+      </c>
+      <c r="DO119">
+        <v>0.3530389801663482</v>
+      </c>
+    </row>
+    <row r="120" spans="1:128">
+      <c r="A120" s="1">
+        <v>41730</v>
+      </c>
+      <c r="DG120">
+        <v>0.07056950981429323</v>
+      </c>
+      <c r="DH120">
+        <v>0.2790319367724243</v>
+      </c>
+      <c r="DI120">
+        <v>0.3464344547141794</v>
+      </c>
+      <c r="DJ120">
+        <v>0.2463195861900059</v>
+      </c>
+      <c r="DK120">
+        <v>-0.3213263333167611</v>
+      </c>
+      <c r="DL120">
+        <v>-0.1961125973029671</v>
+      </c>
+      <c r="DM120">
+        <v>0.495987014158173</v>
+      </c>
+      <c r="DN120">
+        <v>0.4719888145499782</v>
+      </c>
+      <c r="DO120">
+        <v>0.3683981156967425</v>
+      </c>
+      <c r="DP120">
+        <v>0.6008402187856887</v>
+      </c>
+    </row>
+    <row r="121" spans="1:128">
+      <c r="A121" s="1">
+        <v>41821</v>
+      </c>
+      <c r="DH121">
+        <v>0.2797077428118596</v>
+      </c>
+      <c r="DI121">
+        <v>0.3468798970462825</v>
+      </c>
+      <c r="DJ121">
+        <v>0.2461761175307904</v>
+      </c>
+      <c r="DK121">
+        <v>-0.3148695128507353</v>
+      </c>
+      <c r="DL121">
+        <v>-0.1843217784604813</v>
+      </c>
+      <c r="DM121">
+        <v>0.4734421498782561</v>
+      </c>
+      <c r="DN121">
+        <v>0.4470441303092417</v>
+      </c>
+      <c r="DO121">
+        <v>0.3607185479315453</v>
+      </c>
+      <c r="DP121">
+        <v>0.7093817025649646</v>
+      </c>
+      <c r="DQ121">
+        <v>0.2529894957798157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:128">
+      <c r="A122" s="1">
+        <v>41913</v>
+      </c>
+      <c r="DI122">
+        <v>0.3466571758802309</v>
+      </c>
+      <c r="DJ122">
+        <v>0.2462478518603982</v>
+      </c>
+      <c r="DK122">
+        <v>-0.3180979230837482</v>
+      </c>
+      <c r="DL122">
+        <v>-0.1902171878817242</v>
+      </c>
+      <c r="DM122">
+        <v>0.4847145820182145</v>
+      </c>
+      <c r="DN122">
+        <v>0.4595164724296099</v>
+      </c>
+      <c r="DO122">
+        <v>0.3645583318141439</v>
+      </c>
+      <c r="DP122">
+        <v>0.6551109606753267</v>
+      </c>
+      <c r="DQ122">
+        <v>0.04605564502248959</v>
+      </c>
+      <c r="DR122">
+        <v>-0.009426295769667317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:128">
+      <c r="A123" s="1">
+        <v>42005</v>
+      </c>
+      <c r="DJ123">
+        <v>0.2462119846955943</v>
+      </c>
+      <c r="DK123">
+        <v>-0.3164837179672417</v>
+      </c>
+      <c r="DL123">
+        <v>-0.1872694831711027</v>
+      </c>
+      <c r="DM123">
+        <v>0.4790783659482353</v>
+      </c>
+      <c r="DN123">
+        <v>0.4532803013694258</v>
+      </c>
+      <c r="DO123">
+        <v>0.3626384398728446</v>
+      </c>
+      <c r="DP123">
+        <v>0.6822463316201457</v>
+      </c>
+      <c r="DQ123">
+        <v>0.1495225704011526</v>
+      </c>
+      <c r="DR123">
+        <v>0.02840570147171118</v>
+      </c>
+      <c r="DS123">
+        <v>0.382964429842135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:128">
+      <c r="A124" s="1">
+        <v>42095</v>
+      </c>
+      <c r="DK124">
+        <v>-0.317290820525495</v>
+      </c>
+      <c r="DL124">
+        <v>-0.1887433355264135</v>
+      </c>
+      <c r="DM124">
+        <v>0.4818964739832249</v>
+      </c>
+      <c r="DN124">
+        <v>0.4563983868995178</v>
+      </c>
+      <c r="DO124">
+        <v>0.3635983858434942</v>
+      </c>
+      <c r="DP124">
+        <v>0.6686786461477362</v>
+      </c>
+      <c r="DQ124">
+        <v>0.09778910771182112</v>
+      </c>
+      <c r="DR124">
+        <v>0.009489702851021933</v>
+      </c>
+      <c r="DS124">
+        <v>0.5413309289906566</v>
+      </c>
+      <c r="DT124">
+        <v>0.4859989488113761</v>
+      </c>
+    </row>
+    <row r="125" spans="1:128">
+      <c r="A125" s="1">
+        <v>42186</v>
+      </c>
+      <c r="DL125">
+        <v>-0.1880064093487581</v>
+      </c>
+      <c r="DM125">
+        <v>0.4804874199657301</v>
+      </c>
+      <c r="DN125">
+        <v>0.4548393441344718</v>
+      </c>
+      <c r="DO125">
+        <v>0.3631184128581694</v>
+      </c>
+      <c r="DP125">
+        <v>0.6754624888839409</v>
+      </c>
+      <c r="DQ125">
+        <v>0.1236558390564869</v>
+      </c>
+      <c r="DR125">
+        <v>0.01894770216136656</v>
+      </c>
+      <c r="DS125">
+        <v>0.4621476794163958</v>
+      </c>
+      <c r="DT125">
+        <v>0.379149709147475</v>
+      </c>
+      <c r="DU125">
+        <v>0.3925721303289792</v>
+      </c>
+    </row>
+    <row r="126" spans="1:128">
+      <c r="A126" s="1">
+        <v>42278</v>
+      </c>
+      <c r="DM126">
+        <v>0.4811919469744775</v>
+      </c>
+      <c r="DN126">
+        <v>0.4556188655169948</v>
+      </c>
+      <c r="DO126">
+        <v>0.3633583993508318</v>
+      </c>
+      <c r="DP126">
+        <v>0.6720705675158385</v>
+      </c>
+      <c r="DQ126">
+        <v>0.110722473384154</v>
+      </c>
+      <c r="DR126">
+        <v>0.01421870250619424</v>
+      </c>
+      <c r="DS126">
+        <v>0.5017393042035262</v>
+      </c>
+      <c r="DT126">
+        <v>0.4325743289794255</v>
+      </c>
+      <c r="DU126">
+        <v>0.41560477725035</v>
+      </c>
+      <c r="DV126">
+        <v>0.3772819159513079</v>
+      </c>
+    </row>
+    <row r="127" spans="1:128">
+      <c r="A127" s="1">
+        <v>42370</v>
+      </c>
+      <c r="DN127">
+        <v>0.4552291048257333</v>
+      </c>
+      <c r="DO127">
+        <v>0.3632384061045006</v>
+      </c>
+      <c r="DP127">
+        <v>0.6737665281998897</v>
+      </c>
+      <c r="DQ127">
+        <v>0.1171891562203204</v>
+      </c>
+      <c r="DR127">
+        <v>0.0165832023337804</v>
+      </c>
+      <c r="DS127">
+        <v>0.481943491809961</v>
+      </c>
+      <c r="DT127">
+        <v>0.4058620190634502</v>
+      </c>
+      <c r="DU127">
+        <v>0.4040884537896646</v>
+      </c>
+      <c r="DV127">
+        <v>0.3466041618411014</v>
+      </c>
+      <c r="DW127">
+        <v>0.2737126832604646</v>
+      </c>
+    </row>
+    <row r="128" spans="1:128">
+      <c r="A128" s="1">
+        <v>42461</v>
+      </c>
+      <c r="DO128">
+        <v>0.3632984027276662</v>
+      </c>
+      <c r="DP128">
+        <v>0.6729185478578641</v>
+      </c>
+      <c r="DQ128">
+        <v>0.1139558148022372</v>
+      </c>
+      <c r="DR128">
+        <v>0.01540095241998732</v>
+      </c>
+      <c r="DS128">
+        <v>0.4918413980067436</v>
+      </c>
+      <c r="DT128">
+        <v>0.4192181740214379</v>
+      </c>
+      <c r="DU128">
+        <v>0.4098466155200073</v>
+      </c>
+      <c r="DV128">
+        <v>0.3619430388962047</v>
+      </c>
+      <c r="DW128">
+        <v>0.2712026772181096</v>
+      </c>
+      <c r="DX128">
+        <v>0.4670020369369805</v>
+      </c>
+    </row>
+    <row r="129" spans="1:144">
+      <c r="A129" s="1">
+        <v>42552</v>
+      </c>
+      <c r="DP129">
+        <v>0.6733425380288769</v>
+      </c>
+      <c r="DQ129">
+        <v>0.1155724855112788</v>
+      </c>
+      <c r="DR129">
+        <v>0.01599207737688386</v>
+      </c>
+      <c r="DS129">
+        <v>0.4868924449083523</v>
+      </c>
+      <c r="DT129">
+        <v>0.4125400965424441</v>
+      </c>
+      <c r="DU129">
+        <v>0.406967534654836</v>
+      </c>
+      <c r="DV129">
+        <v>0.3542736003686531</v>
+      </c>
+      <c r="DW129">
+        <v>0.2724576802392871</v>
+      </c>
+      <c r="DX129">
+        <v>0.5661567198175934</v>
+      </c>
+      <c r="DY129">
+        <v>0.5599785102943742</v>
+      </c>
+    </row>
+    <row r="130" spans="1:144">
+      <c r="A130" s="1">
+        <v>42644</v>
+      </c>
+      <c r="DQ130">
+        <v>0.114764150156758</v>
+      </c>
+      <c r="DR130">
+        <v>0.01569651489843559</v>
+      </c>
+      <c r="DS130">
+        <v>0.4893669214575479</v>
+      </c>
+      <c r="DT130">
+        <v>0.415879135281941</v>
+      </c>
+      <c r="DU130">
+        <v>0.4084070750874217</v>
+      </c>
+      <c r="DV130">
+        <v>0.3581083196324288</v>
+      </c>
+      <c r="DW130">
+        <v>0.2718301787286984</v>
+      </c>
+      <c r="DX130">
+        <v>0.516579378377287</v>
+      </c>
+      <c r="DY130">
+        <v>0.4856189389344302</v>
+      </c>
+      <c r="DZ130">
+        <v>0.3011971726376999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:144">
+      <c r="A131" s="1">
+        <v>42736</v>
+      </c>
+      <c r="DR131">
+        <v>0.01584429613765972</v>
+      </c>
+      <c r="DS131">
+        <v>0.4881296831829501</v>
+      </c>
+      <c r="DT131">
+        <v>0.4142096159121925</v>
+      </c>
+      <c r="DU131">
+        <v>0.4076873048711288</v>
+      </c>
+      <c r="DV131">
+        <v>0.356190960000541</v>
+      </c>
+      <c r="DW131">
+        <v>0.2721439294839928</v>
+      </c>
+      <c r="DX131">
+        <v>0.5413680490974402</v>
+      </c>
+      <c r="DY131">
+        <v>0.5227987246144021</v>
+      </c>
+      <c r="DZ131">
+        <v>0.2461660751693067</v>
+      </c>
+      <c r="EA131">
+        <v>0.2816807417048267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:144">
+      <c r="A132" s="1">
+        <v>42826</v>
+      </c>
+      <c r="DS132">
+        <v>0.488748302320249</v>
+      </c>
+      <c r="DT132">
+        <v>0.4150443755970668</v>
+      </c>
+      <c r="DU132">
+        <v>0.4080471899792752</v>
+      </c>
+      <c r="DV132">
+        <v>0.3571496398164849</v>
+      </c>
+      <c r="DW132">
+        <v>0.2719870541063456</v>
+      </c>
+      <c r="DX132">
+        <v>0.5289737137373636</v>
+      </c>
+      <c r="DY132">
+        <v>0.5042088317744162</v>
+      </c>
+      <c r="DZ132">
+        <v>0.2736816239035033</v>
+      </c>
+      <c r="EA132">
+        <v>0.3543020839962042</v>
+      </c>
+      <c r="EB132">
+        <v>0.5118111503608368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:144">
+      <c r="A133" s="1">
+        <v>42917</v>
+      </c>
+      <c r="DT133">
+        <v>0.4146269957546296</v>
+      </c>
+      <c r="DU133">
+        <v>0.407867247425202</v>
+      </c>
+      <c r="DV133">
+        <v>0.356670299908513</v>
+      </c>
+      <c r="DW133">
+        <v>0.2720654917951692</v>
+      </c>
+      <c r="DX133">
+        <v>0.5351708814174019</v>
+      </c>
+      <c r="DY133">
+        <v>0.5135037781944092</v>
+      </c>
+      <c r="DZ133">
+        <v>0.259923849536405</v>
+      </c>
+      <c r="EA133">
+        <v>0.3179914128505155</v>
+      </c>
+      <c r="EB133">
+        <v>0.5588536670596016</v>
+      </c>
+      <c r="EC133">
+        <v>0.6636359510343999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:144">
+      <c r="A134" s="1">
+        <v>43009</v>
+      </c>
+      <c r="DU134">
+        <v>0.4079572187022387</v>
+      </c>
+      <c r="DV134">
+        <v>0.3569099698624989</v>
+      </c>
+      <c r="DW134">
+        <v>0.2720262729507574</v>
+      </c>
+      <c r="DX134">
+        <v>0.5320722975773827</v>
+      </c>
+      <c r="DY134">
+        <v>0.5088563049844127</v>
+      </c>
+      <c r="DZ134">
+        <v>0.2668027367199541</v>
+      </c>
+      <c r="EA134">
+        <v>0.3361467484233598</v>
+      </c>
+      <c r="EB134">
+        <v>0.5353324087102191</v>
+      </c>
+      <c r="EC134">
+        <v>0.6400463325260437</v>
+      </c>
+      <c r="ED134">
+        <v>0.7286847193651798</v>
+      </c>
+    </row>
+    <row r="135" spans="1:144">
+      <c r="A135" s="1">
+        <v>43101</v>
+      </c>
+      <c r="DV135">
+        <v>0.3567901348855059</v>
+      </c>
+      <c r="DW135">
+        <v>0.2720458823729633</v>
+      </c>
+      <c r="DX135">
+        <v>0.5336215894973924</v>
+      </c>
+      <c r="DY135">
+        <v>0.511180041589411</v>
+      </c>
+      <c r="DZ135">
+        <v>0.2633632931281796</v>
+      </c>
+      <c r="EA135">
+        <v>0.3270690806369376</v>
+      </c>
+      <c r="EB135">
+        <v>0.5470930378849104</v>
+      </c>
+      <c r="EC135">
+        <v>0.6518411417802218</v>
+      </c>
+      <c r="ED135">
+        <v>0.7764302717704987</v>
+      </c>
+      <c r="EE135">
+        <v>0.6712282563247641</v>
+      </c>
+    </row>
+    <row r="136" spans="1:144">
+      <c r="A136" s="1">
+        <v>43191</v>
+      </c>
+      <c r="DW136">
+        <v>0.2720360776618604</v>
+      </c>
+      <c r="DX136">
+        <v>0.5328469435373875</v>
+      </c>
+      <c r="DY136">
+        <v>0.5100181732869118</v>
+      </c>
+      <c r="DZ136">
+        <v>0.2650830149240668</v>
+      </c>
+      <c r="EA136">
+        <v>0.3316079145301487</v>
+      </c>
+      <c r="EB136">
+        <v>0.5412127232975648</v>
+      </c>
+      <c r="EC136">
+        <v>0.6459437371531327</v>
+      </c>
+      <c r="ED136">
+        <v>0.7525574955678392</v>
+      </c>
+      <c r="EE136">
+        <v>0.6390975905128384</v>
+      </c>
+      <c r="EF136">
+        <v>0.4521238400718821</v>
+      </c>
+    </row>
+    <row r="137" spans="1:144">
+      <c r="A137" s="1">
+        <v>43282</v>
+      </c>
+      <c r="DX137">
+        <v>0.5332342665173899</v>
+      </c>
+      <c r="DY137">
+        <v>0.5105991074381614</v>
+      </c>
+      <c r="DZ137">
+        <v>0.2642231540261232</v>
+      </c>
+      <c r="EA137">
+        <v>0.3293384975835432</v>
+      </c>
+      <c r="EB137">
+        <v>0.5441528805912376</v>
+      </c>
+      <c r="EC137">
+        <v>0.6488924394666773</v>
+      </c>
+      <c r="ED137">
+        <v>0.764493883669169</v>
+      </c>
+      <c r="EE137">
+        <v>0.6551629234188012</v>
+      </c>
+      <c r="EF137">
+        <v>0.3747022977573667</v>
+      </c>
+      <c r="EG137">
+        <v>0.4088308827094236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:144">
+      <c r="A138" s="1">
+        <v>43374</v>
+      </c>
+      <c r="DY138">
+        <v>0.5103086403625365</v>
+      </c>
+      <c r="DZ138">
+        <v>0.264653084475095</v>
+      </c>
+      <c r="EA138">
+        <v>0.3304732060568459</v>
+      </c>
+      <c r="EB138">
+        <v>0.5426828019444012</v>
+      </c>
+      <c r="EC138">
+        <v>0.647418088309905</v>
+      </c>
+      <c r="ED138">
+        <v>0.7585256896185042</v>
+      </c>
+      <c r="EE138">
+        <v>0.6471302569658198</v>
+      </c>
+      <c r="EF138">
+        <v>0.4134130689146244</v>
+      </c>
+      <c r="EG138">
+        <v>0.4302078859921395</v>
+      </c>
+      <c r="EH138">
+        <v>0.1263716786652638</v>
+      </c>
+    </row>
+    <row r="139" spans="1:144">
+      <c r="A139" s="1">
+        <v>43466</v>
+      </c>
+      <c r="DZ139">
+        <v>0.2644381192506091</v>
+      </c>
+      <c r="EA139">
+        <v>0.3299058518201946</v>
+      </c>
+      <c r="EB139">
+        <v>0.5434178412678194</v>
+      </c>
+      <c r="EC139">
+        <v>0.6481552638882911</v>
+      </c>
+      <c r="ED139">
+        <v>0.7615097866438366</v>
+      </c>
+      <c r="EE139">
+        <v>0.6511465901923106</v>
+      </c>
+      <c r="EF139">
+        <v>0.3940576833359956</v>
+      </c>
+      <c r="EG139">
+        <v>0.4195193843507815</v>
+      </c>
+      <c r="EH139">
+        <v>-0.036234926639532</v>
+      </c>
+      <c r="EI139">
+        <v>-0.09075041317066823</v>
+      </c>
+    </row>
+    <row r="140" spans="1:144">
+      <c r="A140" s="1">
+        <v>43556</v>
+      </c>
+      <c r="EA140">
+        <v>0.3301895289385203</v>
+      </c>
+      <c r="EB140">
+        <v>0.5430503216061103</v>
+      </c>
+      <c r="EC140">
+        <v>0.647786676099098</v>
+      </c>
+      <c r="ED140">
+        <v>0.7600177381311704</v>
+      </c>
+      <c r="EE140">
+        <v>0.6491384235790651</v>
+      </c>
+      <c r="EF140">
+        <v>0.40373537612531</v>
+      </c>
+      <c r="EG140">
+        <v>0.4248636351714605</v>
+      </c>
+      <c r="EH140">
+        <v>0.0450683760128659</v>
+      </c>
+      <c r="EI140">
+        <v>-0.03671344824839344</v>
+      </c>
+      <c r="EJ140">
+        <v>0.2208380811913595</v>
+      </c>
+    </row>
+    <row r="141" spans="1:144">
+      <c r="A141" s="1">
+        <v>43647</v>
+      </c>
+      <c r="EB141">
+        <v>0.5432340814369649</v>
+      </c>
+      <c r="EC141">
+        <v>0.6479709699936946</v>
+      </c>
+      <c r="ED141">
+        <v>0.7607637623875034</v>
+      </c>
+      <c r="EE141">
+        <v>0.6501425068856879</v>
+      </c>
+      <c r="EF141">
+        <v>0.3988965297306528</v>
+      </c>
+      <c r="EG141">
+        <v>0.422191509761121</v>
+      </c>
+      <c r="EH141">
+        <v>0.004416724686666953</v>
+      </c>
+      <c r="EI141">
+        <v>-0.06373193070953084</v>
+      </c>
+      <c r="EJ141">
+        <v>0.3225953634500986</v>
+      </c>
+      <c r="EK141">
+        <v>0.1547826744344046</v>
+      </c>
+    </row>
+    <row r="142" spans="1:144">
+      <c r="A142" s="1">
+        <v>43739</v>
+      </c>
+      <c r="EC142">
+        <v>0.6478788230463963</v>
+      </c>
+      <c r="ED142">
+        <v>0.7603907502593369</v>
+      </c>
+      <c r="EE142">
+        <v>0.6496404652323765</v>
+      </c>
+      <c r="EF142">
+        <v>0.4013159529279814</v>
+      </c>
+      <c r="EG142">
+        <v>0.4235275724662908</v>
+      </c>
+      <c r="EH142">
+        <v>0.02474255034976643</v>
+      </c>
+      <c r="EI142">
+        <v>-0.05022268947896214</v>
+      </c>
+      <c r="EJ142">
+        <v>0.2717167223207291</v>
+      </c>
+      <c r="EK142">
+        <v>0.04004655148291123</v>
+      </c>
+      <c r="EL142">
+        <v>-0.07918898587295509</v>
+      </c>
+    </row>
+    <row r="143" spans="1:144">
+      <c r="A143" s="1">
+        <v>43831</v>
+      </c>
+      <c r="ED143">
+        <v>0.7605772563234201</v>
+      </c>
+      <c r="EE143">
+        <v>0.6498914860590321</v>
+      </c>
+      <c r="EF143">
+        <v>0.400106241329317</v>
+      </c>
+      <c r="EG143">
+        <v>0.4228595411137059</v>
+      </c>
+      <c r="EH143">
+        <v>0.01457963751821669</v>
+      </c>
+      <c r="EI143">
+        <v>-0.05697731009424649</v>
+      </c>
+      <c r="EJ143">
+        <v>0.2971560428854139</v>
+      </c>
+      <c r="EK143">
+        <v>0.0974146129586579</v>
+      </c>
+      <c r="EL143">
+        <v>0.002485177906987678</v>
+      </c>
+      <c r="EM143">
+        <v>0.1121744784509069</v>
+      </c>
+    </row>
+    <row r="144" spans="1:144">
+      <c r="A144" s="1">
+        <v>43922</v>
+      </c>
+      <c r="EE144">
+        <v>0.6497659756457044</v>
+      </c>
+      <c r="EF144">
+        <v>0.4007110971286492</v>
+      </c>
+      <c r="EG144">
+        <v>0.4231935567899984</v>
+      </c>
+      <c r="EH144">
+        <v>0.01966109393399156</v>
+      </c>
+      <c r="EI144">
+        <v>-0.05359999978660432</v>
+      </c>
+      <c r="EJ144">
+        <v>0.2844363826030715</v>
+      </c>
+      <c r="EK144">
+        <v>0.06873058222078457</v>
+      </c>
+      <c r="EL144">
+        <v>-0.0383519039829837</v>
+      </c>
+      <c r="EM144">
+        <v>0.07008499958379664</v>
+      </c>
+      <c r="EN144">
+        <v>-1.162195275599549</v>
+      </c>
+    </row>
+    <row r="145" spans="1:160">
+      <c r="A145" s="1">
+        <v>44013</v>
+      </c>
+      <c r="EF145">
+        <v>0.4004086692289831</v>
+      </c>
+      <c r="EG145">
+        <v>0.4230265489518522</v>
+      </c>
+      <c r="EH145">
+        <v>0.01712036572610412</v>
+      </c>
+      <c r="EI145">
+        <v>-0.0552886549404254</v>
+      </c>
+      <c r="EJ145">
+        <v>0.2907962127442427</v>
+      </c>
+      <c r="EK145">
+        <v>0.08307259758972124</v>
+      </c>
+      <c r="EL145">
+        <v>-0.01793336303799801</v>
+      </c>
+      <c r="EM145">
+        <v>0.09112973901735177</v>
+      </c>
+      <c r="EN145">
+        <v>-1.692001297247127</v>
+      </c>
+      <c r="EO145">
+        <v>-5.854824619268521</v>
+      </c>
+    </row>
+    <row r="146" spans="1:160">
+      <c r="A146" s="1">
+        <v>44105</v>
+      </c>
+      <c r="EG146">
+        <v>0.4231100528709253</v>
+      </c>
+      <c r="EH146">
+        <v>0.01839072983004784</v>
+      </c>
+      <c r="EI146">
+        <v>-0.05444432736351486</v>
+      </c>
+      <c r="EJ146">
+        <v>0.287616297673657</v>
+      </c>
+      <c r="EK146">
+        <v>0.07590158990525291</v>
+      </c>
+      <c r="EL146">
+        <v>-0.02814263351049086</v>
+      </c>
+      <c r="EM146">
+        <v>0.08060736930057422</v>
+      </c>
+      <c r="EN146">
+        <v>-1.427098286423338</v>
+      </c>
+      <c r="EO146">
+        <v>-7.77289113451026</v>
+      </c>
+      <c r="EP146">
+        <v>-0.6564850592266236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:160">
+      <c r="A147" s="1">
+        <v>44197</v>
+      </c>
+      <c r="EH147">
+        <v>0.01775554777807598</v>
+      </c>
+      <c r="EI147">
+        <v>-0.05486649115197013</v>
+      </c>
+      <c r="EJ147">
+        <v>0.2892062552089498</v>
+      </c>
+      <c r="EK147">
+        <v>0.07948709374748708</v>
+      </c>
+      <c r="EL147">
+        <v>-0.02303799827424444</v>
+      </c>
+      <c r="EM147">
+        <v>0.085868554158963</v>
+      </c>
+      <c r="EN147">
+        <v>-1.559549791835233</v>
+      </c>
+      <c r="EO147">
+        <v>-6.81385787688939</v>
+      </c>
+      <c r="EP147">
+        <v>3.911909545579423</v>
+      </c>
+      <c r="EQ147">
+        <v>4.426309542805707</v>
+      </c>
+    </row>
+    <row r="148" spans="1:160">
+      <c r="A148" s="1">
+        <v>44287</v>
+      </c>
+      <c r="EI148">
+        <v>-0.0546554092577425</v>
+      </c>
+      <c r="EJ148">
+        <v>0.2884112764413034</v>
+      </c>
+      <c r="EK148">
+        <v>0.07769434182637</v>
+      </c>
+      <c r="EL148">
+        <v>-0.02559031589236765</v>
+      </c>
+      <c r="EM148">
+        <v>0.08323796172976861</v>
+      </c>
+      <c r="EN148">
+        <v>-1.493324039129285</v>
+      </c>
+      <c r="EO148">
+        <v>-7.293374505699825</v>
+      </c>
+      <c r="EP148">
+        <v>1.6277122431764</v>
+      </c>
+      <c r="EQ148">
+        <v>2.383471073106014</v>
+      </c>
+      <c r="ER148">
+        <v>-0.6363230239575632</v>
+      </c>
+    </row>
+    <row r="149" spans="1:160">
+      <c r="A149" s="1">
+        <v>44378</v>
+      </c>
+      <c r="EJ149">
+        <v>0.2888087658251266</v>
+      </c>
+      <c r="EK149">
+        <v>0.07859071778692854</v>
+      </c>
+      <c r="EL149">
+        <v>-0.02431415708330604</v>
+      </c>
+      <c r="EM149">
+        <v>0.0845532579443658</v>
+      </c>
+      <c r="EN149">
+        <v>-1.526436915482259</v>
+      </c>
+      <c r="EO149">
+        <v>-7.053616191294608</v>
+      </c>
+      <c r="EP149">
+        <v>2.769810894377911</v>
+      </c>
+      <c r="EQ149">
+        <v>3.40489030795586</v>
+      </c>
+      <c r="ER149">
+        <v>-1.221630446175318</v>
+      </c>
+      <c r="ES149">
+        <v>-0.184891410987573</v>
+      </c>
+    </row>
+    <row r="150" spans="1:160">
+      <c r="A150" s="1">
+        <v>44470</v>
+      </c>
+      <c r="EK150">
+        <v>0.07814252980664926</v>
+      </c>
+      <c r="EL150">
+        <v>-0.02495223648783684</v>
+      </c>
+      <c r="EM150">
+        <v>0.0838956098370672</v>
+      </c>
+      <c r="EN150">
+        <v>-1.509880477305772</v>
+      </c>
+      <c r="EO150">
+        <v>-7.173495348497216</v>
+      </c>
+      <c r="EP150">
+        <v>2.198761568777155</v>
+      </c>
+      <c r="EQ150">
+        <v>2.894180690530937</v>
+      </c>
+      <c r="ER150">
+        <v>-0.9289767350664404</v>
+      </c>
+      <c r="ES150">
+        <v>0.7241003535713425</v>
+      </c>
+      <c r="ET150">
+        <v>1.857875335772226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:160">
+      <c r="A151" s="1">
+        <v>44562</v>
+      </c>
+      <c r="EL151">
+        <v>-0.02463319678557144</v>
+      </c>
+      <c r="EM151">
+        <v>0.0842244338907165</v>
+      </c>
+      <c r="EN151">
+        <v>-1.518158696394015</v>
+      </c>
+      <c r="EO151">
+        <v>-7.113555769895912</v>
+      </c>
+      <c r="EP151">
+        <v>2.484286231577533</v>
+      </c>
+      <c r="EQ151">
+        <v>3.149535499243399</v>
+      </c>
+      <c r="ER151">
+        <v>-1.075303590620879</v>
+      </c>
+      <c r="ES151">
+        <v>0.2696044712918848</v>
+      </c>
+      <c r="ET151">
+        <v>1.776070816158343</v>
+      </c>
+      <c r="EU151">
+        <v>0.6611695376410593</v>
+      </c>
+    </row>
+    <row r="152" spans="1:160">
+      <c r="A152" s="1">
+        <v>44652</v>
+      </c>
+      <c r="EM152">
+        <v>0.08406002186389186</v>
+      </c>
+      <c r="EN152">
+        <v>-1.514019586849894</v>
+      </c>
+      <c r="EO152">
+        <v>-7.143525559196564</v>
+      </c>
+      <c r="EP152">
+        <v>2.341523900177344</v>
+      </c>
+      <c r="EQ152">
+        <v>3.021858094887168</v>
+      </c>
+      <c r="ER152">
+        <v>-1.00214016284366</v>
+      </c>
+      <c r="ES152">
+        <v>0.4968524124316136</v>
+      </c>
+      <c r="ET152">
+        <v>1.816973075965284</v>
+      </c>
+      <c r="EU152">
+        <v>0.156989948514632</v>
+      </c>
+      <c r="EV152">
+        <v>-0.05589237209497491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:160">
+      <c r="A153" s="1">
+        <v>44743</v>
+      </c>
+      <c r="EN153">
+        <v>-1.516089141621955</v>
+      </c>
+      <c r="EO153">
+        <v>-7.128540664546238</v>
+      </c>
+      <c r="EP153">
+        <v>2.412905065877439</v>
+      </c>
+      <c r="EQ153">
+        <v>3.085696797065284</v>
+      </c>
+      <c r="ER153">
+        <v>-1.038721876732269</v>
+      </c>
+      <c r="ES153">
+        <v>0.3832284418617492</v>
+      </c>
+      <c r="ET153">
+        <v>1.796521946061813</v>
+      </c>
+      <c r="EU153">
+        <v>0.4090797430778457</v>
+      </c>
+      <c r="EV153">
+        <v>0.08975626216343534</v>
+      </c>
+      <c r="EW153">
+        <v>0.468925960670091</v>
+      </c>
+    </row>
+    <row r="154" spans="1:160">
+      <c r="A154" s="1">
+        <v>44835</v>
+      </c>
+      <c r="EO154">
+        <v>-7.1360331118714</v>
+      </c>
+      <c r="EP154">
+        <v>2.377214483027392</v>
+      </c>
+      <c r="EQ154">
+        <v>3.053777445976226</v>
+      </c>
+      <c r="ER154">
+        <v>-1.020431019787964</v>
+      </c>
+      <c r="ES154">
+        <v>0.4400404271466814</v>
+      </c>
+      <c r="ET154">
+        <v>1.806747511013549</v>
+      </c>
+      <c r="EU154">
+        <v>0.2830348457962388</v>
+      </c>
+      <c r="EV154">
+        <v>0.01693194503423021</v>
+      </c>
+      <c r="EW154">
+        <v>0.3043279081412894</v>
+      </c>
+      <c r="EX154">
+        <v>0.2513087266968487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:160">
+      <c r="A155" s="1">
         <v>44927</v>
       </c>
-      <c r="CY112">
+      <c r="EP155">
         <v>2.395059774452415</v>
       </c>
-      <c r="CZ112">
+      <c r="EQ155">
         <v>3.069737121520755</v>
       </c>
-      <c r="DA112">
+      <c r="ER155">
         <v>-1.029576448260117</v>
       </c>
-      <c r="DB112">
+      <c r="ES155">
         <v>0.4116344345042153</v>
       </c>
-      <c r="DC112">
+      <c r="ET155">
         <v>1.801634728537681</v>
       </c>
-      <c r="DD112">
+      <c r="EU155">
         <v>0.3460572944370423</v>
       </c>
-      <c r="DE112">
+      <c r="EV155">
         <v>0.05334410359883278</v>
       </c>
-      <c r="DF112">
+      <c r="EW155">
         <v>0.3866269344056902</v>
       </c>
-      <c r="DG112">
+      <c r="EX155">
         <v>0.3257288096540296</v>
       </c>
-      <c r="DH112">
+      <c r="EY155">
         <v>0.01964454733300644</v>
       </c>
     </row>
-    <row r="113" spans="1:121">
-      <c r="A113" s="1">
+    <row r="156" spans="1:160">
+      <c r="A156" s="1">
         <v>45017</v>
       </c>
-      <c r="CZ113">
+      <c r="EQ156">
         <v>3.061757283748491</v>
       </c>
-      <c r="DA113">
+      <c r="ER156">
         <v>-1.025003734024041</v>
       </c>
-      <c r="DB113">
+      <c r="ES156">
         <v>0.4258374308254483</v>
       </c>
-      <c r="DC113">
+      <c r="ET156">
         <v>1.804191119775615</v>
       </c>
-      <c r="DD113">
+      <c r="EU156">
         <v>0.3145460701166405</v>
       </c>
-      <c r="DE113">
+      <c r="EV156">
         <v>0.0351380243165315</v>
       </c>
-      <c r="DF113">
+      <c r="EW156">
         <v>0.3454774212734898</v>
       </c>
-      <c r="DG113">
+      <c r="EX156">
         <v>0.2885187681754391</v>
       </c>
-      <c r="DH113">
+      <c r="EY156">
         <v>-0.2078307781071371</v>
       </c>
-      <c r="DI113">
+      <c r="EZ156">
         <v>-0.4362064995429919</v>
       </c>
     </row>
-    <row r="114" spans="1:121">
-      <c r="A114" s="1">
+    <row r="157" spans="1:160">
+      <c r="A157" s="1">
         <v>45108</v>
       </c>
-      <c r="DA114">
+      <c r="ER157">
         <v>-1.027290091142079</v>
       </c>
-      <c r="DB114">
+      <c r="ES157">
         <v>0.4187359326648318</v>
       </c>
-      <c r="DC114">
+      <c r="ET157">
         <v>1.802912924156648</v>
       </c>
-      <c r="DD114">
+      <c r="EU157">
         <v>0.3303016822768414</v>
       </c>
-      <c r="DE114">
+      <c r="EV157">
         <v>0.04424106395768214</v>
       </c>
-      <c r="DF114">
+      <c r="EW157">
         <v>0.36605217783959</v>
       </c>
-      <c r="DG114">
+      <c r="EX157">
         <v>0.3071237889147344</v>
       </c>
-      <c r="DH114">
+      <c r="EY157">
         <v>-0.09409311538706532</v>
       </c>
-      <c r="DI114">
+      <c r="EZ157">
         <v>-0.3857166215938255</v>
       </c>
-      <c r="DJ114">
+      <c r="FA157">
         <v>-0.03707650669273283</v>
       </c>
     </row>
-    <row r="115" spans="1:121">
-      <c r="A115" s="1">
+    <row r="158" spans="1:160">
+      <c r="A158" s="1">
         <v>45200</v>
       </c>
-      <c r="DB115">
+      <c r="ES158">
         <v>0.4222866817451401</v>
       </c>
-      <c r="DC115">
+      <c r="ET158">
         <v>1.803552021966132</v>
       </c>
-      <c r="DD115">
+      <c r="EU158">
         <v>0.322423876196741</v>
       </c>
-      <c r="DE115">
+      <c r="EV158">
         <v>0.03968954413710682</v>
       </c>
-      <c r="DF115">
+      <c r="EW158">
         <v>0.3557647995565399</v>
       </c>
-      <c r="DG115">
+      <c r="EX158">
         <v>0.2978212785450868</v>
       </c>
-      <c r="DH115">
+      <c r="EY158">
         <v>-0.1509619467471012</v>
       </c>
-      <c r="DI115">
+      <c r="EZ158">
         <v>-0.4109615605684087</v>
       </c>
-      <c r="DJ115">
+      <c r="FA158">
         <v>-0.009258372128847846</v>
       </c>
-      <c r="DK115">
+      <c r="FB158">
         <v>0.004725767866679595</v>
       </c>
     </row>
-    <row r="116" spans="1:121">
-      <c r="A116" s="1">
+    <row r="159" spans="1:160">
+      <c r="A159" s="1">
         <v>45292</v>
       </c>
-      <c r="DC116">
+      <c r="ET159">
         <v>1.80323247306139</v>
       </c>
-      <c r="DD116">
+      <c r="EU159">
         <v>0.3263627792367912</v>
       </c>
-      <c r="DE116">
+      <c r="EV159">
         <v>0.04196530404739448</v>
       </c>
-      <c r="DF116">
+      <c r="EW159">
         <v>0.3609084886980649</v>
       </c>
-      <c r="DG116">
+      <c r="EX159">
         <v>0.3024725337299106</v>
       </c>
-      <c r="DH116">
+      <c r="EY159">
         <v>-0.1225275310670833</v>
       </c>
-      <c r="DI116">
+      <c r="EZ159">
         <v>-0.3983390910811171</v>
       </c>
-      <c r="DJ116">
+      <c r="FA159">
         <v>-0.02316743941079034</v>
       </c>
-      <c r="DK116">
+      <c r="FB159">
         <v>-0.0624459300653643</v>
       </c>
-      <c r="DL116">
+      <c r="FC159">
         <v>-0.1481614381304136</v>
       </c>
     </row>
-    <row r="117" spans="1:121">
-      <c r="A117" s="1">
+    <row r="160" spans="1:160">
+      <c r="A160" s="1">
         <v>45383</v>
       </c>
-      <c r="DD117">
+      <c r="EU160">
         <v>0.3243933277167661</v>
       </c>
-      <c r="DE117">
+      <c r="EV160">
         <v>0.04082742409225065</v>
       </c>
-      <c r="DF117">
+      <c r="EW160">
         <v>0.3583366441273024</v>
       </c>
-      <c r="DG117">
+      <c r="EX160">
         <v>0.3001469061374987</v>
       </c>
-      <c r="DH117">
+      <c r="EY160">
         <v>-0.1367447389070922</v>
       </c>
-      <c r="DI117">
+      <c r="EZ160">
         <v>-0.4046503258247629</v>
       </c>
-      <c r="DJ117">
+      <c r="FA160">
         <v>-0.01621290576981909</v>
       </c>
-      <c r="DK117">
+      <c r="FB160">
         <v>-0.02886008109934235</v>
       </c>
-      <c r="DL117">
+      <c r="FC160">
         <v>-0.2176125275659884</v>
       </c>
-      <c r="DM117">
+      <c r="FD160">
         <v>-0.1426938562495702</v>
       </c>
     </row>
-    <row r="118" spans="1:121">
-      <c r="A118" s="1">
+    <row r="161" spans="1:164">
+      <c r="A161" s="1">
         <v>45474</v>
       </c>
-      <c r="DE118">
+      <c r="EV161">
         <v>0.04139636406982257</v>
       </c>
-      <c r="DF118">
+      <c r="EW161">
         <v>0.3596225664126836</v>
       </c>
-      <c r="DG118">
+      <c r="EX161">
         <v>0.3013097199337046</v>
       </c>
-      <c r="DH118">
+      <c r="EY161">
         <v>-0.1296361349870877</v>
       </c>
-      <c r="DI118">
+      <c r="EZ161">
         <v>-0.40149470845294</v>
       </c>
-      <c r="DJ118">
+      <c r="FA161">
         <v>-0.01969017259030471</v>
       </c>
-      <c r="DK118">
+      <c r="FB161">
         <v>-0.04565300558235333</v>
       </c>
-      <c r="DL118">
+      <c r="FC161">
         <v>-0.182886982848201</v>
       </c>
-      <c r="DM118">
+      <c r="FD161">
         <v>0.03545099163746869</v>
       </c>
-      <c r="DN118">
+      <c r="FE161">
         <v>0.08133076613059367</v>
       </c>
     </row>
-    <row r="119" spans="1:121">
-      <c r="A119" s="1">
+    <row r="162" spans="1:164">
+      <c r="A162" s="1">
         <v>45566</v>
       </c>
-      <c r="DF119">
+      <c r="EW162">
         <v>0.358979605269993</v>
       </c>
-      <c r="DG119">
+      <c r="EX162">
         <v>0.3007283130356017</v>
       </c>
-      <c r="DH119">
+      <c r="EY162">
         <v>-0.13319043694709</v>
       </c>
-      <c r="DI119">
+      <c r="EZ162">
         <v>-0.4030725171388514</v>
       </c>
-      <c r="DJ119">
+      <c r="FA162">
         <v>-0.0179515391800619</v>
       </c>
-      <c r="DK119">
+      <c r="FB162">
         <v>-0.03725654334084784</v>
       </c>
-      <c r="DL119">
+      <c r="FC162">
         <v>-0.2002497552070947</v>
       </c>
-      <c r="DM119">
+      <c r="FD162">
         <v>-0.05362143230605077</v>
       </c>
-      <c r="DN119">
+      <c r="FE162">
         <v>0.007284362559816064</v>
       </c>
-      <c r="DO119">
+      <c r="FF162">
         <v>-0.090455108035048</v>
       </c>
     </row>
-    <row r="120" spans="1:121">
-      <c r="A120" s="1">
+    <row r="163" spans="1:164">
+      <c r="A163" s="1">
         <v>45658</v>
       </c>
-      <c r="DG120">
+      <c r="EX163">
         <v>0.3010190164846531</v>
       </c>
-      <c r="DH120">
+      <c r="EY163">
         <v>-0.1314132859670888</v>
       </c>
-      <c r="DI120">
+      <c r="EZ163">
         <v>-0.4022836127958958</v>
       </c>
-      <c r="DJ120">
+      <c r="FA163">
         <v>-0.01882085588518331</v>
       </c>
-      <c r="DK120">
+      <c r="FB163">
         <v>-0.04145477446160058</v>
       </c>
-      <c r="DL120">
+      <c r="FC163">
         <v>-0.1915683690276478</v>
       </c>
-      <c r="DM120">
+      <c r="FD163">
         <v>-0.009085220334291041</v>
       </c>
-      <c r="DN120">
+      <c r="FE163">
         <v>0.04430756434520487</v>
       </c>
-      <c r="DO120">
+      <c r="FF163">
         <v>0.007378854399501047</v>
       </c>
-      <c r="DP120">
+      <c r="FG163">
         <v>-0.04771845303911565</v>
       </c>
     </row>
-    <row r="121" spans="1:121">
-      <c r="A121" s="1">
+    <row r="164" spans="1:164">
+      <c r="A164" s="1">
         <v>45748</v>
       </c>
-      <c r="DH121">
+      <c r="EY164">
         <v>-0.1323018614570894</v>
       </c>
-      <c r="DI121">
+      <c r="EZ164">
         <v>-0.4026780649673736</v>
       </c>
-      <c r="DJ121">
+      <c r="FA164">
         <v>-0.01838619753262261</v>
       </c>
-      <c r="DK121">
+      <c r="FB164">
         <v>-0.03935565890122421</v>
       </c>
-      <c r="DL121">
+      <c r="FC164">
         <v>-0.1959090621173713</v>
       </c>
-      <c r="DM121">
+      <c r="FD164">
         <v>-0.0313533263201709</v>
       </c>
-      <c r="DN121">
+      <c r="FE164">
         <v>0.02579596345251047</v>
       </c>
-      <c r="DO121">
+      <c r="FF164">
         <v>-0.04153812681777348</v>
       </c>
-      <c r="DP121">
+      <c r="FG164">
         <v>-0.1241840879756985</v>
       </c>
-      <c r="DQ121">
+      <c r="FH164">
         <v>0.1055152534313617</v>
       </c>
     </row>
-    <row r="122" spans="1:121">
-      <c r="A122" s="1">
+    <row r="165" spans="1:164">
+      <c r="A165" s="1">
         <v>45839</v>
       </c>
-      <c r="DI122">
+      <c r="EZ165">
         <v>-0.4024808388816347</v>
       </c>
-      <c r="DJ122">
+      <c r="FA165">
         <v>-0.01860352670890296</v>
       </c>
-      <c r="DK122">
+      <c r="FB165">
         <v>-0.04040521668141239</v>
       </c>
-      <c r="DL122">
+      <c r="FC165">
         <v>-0.1937387155725095</v>
       </c>
-      <c r="DM122">
+      <c r="FD165">
         <v>-0.02021927332723097</v>
       </c>
-      <c r="DN122">
+      <c r="FE165">
         <v>0.03505176389885767</v>
       </c>
-      <c r="DO122">
+      <c r="FF165">
         <v>-0.01707963620913621</v>
       </c>
-      <c r="DP122">
+      <c r="FG165">
         <v>-0.08595127050740708</v>
       </c>
-      <c r="DQ122">
+      <c r="FH165">
         <v>0.2585977416031833</v>
       </c>
     </row>
-    <row r="123" spans="1:121">
-      <c r="A123" s="1">
+    <row r="166" spans="1:164">
+      <c r="A166" s="1">
         <v>45931</v>
       </c>
-      <c r="DJ123">
+      <c r="FA166">
         <v>-0.01849486212076278</v>
       </c>
-      <c r="DK123">
+      <c r="FB166">
         <v>-0.0398804377913183</v>
       </c>
-      <c r="DL123">
+      <c r="FC166">
         <v>-0.1948238888449404</v>
       </c>
-      <c r="DM123">
+      <c r="FD166">
         <v>-0.02578629982370094</v>
       </c>
-      <c r="DN123">
+      <c r="FE166">
         <v>0.03042386367568407</v>
       </c>
-      <c r="DO123">
+      <c r="FF166">
         <v>-0.02930888151345484</v>
       </c>
-      <c r="DP123">
+      <c r="FG166">
         <v>-0.1050676792415528</v>
       </c>
-      <c r="DQ123">
+      <c r="FH166">
         <v>0.1820564975172725</v>
       </c>
     </row>
-    <row r="124" spans="1:121">
-      <c r="A124" s="1">
+    <row r="167" spans="1:164">
+      <c r="A167" s="1">
         <v>46023</v>
       </c>
-      <c r="DK124">
+      <c r="FB167">
         <v>-0.04014282723636535</v>
       </c>
-      <c r="DL124">
+      <c r="FC167">
         <v>-0.194281302208725</v>
       </c>
-      <c r="DM124">
+      <c r="FD167">
         <v>-0.02300278657546596</v>
       </c>
-      <c r="DN124">
+      <c r="FE167">
         <v>0.03273781378727086</v>
       </c>
-      <c r="DO124">
+      <c r="FF167">
         <v>-0.02319425886129553</v>
       </c>
-      <c r="DP124">
+      <c r="FG167">
         <v>-0.09550947487447994</v>
       </c>
-      <c r="DQ124">
+      <c r="FH167">
         <v>0.2203271195602279</v>
       </c>
     </row>
-    <row r="125" spans="1:121">
-      <c r="A125" s="1">
+    <row r="168" spans="1:164">
+      <c r="A168" s="1">
         <v>46113</v>
       </c>
-      <c r="DL125">
+      <c r="FC168">
         <v>-0.1945525955268327</v>
       </c>
-      <c r="DM125">
+      <c r="FD168">
         <v>-0.02439454319958345</v>
       </c>
-      <c r="DN125">
+      <c r="FE168">
         <v>0.03158083873147746</v>
       </c>
-      <c r="DO125">
+      <c r="FF168">
         <v>-0.02625157018737519</v>
       </c>
-      <c r="DP125">
+      <c r="FG168">
         <v>-0.1002885770580164</v>
       </c>
-      <c r="DQ125">
+      <c r="FH168">
         <v>0.2011918085387502</v>
       </c>
     </row>
-    <row r="126" spans="1:121">
-      <c r="A126" s="1">
+    <row r="169" spans="1:164">
+      <c r="A169" s="1">
         <v>46204</v>
       </c>
-      <c r="DM126">
+      <c r="FD169">
         <v>-0.0236986648875247</v>
       </c>
-      <c r="DN126">
+      <c r="FE169">
         <v>0.03215932625937416</v>
       </c>
-      <c r="DO126">
+      <c r="FF169">
         <v>-0.02472291452433536</v>
       </c>
-      <c r="DP126">
+      <c r="FG169">
         <v>-0.09789902596624817</v>
       </c>
-      <c r="DQ126">
+      <c r="FH169">
         <v>0.210759464049489</v>
       </c>
     </row>
-    <row r="127" spans="1:121">
-      <c r="A127" s="1">
+    <row r="170" spans="1:164">
+      <c r="A170" s="1">
         <v>46296</v>
       </c>
-      <c r="DN127">
+      <c r="FE170">
         <v>0.03187008249542581</v>
       </c>
-      <c r="DO127">
+      <c r="FF170">
         <v>-0.02548724235585527</v>
       </c>
-      <c r="DP127">
+      <c r="FG170">
         <v>-0.09909380151213226</v>
       </c>
-      <c r="DQ127">
+      <c r="FH170">
         <v>0.2059756362941196</v>
       </c>
     </row>
-    <row r="128" spans="1:121">
-      <c r="A128" s="1">
+    <row r="171" spans="1:164">
+      <c r="A171" s="1">
         <v>46388</v>
       </c>
-      <c r="DO128">
+      <c r="FF171">
         <v>-0.02510507844009532</v>
       </c>
-      <c r="DP128">
+      <c r="FG171">
         <v>-0.09849641373919021</v>
       </c>
-      <c r="DQ128">
+      <c r="FH171">
         <v>0.2083675501718043</v>
       </c>
     </row>
-    <row r="129" spans="1:121">
-      <c r="A129" s="1">
+    <row r="172" spans="1:164">
+      <c r="A172" s="1">
         <v>46478</v>
       </c>
-      <c r="DP129">
+      <c r="FG172">
         <v>-0.09879510762566124</v>
       </c>
-      <c r="DQ129">
+      <c r="FH172">
         <v>0.207171593232962</v>
       </c>
     </row>
-    <row r="130" spans="1:121">
-      <c r="A130" s="1">
+    <row r="173" spans="1:164">
+      <c r="A173" s="1">
         <v>46569</v>
       </c>
-      <c r="DQ130">
+      <c r="FH173">
         <v>0.2077695717023831</v>
       </c>
     </row>

--- a/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_SMA_2_9.xlsx
+++ b/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_SMA_2_9.xlsx
@@ -369,6250 +369,5642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH173"/>
+  <dimension ref="A1:ER157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:164">
+    <row r="1" spans="1:148">
       <c r="B1" s="1">
-        <v>30956</v>
+        <v>32417</v>
       </c>
       <c r="C1" s="1">
-        <v>31048</v>
+        <v>32509</v>
       </c>
       <c r="D1" s="1">
-        <v>31138</v>
+        <v>32599</v>
       </c>
       <c r="E1" s="1">
-        <v>31229</v>
+        <v>32690</v>
       </c>
       <c r="F1" s="1">
-        <v>31321</v>
+        <v>32782</v>
       </c>
       <c r="G1" s="1">
-        <v>31413</v>
+        <v>32874</v>
       </c>
       <c r="H1" s="1">
-        <v>31503</v>
+        <v>32964</v>
       </c>
       <c r="I1" s="1">
-        <v>31594</v>
+        <v>33055</v>
       </c>
       <c r="J1" s="1">
-        <v>31686</v>
+        <v>33147</v>
       </c>
       <c r="K1" s="1">
-        <v>31778</v>
+        <v>33239</v>
       </c>
       <c r="L1" s="1">
-        <v>31868</v>
+        <v>33329</v>
       </c>
       <c r="M1" s="1">
-        <v>31959</v>
+        <v>33420</v>
       </c>
       <c r="N1" s="1">
-        <v>32051</v>
+        <v>33512</v>
       </c>
       <c r="O1" s="1">
-        <v>32143</v>
+        <v>33604</v>
       </c>
       <c r="P1" s="1">
-        <v>32234</v>
+        <v>33695</v>
       </c>
       <c r="Q1" s="1">
-        <v>32325</v>
+        <v>33786</v>
       </c>
       <c r="R1" s="1">
+        <v>33878</v>
+      </c>
+      <c r="S1" s="1">
+        <v>33970</v>
+      </c>
+      <c r="T1" s="1">
+        <v>34060</v>
+      </c>
+      <c r="U1" s="1">
+        <v>34151</v>
+      </c>
+      <c r="V1" s="1">
+        <v>34243</v>
+      </c>
+      <c r="W1" s="1">
+        <v>34335</v>
+      </c>
+      <c r="X1" s="1">
+        <v>34425</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>34516</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>34608</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>34700</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>34790</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>34881</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>34973</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>35065</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>35156</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>35247</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>35339</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>35431</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35521</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35612</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>35704</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>35796</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>35886</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>35977</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>36069</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>36161</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>36251</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>36342</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>36434</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>36526</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>36617</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>36708</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>36800</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>36892</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>36982</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>37073</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>37165</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>37257</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>37347</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>37438</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>37530</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>37622</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>37712</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>37803</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>37895</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>37987</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>38078</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>38169</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>38261</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>38353</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>38443</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>38534</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>38626</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>38718</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>38808</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>38899</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>38991</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>39083</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>39173</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>39264</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>39356</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>39448</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>39539</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>39630</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>39722</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>39814</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>39904</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>39995</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>40087</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>40179</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>40269</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>40360</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>40452</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>40544</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>40634</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>40725</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>40817</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>40909</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>41000</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>41091</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>41183</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>41275</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>41365</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>41456</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>41548</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>41640</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>41730</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>41821</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>41913</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>42005</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>42095</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>42186</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>42278</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>42370</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>42461</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>42552</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>42644</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>42736</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>42826</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>42917</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>43009</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>43101</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>43191</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>43282</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>43374</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>43466</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>43556</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>43647</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>43739</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>43831</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>43922</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>44013</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>44105</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>44197</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>44287</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>44378</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>44470</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>44562</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>44652</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>44743</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>44835</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>44927</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>45017</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>45108</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>45200</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>45292</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>45383</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>45474</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>45566</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>45658</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:148">
+      <c r="A2" s="1">
         <v>32417</v>
       </c>
-      <c r="S1" s="1">
+      <c r="B2">
+        <v>1.459120121774803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:148">
+      <c r="A3" s="1">
         <v>32509</v>
       </c>
-      <c r="T1" s="1">
+      <c r="B3">
+        <v>1.278830433079562</v>
+      </c>
+      <c r="C3">
+        <v>1.149335244070199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:148">
+      <c r="A4" s="1">
         <v>32599</v>
       </c>
-      <c r="U1" s="1">
+      <c r="B4">
+        <v>1.368975277427182</v>
+      </c>
+      <c r="C4">
+        <v>1.174732493913138</v>
+      </c>
+      <c r="D4">
+        <v>1.112885384698548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:148">
+      <c r="A5" s="1">
         <v>32690</v>
       </c>
-      <c r="V1" s="1">
+      <c r="B5">
+        <v>1.323902855253372</v>
+      </c>
+      <c r="C5">
+        <v>1.162033868991669</v>
+      </c>
+      <c r="D5">
+        <v>1.069263205169784</v>
+      </c>
+      <c r="E5">
+        <v>0.7190387869321904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:148">
+      <c r="A6" s="1">
         <v>32782</v>
       </c>
-      <c r="W1" s="1">
+      <c r="B6">
+        <v>1.346439066340277</v>
+      </c>
+      <c r="C6">
+        <v>1.168383181452403</v>
+      </c>
+      <c r="D6">
+        <v>1.091074294934166</v>
+      </c>
+      <c r="E6">
+        <v>0.5657376675777759</v>
+      </c>
+      <c r="F6">
+        <v>0.656455240936323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:148">
+      <c r="A7" s="1">
         <v>32874</v>
       </c>
-      <c r="X1" s="1">
+      <c r="B7">
+        <v>1.335170960796825</v>
+      </c>
+      <c r="C7">
+        <v>1.165208525222036</v>
+      </c>
+      <c r="D7">
+        <v>1.080168750051975</v>
+      </c>
+      <c r="E7">
+        <v>0.6423882272549831</v>
+      </c>
+      <c r="F7">
+        <v>0.7784645872928038</v>
+      </c>
+      <c r="G7">
+        <v>1.037367074856591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:148">
+      <c r="A8" s="1">
         <v>32964</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="B8">
+        <v>1.340805013568551</v>
+      </c>
+      <c r="C8">
+        <v>1.16679585333722</v>
+      </c>
+      <c r="D8">
+        <v>1.08562152249307</v>
+      </c>
+      <c r="E8">
+        <v>0.6040629474163794</v>
+      </c>
+      <c r="F8">
+        <v>0.7174599141145634</v>
+      </c>
+      <c r="G8">
+        <v>1.105813645460245</v>
+      </c>
+      <c r="H8">
+        <v>1.6239608106008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:148">
+      <c r="A9" s="1">
         <v>33055</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="B9">
+        <v>1.337987987182688</v>
+      </c>
+      <c r="C9">
+        <v>1.166002189279628</v>
+      </c>
+      <c r="D9">
+        <v>1.082895136272523</v>
+      </c>
+      <c r="E9">
+        <v>0.6232255873356813</v>
+      </c>
+      <c r="F9">
+        <v>0.7479622507036836</v>
+      </c>
+      <c r="G9">
+        <v>1.071590360158418</v>
+      </c>
+      <c r="H9">
+        <v>1.84881110786925</v>
+      </c>
+      <c r="I9">
+        <v>1.279401957875106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:148">
+      <c r="A10" s="1">
         <v>33147</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="B10">
+        <v>1.33939650037562</v>
+      </c>
+      <c r="C10">
+        <v>1.166399021308424</v>
+      </c>
+      <c r="D10">
+        <v>1.084258329382796</v>
+      </c>
+      <c r="E10">
+        <v>0.6136442673760304</v>
+      </c>
+      <c r="F10">
+        <v>0.7327110824091235</v>
+      </c>
+      <c r="G10">
+        <v>1.088702002809331</v>
+      </c>
+      <c r="H10">
+        <v>1.736385959235025</v>
+      </c>
+      <c r="I10">
+        <v>0.8822722342438082</v>
+      </c>
+      <c r="J10">
+        <v>1.29869678336902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:148">
+      <c r="A11" s="1">
         <v>33239</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="B11">
+        <v>1.338692243779154</v>
+      </c>
+      <c r="C11">
+        <v>1.166200605294026</v>
+      </c>
+      <c r="D11">
+        <v>1.083576732827659</v>
+      </c>
+      <c r="E11">
+        <v>0.6184349273558558</v>
+      </c>
+      <c r="F11">
+        <v>0.7403366665564035</v>
+      </c>
+      <c r="G11">
+        <v>1.080146181483875</v>
+      </c>
+      <c r="H11">
+        <v>1.792598533552138</v>
+      </c>
+      <c r="I11">
+        <v>1.080837096059457</v>
+      </c>
+      <c r="J11">
+        <v>1.705473919747275</v>
+      </c>
+      <c r="K11">
+        <v>1.942650350757789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:148">
+      <c r="A12" s="1">
         <v>33329</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="C12">
+        <v>1.166299813301225</v>
+      </c>
+      <c r="D12">
+        <v>1.083917531105228</v>
+      </c>
+      <c r="E12">
+        <v>0.6160395973659432</v>
+      </c>
+      <c r="F12">
+        <v>0.7365238744827636</v>
+      </c>
+      <c r="G12">
+        <v>1.084424092146603</v>
+      </c>
+      <c r="H12">
+        <v>1.764492246393581</v>
+      </c>
+      <c r="I12">
+        <v>0.9815546651516327</v>
+      </c>
+      <c r="J12">
+        <v>1.502085351558148</v>
+      </c>
+      <c r="K12">
+        <v>1.857849998073919</v>
+      </c>
+      <c r="L12">
+        <v>2.26573504336867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:148">
+      <c r="A13" s="1">
         <v>33420</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="D13">
+        <v>1.083747131966444</v>
+      </c>
+      <c r="E13">
+        <v>0.6172372623608995</v>
+      </c>
+      <c r="F13">
+        <v>0.7384302705195835</v>
+      </c>
+      <c r="G13">
+        <v>1.082285136815239</v>
+      </c>
+      <c r="H13">
+        <v>1.77854538997286</v>
+      </c>
+      <c r="I13">
+        <v>1.031195880605545</v>
+      </c>
+      <c r="J13">
+        <v>1.603779635652712</v>
+      </c>
+      <c r="K13">
+        <v>1.900250174415854</v>
+      </c>
+      <c r="L13">
+        <v>2.51207774235798</v>
+      </c>
+      <c r="M13">
+        <v>1.93601879129671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:148">
+      <c r="A14" s="1">
         <v>33512</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="E14">
+        <v>0.6166384298634213</v>
+      </c>
+      <c r="F14">
+        <v>0.7374770725011736</v>
+      </c>
+      <c r="G14">
+        <v>1.083354614480921</v>
+      </c>
+      <c r="H14">
+        <v>1.77151881818322</v>
+      </c>
+      <c r="I14">
+        <v>1.006375272878589</v>
+      </c>
+      <c r="J14">
+        <v>1.55293249360543</v>
+      </c>
+      <c r="K14">
+        <v>1.879050086244887</v>
+      </c>
+      <c r="L14">
+        <v>2.388906392863325</v>
+      </c>
+      <c r="M14">
+        <v>1.524817966271419</v>
+      </c>
+      <c r="N14">
+        <v>0.2570734528201862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:148">
+      <c r="A15" s="1">
         <v>33604</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="F15">
+        <v>0.7379536715103785</v>
+      </c>
+      <c r="G15">
+        <v>1.08281987564808</v>
+      </c>
+      <c r="H15">
+        <v>1.77503210407804</v>
+      </c>
+      <c r="I15">
+        <v>1.018785576742067</v>
+      </c>
+      <c r="J15">
+        <v>1.578356064629071</v>
+      </c>
+      <c r="K15">
+        <v>1.889650130330371</v>
+      </c>
+      <c r="L15">
+        <v>2.450492067610653</v>
+      </c>
+      <c r="M15">
+        <v>1.730418378784065</v>
+      </c>
+      <c r="N15">
+        <v>-0.1711983913927853</v>
+      </c>
+      <c r="O15">
+        <v>0.1350474908927764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:148">
+      <c r="A16" s="1">
         <v>33695</v>
       </c>
-      <c r="AG1" s="1">
-        <v>33786</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>33878</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33970</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34060</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>34151</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>34243</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>34335</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>34425</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>34516</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>34608</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>34700</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34790</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>34881</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>34973</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>35065</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>35156</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>35247</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>35339</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>35431</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>35521</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>35612</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>35704</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>35796</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>35886</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>35977</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>36069</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>36161</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>36251</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>36342</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>36434</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>36526</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>36617</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>36708</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>36800</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>36892</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>36982</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>37073</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>37165</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>37257</v>
-      </c>
-      <c r="BT1" s="1">
-        <v>37347</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>37438</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>37530</v>
-      </c>
-      <c r="BW1" s="1">
-        <v>37622</v>
-      </c>
-      <c r="BX1" s="1">
-        <v>37712</v>
-      </c>
-      <c r="BY1" s="1">
-        <v>37803</v>
-      </c>
-      <c r="BZ1" s="1">
-        <v>37895</v>
-      </c>
-      <c r="CA1" s="1">
-        <v>37987</v>
-      </c>
-      <c r="CB1" s="1">
-        <v>38078</v>
-      </c>
-      <c r="CC1" s="1">
-        <v>38169</v>
-      </c>
-      <c r="CD1" s="1">
-        <v>38261</v>
-      </c>
-      <c r="CE1" s="1">
-        <v>38353</v>
-      </c>
-      <c r="CF1" s="1">
-        <v>38443</v>
-      </c>
-      <c r="CG1" s="1">
-        <v>38534</v>
-      </c>
-      <c r="CH1" s="1">
-        <v>38626</v>
-      </c>
-      <c r="CI1" s="1">
-        <v>38718</v>
-      </c>
-      <c r="CJ1" s="1">
-        <v>38808</v>
-      </c>
-      <c r="CK1" s="1">
-        <v>38899</v>
-      </c>
-      <c r="CL1" s="1">
-        <v>38991</v>
-      </c>
-      <c r="CM1" s="1">
-        <v>39083</v>
-      </c>
-      <c r="CN1" s="1">
-        <v>39173</v>
-      </c>
-      <c r="CO1" s="1">
-        <v>39264</v>
-      </c>
-      <c r="CP1" s="1">
-        <v>39356</v>
-      </c>
-      <c r="CQ1" s="1">
-        <v>39448</v>
-      </c>
-      <c r="CR1" s="1">
-        <v>39539</v>
-      </c>
-      <c r="CS1" s="1">
-        <v>39630</v>
-      </c>
-      <c r="CT1" s="1">
-        <v>39722</v>
-      </c>
-      <c r="CU1" s="1">
-        <v>39814</v>
-      </c>
-      <c r="CV1" s="1">
-        <v>39904</v>
-      </c>
-      <c r="CW1" s="1">
-        <v>39995</v>
-      </c>
-      <c r="CX1" s="1">
-        <v>40087</v>
-      </c>
-      <c r="CY1" s="1">
-        <v>40179</v>
-      </c>
-      <c r="CZ1" s="1">
-        <v>40269</v>
-      </c>
-      <c r="DA1" s="1">
-        <v>40360</v>
-      </c>
-      <c r="DB1" s="1">
-        <v>40452</v>
-      </c>
-      <c r="DC1" s="1">
-        <v>40544</v>
-      </c>
-      <c r="DD1" s="1">
-        <v>40634</v>
-      </c>
-      <c r="DE1" s="1">
-        <v>40725</v>
-      </c>
-      <c r="DF1" s="1">
-        <v>40817</v>
-      </c>
-      <c r="DG1" s="1">
-        <v>40909</v>
-      </c>
-      <c r="DH1" s="1">
-        <v>41000</v>
-      </c>
-      <c r="DI1" s="1">
-        <v>41091</v>
-      </c>
-      <c r="DJ1" s="1">
-        <v>41183</v>
-      </c>
-      <c r="DK1" s="1">
-        <v>41275</v>
-      </c>
-      <c r="DL1" s="1">
-        <v>41365</v>
-      </c>
-      <c r="DM1" s="1">
-        <v>41456</v>
-      </c>
-      <c r="DN1" s="1">
-        <v>41548</v>
-      </c>
-      <c r="DO1" s="1">
-        <v>41640</v>
-      </c>
-      <c r="DP1" s="1">
-        <v>41730</v>
-      </c>
-      <c r="DQ1" s="1">
-        <v>41821</v>
-      </c>
-      <c r="DR1" s="1">
-        <v>41913</v>
-      </c>
-      <c r="DS1" s="1">
-        <v>42005</v>
-      </c>
-      <c r="DT1" s="1">
-        <v>42095</v>
-      </c>
-      <c r="DU1" s="1">
-        <v>42186</v>
-      </c>
-      <c r="DV1" s="1">
-        <v>42278</v>
-      </c>
-      <c r="DW1" s="1">
-        <v>42370</v>
-      </c>
-      <c r="DX1" s="1">
-        <v>42461</v>
-      </c>
-      <c r="DY1" s="1">
-        <v>42552</v>
-      </c>
-      <c r="DZ1" s="1">
-        <v>42644</v>
-      </c>
-      <c r="EA1" s="1">
-        <v>42736</v>
-      </c>
-      <c r="EB1" s="1">
-        <v>42826</v>
-      </c>
-      <c r="EC1" s="1">
-        <v>42917</v>
-      </c>
-      <c r="ED1" s="1">
-        <v>43009</v>
-      </c>
-      <c r="EE1" s="1">
-        <v>43101</v>
-      </c>
-      <c r="EF1" s="1">
-        <v>43191</v>
-      </c>
-      <c r="EG1" s="1">
-        <v>43282</v>
-      </c>
-      <c r="EH1" s="1">
-        <v>43374</v>
-      </c>
-      <c r="EI1" s="1">
-        <v>43466</v>
-      </c>
-      <c r="EJ1" s="1">
-        <v>43556</v>
-      </c>
-      <c r="EK1" s="1">
-        <v>43647</v>
-      </c>
-      <c r="EL1" s="1">
-        <v>43739</v>
-      </c>
-      <c r="EM1" s="1">
-        <v>43831</v>
-      </c>
-      <c r="EN1" s="1">
-        <v>43922</v>
-      </c>
-      <c r="EO1" s="1">
-        <v>44013</v>
-      </c>
-      <c r="EP1" s="1">
-        <v>44105</v>
-      </c>
-      <c r="EQ1" s="1">
-        <v>44197</v>
-      </c>
-      <c r="ER1" s="1">
-        <v>44287</v>
-      </c>
-      <c r="ES1" s="1">
-        <v>44378</v>
-      </c>
-      <c r="ET1" s="1">
-        <v>44470</v>
-      </c>
-      <c r="EU1" s="1">
-        <v>44562</v>
-      </c>
-      <c r="EV1" s="1">
-        <v>44652</v>
-      </c>
-      <c r="EW1" s="1">
-        <v>44743</v>
-      </c>
-      <c r="EX1" s="1">
-        <v>44835</v>
-      </c>
-      <c r="EY1" s="1">
-        <v>44927</v>
-      </c>
-      <c r="EZ1" s="1">
-        <v>45017</v>
-      </c>
-      <c r="FA1" s="1">
-        <v>45108</v>
-      </c>
-      <c r="FB1" s="1">
-        <v>45200</v>
-      </c>
-      <c r="FC1" s="1">
-        <v>45292</v>
-      </c>
-      <c r="FD1" s="1">
-        <v>45383</v>
-      </c>
-      <c r="FE1" s="1">
-        <v>45474</v>
-      </c>
-      <c r="FF1" s="1">
-        <v>45566</v>
-      </c>
-      <c r="FG1" s="1">
-        <v>45658</v>
-      </c>
-      <c r="FH1" s="1">
-        <v>45748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:164">
-      <c r="A2" s="1">
-        <v>30956</v>
-      </c>
-      <c r="B2">
-        <v>0.5800442104986655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:164">
-      <c r="A3" s="1">
-        <v>31048</v>
-      </c>
-      <c r="B3">
-        <v>1.653991347285219</v>
-      </c>
-      <c r="C3">
-        <v>1.782789416692813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:164">
-      <c r="A4" s="1">
-        <v>31138</v>
-      </c>
-      <c r="B4">
-        <v>1.117017778891942</v>
-      </c>
-      <c r="C4">
-        <v>1.310214883003333</v>
-      </c>
-      <c r="D4">
-        <v>0.1537088278912822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:164">
-      <c r="A5" s="1">
-        <v>31229</v>
-      </c>
-      <c r="B5">
-        <v>1.38550456308858</v>
-      </c>
-      <c r="C5">
-        <v>1.546502149848073</v>
-      </c>
-      <c r="D5">
-        <v>-0.1882569328200034</v>
-      </c>
-      <c r="E5">
-        <v>0.2235169403701076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:164">
-      <c r="A6" s="1">
-        <v>31321</v>
-      </c>
-      <c r="B6">
-        <v>1.251261170990261</v>
-      </c>
-      <c r="C6">
-        <v>1.428358516425703</v>
-      </c>
-      <c r="D6">
-        <v>-0.01727405246436062</v>
-      </c>
-      <c r="E6">
-        <v>0.6003867573208059</v>
-      </c>
-      <c r="F6">
-        <v>1.139692865703407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:164">
-      <c r="A7" s="1">
-        <v>31413</v>
-      </c>
-      <c r="B7">
-        <v>1.318382867039421</v>
-      </c>
-      <c r="C7">
-        <v>1.487430333136888</v>
-      </c>
-      <c r="D7">
-        <v>-0.102765492642182</v>
-      </c>
-      <c r="E7">
-        <v>0.4119518488454568</v>
-      </c>
-      <c r="F7">
-        <v>1.220911011419358</v>
-      </c>
-      <c r="G7">
-        <v>0.9550423447653338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:164">
-      <c r="A8" s="1">
-        <v>31503</v>
-      </c>
-      <c r="B8">
-        <v>1.284822019014841</v>
-      </c>
-      <c r="C8">
-        <v>1.457894424781295</v>
-      </c>
-      <c r="D8">
-        <v>-0.06001977255327131</v>
-      </c>
-      <c r="E8">
-        <v>0.5061693030831314</v>
-      </c>
-      <c r="F8">
-        <v>1.180301938561383</v>
-      </c>
-      <c r="G8">
-        <v>0.7814989385803457</v>
-      </c>
-      <c r="H8">
-        <v>0.01910207558994503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:164">
-      <c r="A9" s="1">
-        <v>31594</v>
-      </c>
-      <c r="B9">
-        <v>1.301602443027131</v>
-      </c>
-      <c r="C9">
-        <v>1.472662378959092</v>
-      </c>
-      <c r="D9">
-        <v>-0.08139263259772665</v>
-      </c>
-      <c r="E9">
-        <v>0.4590605759642941</v>
-      </c>
-      <c r="F9">
-        <v>1.200606474990371</v>
-      </c>
-      <c r="G9">
-        <v>0.8682706416728397</v>
-      </c>
-      <c r="H9">
-        <v>-0.2753246528127612</v>
-      </c>
-      <c r="I9">
-        <v>0.2968225208873098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:164">
-      <c r="A10" s="1">
-        <v>31686</v>
-      </c>
-      <c r="B10">
-        <v>1.293212231020986</v>
-      </c>
-      <c r="C10">
-        <v>1.465278401870194</v>
-      </c>
-      <c r="D10">
-        <v>-0.07070620257549898</v>
-      </c>
-      <c r="E10">
-        <v>0.4826149395237127</v>
-      </c>
-      <c r="F10">
-        <v>1.190454206775877</v>
-      </c>
-      <c r="G10">
-        <v>0.8248847901265928</v>
-      </c>
-      <c r="H10">
-        <v>-0.1281112886114081</v>
-      </c>
-      <c r="I10">
-        <v>0.7301094719386985</v>
-      </c>
-      <c r="J10">
-        <v>0.950733570231741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:164">
-      <c r="A11" s="1">
-        <v>31778</v>
-      </c>
-      <c r="B11">
-        <v>1.297407337024058</v>
-      </c>
-      <c r="C11">
-        <v>1.468970390414643</v>
-      </c>
-      <c r="D11">
-        <v>-0.07604941758661282</v>
-      </c>
-      <c r="E11">
-        <v>0.4708377577440034</v>
-      </c>
-      <c r="F11">
-        <v>1.195530340883124</v>
-      </c>
-      <c r="G11">
-        <v>0.8465777158997163</v>
-      </c>
-      <c r="H11">
-        <v>-0.2017179707120846</v>
-      </c>
-      <c r="I11">
-        <v>0.5134659964130042</v>
-      </c>
-      <c r="J11">
-        <v>0.844402143852568</v>
-      </c>
-      <c r="K11">
-        <v>0.8631570148961837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:164">
-      <c r="A12" s="1">
-        <v>31868</v>
-      </c>
-      <c r="C12">
-        <v>1.467124396142418</v>
-      </c>
-      <c r="D12">
-        <v>-0.0733778100810559</v>
-      </c>
-      <c r="E12">
-        <v>0.476726348633858</v>
-      </c>
-      <c r="F12">
-        <v>1.1929922738295</v>
-      </c>
-      <c r="G12">
-        <v>0.8357312530131545</v>
-      </c>
-      <c r="H12">
-        <v>-0.1649146296617464</v>
-      </c>
-      <c r="I12">
-        <v>0.6217877341758513</v>
-      </c>
-      <c r="J12">
-        <v>0.8975678570421545</v>
-      </c>
-      <c r="K12">
-        <v>0.9257001636075781</v>
-      </c>
-      <c r="L12">
-        <v>-0.7628380198992291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:164">
-      <c r="A13" s="1">
-        <v>31959</v>
-      </c>
-      <c r="D13">
-        <v>-0.07471361383383436</v>
-      </c>
-      <c r="E13">
-        <v>0.4737820531889307</v>
-      </c>
-      <c r="F13">
-        <v>1.194261307356312</v>
-      </c>
-      <c r="G13">
-        <v>0.8411544844564354</v>
-      </c>
-      <c r="H13">
-        <v>-0.1833163001869155</v>
-      </c>
-      <c r="I13">
-        <v>0.5676268652944277</v>
-      </c>
-      <c r="J13">
-        <v>0.8709850004473612</v>
-      </c>
-      <c r="K13">
-        <v>0.8944285892518808</v>
-      </c>
-      <c r="L13">
-        <v>-1.63837868600833</v>
-      </c>
-      <c r="M13">
-        <v>-0.1320029436253474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:164">
-      <c r="A14" s="1">
-        <v>32051</v>
-      </c>
-      <c r="E14">
-        <v>0.4752542009113944</v>
-      </c>
-      <c r="F14">
-        <v>1.193626790592906</v>
-      </c>
-      <c r="G14">
-        <v>0.8384428687347949</v>
-      </c>
-      <c r="H14">
-        <v>-0.1741154649243309</v>
-      </c>
-      <c r="I14">
-        <v>0.5947072997351395</v>
-      </c>
-      <c r="J14">
-        <v>0.8842764287447578</v>
-      </c>
-      <c r="K14">
-        <v>0.9100643764297295</v>
-      </c>
-      <c r="L14">
-        <v>-1.200608352953779</v>
-      </c>
-      <c r="M14">
-        <v>1.058955260620694</v>
-      </c>
-      <c r="N14">
-        <v>1.480406969400192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:164">
-      <c r="A15" s="1">
-        <v>32143</v>
-      </c>
-      <c r="F15">
-        <v>1.193944048974609</v>
-      </c>
-      <c r="G15">
-        <v>0.8397986765956151</v>
-      </c>
-      <c r="H15">
-        <v>-0.1787158825556232</v>
-      </c>
-      <c r="I15">
-        <v>0.5811670825147837</v>
-      </c>
-      <c r="J15">
-        <v>0.8776307145960595</v>
-      </c>
-      <c r="K15">
-        <v>0.9022464828408052</v>
-      </c>
-      <c r="L15">
-        <v>-1.419493519481055</v>
-      </c>
-      <c r="M15">
-        <v>0.4634761584976735</v>
-      </c>
-      <c r="N15">
-        <v>1.09565372166692</v>
-      </c>
-      <c r="O15">
-        <v>1.145366203353378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:164">
-      <c r="A16" s="1">
-        <v>32234</v>
-      </c>
       <c r="G16">
-        <v>0.839120772665205</v>
+        <v>1.083087245064501</v>
       </c>
       <c r="H16">
-        <v>-0.1764156737399771</v>
+        <v>1.77327546113063</v>
       </c>
       <c r="I16">
-        <v>0.5879371911249616</v>
+        <v>1.012580424810328</v>
       </c>
       <c r="J16">
-        <v>0.8809535716704087</v>
+        <v>1.56564427911725</v>
       </c>
       <c r="K16">
-        <v>0.9061554296352674</v>
+        <v>1.884350108287629</v>
       </c>
       <c r="L16">
-        <v>-1.310050936217417</v>
+        <v>2.419699230236989</v>
       </c>
       <c r="M16">
-        <v>0.7612157095591841</v>
+        <v>1.627618172527742</v>
       </c>
       <c r="N16">
-        <v>1.288030345533556</v>
+        <v>0.04293753071370045</v>
       </c>
       <c r="O16">
-        <v>1.362599068063243</v>
+        <v>0.5023063541420429</v>
       </c>
       <c r="P16">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1">
-        <v>32325</v>
+        <v>33786</v>
       </c>
       <c r="H17">
-        <v>-0.1775657781478001</v>
+        <v>1.774153782604335</v>
       </c>
       <c r="I17">
-        <v>0.5845521368198726</v>
+        <v>1.015683000776197</v>
       </c>
       <c r="J17">
-        <v>0.8792921431332341</v>
+        <v>1.57200017187316</v>
       </c>
       <c r="K17">
-        <v>0.9042009562380363</v>
+        <v>1.887000119309</v>
       </c>
       <c r="L17">
-        <v>-1.364772227849236</v>
+        <v>2.435095648923821</v>
       </c>
       <c r="M17">
-        <v>0.6123459340284287</v>
+        <v>1.679018275655904</v>
       </c>
       <c r="N17">
-        <v>1.191842033600238</v>
+        <v>-0.06413043033954241</v>
       </c>
       <c r="O17">
-        <v>1.25398263570831</v>
+        <v>0.3186769225174096</v>
       </c>
       <c r="P17">
-        <v>-0.275128052544647</v>
+        <v>1.228931905015229</v>
       </c>
       <c r="Q17">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1">
-        <v>32417</v>
+        <v>33878</v>
       </c>
       <c r="I18">
-        <v>0.586244663972417</v>
+        <v>1.014131712793263</v>
       </c>
       <c r="J18">
-        <v>0.8801228574018214</v>
+        <v>1.568822225495205</v>
       </c>
       <c r="K18">
-        <v>0.9051781929366518</v>
+        <v>1.885675113798314</v>
       </c>
       <c r="L18">
-        <v>-1.337411582033326</v>
+        <v>2.427397439580405</v>
       </c>
       <c r="M18">
-        <v>0.6867808217938064</v>
+        <v>1.653318224091823</v>
       </c>
       <c r="N18">
-        <v>1.239936189566897</v>
+        <v>-0.01059644981292098</v>
       </c>
       <c r="O18">
-        <v>1.308290851885777</v>
+        <v>0.4104916383297263</v>
       </c>
       <c r="P18">
-        <v>0.03403194500831216</v>
+        <v>1.169037457077909</v>
       </c>
       <c r="Q18">
-        <v>1.141412612461321</v>
+        <v>0.3063117683388086</v>
       </c>
       <c r="R18">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1">
-        <v>32509</v>
+        <v>33970</v>
       </c>
       <c r="J19">
-        <v>0.8797075002675278</v>
+        <v>1.570411198684183</v>
       </c>
       <c r="K19">
-        <v>0.904689574587344</v>
+        <v>1.886337616553657</v>
       </c>
       <c r="L19">
-        <v>-1.351091904941281</v>
+        <v>2.431246544252113</v>
       </c>
       <c r="M19">
-        <v>0.6495633779111176</v>
+        <v>1.666168249873863</v>
       </c>
       <c r="N19">
-        <v>1.215889111583567</v>
+        <v>-0.0373634400762317</v>
       </c>
       <c r="O19">
-        <v>1.281136743797044</v>
+        <v>0.3645842804235679</v>
       </c>
       <c r="P19">
-        <v>-0.1205480537681674</v>
+        <v>1.198984681046569</v>
       </c>
       <c r="Q19">
-        <v>0.8022691691093399</v>
+        <v>0.4800466070973187</v>
       </c>
       <c r="R19">
-        <v>1.278830433079562</v>
+        <v>-0.1235203309865541</v>
       </c>
       <c r="S19">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1">
-        <v>32599</v>
+        <v>34060</v>
       </c>
       <c r="K20">
-        <v>0.9049338837619979</v>
+        <v>1.886006365175986</v>
       </c>
       <c r="L20">
-        <v>-1.344251743487304</v>
+        <v>2.429321991916259</v>
       </c>
       <c r="M20">
-        <v>0.6681720998524621</v>
+        <v>1.659743236982843</v>
       </c>
       <c r="N20">
-        <v>1.227912650575232</v>
+        <v>-0.02397994494457634</v>
       </c>
       <c r="O20">
-        <v>1.29471379784141</v>
+        <v>0.3875379593766471</v>
       </c>
       <c r="P20">
-        <v>-0.04325805437992763</v>
+        <v>1.184011069062239</v>
       </c>
       <c r="Q20">
-        <v>0.9718408907853304</v>
+        <v>0.3931791877180637</v>
       </c>
       <c r="R20">
-        <v>1.368975277427182</v>
+        <v>-0.1097932606851637</v>
       </c>
       <c r="S20">
-        <v>1.174732493913138</v>
+        <v>-0.140836401402502</v>
       </c>
       <c r="T20">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1">
-        <v>32690</v>
+        <v>34151</v>
       </c>
       <c r="L21">
-        <v>-1.347671824214292</v>
+        <v>2.430284268084186</v>
       </c>
       <c r="M21">
-        <v>0.6588677388817898</v>
+        <v>1.662955743428353</v>
       </c>
       <c r="N21">
-        <v>1.2219008810794</v>
+        <v>-0.03067169251040402</v>
       </c>
       <c r="O21">
-        <v>1.287925270819227</v>
+        <v>0.3760611199001075</v>
       </c>
       <c r="P21">
-        <v>-0.08190305407404752</v>
+        <v>1.191497875054404</v>
       </c>
       <c r="Q21">
-        <v>0.8870550299473352</v>
+        <v>0.4366128974076912</v>
       </c>
       <c r="R21">
-        <v>1.323902855253372</v>
+        <v>-0.1166567958358589</v>
       </c>
       <c r="S21">
-        <v>1.162033868991669</v>
+        <v>-0.1425260797669742</v>
       </c>
       <c r="T21">
-        <v>1.069263205169784</v>
+        <v>-1.376415190280561</v>
       </c>
       <c r="U21">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1">
-        <v>32782</v>
+        <v>34243</v>
       </c>
       <c r="M22">
-        <v>0.663519919367126</v>
+        <v>1.661349490205598</v>
       </c>
       <c r="N22">
-        <v>1.224906765827316</v>
+        <v>-0.02732581872749018</v>
       </c>
       <c r="O22">
-        <v>1.291319534330318</v>
+        <v>0.3817995396383773</v>
       </c>
       <c r="P22">
-        <v>-0.06258055422698758</v>
+        <v>1.187754472058322</v>
       </c>
       <c r="Q22">
-        <v>0.9294479603663328</v>
+        <v>0.4148960425628775</v>
       </c>
       <c r="R22">
-        <v>1.346439066340277</v>
+        <v>-0.1132250282605113</v>
       </c>
       <c r="S22">
-        <v>1.168383181452403</v>
+        <v>-0.1416812405847381</v>
       </c>
       <c r="T22">
-        <v>1.091074294934166</v>
+        <v>-1.169922166012727</v>
       </c>
       <c r="U22">
-        <v>0.5657376675777759</v>
+        <v>0.02567001265053659</v>
       </c>
       <c r="V22">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1">
-        <v>32874</v>
+        <v>34335</v>
       </c>
       <c r="N23">
-        <v>1.223403823453358</v>
+        <v>-0.0289987556189471</v>
       </c>
       <c r="O23">
-        <v>1.289622402574773</v>
+        <v>0.3789303297692425</v>
       </c>
       <c r="P23">
-        <v>-0.07224180415051755</v>
+        <v>1.189626173556363</v>
       </c>
       <c r="Q23">
-        <v>0.908251495156834</v>
+        <v>0.4257544699852843</v>
       </c>
       <c r="R23">
-        <v>1.335170960796825</v>
+        <v>-0.1149409120481851</v>
       </c>
       <c r="S23">
-        <v>1.165208525222036</v>
+        <v>-0.1421036601758561</v>
       </c>
       <c r="T23">
-        <v>1.080168750051975</v>
+        <v>-1.273168678146644</v>
       </c>
       <c r="U23">
-        <v>0.6423882272549831</v>
+        <v>-0.2768418625939243</v>
       </c>
       <c r="V23">
-        <v>0.7784645872928038</v>
+        <v>0.7008489282500356</v>
       </c>
       <c r="W23">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1">
-        <v>32964</v>
+        <v>34425</v>
       </c>
       <c r="O24">
-        <v>1.290470968452545</v>
+        <v>0.3803649347038099</v>
       </c>
       <c r="P24">
-        <v>-0.06741117918875256</v>
+        <v>1.188690322807342</v>
       </c>
       <c r="Q24">
-        <v>0.9188497277615835</v>
+        <v>0.4203252562740809</v>
       </c>
       <c r="R24">
-        <v>1.340805013568551</v>
+        <v>-0.1140829701543482</v>
       </c>
       <c r="S24">
-        <v>1.16679585333722</v>
+        <v>-0.1418924503802971</v>
       </c>
       <c r="T24">
-        <v>1.08562152249307</v>
+        <v>-1.221545422079686</v>
       </c>
       <c r="U24">
-        <v>0.6040629474163794</v>
+        <v>-0.1255859249716939</v>
       </c>
       <c r="V24">
-        <v>0.7174599141145634</v>
+        <v>0.6891564007316061</v>
       </c>
       <c r="W24">
-        <v>1.105813645460245</v>
+        <v>0.03587044272437677</v>
       </c>
       <c r="X24">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1">
-        <v>33055</v>
+        <v>34516</v>
       </c>
       <c r="P25">
-        <v>-0.06982649166963506</v>
+        <v>1.189158248181853</v>
       </c>
       <c r="Q25">
-        <v>0.9135506114592087</v>
+        <v>0.4230398631296826</v>
       </c>
       <c r="R25">
-        <v>1.337987987182688</v>
+        <v>-0.1145119411012666</v>
       </c>
       <c r="S25">
-        <v>1.166002189279628</v>
+        <v>-0.1419980552780766</v>
       </c>
       <c r="T25">
-        <v>1.082895136272523</v>
+        <v>-1.247357050113165</v>
       </c>
       <c r="U25">
-        <v>0.6232255873356813</v>
+        <v>-0.2012138937828091</v>
       </c>
       <c r="V25">
-        <v>0.7479622507036836</v>
+        <v>0.6950026644908209</v>
       </c>
       <c r="W25">
-        <v>1.071590360158418</v>
+        <v>0.1505976994847965</v>
       </c>
       <c r="X25">
-        <v>1.84881110786925</v>
+        <v>0.8348126273549168</v>
       </c>
       <c r="Y25">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1">
-        <v>33147</v>
+        <v>34608</v>
       </c>
       <c r="Q26">
-        <v>0.9162001696103961</v>
+        <v>0.4216825597018817</v>
       </c>
       <c r="R26">
-        <v>1.33939650037562</v>
+        <v>-0.1142974556278074</v>
       </c>
       <c r="S26">
-        <v>1.166399021308424</v>
+        <v>-0.1419452528291869</v>
       </c>
       <c r="T26">
-        <v>1.084258329382796</v>
+        <v>-1.234451236096425</v>
       </c>
       <c r="U26">
-        <v>0.6136442673760304</v>
+        <v>-0.1633999093772515</v>
       </c>
       <c r="V26">
-        <v>0.7327110824091235</v>
+        <v>0.6920795326112135</v>
       </c>
       <c r="W26">
-        <v>1.088702002809331</v>
+        <v>0.09323407110458662</v>
       </c>
       <c r="X26">
-        <v>1.736385959235025</v>
+        <v>0.6634131776630202</v>
       </c>
       <c r="Y26">
-        <v>0.8822722342438082</v>
+        <v>1.218680575783001</v>
       </c>
       <c r="Z26">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="1">
-        <v>33239</v>
+        <v>34700</v>
       </c>
       <c r="R27">
-        <v>1.338692243779154</v>
+        <v>-0.114404698364537</v>
       </c>
       <c r="S27">
-        <v>1.166200605294026</v>
+        <v>-0.1419716540536318</v>
       </c>
       <c r="T27">
-        <v>1.083576732827659</v>
+        <v>-1.240904143104795</v>
       </c>
       <c r="U27">
-        <v>0.6184349273558558</v>
+        <v>-0.1823069015800303</v>
       </c>
       <c r="V27">
-        <v>0.7403366665564035</v>
+        <v>0.6935410985510172</v>
       </c>
       <c r="W27">
-        <v>1.080146181483875</v>
+        <v>0.1219158852946915</v>
       </c>
       <c r="X27">
-        <v>1.792598533552138</v>
+        <v>0.7491129025089684</v>
       </c>
       <c r="Y27">
-        <v>1.080837096059457</v>
+        <v>1.211835734275619</v>
       </c>
       <c r="Z27">
-        <v>1.705473919747275</v>
+        <v>0.7747502138269877</v>
       </c>
       <c r="AA27">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="1">
-        <v>33329</v>
+        <v>34790</v>
       </c>
       <c r="S28">
-        <v>1.166299813301225</v>
+        <v>-0.1419584534414093</v>
       </c>
       <c r="T28">
-        <v>1.083917531105228</v>
+        <v>-1.23767768960061</v>
       </c>
       <c r="U28">
-        <v>0.6160395973659432</v>
+        <v>-0.1728534054786409</v>
       </c>
       <c r="V28">
-        <v>0.7365238744827636</v>
+        <v>0.6928103155811154</v>
       </c>
       <c r="W28">
-        <v>1.084424092146603</v>
+        <v>0.1075749781996391</v>
       </c>
       <c r="X28">
-        <v>1.764492246393581</v>
+        <v>0.7062630400859944</v>
       </c>
       <c r="Y28">
-        <v>0.9815546651516327</v>
+        <v>1.21525815502931</v>
       </c>
       <c r="Z28">
-        <v>1.502085351558148</v>
+        <v>0.8510202213221172</v>
       </c>
       <c r="AA28">
-        <v>1.857849998073919</v>
+        <v>0.6193245620764438</v>
       </c>
       <c r="AB28">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="1">
-        <v>33420</v>
+        <v>34881</v>
       </c>
       <c r="T29">
-        <v>1.083747131966444</v>
+        <v>-1.239290916352703</v>
       </c>
       <c r="U29">
-        <v>0.6172372623608995</v>
+        <v>-0.1775801535293356</v>
       </c>
       <c r="V29">
-        <v>0.7384302705195835</v>
+        <v>0.6931757070660662</v>
       </c>
       <c r="W29">
-        <v>1.082285136815239</v>
+        <v>0.1147454317471653</v>
       </c>
       <c r="X29">
-        <v>1.77854538997286</v>
+        <v>0.7276879712974814</v>
       </c>
       <c r="Y29">
-        <v>1.031195880605545</v>
+        <v>1.213546944652464</v>
       </c>
       <c r="Z29">
-        <v>1.603779635652712</v>
+        <v>0.8128852175745525</v>
       </c>
       <c r="AA29">
-        <v>1.900250174415854</v>
+        <v>0.6198055015364914</v>
       </c>
       <c r="AB29">
-        <v>2.51207774235798</v>
+        <v>0.3149113120716482</v>
       </c>
       <c r="AC29">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="1">
-        <v>33512</v>
+        <v>34973</v>
       </c>
       <c r="U30">
-        <v>0.6166384298634213</v>
+        <v>-0.1752167795039883</v>
       </c>
       <c r="V30">
-        <v>0.7374770725011736</v>
+        <v>0.6929930113235908</v>
       </c>
       <c r="W30">
-        <v>1.083354614480921</v>
+        <v>0.1111602049734022</v>
       </c>
       <c r="X30">
-        <v>1.77151881818322</v>
+        <v>0.716975505691738</v>
       </c>
       <c r="Y30">
-        <v>1.006375272878589</v>
+        <v>1.214402549840887</v>
       </c>
       <c r="Z30">
-        <v>1.55293249360543</v>
+        <v>0.8319527194483348</v>
       </c>
       <c r="AA30">
-        <v>1.879050086244887</v>
+        <v>0.6195650318064676</v>
       </c>
       <c r="AB30">
-        <v>2.388906392863325</v>
+        <v>0.365486540585765</v>
       </c>
       <c r="AC30">
-        <v>1.524817966271419</v>
+        <v>0.8533335613145069</v>
       </c>
       <c r="AD30">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1">
-        <v>33604</v>
+        <v>35065</v>
       </c>
       <c r="V31">
-        <v>0.7379536715103785</v>
+        <v>0.6930843591948286</v>
       </c>
       <c r="W31">
-        <v>1.08281987564808</v>
+        <v>0.1129528183602838</v>
       </c>
       <c r="X31">
-        <v>1.77503210407804</v>
+        <v>0.7223317384946097</v>
       </c>
       <c r="Y31">
-        <v>1.018785576742067</v>
+        <v>1.213974747246676</v>
       </c>
       <c r="Z31">
-        <v>1.578356064629071</v>
+        <v>0.8224189685114436</v>
       </c>
       <c r="AA31">
-        <v>1.889650130330371</v>
+        <v>0.6196852666714795</v>
       </c>
       <c r="AB31">
-        <v>2.450492067610653</v>
+        <v>0.3401989263287066</v>
       </c>
       <c r="AC31">
-        <v>1.730418378784065</v>
+        <v>0.7467381102693249</v>
       </c>
       <c r="AD31">
-        <v>-0.1711983913927853</v>
+        <v>0.2567379619137522</v>
       </c>
       <c r="AE31">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1">
-        <v>33695</v>
+        <v>35156</v>
       </c>
       <c r="W32">
-        <v>1.083087245064501</v>
+        <v>0.112056511666843</v>
       </c>
       <c r="X32">
-        <v>1.77327546113063</v>
+        <v>0.7196536220931739</v>
       </c>
       <c r="Y32">
-        <v>1.012580424810328</v>
+        <v>1.214188648543781</v>
       </c>
       <c r="Z32">
-        <v>1.56564427911725</v>
+        <v>0.8271858439798891</v>
       </c>
       <c r="AA32">
-        <v>1.884350108287629</v>
+        <v>0.6196251492389735</v>
       </c>
       <c r="AB32">
-        <v>2.419699230236989</v>
+        <v>0.3528427334572358</v>
       </c>
       <c r="AC32">
-        <v>1.627618172527742</v>
+        <v>0.800035835791916</v>
       </c>
       <c r="AD32">
-        <v>0.04293753071370045</v>
+        <v>0.3917023788289387</v>
       </c>
       <c r="AE32">
-        <v>0.5023063541420429</v>
+        <v>-0.2798352505399755</v>
       </c>
       <c r="AF32">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="1">
-        <v>33786</v>
+        <v>35247</v>
       </c>
       <c r="X33">
-        <v>1.774153782604335</v>
+        <v>0.7209926802938917</v>
       </c>
       <c r="Y33">
-        <v>1.015683000776197</v>
+        <v>1.214081697895228</v>
       </c>
       <c r="Z33">
-        <v>1.57200017187316</v>
+        <v>0.8248024062456664</v>
       </c>
       <c r="AA33">
-        <v>1.887000119309</v>
+        <v>0.6196552079552264</v>
       </c>
       <c r="AB33">
-        <v>2.435095648923821</v>
+        <v>0.3465208298929712</v>
       </c>
       <c r="AC33">
-        <v>1.679018275655904</v>
+        <v>0.7733869730306204</v>
       </c>
       <c r="AD33">
-        <v>-0.06413043033954241</v>
+        <v>0.3242201703713454</v>
       </c>
       <c r="AE33">
-        <v>0.3186769225174096</v>
+        <v>-0.2156174879527252</v>
       </c>
       <c r="AF33">
-        <v>1.228931905015229</v>
+        <v>-0.3169782286978106</v>
       </c>
       <c r="AG33">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="1">
-        <v>33878</v>
+        <v>35339</v>
       </c>
       <c r="Y34">
-        <v>1.014131712793263</v>
+        <v>1.214135173219505</v>
       </c>
       <c r="Z34">
-        <v>1.568822225495205</v>
+        <v>0.8259941251127778</v>
       </c>
       <c r="AA34">
-        <v>1.885675113798314</v>
+        <v>0.6196401785971</v>
       </c>
       <c r="AB34">
-        <v>2.427397439580405</v>
+        <v>0.3496817816751036</v>
       </c>
       <c r="AC34">
-        <v>1.653318224091823</v>
+        <v>0.7867114044112682</v>
       </c>
       <c r="AD34">
-        <v>-0.01059644981292098</v>
+        <v>0.357961274600142</v>
       </c>
       <c r="AE34">
-        <v>0.4104916383297263</v>
+        <v>-0.2477263692463504</v>
       </c>
       <c r="AF34">
-        <v>1.169037457077909</v>
+        <v>-0.2905267882250491</v>
       </c>
       <c r="AG34">
-        <v>0.3063117683388086</v>
+        <v>0.9947341471808635</v>
       </c>
       <c r="AH34">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="1">
-        <v>33970</v>
+        <v>35431</v>
       </c>
       <c r="Z35">
-        <v>1.570411198684183</v>
+        <v>0.825398265679222</v>
       </c>
       <c r="AA35">
-        <v>1.886337616553657</v>
+        <v>0.6196476932761632</v>
       </c>
       <c r="AB35">
-        <v>2.431246544252113</v>
+        <v>0.3481013057840374</v>
       </c>
       <c r="AC35">
-        <v>1.666168249873863</v>
+        <v>0.7800491887209443</v>
       </c>
       <c r="AD35">
-        <v>-0.0373634400762317</v>
+        <v>0.3410907224857437</v>
       </c>
       <c r="AE35">
-        <v>0.3645842804235679</v>
+        <v>-0.2316719285995378</v>
       </c>
       <c r="AF35">
-        <v>1.198984681046569</v>
+        <v>-0.3037525084614298</v>
       </c>
       <c r="AG35">
-        <v>0.4800466070973187</v>
+        <v>0.7497894498274987</v>
       </c>
       <c r="AH35">
-        <v>-0.1235203309865541</v>
+        <v>0.9715430715000479</v>
       </c>
       <c r="AI35">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="1">
-        <v>34060</v>
+        <v>35521</v>
       </c>
       <c r="AA36">
-        <v>1.886006365175986</v>
+        <v>0.6196439359366316</v>
       </c>
       <c r="AB36">
-        <v>2.429321991916259</v>
+        <v>0.3488915437295705</v>
       </c>
       <c r="AC36">
-        <v>1.659743236982843</v>
+        <v>0.7833802965661063</v>
       </c>
       <c r="AD36">
-        <v>-0.02397994494457634</v>
+        <v>0.3495259985429429</v>
       </c>
       <c r="AE36">
-        <v>0.3875379593766471</v>
+        <v>-0.2396991489229441</v>
       </c>
       <c r="AF36">
-        <v>1.184011069062239</v>
+        <v>-0.2971396483432395</v>
       </c>
       <c r="AG36">
-        <v>0.3931791877180637</v>
+        <v>0.8722617985041812</v>
       </c>
       <c r="AH36">
-        <v>-0.1097932606851637</v>
+        <v>1.052509175022343</v>
       </c>
       <c r="AI36">
-        <v>-0.140836401402502</v>
+        <v>0.2443759940886188</v>
       </c>
       <c r="AJ36">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1">
-        <v>34151</v>
+        <v>35612</v>
       </c>
       <c r="AB37">
-        <v>2.430284268084186</v>
+        <v>0.348496424756804</v>
       </c>
       <c r="AC37">
-        <v>1.662955743428353</v>
+        <v>0.7817147426435254</v>
       </c>
       <c r="AD37">
-        <v>-0.03067169251040402</v>
+        <v>0.3453083605143433</v>
       </c>
       <c r="AE37">
-        <v>0.3760611199001075</v>
+        <v>-0.2356855387612409</v>
       </c>
       <c r="AF37">
-        <v>1.191497875054404</v>
+        <v>-0.3004460784023346</v>
       </c>
       <c r="AG37">
-        <v>0.4366128974076912</v>
+        <v>0.81102562416584</v>
       </c>
       <c r="AH37">
-        <v>-0.1166567958358589</v>
+        <v>1.012026123261196</v>
       </c>
       <c r="AI37">
-        <v>-0.1425260797669742</v>
+        <v>0.3276837422993378</v>
       </c>
       <c r="AJ37">
-        <v>-1.376415190280561</v>
+        <v>0.3496654546421256</v>
       </c>
       <c r="AK37">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1">
-        <v>34243</v>
+        <v>35704</v>
       </c>
       <c r="AC38">
-        <v>1.661349490205598</v>
+        <v>0.7825475196048158</v>
       </c>
       <c r="AD38">
-        <v>-0.02732581872749018</v>
+        <v>0.3474171795286431</v>
       </c>
       <c r="AE38">
-        <v>0.3817995396383773</v>
+        <v>-0.2376923438420925</v>
       </c>
       <c r="AF38">
-        <v>1.187754472058322</v>
+        <v>-0.298792863372787</v>
       </c>
       <c r="AG38">
-        <v>0.4148960425628775</v>
+        <v>0.8416437113350106</v>
       </c>
       <c r="AH38">
-        <v>-0.1132250282605113</v>
+        <v>1.032267649141769</v>
       </c>
       <c r="AI38">
-        <v>-0.1416812405847381</v>
+        <v>0.2860298681939784</v>
       </c>
       <c r="AJ38">
-        <v>-1.169922166012727</v>
+        <v>0.3043479618129682</v>
       </c>
       <c r="AK38">
-        <v>0.02567001265053659</v>
+        <v>0.8325843276533162</v>
       </c>
       <c r="AL38">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1">
-        <v>34335</v>
+        <v>35796</v>
       </c>
       <c r="AD39">
-        <v>-0.0289987556189471</v>
+        <v>0.3463627700214932</v>
       </c>
       <c r="AE39">
-        <v>0.3789303297692425</v>
+        <v>-0.2366889413016667</v>
       </c>
       <c r="AF39">
-        <v>1.189626173556363</v>
+        <v>-0.2996194708875608</v>
       </c>
       <c r="AG39">
-        <v>0.4257544699852843</v>
+        <v>0.8263346677504253</v>
       </c>
       <c r="AH39">
-        <v>-0.1149409120481851</v>
+        <v>1.022146886201482</v>
       </c>
       <c r="AI39">
-        <v>-0.1421036601758561</v>
+        <v>0.3068568052466581</v>
       </c>
       <c r="AJ39">
-        <v>-1.273168678146644</v>
+        <v>0.3270067082275469</v>
       </c>
       <c r="AK39">
-        <v>-0.2768418625939243</v>
+        <v>0.7436296978538574</v>
       </c>
       <c r="AL39">
-        <v>0.7008489282500356</v>
+        <v>0.8392795681634853</v>
       </c>
       <c r="AM39">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="1">
-        <v>34425</v>
+        <v>35886</v>
       </c>
       <c r="AE40">
-        <v>0.3803649347038099</v>
+        <v>-0.2371906425718796</v>
       </c>
       <c r="AF40">
-        <v>1.188690322807342</v>
+        <v>-0.2992061671301739</v>
       </c>
       <c r="AG40">
-        <v>0.4203252562740809</v>
+        <v>0.8339891895427179</v>
       </c>
       <c r="AH40">
-        <v>-0.1140829701543482</v>
+        <v>1.027207267671626</v>
       </c>
       <c r="AI40">
-        <v>-0.1418924503802971</v>
+        <v>0.2964433367203182</v>
       </c>
       <c r="AJ40">
-        <v>-1.221545422079686</v>
+        <v>0.3156773350202575</v>
       </c>
       <c r="AK40">
-        <v>-0.1255859249716939</v>
+        <v>0.7881070127535867</v>
       </c>
       <c r="AL40">
-        <v>0.6891564007316061</v>
+        <v>0.8677934225196573</v>
       </c>
       <c r="AM40">
-        <v>0.03587044272437677</v>
+        <v>0.3864874227328907</v>
       </c>
       <c r="AN40">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="1">
-        <v>34516</v>
+        <v>35977</v>
       </c>
       <c r="AF41">
-        <v>1.189158248181853</v>
+        <v>-0.2994128190088673</v>
       </c>
       <c r="AG41">
-        <v>0.4230398631296826</v>
+        <v>0.8301619286465716</v>
       </c>
       <c r="AH41">
-        <v>-0.1145119411012666</v>
+        <v>1.024677076936554</v>
       </c>
       <c r="AI41">
-        <v>-0.1419980552780766</v>
+        <v>0.3016500709834882</v>
       </c>
       <c r="AJ41">
-        <v>-1.247357050113165</v>
+        <v>0.3213420216239022</v>
       </c>
       <c r="AK41">
-        <v>-0.2012138937828091</v>
+        <v>0.765868355303722</v>
       </c>
       <c r="AL41">
-        <v>0.6950026644908209</v>
+        <v>0.8535364953415713</v>
       </c>
       <c r="AM41">
-        <v>0.1505976994847965</v>
+        <v>0.4396394377162535</v>
       </c>
       <c r="AN41">
-        <v>0.8348126273549168</v>
+        <v>0.790608675426831</v>
       </c>
       <c r="AO41">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="1">
-        <v>34608</v>
+        <v>36069</v>
       </c>
       <c r="AG42">
-        <v>0.4216825597018817</v>
+        <v>0.8320755590946447</v>
       </c>
       <c r="AH42">
-        <v>-0.1142974556278074</v>
+        <v>1.02594217230409</v>
       </c>
       <c r="AI42">
-        <v>-0.1419452528291869</v>
+        <v>0.2990467038519032</v>
       </c>
       <c r="AJ42">
-        <v>-1.234451236096425</v>
+        <v>0.3185096783220799</v>
       </c>
       <c r="AK42">
-        <v>-0.1633999093772515</v>
+        <v>0.7769876840286544</v>
       </c>
       <c r="AL42">
-        <v>0.6920795326112135</v>
+        <v>0.8606649589306143</v>
       </c>
       <c r="AM42">
-        <v>0.09323407110458662</v>
+        <v>0.413063430224572</v>
       </c>
       <c r="AN42">
-        <v>0.6634131776630202</v>
+        <v>0.7097829979040851</v>
       </c>
       <c r="AO42">
-        <v>1.218680575783001</v>
+        <v>0.4367751951623106</v>
       </c>
       <c r="AP42">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="1">
-        <v>34700</v>
+        <v>36161</v>
       </c>
       <c r="AH43">
-        <v>-0.114404698364537</v>
+        <v>1.025309624620322</v>
       </c>
       <c r="AI43">
-        <v>-0.1419716540536318</v>
+        <v>0.3003483874176957</v>
       </c>
       <c r="AJ43">
-        <v>-1.240904143104795</v>
+        <v>0.3199258499729911</v>
       </c>
       <c r="AK43">
-        <v>-0.1823069015800303</v>
+        <v>0.7714280196661882</v>
       </c>
       <c r="AL43">
-        <v>0.6935410985510172</v>
+        <v>0.8571007271360929</v>
       </c>
       <c r="AM43">
-        <v>0.1219158852946915</v>
+        <v>0.4263514339704128</v>
       </c>
       <c r="AN43">
-        <v>0.7491129025089684</v>
+        <v>0.750195836665458</v>
       </c>
       <c r="AO43">
-        <v>1.211835734275619</v>
+        <v>0.6047532149236771</v>
       </c>
       <c r="AP43">
-        <v>0.7747502138269877</v>
+        <v>0.6613792334829371</v>
       </c>
       <c r="AQ43">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1">
-        <v>34790</v>
+        <v>36251</v>
       </c>
       <c r="AI44">
-        <v>-0.1419584534414093</v>
+        <v>0.2996975456347994</v>
       </c>
       <c r="AJ44">
-        <v>-1.23767768960061</v>
+        <v>0.3192177641475354</v>
       </c>
       <c r="AK44">
-        <v>-0.1728534054786409</v>
+        <v>0.7742078518474214</v>
       </c>
       <c r="AL44">
-        <v>0.6928103155811154</v>
+        <v>0.8588828430333536</v>
       </c>
       <c r="AM44">
-        <v>0.1075749781996391</v>
+        <v>0.4197074320974924</v>
       </c>
       <c r="AN44">
-        <v>0.7062630400859944</v>
+        <v>0.7299894172847715</v>
       </c>
       <c r="AO44">
-        <v>1.21525815502931</v>
+        <v>0.5207642050429938</v>
       </c>
       <c r="AP44">
-        <v>0.8510202213221172</v>
+        <v>0.5574505584632539</v>
       </c>
       <c r="AQ44">
-        <v>0.6193245620764438</v>
+        <v>-0.06055438989470946</v>
       </c>
       <c r="AR44">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="1">
-        <v>34881</v>
+        <v>36342</v>
       </c>
       <c r="AJ45">
-        <v>-1.239290916352703</v>
+        <v>0.3195718070602632</v>
       </c>
       <c r="AK45">
-        <v>-0.1775801535293356</v>
+        <v>0.7728179357568048</v>
       </c>
       <c r="AL45">
-        <v>0.6931757070660662</v>
+        <v>0.8579917850847232</v>
       </c>
       <c r="AM45">
-        <v>0.1147454317471653</v>
+        <v>0.4230294330339526</v>
       </c>
       <c r="AN45">
-        <v>0.7276879712974814</v>
+        <v>0.7400926269751147</v>
       </c>
       <c r="AO45">
-        <v>1.213546944652464</v>
+        <v>0.5627587099833354</v>
       </c>
       <c r="AP45">
-        <v>0.8128852175745525</v>
+        <v>0.6094148959730955</v>
       </c>
       <c r="AQ45">
-        <v>0.6198055015364914</v>
+        <v>0.09662155187375546</v>
       </c>
       <c r="AR45">
-        <v>0.3149113120716482</v>
+        <v>0.2938052288496958</v>
       </c>
       <c r="AS45">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1">
-        <v>34973</v>
+        <v>36434</v>
       </c>
       <c r="AK46">
-        <v>-0.1752167795039883</v>
+        <v>0.7735128938021131</v>
       </c>
       <c r="AL46">
-        <v>0.6929930113235908</v>
+        <v>0.8584373140590384</v>
       </c>
       <c r="AM46">
-        <v>0.1111602049734022</v>
+        <v>0.4213684325657225</v>
       </c>
       <c r="AN46">
-        <v>0.716975505691738</v>
+        <v>0.735041022129943</v>
       </c>
       <c r="AO46">
-        <v>1.214402549840887</v>
+        <v>0.5417614575131646</v>
       </c>
       <c r="AP46">
-        <v>0.8319527194483348</v>
+        <v>0.5834327272181747</v>
       </c>
       <c r="AQ46">
-        <v>0.6195650318064676</v>
+        <v>0.018033580989523</v>
       </c>
       <c r="AR46">
-        <v>0.365486540585765</v>
+        <v>0.221581385077941</v>
       </c>
       <c r="AS46">
-        <v>0.8533335613145069</v>
+        <v>0.1451397385481178</v>
       </c>
       <c r="AT46">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>35065</v>
+        <v>36526</v>
       </c>
       <c r="AL47">
-        <v>0.6930843591948286</v>
+        <v>0.8582145495718808</v>
       </c>
       <c r="AM47">
-        <v>0.1129528183602838</v>
+        <v>0.4221989327998376</v>
       </c>
       <c r="AN47">
-        <v>0.7223317384946097</v>
+        <v>0.7375668245525289</v>
       </c>
       <c r="AO47">
-        <v>1.213974747246676</v>
+        <v>0.5522600837482501</v>
       </c>
       <c r="AP47">
-        <v>0.8224189685114436</v>
+        <v>0.5964238115956351</v>
       </c>
       <c r="AQ47">
-        <v>0.6196852666714795</v>
+        <v>0.05732756643163923</v>
       </c>
       <c r="AR47">
-        <v>0.3401989263287066</v>
+        <v>0.2576933069638184</v>
       </c>
       <c r="AS47">
-        <v>0.7467381102693249</v>
+        <v>0.1965186775403361</v>
       </c>
       <c r="AT47">
-        <v>0.2567379619137522</v>
+        <v>0.5652085762098784</v>
       </c>
       <c r="AU47">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="1">
-        <v>35156</v>
+        <v>36617</v>
       </c>
       <c r="AM48">
-        <v>0.112056511666843</v>
+        <v>0.42178368268278</v>
       </c>
       <c r="AN48">
-        <v>0.7196536220931739</v>
+        <v>0.736303923341236</v>
       </c>
       <c r="AO48">
-        <v>1.214188648543781</v>
+        <v>0.5470107706307074</v>
       </c>
       <c r="AP48">
-        <v>0.8271858439798891</v>
+        <v>0.5899282694069049</v>
       </c>
       <c r="AQ48">
-        <v>0.6196251492389735</v>
+        <v>0.03768057371058112</v>
       </c>
       <c r="AR48">
-        <v>0.3528427334572358</v>
+        <v>0.2396373460208797</v>
       </c>
       <c r="AS48">
-        <v>0.800035835791916</v>
+        <v>0.170829208044227</v>
       </c>
       <c r="AT48">
-        <v>0.3917023788289387</v>
+        <v>0.4886326403553836</v>
       </c>
       <c r="AU48">
-        <v>-0.2798352505399755</v>
+        <v>0.7348434074988387</v>
       </c>
       <c r="AV48">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
     </row>
     <row r="49" spans="1:64">
       <c r="A49" s="1">
-        <v>35247</v>
+        <v>36708</v>
       </c>
       <c r="AN49">
-        <v>0.7209926802938917</v>
+        <v>0.7369353739468825</v>
       </c>
       <c r="AO49">
-        <v>1.214081697895228</v>
+        <v>0.5496354271894788</v>
       </c>
       <c r="AP49">
-        <v>0.8248024062456664</v>
+        <v>0.59317604050127</v>
       </c>
       <c r="AQ49">
-        <v>0.6196552079552264</v>
+        <v>0.04750407007111017</v>
       </c>
       <c r="AR49">
-        <v>0.3465208298929712</v>
+        <v>0.2486653264923491</v>
       </c>
       <c r="AS49">
-        <v>0.7733869730306204</v>
+        <v>0.1836739427922815</v>
       </c>
       <c r="AT49">
-        <v>0.3242201703713454</v>
+        <v>0.526920608282631</v>
       </c>
       <c r="AU49">
-        <v>-0.2156174879527252</v>
+        <v>0.7567153730283596</v>
       </c>
       <c r="AV49">
-        <v>-0.3169782286978106</v>
+        <v>0.6717893215577675</v>
       </c>
       <c r="AW49">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
     </row>
     <row r="50" spans="1:64">
       <c r="A50" s="1">
-        <v>35339</v>
+        <v>36800</v>
       </c>
       <c r="AO50">
-        <v>1.214135173219505</v>
+        <v>0.5483230989100931</v>
       </c>
       <c r="AP50">
-        <v>0.8259941251127778</v>
+        <v>0.5915521549540874</v>
       </c>
       <c r="AQ50">
-        <v>0.6196401785971</v>
+        <v>0.04259232189084564</v>
       </c>
       <c r="AR50">
-        <v>0.3496817816751036</v>
+        <v>0.2441513362566144</v>
       </c>
       <c r="AS50">
-        <v>0.7867114044112682</v>
+        <v>0.1772515754182543</v>
       </c>
       <c r="AT50">
-        <v>0.357961274600142</v>
+        <v>0.5077766243190073</v>
       </c>
       <c r="AU50">
-        <v>-0.2477263692463504</v>
+        <v>0.7457793902635992</v>
       </c>
       <c r="AV50">
-        <v>-0.2905267882250491</v>
+        <v>0.6778741691941992</v>
       </c>
       <c r="AW50">
-        <v>0.9947341471808635</v>
+        <v>1.054246487276782</v>
       </c>
       <c r="AX50">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
     </row>
     <row r="51" spans="1:64">
       <c r="A51" s="1">
-        <v>35431</v>
+        <v>36892</v>
       </c>
       <c r="AP51">
-        <v>0.825398265679222</v>
+        <v>0.5923640977276787</v>
       </c>
       <c r="AQ51">
-        <v>0.6196476932761632</v>
+        <v>0.04504819598097791</v>
       </c>
       <c r="AR51">
-        <v>0.3481013057840374</v>
+        <v>0.2464083313744817</v>
       </c>
       <c r="AS51">
-        <v>0.7800491887209443</v>
+        <v>0.1804627591052679</v>
       </c>
       <c r="AT51">
-        <v>0.3410907224857437</v>
+        <v>0.5173486163008192</v>
       </c>
       <c r="AU51">
-        <v>-0.2316719285995378</v>
+        <v>0.7512473816459794</v>
       </c>
       <c r="AV51">
-        <v>-0.3037525084614298</v>
+        <v>0.6748317453759833</v>
       </c>
       <c r="AW51">
-        <v>0.7497894498274987</v>
+        <v>1.007226814764826</v>
       </c>
       <c r="AX51">
-        <v>0.9715430715000479</v>
+        <v>0.7087762601347514</v>
       </c>
       <c r="AY51">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
     </row>
     <row r="52" spans="1:64">
       <c r="A52" s="1">
-        <v>35521</v>
+        <v>36982</v>
       </c>
       <c r="AQ52">
-        <v>0.6196439359366316</v>
+        <v>0.04382025893591178</v>
       </c>
       <c r="AR52">
-        <v>0.3488915437295705</v>
+        <v>0.2452798338155481</v>
       </c>
       <c r="AS52">
-        <v>0.7833802965661063</v>
+        <v>0.1788571672617611</v>
       </c>
       <c r="AT52">
-        <v>0.3495259985429429</v>
+        <v>0.5125626203099132</v>
       </c>
       <c r="AU52">
-        <v>-0.2396991489229441</v>
+        <v>0.7485133859547892</v>
       </c>
       <c r="AV52">
-        <v>-0.2971396483432395</v>
+        <v>0.6763529572850913</v>
       </c>
       <c r="AW52">
-        <v>0.8722617985041812</v>
+        <v>1.030736651020804</v>
       </c>
       <c r="AX52">
-        <v>1.052509175022343</v>
+        <v>0.7807361188262868</v>
       </c>
       <c r="AY52">
-        <v>0.2443759940886188</v>
+        <v>0.225536295748106</v>
       </c>
       <c r="AZ52">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
     </row>
     <row r="53" spans="1:64">
       <c r="A53" s="1">
-        <v>35612</v>
+        <v>37073</v>
       </c>
       <c r="AR53">
-        <v>0.348496424756804</v>
+        <v>0.2458440825950149</v>
       </c>
       <c r="AS53">
-        <v>0.7817147426435254</v>
+        <v>0.1796599631835145</v>
       </c>
       <c r="AT53">
-        <v>0.3453083605143433</v>
+        <v>0.5149556183053662</v>
       </c>
       <c r="AU53">
-        <v>-0.2356855387612409</v>
+        <v>0.7498803838003842</v>
       </c>
       <c r="AV53">
-        <v>-0.3004460784023346</v>
+        <v>0.6755923513305373</v>
       </c>
       <c r="AW53">
-        <v>0.81102562416584</v>
+        <v>1.018981732892815</v>
       </c>
       <c r="AX53">
-        <v>1.012026123261196</v>
+        <v>0.744756189480519</v>
       </c>
       <c r="AY53">
-        <v>0.3276837422993378</v>
+        <v>0.2347700641179045</v>
       </c>
       <c r="AZ53">
-        <v>0.3496654546421256</v>
+        <v>0.3298207137893182</v>
       </c>
       <c r="BA53">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
     </row>
     <row r="54" spans="1:64">
       <c r="A54" s="1">
-        <v>35704</v>
+        <v>37165</v>
       </c>
       <c r="AS54">
-        <v>0.7825475196048158</v>
+        <v>0.1792585652226378</v>
       </c>
       <c r="AT54">
-        <v>0.3474171795286431</v>
+        <v>0.5137591193076396</v>
       </c>
       <c r="AU54">
-        <v>-0.2376923438420925</v>
+        <v>0.7491968848775867</v>
       </c>
       <c r="AV54">
-        <v>-0.298792863372787</v>
+        <v>0.6759726543078143</v>
       </c>
       <c r="AW54">
-        <v>0.8416437113350106</v>
+        <v>1.024859191956809</v>
       </c>
       <c r="AX54">
-        <v>1.032267649141769</v>
+        <v>0.7627461541534029</v>
       </c>
       <c r="AY54">
-        <v>0.2860298681939784</v>
+        <v>0.2301531799330053</v>
       </c>
       <c r="AZ54">
-        <v>0.3043479618129682</v>
+        <v>0.3093620546591833</v>
       </c>
       <c r="BA54">
-        <v>0.8325843276533162</v>
+        <v>0.0769698550409129</v>
       </c>
       <c r="BB54">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
     </row>
     <row r="55" spans="1:64">
       <c r="A55" s="1">
-        <v>35796</v>
+        <v>37257</v>
       </c>
       <c r="AT55">
-        <v>0.3463627700214932</v>
+        <v>0.5143573688065028</v>
       </c>
       <c r="AU55">
-        <v>-0.2366889413016667</v>
+        <v>0.7495386343389855</v>
       </c>
       <c r="AV55">
-        <v>-0.2996194708875608</v>
+        <v>0.6757825028191757</v>
       </c>
       <c r="AW55">
-        <v>0.8263346677504253</v>
+        <v>1.021920462424812</v>
       </c>
       <c r="AX55">
-        <v>1.022146886201482</v>
+        <v>0.7537511718169609</v>
       </c>
       <c r="AY55">
-        <v>0.3068568052466581</v>
+        <v>0.2324616220254549</v>
       </c>
       <c r="AZ55">
-        <v>0.3270067082275469</v>
+        <v>0.3195913842242507</v>
       </c>
       <c r="BA55">
-        <v>0.7436296978538574</v>
+        <v>0.1305681326873131</v>
       </c>
       <c r="BB55">
-        <v>0.8392795681634853</v>
+        <v>-0.1133821134826466</v>
       </c>
       <c r="BC55">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
     </row>
     <row r="56" spans="1:64">
       <c r="A56" s="1">
-        <v>35886</v>
+        <v>37347</v>
       </c>
       <c r="AU56">
-        <v>-0.2371906425718796</v>
+        <v>0.7493677596082862</v>
       </c>
       <c r="AV56">
-        <v>-0.2992061671301739</v>
+        <v>0.675877578563495</v>
       </c>
       <c r="AW56">
-        <v>0.8339891895427179</v>
+        <v>1.023389827190811</v>
       </c>
       <c r="AX56">
-        <v>1.027207267671626</v>
+        <v>0.7582486629851819</v>
       </c>
       <c r="AY56">
-        <v>0.2964433367203182</v>
+        <v>0.2313074009792301</v>
       </c>
       <c r="AZ56">
-        <v>0.3156773350202575</v>
+        <v>0.314476719441717</v>
       </c>
       <c r="BA56">
-        <v>0.7881070127535867</v>
+        <v>0.103768993864113</v>
       </c>
       <c r="BB56">
-        <v>0.8677934225196573</v>
+        <v>-0.09952287794418677</v>
       </c>
       <c r="BC56">
-        <v>0.3864874227328907</v>
+        <v>-0.2324764069694901</v>
       </c>
       <c r="BD56">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
     </row>
     <row r="57" spans="1:64">
       <c r="A57" s="1">
-        <v>35977</v>
+        <v>37438</v>
       </c>
       <c r="AV57">
-        <v>-0.2994128190088673</v>
+        <v>0.6758300406913353</v>
       </c>
       <c r="AW57">
-        <v>0.8301619286465716</v>
+        <v>1.022655144807811</v>
       </c>
       <c r="AX57">
-        <v>1.024677076936554</v>
+        <v>0.7559999174010714</v>
       </c>
       <c r="AY57">
-        <v>0.3016500709834882</v>
+        <v>0.2318845115023425</v>
       </c>
       <c r="AZ57">
-        <v>0.3213420216239022</v>
+        <v>0.3170340518329838</v>
       </c>
       <c r="BA57">
-        <v>0.765868355303722</v>
+        <v>0.1171685632757131</v>
       </c>
       <c r="BB57">
-        <v>0.8535364953415713</v>
+        <v>-0.1064524957134167</v>
       </c>
       <c r="BC57">
-        <v>0.4396394377162535</v>
+        <v>-0.2215959663864384</v>
       </c>
       <c r="BD57">
-        <v>0.790608675426831</v>
+        <v>0.0638833287732315</v>
       </c>
       <c r="BE57">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
     </row>
     <row r="58" spans="1:64">
       <c r="A58" s="1">
-        <v>36069</v>
+        <v>37530</v>
       </c>
       <c r="AW58">
-        <v>0.8320755590946447</v>
+        <v>1.023022485999311</v>
       </c>
       <c r="AX58">
-        <v>1.02594217230409</v>
+        <v>0.7571242901931267</v>
       </c>
       <c r="AY58">
-        <v>0.2990467038519032</v>
+        <v>0.2315959562407863</v>
       </c>
       <c r="AZ58">
-        <v>0.3185096783220799</v>
+        <v>0.3157553856373504</v>
       </c>
       <c r="BA58">
-        <v>0.7769876840286544</v>
+        <v>0.110468778569913</v>
       </c>
       <c r="BB58">
-        <v>0.8606649589306143</v>
+        <v>-0.1029876868288017</v>
       </c>
       <c r="BC58">
-        <v>0.413063430224572</v>
+        <v>-0.2270361866779643</v>
       </c>
       <c r="BD58">
-        <v>0.7097829979040851</v>
+        <v>0.010863225955094</v>
       </c>
       <c r="BE58">
-        <v>0.4367751951623106</v>
+        <v>0.2751082404448018</v>
       </c>
       <c r="BF58">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
     </row>
     <row r="59" spans="1:64">
       <c r="A59" s="1">
-        <v>36161</v>
+        <v>37622</v>
       </c>
       <c r="AX59">
-        <v>1.025309624620322</v>
+        <v>0.7565621037970991</v>
       </c>
       <c r="AY59">
-        <v>0.3003483874176957</v>
+        <v>0.2317402338715644</v>
       </c>
       <c r="AZ59">
-        <v>0.3199258499729911</v>
+        <v>0.3163947187351671</v>
       </c>
       <c r="BA59">
-        <v>0.7714280196661882</v>
+        <v>0.1138186709228131</v>
       </c>
       <c r="BB59">
-        <v>0.8571007271360929</v>
+        <v>-0.1047200912711092</v>
       </c>
       <c r="BC59">
-        <v>0.4263514339704128</v>
+        <v>-0.2243160765322013</v>
       </c>
       <c r="BD59">
-        <v>0.750195836665458</v>
+        <v>0.03737327736416275</v>
       </c>
       <c r="BE59">
-        <v>0.6047532149236771</v>
+        <v>0.2764693095393227</v>
       </c>
       <c r="BF59">
-        <v>0.6613792334829371</v>
+        <v>0.2387903651556644</v>
       </c>
       <c r="BG59">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
     </row>
     <row r="60" spans="1:64">
       <c r="A60" s="1">
-        <v>36251</v>
+        <v>37712</v>
       </c>
       <c r="AY60">
-        <v>0.2996975456347994</v>
+        <v>0.2316680950561753</v>
       </c>
       <c r="AZ60">
-        <v>0.3192177641475354</v>
+        <v>0.3160750521862588</v>
       </c>
       <c r="BA60">
-        <v>0.7742078518474214</v>
+        <v>0.1121437247463631</v>
       </c>
       <c r="BB60">
-        <v>0.8588828430333536</v>
+        <v>-0.1038538890499555</v>
       </c>
       <c r="BC60">
-        <v>0.4197074320974924</v>
+        <v>-0.2256761316050828</v>
       </c>
       <c r="BD60">
-        <v>0.7299894172847715</v>
+        <v>0.02411825165962838</v>
       </c>
       <c r="BE60">
-        <v>0.5207642050429938</v>
+        <v>0.2757887749920622</v>
       </c>
       <c r="BF60">
-        <v>0.5574505584632539</v>
+        <v>0.2242129063571066</v>
       </c>
       <c r="BG60">
-        <v>-0.06055438989470946</v>
+        <v>0.05244773721118953</v>
       </c>
       <c r="BH60">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
     </row>
     <row r="61" spans="1:64">
       <c r="A61" s="1">
-        <v>36342</v>
+        <v>37803</v>
       </c>
       <c r="AZ61">
-        <v>0.3195718070602632</v>
+        <v>0.3162348854607129</v>
       </c>
       <c r="BA61">
-        <v>0.7728179357568048</v>
+        <v>0.1129811978345881</v>
       </c>
       <c r="BB61">
-        <v>0.8579917850847232</v>
+        <v>-0.1042869901605323</v>
       </c>
       <c r="BC61">
-        <v>0.4230294330339526</v>
+        <v>-0.2249961040686421</v>
       </c>
       <c r="BD61">
-        <v>0.7400926269751147</v>
+        <v>0.03074576451189556</v>
       </c>
       <c r="BE61">
-        <v>0.5627587099833354</v>
+        <v>0.2761290422656925</v>
       </c>
       <c r="BF61">
-        <v>0.6094148959730955</v>
+        <v>0.2315016357563855</v>
       </c>
       <c r="BG61">
-        <v>0.09662155187375546</v>
+        <v>0.09473747588406395</v>
       </c>
       <c r="BH61">
-        <v>0.2938052288496958</v>
+        <v>-0.1782854511548901</v>
       </c>
       <c r="BI61">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
     </row>
     <row r="62" spans="1:64">
       <c r="A62" s="1">
-        <v>36434</v>
+        <v>37895</v>
       </c>
       <c r="BA62">
-        <v>0.7735128938021131</v>
+        <v>0.1125624612904756</v>
       </c>
       <c r="BB62">
-        <v>0.8584373140590384</v>
+        <v>-0.1040704396052439</v>
       </c>
       <c r="BC62">
-        <v>0.4213684325657225</v>
+        <v>-0.2253361178368624</v>
       </c>
       <c r="BD62">
-        <v>0.735041022129943</v>
+        <v>0.02743200808576197</v>
       </c>
       <c r="BE62">
-        <v>0.5417614575131646</v>
+        <v>0.2759589086288773</v>
       </c>
       <c r="BF62">
-        <v>0.5834327272181747</v>
+        <v>0.227857271056746</v>
       </c>
       <c r="BG62">
-        <v>0.018033580989523</v>
+        <v>0.07359260654762674</v>
       </c>
       <c r="BH62">
-        <v>0.221581385077941</v>
+        <v>-0.1539264993181683</v>
       </c>
       <c r="BI62">
-        <v>0.1451397385481178</v>
+        <v>-0.106900804249073</v>
       </c>
       <c r="BJ62">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
     </row>
     <row r="63" spans="1:64">
       <c r="A63" s="1">
-        <v>36526</v>
+        <v>37987</v>
       </c>
       <c r="BB63">
-        <v>0.8582145495718808</v>
+        <v>-0.1041787148828881</v>
       </c>
       <c r="BC63">
-        <v>0.4221989327998376</v>
+        <v>-0.2251661109527522</v>
       </c>
       <c r="BD63">
-        <v>0.7375668245525289</v>
+        <v>0.02908888629882877</v>
       </c>
       <c r="BE63">
-        <v>0.5522600837482501</v>
+        <v>0.2760439754472849</v>
       </c>
       <c r="BF63">
-        <v>0.5964238115956351</v>
+        <v>0.2296794534065658</v>
       </c>
       <c r="BG63">
-        <v>0.05732756643163923</v>
+        <v>0.08416504121584534</v>
       </c>
       <c r="BH63">
-        <v>0.2576933069638184</v>
+        <v>-0.1661059752365292</v>
       </c>
       <c r="BI63">
-        <v>0.1965186775403361</v>
+        <v>-0.1291922959303458</v>
       </c>
       <c r="BJ63">
-        <v>0.5652085762098784</v>
+        <v>0.1238985445456072</v>
       </c>
       <c r="BK63">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
     </row>
     <row r="64" spans="1:64">
       <c r="A64" s="1">
-        <v>36617</v>
+        <v>38078</v>
       </c>
       <c r="BC64">
-        <v>0.42178368268278</v>
+        <v>-0.2252511143948073</v>
       </c>
       <c r="BD64">
-        <v>0.736303923341236</v>
+        <v>0.02826044719229537</v>
       </c>
       <c r="BE64">
-        <v>0.5470107706307074</v>
+        <v>0.2760014420380811</v>
       </c>
       <c r="BF64">
-        <v>0.5899282694069049</v>
+        <v>0.2287683622316559</v>
       </c>
       <c r="BG64">
-        <v>0.03768057371058112</v>
+        <v>0.07887882388173603</v>
       </c>
       <c r="BH64">
-        <v>0.2396373460208797</v>
+        <v>-0.1600162372773488</v>
       </c>
       <c r="BI64">
-        <v>0.170829208044227</v>
+        <v>-0.1180465500897094</v>
       </c>
       <c r="BJ64">
-        <v>0.4886326403553836</v>
+        <v>0.07611038125140182</v>
       </c>
       <c r="BK64">
-        <v>0.7348434074988387</v>
+        <v>0.2110992836877943</v>
       </c>
       <c r="BL64">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
     </row>
     <row r="65" spans="1:80">
       <c r="A65" s="1">
-        <v>36708</v>
+        <v>38169</v>
       </c>
       <c r="BD65">
-        <v>0.7369353739468825</v>
+        <v>0.02867466674556206</v>
       </c>
       <c r="BE65">
-        <v>0.5496354271894788</v>
+        <v>0.276022708742683</v>
       </c>
       <c r="BF65">
-        <v>0.59317604050127</v>
+        <v>0.2292239078191108</v>
       </c>
       <c r="BG65">
-        <v>0.04750407007111017</v>
+        <v>0.08152193254879068</v>
       </c>
       <c r="BH65">
-        <v>0.2486653264923491</v>
+        <v>-0.163061106256939</v>
       </c>
       <c r="BI65">
-        <v>0.1836739427922815</v>
+        <v>-0.1236194230100276</v>
       </c>
       <c r="BJ65">
-        <v>0.526920608282631</v>
+        <v>0.1000044628985045</v>
       </c>
       <c r="BK65">
-        <v>0.7567153730283596</v>
+        <v>0.2091393300491075</v>
       </c>
       <c r="BL65">
-        <v>0.6717893215577675</v>
+        <v>0.3950732219757438</v>
       </c>
       <c r="BM65">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
     </row>
     <row r="66" spans="1:80">
       <c r="A66" s="1">
-        <v>36800</v>
+        <v>38261</v>
       </c>
       <c r="BE66">
-        <v>0.5483230989100931</v>
+        <v>0.276012075390382</v>
       </c>
       <c r="BF66">
-        <v>0.5915521549540874</v>
+        <v>0.2289961350253834</v>
       </c>
       <c r="BG66">
-        <v>0.04259232189084564</v>
+        <v>0.08020037821526335</v>
       </c>
       <c r="BH66">
-        <v>0.2441513362566144</v>
+        <v>-0.1615386717671439</v>
       </c>
       <c r="BI66">
-        <v>0.1772515754182543</v>
+        <v>-0.1208329865498685</v>
       </c>
       <c r="BJ66">
-        <v>0.5077766243190073</v>
+        <v>0.08805742207495318</v>
       </c>
       <c r="BK66">
-        <v>0.7457793902635992</v>
+        <v>0.2101193068684509</v>
       </c>
       <c r="BL66">
-        <v>0.6778741691941992</v>
+        <v>0.3731093719124238</v>
       </c>
       <c r="BM66">
-        <v>1.054246487276782</v>
+        <v>0.4639212446633175</v>
       </c>
       <c r="BN66">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
     </row>
     <row r="67" spans="1:80">
       <c r="A67" s="1">
-        <v>36892</v>
+        <v>38353</v>
       </c>
       <c r="BF67">
-        <v>0.5923640977276787</v>
+        <v>0.2291100214222471</v>
       </c>
       <c r="BG67">
-        <v>0.04504819598097791</v>
+        <v>0.08086115538202701</v>
       </c>
       <c r="BH67">
-        <v>0.2464083313744817</v>
+        <v>-0.1622998890120414</v>
       </c>
       <c r="BI67">
-        <v>0.1804627591052679</v>
+        <v>-0.122226204779948</v>
       </c>
       <c r="BJ67">
-        <v>0.5173486163008192</v>
+        <v>0.09403094248672886</v>
       </c>
       <c r="BK67">
-        <v>0.7512473816459794</v>
+        <v>0.2096293184587792</v>
       </c>
       <c r="BL67">
-        <v>0.6748317453759833</v>
+        <v>0.3840912969440838</v>
       </c>
       <c r="BM67">
-        <v>1.007226814764826</v>
+        <v>0.4581576271132333</v>
       </c>
       <c r="BN67">
-        <v>0.7087762601347514</v>
+        <v>0.1779846747513269</v>
       </c>
       <c r="BO67">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
     </row>
     <row r="68" spans="1:80">
       <c r="A68" s="1">
-        <v>36982</v>
+        <v>38443</v>
       </c>
       <c r="BG68">
-        <v>0.04382025893591178</v>
+        <v>0.08053076679864518</v>
       </c>
       <c r="BH68">
-        <v>0.2452798338155481</v>
+        <v>-0.1619192803895926</v>
       </c>
       <c r="BI68">
-        <v>0.1788571672617611</v>
+        <v>-0.1215295956649083</v>
       </c>
       <c r="BJ68">
-        <v>0.5125626203099132</v>
+        <v>0.09104418228084102</v>
       </c>
       <c r="BK68">
-        <v>0.7485133859547892</v>
+        <v>0.2098743126636151</v>
       </c>
       <c r="BL68">
-        <v>0.6763529572850913</v>
+        <v>0.3786003344282538</v>
       </c>
       <c r="BM68">
-        <v>1.030736651020804</v>
+        <v>0.4610394358882754</v>
       </c>
       <c r="BN68">
-        <v>0.7807361188262868</v>
+        <v>0.2172406150315963</v>
       </c>
       <c r="BO68">
-        <v>0.225536295748106</v>
+        <v>-0.1690621918602297</v>
       </c>
       <c r="BP68">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
     </row>
     <row r="69" spans="1:80">
       <c r="A69" s="1">
-        <v>37073</v>
+        <v>38534</v>
       </c>
       <c r="BH69">
-        <v>0.2458440825950149</v>
+        <v>-0.162109584700817</v>
       </c>
       <c r="BI69">
-        <v>0.1796599631835145</v>
+        <v>-0.1218779002224281</v>
       </c>
       <c r="BJ69">
-        <v>0.5149556183053662</v>
+        <v>0.09253756238378494</v>
       </c>
       <c r="BK69">
-        <v>0.7498803838003842</v>
+        <v>0.2097518155611972</v>
       </c>
       <c r="BL69">
-        <v>0.6755923513305373</v>
+        <v>0.3813458156861688</v>
       </c>
       <c r="BM69">
-        <v>1.018981732892815</v>
+        <v>0.4595985315007544</v>
       </c>
       <c r="BN69">
-        <v>0.744756189480519</v>
+        <v>0.1976126448914616</v>
       </c>
       <c r="BO69">
-        <v>0.2347700641179045</v>
+        <v>-0.1372378966572215</v>
       </c>
       <c r="BP69">
-        <v>0.3298207137893182</v>
+        <v>0.7489732132872778</v>
       </c>
       <c r="BQ69">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
     </row>
     <row r="70" spans="1:80">
       <c r="A70" s="1">
-        <v>37165</v>
+        <v>38626</v>
       </c>
       <c r="BI70">
-        <v>0.1792585652226378</v>
+        <v>-0.1217037479436682</v>
       </c>
       <c r="BJ70">
-        <v>0.5137591193076396</v>
+        <v>0.09179087233231298</v>
       </c>
       <c r="BK70">
-        <v>0.7491968848775867</v>
+        <v>0.2098130641124061</v>
       </c>
       <c r="BL70">
-        <v>0.6759726543078143</v>
+        <v>0.3799730750572113</v>
       </c>
       <c r="BM70">
-        <v>1.024859191956809</v>
+        <v>0.4603189836945148</v>
       </c>
       <c r="BN70">
-        <v>0.7627461541534029</v>
+        <v>0.2074266299615289</v>
       </c>
       <c r="BO70">
-        <v>0.2301531799330053</v>
+        <v>-0.1531500442587256</v>
       </c>
       <c r="BP70">
-        <v>0.3093620546591833</v>
+        <v>0.6014067364024267</v>
       </c>
       <c r="BQ70">
-        <v>0.0769698550409129</v>
+        <v>0.1954295528814108</v>
       </c>
       <c r="BR70">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
     </row>
     <row r="71" spans="1:80">
       <c r="A71" s="1">
-        <v>37257</v>
+        <v>38718</v>
       </c>
       <c r="BJ71">
-        <v>0.5143573688065028</v>
+        <v>0.09216421735804896</v>
       </c>
       <c r="BK71">
-        <v>0.7495386343389855</v>
+        <v>0.2097824398368016</v>
       </c>
       <c r="BL71">
-        <v>0.6757825028191757</v>
+        <v>0.3806594453716901</v>
       </c>
       <c r="BM71">
-        <v>1.021920462424812</v>
+        <v>0.4599587575976346</v>
       </c>
       <c r="BN71">
-        <v>0.7537511718169609</v>
+        <v>0.2025196374264953</v>
       </c>
       <c r="BO71">
-        <v>0.2324616220254549</v>
+        <v>-0.1451939704579736</v>
       </c>
       <c r="BP71">
-        <v>0.3195913842242507</v>
+        <v>0.6751899748448522</v>
       </c>
       <c r="BQ71">
-        <v>0.1305681326873131</v>
+        <v>0.2882937278475308</v>
       </c>
       <c r="BR71">
-        <v>-0.1133821134826466</v>
+        <v>0.5212103711705466</v>
       </c>
       <c r="BS71">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
     </row>
     <row r="72" spans="1:80">
       <c r="A72" s="1">
-        <v>37347</v>
+        <v>38808</v>
       </c>
       <c r="BK72">
-        <v>0.7493677596082862</v>
+        <v>0.2097977519746039</v>
       </c>
       <c r="BL72">
-        <v>0.675877578563495</v>
+        <v>0.3803162602144507</v>
       </c>
       <c r="BM72">
-        <v>1.023389827190811</v>
+        <v>0.4601388706460747</v>
       </c>
       <c r="BN72">
-        <v>0.7582486629851819</v>
+        <v>0.2049731336940121</v>
       </c>
       <c r="BO72">
-        <v>0.2313074009792301</v>
+        <v>-0.1491720073583496</v>
       </c>
       <c r="BP72">
-        <v>0.314476719441717</v>
+        <v>0.6382983556236395</v>
       </c>
       <c r="BQ72">
-        <v>0.103768993864113</v>
+        <v>0.2418616403644708</v>
       </c>
       <c r="BR72">
-        <v>-0.09952287794418677</v>
+        <v>0.4715877331978943</v>
       </c>
       <c r="BS72">
-        <v>-0.2324764069694901</v>
+        <v>0.162182854513893</v>
       </c>
       <c r="BT72">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
     </row>
     <row r="73" spans="1:80">
       <c r="A73" s="1">
-        <v>37438</v>
+        <v>38899</v>
       </c>
       <c r="BL73">
-        <v>0.6758300406913353</v>
+        <v>0.3804878527930704</v>
       </c>
       <c r="BM73">
-        <v>1.022655144807811</v>
+        <v>0.4600488141218547</v>
       </c>
       <c r="BN73">
-        <v>0.7559999174010714</v>
+        <v>0.2037463855602537</v>
       </c>
       <c r="BO73">
-        <v>0.2318845115023425</v>
+        <v>-0.1471829889081616</v>
       </c>
       <c r="BP73">
-        <v>0.3170340518329838</v>
+        <v>0.6567441652342458</v>
       </c>
       <c r="BQ73">
-        <v>0.1171685632757131</v>
+        <v>0.2650776841060008</v>
       </c>
       <c r="BR73">
-        <v>-0.1064524957134167</v>
+        <v>0.4963990521842204</v>
       </c>
       <c r="BS73">
-        <v>-0.2215959663864384</v>
+        <v>0.2384614990198504</v>
       </c>
       <c r="BT73">
-        <v>0.0638833287732315</v>
+        <v>0.2764159603736306</v>
       </c>
       <c r="BU73">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
     </row>
     <row r="74" spans="1:80">
       <c r="A74" s="1">
-        <v>37530</v>
+        <v>38991</v>
       </c>
       <c r="BM74">
-        <v>1.023022485999311</v>
+        <v>0.4600938423839647</v>
       </c>
       <c r="BN74">
-        <v>0.7571242901931267</v>
+        <v>0.2043597596271329</v>
       </c>
       <c r="BO74">
-        <v>0.2315959562407863</v>
+        <v>-0.1481774981332556</v>
       </c>
       <c r="BP74">
-        <v>0.3157553856373504</v>
+        <v>0.6475212604289426</v>
       </c>
       <c r="BQ74">
-        <v>0.110468778569913</v>
+        <v>0.2534696622352358</v>
       </c>
       <c r="BR74">
-        <v>-0.1029876868288017</v>
+        <v>0.4839933926910573</v>
       </c>
       <c r="BS74">
-        <v>-0.2270361866779643</v>
+        <v>0.2003221767668717</v>
       </c>
       <c r="BT74">
-        <v>0.010863225955094</v>
+        <v>0.2319491977472571</v>
       </c>
       <c r="BU74">
-        <v>0.2751082404448018</v>
+        <v>0.844691530107063</v>
       </c>
       <c r="BV74">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
     </row>
     <row r="75" spans="1:80">
       <c r="A75" s="1">
-        <v>37622</v>
+        <v>39083</v>
       </c>
       <c r="BN75">
-        <v>0.7565621037970991</v>
+        <v>0.2040530725936933</v>
       </c>
       <c r="BO75">
-        <v>0.2317402338715644</v>
+        <v>-0.1476802435207086</v>
       </c>
       <c r="BP75">
-        <v>0.3163947187351671</v>
+        <v>0.6521327128315942</v>
       </c>
       <c r="BQ75">
-        <v>0.1138186709228131</v>
+        <v>0.2592736731706183</v>
       </c>
       <c r="BR75">
-        <v>-0.1047200912711092</v>
+        <v>0.4901962224376389</v>
       </c>
       <c r="BS75">
-        <v>-0.2243160765322013</v>
+        <v>0.219391837893361</v>
       </c>
       <c r="BT75">
-        <v>0.03737327736416275</v>
+        <v>0.2541825790604439</v>
       </c>
       <c r="BU75">
-        <v>0.2764693095393227</v>
+        <v>0.8165004853446378</v>
       </c>
       <c r="BV75">
-        <v>0.2387903651556644</v>
+        <v>0.74405834374321</v>
       </c>
       <c r="BW75">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
     </row>
     <row r="76" spans="1:80">
       <c r="A76" s="1">
-        <v>37712</v>
+        <v>39173</v>
       </c>
       <c r="BO76">
-        <v>0.2316680950561753</v>
+        <v>-0.1479288708269821</v>
       </c>
       <c r="BP76">
-        <v>0.3160750521862588</v>
+        <v>0.6498269866302684</v>
       </c>
       <c r="BQ76">
-        <v>0.1121437247463631</v>
+        <v>0.2563716677029271</v>
       </c>
       <c r="BR76">
-        <v>-0.1038538890499555</v>
+        <v>0.4870948075643481</v>
       </c>
       <c r="BS76">
-        <v>-0.2256761316050828</v>
+        <v>0.2098570073301164</v>
       </c>
       <c r="BT76">
-        <v>0.02411825165962838</v>
+        <v>0.2430658884038505</v>
       </c>
       <c r="BU76">
-        <v>0.2757887749920622</v>
+        <v>0.8305960077258504</v>
       </c>
       <c r="BV76">
-        <v>0.2242129063571066</v>
+        <v>0.7987625179829112</v>
       </c>
       <c r="BW76">
-        <v>0.05244773721118953</v>
+        <v>0.8508954175013754</v>
       </c>
       <c r="BX76">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
     </row>
     <row r="77" spans="1:80">
       <c r="A77" s="1">
-        <v>37803</v>
+        <v>39264</v>
       </c>
       <c r="BP77">
-        <v>0.3162348854607129</v>
+        <v>0.6509798497309314</v>
       </c>
       <c r="BQ77">
-        <v>0.1129811978345881</v>
+        <v>0.2578226704367727</v>
       </c>
       <c r="BR77">
-        <v>-0.1042869901605323</v>
+        <v>0.4886455150009935</v>
       </c>
       <c r="BS77">
-        <v>-0.2249961040686421</v>
+        <v>0.2146244226117387</v>
       </c>
       <c r="BT77">
-        <v>0.03074576451189556</v>
+        <v>0.2486242337321472</v>
       </c>
       <c r="BU77">
-        <v>0.2761290422656925</v>
+        <v>0.8235482465352442</v>
       </c>
       <c r="BV77">
-        <v>0.2315016357563855</v>
+        <v>0.7714104308630606</v>
       </c>
       <c r="BW77">
-        <v>0.09473747588406395</v>
+        <v>0.8399282975331487</v>
       </c>
       <c r="BX77">
-        <v>-0.1782854511548901</v>
+        <v>0.6291405647034829</v>
       </c>
       <c r="BY77">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
     </row>
     <row r="78" spans="1:80">
       <c r="A78" s="1">
-        <v>37895</v>
+        <v>39356</v>
       </c>
       <c r="BQ78">
-        <v>0.1125624612904756</v>
+        <v>0.2570971690698499</v>
       </c>
       <c r="BR78">
-        <v>-0.1040704396052439</v>
+        <v>0.4878701612826708</v>
       </c>
       <c r="BS78">
-        <v>-0.2253361178368624</v>
+        <v>0.2122407149709275</v>
       </c>
       <c r="BT78">
-        <v>0.02743200808576197</v>
+        <v>0.2458450610679989</v>
       </c>
       <c r="BU78">
-        <v>0.2759589086288773</v>
+        <v>0.8270721271305472</v>
       </c>
       <c r="BV78">
-        <v>0.227857271056746</v>
+        <v>0.785086474422986</v>
       </c>
       <c r="BW78">
-        <v>0.07359260654762674</v>
+        <v>0.845411857517262</v>
       </c>
       <c r="BX78">
-        <v>-0.1539264993181683</v>
+        <v>0.6883719426912517</v>
       </c>
       <c r="BY78">
-        <v>-0.106900804249073</v>
+        <v>0.3294591916848381</v>
       </c>
       <c r="BZ78">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
     </row>
     <row r="79" spans="1:80">
       <c r="A79" s="1">
-        <v>37987</v>
+        <v>39448</v>
       </c>
       <c r="BR79">
-        <v>-0.1041787148828881</v>
+        <v>0.4882578381418322</v>
       </c>
       <c r="BS79">
-        <v>-0.2251661109527522</v>
+        <v>0.2134325687913331</v>
       </c>
       <c r="BT79">
-        <v>0.02908888629882877</v>
+        <v>0.247234647400073</v>
       </c>
       <c r="BU79">
-        <v>0.2760439754472849</v>
+        <v>0.8253101868328957</v>
       </c>
       <c r="BV79">
-        <v>0.2296794534065658</v>
+        <v>0.7782484526430233</v>
       </c>
       <c r="BW79">
-        <v>0.08416504121584534</v>
+        <v>0.8426700775252054</v>
       </c>
       <c r="BX79">
-        <v>-0.1661059752365292</v>
+        <v>0.6587562536973672</v>
       </c>
       <c r="BY79">
-        <v>-0.1291922959303458</v>
+        <v>0.3645471540426747</v>
       </c>
       <c r="BZ79">
-        <v>0.1238985445456072</v>
+        <v>0.5774281872050296</v>
       </c>
       <c r="CA79">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
     </row>
     <row r="80" spans="1:80">
       <c r="A80" s="1">
-        <v>38078</v>
+        <v>39539</v>
       </c>
       <c r="BS80">
-        <v>-0.2252511143948073</v>
+        <v>0.2128366418811303</v>
       </c>
       <c r="BT80">
-        <v>0.02826044719229537</v>
+        <v>0.246539854234036</v>
       </c>
       <c r="BU80">
-        <v>0.2760014420380811</v>
+        <v>0.8261911569817215</v>
       </c>
       <c r="BV80">
-        <v>0.2287683622316559</v>
+        <v>0.7816674635330046</v>
       </c>
       <c r="BW80">
-        <v>0.07887882388173603</v>
+        <v>0.8440409675212337</v>
       </c>
       <c r="BX80">
-        <v>-0.1600162372773488</v>
+        <v>0.6735640981943094</v>
       </c>
       <c r="BY80">
-        <v>-0.1180465500897094</v>
+        <v>0.3470031728637564</v>
       </c>
       <c r="BZ80">
-        <v>0.07611038125140182</v>
+        <v>0.5244040338323855</v>
       </c>
       <c r="CA80">
-        <v>0.2110992836877943</v>
+        <v>0.3657769696641097</v>
       </c>
       <c r="CB80">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
     </row>
     <row r="81" spans="1:96">
       <c r="A81" s="1">
-        <v>38169</v>
+        <v>39630</v>
       </c>
       <c r="BT81">
-        <v>0.02867466674556206</v>
+        <v>0.2468872508170545</v>
       </c>
       <c r="BU81">
-        <v>0.276022708742683</v>
+        <v>0.8257506719073087</v>
       </c>
       <c r="BV81">
-        <v>0.2292239078191108</v>
+        <v>0.779957958088014</v>
       </c>
       <c r="BW81">
-        <v>0.08152193254879068</v>
+        <v>0.8433555225232195</v>
       </c>
       <c r="BX81">
-        <v>-0.163061106256939</v>
+        <v>0.6661601759458383</v>
       </c>
       <c r="BY81">
-        <v>-0.1236194230100276</v>
+        <v>0.3557751634532155</v>
       </c>
       <c r="BZ81">
-        <v>0.1000044628985045</v>
+        <v>0.5509161105187076</v>
       </c>
       <c r="CA81">
-        <v>0.2091393300491075</v>
+        <v>0.4156379315603818</v>
       </c>
       <c r="CB81">
-        <v>0.3950732219757438</v>
+        <v>1.212547250350672</v>
       </c>
       <c r="CC81">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
     </row>
     <row r="82" spans="1:96">
       <c r="A82" s="1">
-        <v>38261</v>
+        <v>39722</v>
       </c>
       <c r="BU82">
-        <v>0.276012075390382</v>
+        <v>0.8259709144445151</v>
       </c>
       <c r="BV82">
-        <v>0.2289961350253834</v>
+        <v>0.7808127108105094</v>
       </c>
       <c r="BW82">
-        <v>0.08020037821526335</v>
+        <v>0.8436982450222266</v>
       </c>
       <c r="BX82">
-        <v>-0.1615386717671439</v>
+        <v>0.6698621370700739</v>
       </c>
       <c r="BY82">
-        <v>-0.1208329865498685</v>
+        <v>0.351389168158486</v>
       </c>
       <c r="BZ82">
-        <v>0.08805742207495318</v>
+        <v>0.5376600721755466</v>
       </c>
       <c r="CA82">
-        <v>0.2101193068684509</v>
+        <v>0.3907074506122458</v>
       </c>
       <c r="CB82">
-        <v>0.3731093719124238</v>
+        <v>1.054798549604154</v>
       </c>
       <c r="CC82">
-        <v>0.4639212446633175</v>
+        <v>-0.05461585190805693</v>
       </c>
       <c r="CD82">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
     </row>
     <row r="83" spans="1:96">
       <c r="A83" s="1">
-        <v>38353</v>
+        <v>39814</v>
       </c>
       <c r="BV83">
-        <v>0.2291100214222471</v>
+        <v>0.7803853344492617</v>
       </c>
       <c r="BW83">
-        <v>0.08086115538202701</v>
+        <v>0.843526883772723</v>
       </c>
       <c r="BX83">
-        <v>-0.1622998890120414</v>
+        <v>0.6680111565079561</v>
       </c>
       <c r="BY83">
-        <v>-0.122226204779948</v>
+        <v>0.3535821658058508</v>
       </c>
       <c r="BZ83">
-        <v>0.09403094248672886</v>
+        <v>0.5442880913471271</v>
       </c>
       <c r="CA83">
-        <v>0.2096293184587792</v>
+        <v>0.4031726910863138</v>
       </c>
       <c r="CB83">
-        <v>0.3840912969440838</v>
+        <v>1.133672899977413</v>
       </c>
       <c r="CC83">
-        <v>0.4581576271132333</v>
+        <v>0.1659579600142429</v>
       </c>
       <c r="CD83">
-        <v>0.1779846747513269</v>
+        <v>-0.4990983644056786</v>
       </c>
       <c r="CE83">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
     </row>
     <row r="84" spans="1:96">
       <c r="A84" s="1">
-        <v>38443</v>
+        <v>39904</v>
       </c>
       <c r="BW84">
-        <v>0.08053076679864518</v>
+        <v>0.8436125643974748</v>
       </c>
       <c r="BX84">
-        <v>-0.1619192803895926</v>
+        <v>0.668936646789015</v>
       </c>
       <c r="BY84">
-        <v>-0.1215295956649083</v>
+        <v>0.3524856669821684</v>
       </c>
       <c r="BZ84">
-        <v>0.09104418228084102</v>
+        <v>0.5409740817613369</v>
       </c>
       <c r="CA84">
-        <v>0.2098743126636151</v>
+        <v>0.3969400708492798</v>
       </c>
       <c r="CB84">
-        <v>0.3786003344282538</v>
+        <v>1.094235724790783</v>
       </c>
       <c r="CC84">
-        <v>0.4610394358882754</v>
+        <v>0.05567105405309299</v>
       </c>
       <c r="CD84">
-        <v>0.2172406150315963</v>
+        <v>-0.4864413983264211</v>
       </c>
       <c r="CE84">
-        <v>-0.1690621918602297</v>
+        <v>-1.716506176625349</v>
       </c>
       <c r="CF84">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="1">
-        <v>38534</v>
+        <v>39995</v>
       </c>
       <c r="BX85">
-        <v>-0.162109584700817</v>
+        <v>0.6684739016484855</v>
       </c>
       <c r="BY85">
-        <v>-0.1218779002224281</v>
+        <v>0.3530339163940096</v>
       </c>
       <c r="BZ85">
-        <v>0.09253756238378494</v>
+        <v>0.542631086554232</v>
       </c>
       <c r="CA85">
-        <v>0.2097518155611972</v>
+        <v>0.4000563809677968</v>
       </c>
       <c r="CB85">
-        <v>0.3813458156861688</v>
+        <v>1.113954312384098</v>
       </c>
       <c r="CC85">
-        <v>0.4595985315007544</v>
+        <v>0.1108145070336679</v>
       </c>
       <c r="CD85">
-        <v>0.1976126448914616</v>
+        <v>-0.4927698813660498</v>
       </c>
       <c r="CE85">
-        <v>-0.1372378966572215</v>
+        <v>-1.520788703426117</v>
       </c>
       <c r="CF85">
-        <v>0.7489732132872778</v>
+        <v>-3.407086136608664</v>
       </c>
       <c r="CG85">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
     </row>
     <row r="86" spans="1:96">
       <c r="A86" s="1">
-        <v>38626</v>
+        <v>40087</v>
       </c>
       <c r="BY86">
-        <v>-0.1217037479436682</v>
+        <v>0.352759791688089</v>
       </c>
       <c r="BZ86">
-        <v>0.09179087233231298</v>
+        <v>0.5418025841577845</v>
       </c>
       <c r="CA86">
-        <v>0.2098130641124061</v>
+        <v>0.3984982259085383</v>
       </c>
       <c r="CB86">
-        <v>0.3799730750572113</v>
+        <v>1.104095018587441</v>
       </c>
       <c r="CC86">
-        <v>0.4603189836945148</v>
+        <v>0.08324278054338047</v>
       </c>
       <c r="CD86">
-        <v>0.2074266299615289</v>
+        <v>-0.4896056398462355</v>
       </c>
       <c r="CE86">
-        <v>-0.1531500442587256</v>
+        <v>-1.618647440025733</v>
       </c>
       <c r="CF86">
-        <v>0.6014067364024267</v>
+        <v>-3.210248199430232</v>
       </c>
       <c r="CG86">
-        <v>0.1954295528814108</v>
+        <v>-0.6459317112939464</v>
       </c>
       <c r="CH86">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
     </row>
     <row r="87" spans="1:96">
       <c r="A87" s="1">
-        <v>38718</v>
+        <v>40179</v>
       </c>
       <c r="BZ87">
-        <v>0.09216421735804896</v>
+        <v>0.5422168353560082</v>
       </c>
       <c r="CA87">
-        <v>0.2097824398368016</v>
+        <v>0.3992773034381676</v>
       </c>
       <c r="CB87">
-        <v>0.3806594453716901</v>
+        <v>1.109024665485769</v>
       </c>
       <c r="CC87">
-        <v>0.4599587575976346</v>
+        <v>0.0970286437885242</v>
       </c>
       <c r="CD87">
-        <v>0.2025196374264953</v>
+        <v>-0.4911877606061427</v>
       </c>
       <c r="CE87">
-        <v>-0.1451939704579736</v>
+        <v>-1.569718071725925</v>
       </c>
       <c r="CF87">
-        <v>0.6751899748448522</v>
+        <v>-3.308667168019448</v>
       </c>
       <c r="CG87">
-        <v>0.2882937278475308</v>
+        <v>-1.127658271261134</v>
       </c>
       <c r="CH87">
-        <v>0.5212103711705466</v>
+        <v>0.6566807131333594</v>
       </c>
       <c r="CI87">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
     </row>
     <row r="88" spans="1:96">
       <c r="A88" s="1">
-        <v>38808</v>
+        <v>40269</v>
       </c>
       <c r="CA88">
-        <v>0.2097977519746039</v>
+        <v>0.398887764673353</v>
       </c>
       <c r="CB88">
-        <v>0.3803162602144507</v>
+        <v>1.106559842036605</v>
       </c>
       <c r="CC88">
-        <v>0.4601388706460747</v>
+        <v>0.09013571216595234</v>
       </c>
       <c r="CD88">
-        <v>0.2049731336940121</v>
+        <v>-0.4903967002261891</v>
       </c>
       <c r="CE88">
-        <v>-0.1491720073583496</v>
+        <v>-1.594182755875829</v>
       </c>
       <c r="CF88">
-        <v>0.6382983556236395</v>
+        <v>-3.25945768372484</v>
       </c>
       <c r="CG88">
-        <v>0.2418616403644708</v>
+        <v>-0.8867949912775404</v>
       </c>
       <c r="CH88">
-        <v>0.4715877331978943</v>
+        <v>0.6210015275983027</v>
       </c>
       <c r="CI88">
-        <v>0.162182854513893</v>
+        <v>0.1891062178285661</v>
       </c>
       <c r="CJ88">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
     </row>
     <row r="89" spans="1:96">
       <c r="A89" s="1">
-        <v>38899</v>
+        <v>40360</v>
       </c>
       <c r="CB89">
-        <v>0.3804878527930704</v>
+        <v>1.107792253761187</v>
       </c>
       <c r="CC89">
-        <v>0.4600488141218547</v>
+        <v>0.09358217797723828</v>
       </c>
       <c r="CD89">
-        <v>0.2037463855602537</v>
+        <v>-0.4907922304161659</v>
       </c>
       <c r="CE89">
-        <v>-0.1471829889081616</v>
+        <v>-1.581950413800877</v>
       </c>
       <c r="CF89">
-        <v>0.6567441652342458</v>
+        <v>-3.284062425872144</v>
       </c>
       <c r="CG89">
-        <v>0.2650776841060008</v>
+        <v>-1.007226631269337</v>
       </c>
       <c r="CH89">
-        <v>0.4963990521842204</v>
+        <v>0.6388411203658311</v>
       </c>
       <c r="CI89">
-        <v>0.2384614990198504</v>
+        <v>0.2789051192692326</v>
       </c>
       <c r="CJ89">
-        <v>0.2764159603736306</v>
+        <v>0.1661786384253032</v>
       </c>
       <c r="CK89">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
     </row>
     <row r="90" spans="1:96">
       <c r="A90" s="1">
-        <v>38991</v>
+        <v>40452</v>
       </c>
       <c r="CC90">
-        <v>0.4600938423839647</v>
+        <v>0.09185894507159531</v>
       </c>
       <c r="CD90">
-        <v>0.2043597596271329</v>
+        <v>-0.4905944653211775</v>
       </c>
       <c r="CE90">
-        <v>-0.1481774981332556</v>
+        <v>-1.588066584838353</v>
       </c>
       <c r="CF90">
-        <v>0.6475212604289426</v>
+        <v>-3.271760054798492</v>
       </c>
       <c r="CG90">
-        <v>0.2534696622352358</v>
+        <v>-0.9470108112734389</v>
       </c>
       <c r="CH90">
-        <v>0.4839933926910573</v>
+        <v>0.6299213239820669</v>
       </c>
       <c r="CI90">
-        <v>0.2003221767668717</v>
+        <v>0.2340056685488994</v>
       </c>
       <c r="CJ90">
-        <v>0.2319491977472571</v>
+        <v>0.1685921793539753</v>
       </c>
       <c r="CK90">
-        <v>0.844691530107063</v>
+        <v>1.752320525976649</v>
       </c>
       <c r="CL90">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="1">
-        <v>39083</v>
+        <v>40544</v>
       </c>
       <c r="CD91">
-        <v>0.2040530725936933</v>
+        <v>-0.4906933478686717</v>
       </c>
       <c r="CE91">
-        <v>-0.1476802435207086</v>
+        <v>-1.585008499319615</v>
       </c>
       <c r="CF91">
-        <v>0.6521327128315942</v>
+        <v>-3.277911240335317</v>
       </c>
       <c r="CG91">
-        <v>0.2592736731706183</v>
+        <v>-0.9771187212713881</v>
       </c>
       <c r="CH91">
-        <v>0.4901962224376389</v>
+        <v>0.634381222173949</v>
       </c>
       <c r="CI91">
-        <v>0.219391837893361</v>
+        <v>0.256455393909066</v>
       </c>
       <c r="CJ91">
-        <v>0.2541825790604439</v>
+        <v>0.1673854088896393</v>
       </c>
       <c r="CK91">
-        <v>0.8165004853446378</v>
+        <v>1.53743488979266</v>
       </c>
       <c r="CL91">
-        <v>0.74405834374321</v>
+        <v>1.099007754369777</v>
       </c>
       <c r="CM91">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
     </row>
     <row r="92" spans="1:96">
       <c r="A92" s="1">
-        <v>39173</v>
+        <v>40634</v>
       </c>
       <c r="CE92">
-        <v>-0.1479288708269821</v>
+        <v>-1.586537542078984</v>
       </c>
       <c r="CF92">
-        <v>0.6498269866302684</v>
+        <v>-3.274835647566904</v>
       </c>
       <c r="CG92">
-        <v>0.2563716677029271</v>
+        <v>-0.9620647662724136</v>
       </c>
       <c r="CH92">
-        <v>0.4870948075643481</v>
+        <v>0.6321512730780079</v>
       </c>
       <c r="CI92">
-        <v>0.2098570073301164</v>
+        <v>0.2452305312289827</v>
       </c>
       <c r="CJ92">
-        <v>0.2430658884038505</v>
+        <v>0.1679887941218073</v>
       </c>
       <c r="CK92">
-        <v>0.8305960077258504</v>
+        <v>1.644877707884655</v>
       </c>
       <c r="CL92">
-        <v>0.7987625179829112</v>
+        <v>1.299503549262232</v>
       </c>
       <c r="CM92">
-        <v>0.8508954175013754</v>
+        <v>0.4480858266459196</v>
       </c>
       <c r="CN92">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="1">
-        <v>39264</v>
+        <v>40725</v>
       </c>
       <c r="CF93">
-        <v>0.6509798497309314</v>
+        <v>-3.276373443951111</v>
       </c>
       <c r="CG93">
-        <v>0.2578226704367727</v>
+        <v>-0.9695917437719008</v>
       </c>
       <c r="CH93">
-        <v>0.4886455150009935</v>
+        <v>0.6332662476259785</v>
       </c>
       <c r="CI93">
-        <v>0.2146244226117387</v>
+        <v>0.2508429625690244</v>
       </c>
       <c r="CJ93">
-        <v>0.2486242337321472</v>
+        <v>0.1676871015057233</v>
       </c>
       <c r="CK93">
-        <v>0.8235482465352442</v>
+        <v>1.591156298838657</v>
       </c>
       <c r="CL93">
-        <v>0.7714104308630606</v>
+        <v>1.199255651816005</v>
       </c>
       <c r="CM93">
-        <v>0.8399282975331487</v>
+        <v>0.4897301991572097</v>
       </c>
       <c r="CN93">
-        <v>0.6291405647034829</v>
+        <v>1.21557765202201</v>
       </c>
       <c r="CO93">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
     </row>
     <row r="94" spans="1:96">
       <c r="A94" s="1">
-        <v>39356</v>
+        <v>40817</v>
       </c>
       <c r="CG94">
-        <v>0.2570971690698499</v>
+        <v>-0.9658282550221572</v>
       </c>
       <c r="CH94">
-        <v>0.4878701612826708</v>
+        <v>0.6327087603519932</v>
       </c>
       <c r="CI94">
-        <v>0.2122407149709275</v>
+        <v>0.2480367468990035</v>
       </c>
       <c r="CJ94">
-        <v>0.2458450610679989</v>
+        <v>0.1678379478137653</v>
       </c>
       <c r="CK94">
-        <v>0.8270721271305472</v>
+        <v>1.618017003361656</v>
       </c>
       <c r="CL94">
-        <v>0.785086474422986</v>
+        <v>1.249379600539118</v>
       </c>
       <c r="CM94">
-        <v>0.845411857517262</v>
+        <v>0.4689080129015646</v>
       </c>
       <c r="CN94">
-        <v>0.6883719426912517</v>
+        <v>1.073775345923261</v>
       </c>
       <c r="CO94">
-        <v>0.3294591916848381</v>
+        <v>0.4263439515259838</v>
       </c>
       <c r="CP94">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
     </row>
     <row r="95" spans="1:96">
       <c r="A95" s="1">
-        <v>39448</v>
+        <v>40909</v>
       </c>
       <c r="CH95">
-        <v>0.4882578381418322</v>
+        <v>0.6329875039889858</v>
       </c>
       <c r="CI95">
-        <v>0.2134325687913331</v>
+        <v>0.249439854734014</v>
       </c>
       <c r="CJ95">
-        <v>0.247234647400073</v>
+        <v>0.1677625246597443</v>
       </c>
       <c r="CK95">
-        <v>0.8253101868328957</v>
+        <v>1.604586651100157</v>
       </c>
       <c r="CL95">
-        <v>0.7782484526430233</v>
+        <v>1.224317626177561</v>
       </c>
       <c r="CM95">
-        <v>0.8426700775252054</v>
+        <v>0.4793191060293872</v>
       </c>
       <c r="CN95">
-        <v>0.6587562536973672</v>
+        <v>1.144676498972636</v>
       </c>
       <c r="CO95">
-        <v>0.3645471540426747</v>
+        <v>0.5799047754181046</v>
       </c>
       <c r="CP95">
-        <v>0.5774281872050296</v>
+        <v>0.4460456798014769</v>
       </c>
       <c r="CQ95">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
     </row>
     <row r="96" spans="1:96">
       <c r="A96" s="1">
-        <v>39539</v>
+        <v>41000</v>
       </c>
       <c r="CI96">
-        <v>0.2128366418811303</v>
+        <v>0.2487383008165088</v>
       </c>
       <c r="CJ96">
-        <v>0.246539854234036</v>
+        <v>0.1678002362367548</v>
       </c>
       <c r="CK96">
-        <v>0.8261911569817215</v>
+        <v>1.611301827230906</v>
       </c>
       <c r="CL96">
-        <v>0.7816674635330046</v>
+        <v>1.23684861335834</v>
       </c>
       <c r="CM96">
-        <v>0.8440409675212337</v>
+        <v>0.474113559465476</v>
       </c>
       <c r="CN96">
-        <v>0.6735640981943094</v>
+        <v>1.109225922447948</v>
       </c>
       <c r="CO96">
-        <v>0.3470031728637564</v>
+        <v>0.5031243634720441</v>
       </c>
       <c r="CP96">
-        <v>0.5244040338323855</v>
+        <v>0.4175594653762609</v>
       </c>
       <c r="CQ96">
-        <v>0.3657769696641097</v>
+        <v>0.007645258158519366</v>
       </c>
       <c r="CR96">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
     </row>
     <row r="97" spans="1:112">
       <c r="A97" s="1">
-        <v>39630</v>
+        <v>41091</v>
       </c>
       <c r="CJ97">
-        <v>0.2468872508170545</v>
+        <v>0.1677813804482495</v>
       </c>
       <c r="CK97">
-        <v>0.8257506719073087</v>
+        <v>1.607944239165532</v>
       </c>
       <c r="CL97">
-        <v>0.779957958088014</v>
+        <v>1.230583119767951</v>
       </c>
       <c r="CM97">
-        <v>0.8433555225232195</v>
+        <v>0.4767163327474316</v>
       </c>
       <c r="CN97">
-        <v>0.6661601759458383</v>
+        <v>1.126951210710292</v>
       </c>
       <c r="CO97">
-        <v>0.3557751634532155</v>
+        <v>0.5415145694450744</v>
       </c>
       <c r="CP97">
-        <v>0.5509161105187076</v>
+        <v>0.4318025725888689</v>
       </c>
       <c r="CQ97">
-        <v>0.4156379315603818</v>
+        <v>0.1024017782989788</v>
       </c>
       <c r="CR97">
-        <v>1.212547250350672</v>
+        <v>0.3371512561638538</v>
       </c>
       <c r="CS97">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
     </row>
     <row r="98" spans="1:112">
       <c r="A98" s="1">
-        <v>39722</v>
+        <v>41183</v>
       </c>
       <c r="CK98">
-        <v>0.8259709144445151</v>
+        <v>1.609623033198219</v>
       </c>
       <c r="CL98">
-        <v>0.7808127108105094</v>
+        <v>1.233715866563145</v>
       </c>
       <c r="CM98">
-        <v>0.8436982450222266</v>
+        <v>0.4754149461064537</v>
       </c>
       <c r="CN98">
-        <v>0.6698621370700739</v>
+        <v>1.11808856657912</v>
       </c>
       <c r="CO98">
-        <v>0.351389168158486</v>
+        <v>0.5223194664585593</v>
       </c>
       <c r="CP98">
-        <v>0.5376600721755466</v>
+        <v>0.4246810189825649</v>
       </c>
       <c r="CQ98">
-        <v>0.3907074506122458</v>
+        <v>0.0550235182287491</v>
       </c>
       <c r="CR98">
-        <v>1.054798549604154</v>
+        <v>0.2506480831161448</v>
       </c>
       <c r="CS98">
-        <v>-0.05461585190805693</v>
+        <v>0.3277258767658468</v>
       </c>
       <c r="CT98">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
     </row>
     <row r="99" spans="1:112">
       <c r="A99" s="1">
-        <v>39814</v>
+        <v>41275</v>
       </c>
       <c r="CL99">
-        <v>0.7803853344492617</v>
+        <v>1.232149493165548</v>
       </c>
       <c r="CM99">
-        <v>0.843526883772723</v>
+        <v>0.4760656394269427</v>
       </c>
       <c r="CN99">
-        <v>0.6680111565079561</v>
+        <v>1.122519888644706</v>
       </c>
       <c r="CO99">
-        <v>0.3535821658058508</v>
+        <v>0.5319170179518169</v>
       </c>
       <c r="CP99">
-        <v>0.5442880913471271</v>
+        <v>0.4282417957857169</v>
       </c>
       <c r="CQ99">
-        <v>0.4031726910863138</v>
+        <v>0.07871264826386397</v>
       </c>
       <c r="CR99">
-        <v>1.133672899977413</v>
+        <v>0.2938996696399993</v>
       </c>
       <c r="CS99">
-        <v>0.1659579600142429</v>
+        <v>0.3562341860204489</v>
       </c>
       <c r="CT99">
-        <v>-0.4990983644056786</v>
+        <v>0.2431632756872647</v>
       </c>
       <c r="CU99">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
     </row>
     <row r="100" spans="1:112">
       <c r="A100" s="1">
-        <v>39904</v>
+        <v>41365</v>
       </c>
       <c r="CM100">
-        <v>0.8436125643974748</v>
+        <v>0.4757402927666982</v>
       </c>
       <c r="CN100">
-        <v>0.668936646789015</v>
+        <v>1.120304227611913</v>
       </c>
       <c r="CO100">
-        <v>0.3524856669821684</v>
+        <v>0.5271182422051881</v>
       </c>
       <c r="CP100">
-        <v>0.5409740817613369</v>
+        <v>0.4264614073841408</v>
       </c>
       <c r="CQ100">
-        <v>0.3969400708492798</v>
+        <v>0.06686808324630654</v>
       </c>
       <c r="CR100">
-        <v>1.094235724790783</v>
+        <v>0.2722738763780721</v>
       </c>
       <c r="CS100">
-        <v>0.05567105405309299</v>
+        <v>0.3419800313931478</v>
       </c>
       <c r="CT100">
-        <v>-0.4864413983264211</v>
+        <v>0.247754272782161</v>
       </c>
       <c r="CU100">
-        <v>-1.716506176625349</v>
+        <v>-0.3858945379770188</v>
       </c>
       <c r="CV100">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
     </row>
     <row r="101" spans="1:112">
       <c r="A101" s="1">
-        <v>39995</v>
+        <v>41456</v>
       </c>
       <c r="CN101">
-        <v>0.6684739016484855</v>
+        <v>1.12141205812831</v>
       </c>
       <c r="CO101">
-        <v>0.3530339163940096</v>
+        <v>0.5295176300785025</v>
       </c>
       <c r="CP101">
-        <v>0.542631086554232</v>
+        <v>0.4273516015849289</v>
       </c>
       <c r="CQ101">
-        <v>0.4000563809677968</v>
+        <v>0.07279036575508525</v>
       </c>
       <c r="CR101">
-        <v>1.113954312384098</v>
+        <v>0.2830867730090357</v>
       </c>
       <c r="CS101">
-        <v>0.1108145070336679</v>
+        <v>0.3491071087067983</v>
       </c>
       <c r="CT101">
-        <v>-0.4927698813660498</v>
+        <v>0.2454587742347129</v>
       </c>
       <c r="CU101">
-        <v>-1.520788703426117</v>
+        <v>-0.2825854105206065</v>
       </c>
       <c r="CV101">
-        <v>-3.407086136608664</v>
+        <v>-0.125367684248052</v>
       </c>
       <c r="CW101">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
     </row>
     <row r="102" spans="1:112">
       <c r="A102" s="1">
-        <v>40087</v>
+        <v>41548</v>
       </c>
       <c r="CO102">
-        <v>0.352759791688089</v>
+        <v>0.5283179361418453</v>
       </c>
       <c r="CP102">
-        <v>0.5418025841577845</v>
+        <v>0.4269065044845348</v>
       </c>
       <c r="CQ102">
-        <v>0.3984982259085383</v>
+        <v>0.0698292245006959</v>
       </c>
       <c r="CR102">
-        <v>1.104095018587441</v>
+        <v>0.2776803246935539</v>
       </c>
       <c r="CS102">
-        <v>0.08324278054338047</v>
+        <v>0.345543570049973</v>
       </c>
       <c r="CT102">
-        <v>-0.4896056398462355</v>
+        <v>0.2466065235084369</v>
       </c>
       <c r="CU102">
-        <v>-1.618647440025733</v>
+        <v>-0.3342399742488126</v>
       </c>
       <c r="CV102">
-        <v>-3.210248199430232</v>
+        <v>-0.2196942349879388</v>
       </c>
       <c r="CW102">
-        <v>-0.6459317112939464</v>
+        <v>0.541076742718007</v>
       </c>
       <c r="CX102">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
     </row>
     <row r="103" spans="1:112">
       <c r="A103" s="1">
-        <v>40179</v>
+        <v>41640</v>
       </c>
       <c r="CP103">
-        <v>0.5422168353560082</v>
+        <v>0.4271290530347318</v>
       </c>
       <c r="CQ103">
-        <v>0.3992773034381676</v>
+        <v>0.07130979512789057</v>
       </c>
       <c r="CR103">
-        <v>1.109024665485769</v>
+        <v>0.2803835488512948</v>
       </c>
       <c r="CS103">
-        <v>0.0970286437885242</v>
+        <v>0.3473253393783857</v>
       </c>
       <c r="CT103">
-        <v>-0.4911877606061427</v>
+        <v>0.2460326488715749</v>
       </c>
       <c r="CU103">
-        <v>-1.569718071725925</v>
+        <v>-0.3084126923847096</v>
       </c>
       <c r="CV103">
-        <v>-3.308667168019448</v>
+        <v>-0.1725309596179954</v>
       </c>
       <c r="CW103">
-        <v>-1.127658271261134</v>
+        <v>0.4508972855983391</v>
       </c>
       <c r="CX103">
-        <v>0.6566807131333594</v>
+        <v>0.4220994460685052</v>
       </c>
       <c r="CY103">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
     </row>
     <row r="104" spans="1:112">
       <c r="A104" s="1">
-        <v>40269</v>
+        <v>41730</v>
       </c>
       <c r="CQ104">
-        <v>0.398887764673353</v>
+        <v>0.07056950981429323</v>
       </c>
       <c r="CR104">
-        <v>1.106559842036605</v>
+        <v>0.2790319367724243</v>
       </c>
       <c r="CS104">
-        <v>0.09013571216595234</v>
+        <v>0.3464344547141794</v>
       </c>
       <c r="CT104">
-        <v>-0.4903967002261891</v>
+        <v>0.2463195861900059</v>
       </c>
       <c r="CU104">
-        <v>-1.594182755875829</v>
+        <v>-0.3213263333167611</v>
       </c>
       <c r="CV104">
-        <v>-3.25945768372484</v>
+        <v>-0.1961125973029671</v>
       </c>
       <c r="CW104">
-        <v>-0.8867949912775404</v>
+        <v>0.495987014158173</v>
       </c>
       <c r="CX104">
-        <v>0.6210015275983027</v>
+        <v>0.4719888145499782</v>
       </c>
       <c r="CY104">
-        <v>0.1891062178285661</v>
+        <v>0.3683981156967425</v>
       </c>
       <c r="CZ104">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
     </row>
     <row r="105" spans="1:112">
       <c r="A105" s="1">
-        <v>40360</v>
+        <v>41821</v>
       </c>
       <c r="CR105">
-        <v>1.107792253761187</v>
+        <v>0.2797077428118596</v>
       </c>
       <c r="CS105">
-        <v>0.09358217797723828</v>
+        <v>0.3468798970462825</v>
       </c>
       <c r="CT105">
-        <v>-0.4907922304161659</v>
+        <v>0.2461761175307904</v>
       </c>
       <c r="CU105">
-        <v>-1.581950413800877</v>
+        <v>-0.3148695128507353</v>
       </c>
       <c r="CV105">
-        <v>-3.284062425872144</v>
+        <v>-0.1843217784604813</v>
       </c>
       <c r="CW105">
-        <v>-1.007226631269337</v>
+        <v>0.4734421498782561</v>
       </c>
       <c r="CX105">
-        <v>0.6388411203658311</v>
+        <v>0.4470441303092417</v>
       </c>
       <c r="CY105">
-        <v>0.2789051192692326</v>
+        <v>0.3607185479315453</v>
       </c>
       <c r="CZ105">
-        <v>0.1661786384253032</v>
+        <v>0.7093817025649646</v>
       </c>
       <c r="DA105">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
     </row>
     <row r="106" spans="1:112">
       <c r="A106" s="1">
-        <v>40452</v>
+        <v>41913</v>
       </c>
       <c r="CS106">
-        <v>0.09185894507159531</v>
+        <v>0.3466571758802309</v>
       </c>
       <c r="CT106">
-        <v>-0.4905944653211775</v>
+        <v>0.2462478518603982</v>
       </c>
       <c r="CU106">
-        <v>-1.588066584838353</v>
+        <v>-0.3180979230837482</v>
       </c>
       <c r="CV106">
-        <v>-3.271760054798492</v>
+        <v>-0.1902171878817242</v>
       </c>
       <c r="CW106">
-        <v>-0.9470108112734389</v>
+        <v>0.4847145820182145</v>
       </c>
       <c r="CX106">
-        <v>0.6299213239820669</v>
+        <v>0.4595164724296099</v>
       </c>
       <c r="CY106">
-        <v>0.2340056685488994</v>
+        <v>0.3645583318141439</v>
       </c>
       <c r="CZ106">
-        <v>0.1685921793539753</v>
+        <v>0.6551109606753267</v>
       </c>
       <c r="DA106">
-        <v>1.752320525976649</v>
+        <v>0.04605564502248959</v>
       </c>
       <c r="DB106">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
     </row>
     <row r="107" spans="1:112">
       <c r="A107" s="1">
-        <v>40544</v>
+        <v>42005</v>
       </c>
       <c r="CT107">
-        <v>-0.4906933478686717</v>
+        <v>0.2462119846955943</v>
       </c>
       <c r="CU107">
-        <v>-1.585008499319615</v>
+        <v>-0.3164837179672417</v>
       </c>
       <c r="CV107">
-        <v>-3.277911240335317</v>
+        <v>-0.1872694831711027</v>
       </c>
       <c r="CW107">
-        <v>-0.9771187212713881</v>
+        <v>0.4790783659482353</v>
       </c>
       <c r="CX107">
-        <v>0.634381222173949</v>
+        <v>0.4532803013694258</v>
       </c>
       <c r="CY107">
-        <v>0.256455393909066</v>
+        <v>0.3626384398728446</v>
       </c>
       <c r="CZ107">
-        <v>0.1673854088896393</v>
+        <v>0.6822463316201457</v>
       </c>
       <c r="DA107">
-        <v>1.53743488979266</v>
+        <v>0.1495225704011526</v>
       </c>
       <c r="DB107">
-        <v>1.099007754369777</v>
+        <v>0.02840570147171118</v>
       </c>
       <c r="DC107">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
     </row>
     <row r="108" spans="1:112">
       <c r="A108" s="1">
-        <v>40634</v>
+        <v>42095</v>
       </c>
       <c r="CU108">
-        <v>-1.586537542078984</v>
+        <v>-0.317290820525495</v>
       </c>
       <c r="CV108">
-        <v>-3.274835647566904</v>
+        <v>-0.1887433355264135</v>
       </c>
       <c r="CW108">
-        <v>-0.9620647662724136</v>
+        <v>0.4818964739832249</v>
       </c>
       <c r="CX108">
-        <v>0.6321512730780079</v>
+        <v>0.4563983868995178</v>
       </c>
       <c r="CY108">
-        <v>0.2452305312289827</v>
+        <v>0.3635983858434942</v>
       </c>
       <c r="CZ108">
-        <v>0.1679887941218073</v>
+        <v>0.6686786461477362</v>
       </c>
       <c r="DA108">
-        <v>1.644877707884655</v>
+        <v>0.09778910771182112</v>
       </c>
       <c r="DB108">
-        <v>1.299503549262232</v>
+        <v>0.009489702851021933</v>
       </c>
       <c r="DC108">
-        <v>0.4480858266459196</v>
+        <v>0.5413309289906566</v>
       </c>
       <c r="DD108">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
     </row>
     <row r="109" spans="1:112">
       <c r="A109" s="1">
-        <v>40725</v>
+        <v>42186</v>
       </c>
       <c r="CV109">
-        <v>-3.276373443951111</v>
+        <v>-0.1880064093487581</v>
       </c>
       <c r="CW109">
-        <v>-0.9695917437719008</v>
+        <v>0.4804874199657301</v>
       </c>
       <c r="CX109">
-        <v>0.6332662476259785</v>
+        <v>0.4548393441344718</v>
       </c>
       <c r="CY109">
-        <v>0.2508429625690244</v>
+        <v>0.3631184128581694</v>
       </c>
       <c r="CZ109">
-        <v>0.1676871015057233</v>
+        <v>0.6754624888839409</v>
       </c>
       <c r="DA109">
-        <v>1.591156298838657</v>
+        <v>0.1236558390564869</v>
       </c>
       <c r="DB109">
-        <v>1.199255651816005</v>
+        <v>0.01894770216136656</v>
       </c>
       <c r="DC109">
-        <v>0.4897301991572097</v>
+        <v>0.4621476794163958</v>
       </c>
       <c r="DD109">
-        <v>1.21557765202201</v>
+        <v>0.379149709147475</v>
       </c>
       <c r="DE109">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
     </row>
     <row r="110" spans="1:112">
       <c r="A110" s="1">
-        <v>40817</v>
+        <v>42278</v>
       </c>
       <c r="CW110">
-        <v>-0.9658282550221572</v>
+        <v>0.4811919469744775</v>
       </c>
       <c r="CX110">
-        <v>0.6327087603519932</v>
+        <v>0.4556188655169948</v>
       </c>
       <c r="CY110">
-        <v>0.2480367468990035</v>
+        <v>0.3633583993508318</v>
       </c>
       <c r="CZ110">
-        <v>0.1678379478137653</v>
+        <v>0.6720705675158385</v>
       </c>
       <c r="DA110">
-        <v>1.618017003361656</v>
+        <v>0.110722473384154</v>
       </c>
       <c r="DB110">
-        <v>1.249379600539118</v>
+        <v>0.01421870250619424</v>
       </c>
       <c r="DC110">
-        <v>0.4689080129015646</v>
+        <v>0.5017393042035262</v>
       </c>
       <c r="DD110">
-        <v>1.073775345923261</v>
+        <v>0.4325743289794255</v>
       </c>
       <c r="DE110">
-        <v>0.4263439515259838</v>
+        <v>0.41560477725035</v>
       </c>
       <c r="DF110">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
     </row>
     <row r="111" spans="1:112">
       <c r="A111" s="1">
-        <v>40909</v>
+        <v>42370</v>
       </c>
       <c r="CX111">
-        <v>0.6329875039889858</v>
+        <v>0.4552291048257333</v>
       </c>
       <c r="CY111">
-        <v>0.249439854734014</v>
+        <v>0.3632384061045006</v>
       </c>
       <c r="CZ111">
-        <v>0.1677625246597443</v>
+        <v>0.6737665281998897</v>
       </c>
       <c r="DA111">
-        <v>1.604586651100157</v>
+        <v>0.1171891562203204</v>
       </c>
       <c r="DB111">
-        <v>1.224317626177561</v>
+        <v>0.0165832023337804</v>
       </c>
       <c r="DC111">
-        <v>0.4793191060293872</v>
+        <v>0.481943491809961</v>
       </c>
       <c r="DD111">
-        <v>1.144676498972636</v>
+        <v>0.4058620190634502</v>
       </c>
       <c r="DE111">
-        <v>0.5799047754181046</v>
+        <v>0.4040884537896646</v>
       </c>
       <c r="DF111">
-        <v>0.4460456798014769</v>
+        <v>0.3466041618411014</v>
       </c>
       <c r="DG111">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
     </row>
     <row r="112" spans="1:112">
       <c r="A112" s="1">
-        <v>41000</v>
+        <v>42461</v>
       </c>
       <c r="CY112">
-        <v>0.2487383008165088</v>
+        <v>0.3632984027276662</v>
       </c>
       <c r="CZ112">
-        <v>0.1678002362367548</v>
+        <v>0.6729185478578641</v>
       </c>
       <c r="DA112">
-        <v>1.611301827230906</v>
+        <v>0.1139558148022372</v>
       </c>
       <c r="DB112">
-        <v>1.23684861335834</v>
+        <v>0.01540095241998732</v>
       </c>
       <c r="DC112">
-        <v>0.474113559465476</v>
+        <v>0.4918413980067436</v>
       </c>
       <c r="DD112">
-        <v>1.109225922447948</v>
+        <v>0.4192181740214379</v>
       </c>
       <c r="DE112">
-        <v>0.5031243634720441</v>
+        <v>0.4098466155200073</v>
       </c>
       <c r="DF112">
-        <v>0.4175594653762609</v>
+        <v>0.3619430388962047</v>
       </c>
       <c r="DG112">
-        <v>0.007645258158519366</v>
+        <v>0.2712026772181096</v>
       </c>
       <c r="DH112">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
     </row>
     <row r="113" spans="1:128">
       <c r="A113" s="1">
-        <v>41091</v>
+        <v>42552</v>
       </c>
       <c r="CZ113">
-        <v>0.1677813804482495</v>
+        <v>0.6733425380288769</v>
       </c>
       <c r="DA113">
-        <v>1.607944239165532</v>
+        <v>0.1155724855112788</v>
       </c>
       <c r="DB113">
-        <v>1.230583119767951</v>
+        <v>0.01599207737688386</v>
       </c>
       <c r="DC113">
-        <v>0.4767163327474316</v>
+        <v>0.4868924449083523</v>
       </c>
       <c r="DD113">
-        <v>1.126951210710292</v>
+        <v>0.4125400965424441</v>
       </c>
       <c r="DE113">
-        <v>0.5415145694450744</v>
+        <v>0.406967534654836</v>
       </c>
       <c r="DF113">
-        <v>0.4318025725888689</v>
+        <v>0.3542736003686531</v>
       </c>
       <c r="DG113">
-        <v>0.1024017782989788</v>
+        <v>0.2724576802392871</v>
       </c>
       <c r="DH113">
-        <v>0.3371512561638538</v>
+        <v>0.5661567198175934</v>
       </c>
       <c r="DI113">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
     </row>
     <row r="114" spans="1:128">
       <c r="A114" s="1">
-        <v>41183</v>
+        <v>42644</v>
       </c>
       <c r="DA114">
-        <v>1.609623033198219</v>
+        <v>0.114764150156758</v>
       </c>
       <c r="DB114">
-        <v>1.233715866563145</v>
+        <v>0.01569651489843559</v>
       </c>
       <c r="DC114">
-        <v>0.4754149461064537</v>
+        <v>0.4893669214575479</v>
       </c>
       <c r="DD114">
-        <v>1.11808856657912</v>
+        <v>0.415879135281941</v>
       </c>
       <c r="DE114">
-        <v>0.5223194664585593</v>
+        <v>0.4084070750874217</v>
       </c>
       <c r="DF114">
-        <v>0.4246810189825649</v>
+        <v>0.3581083196324288</v>
       </c>
       <c r="DG114">
-        <v>0.0550235182287491</v>
+        <v>0.2718301787286984</v>
       </c>
       <c r="DH114">
-        <v>0.2506480831161448</v>
+        <v>0.516579378377287</v>
       </c>
       <c r="DI114">
-        <v>0.3277258767658468</v>
+        <v>0.4856189389344302</v>
       </c>
       <c r="DJ114">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
     </row>
     <row r="115" spans="1:128">
       <c r="A115" s="1">
-        <v>41275</v>
+        <v>42736</v>
       </c>
       <c r="DB115">
-        <v>1.232149493165548</v>
+        <v>0.01584429613765972</v>
       </c>
       <c r="DC115">
-        <v>0.4760656394269427</v>
+        <v>0.4881296831829501</v>
       </c>
       <c r="DD115">
-        <v>1.122519888644706</v>
+        <v>0.4142096159121925</v>
       </c>
       <c r="DE115">
-        <v>0.5319170179518169</v>
+        <v>0.4076873048711288</v>
       </c>
       <c r="DF115">
-        <v>0.4282417957857169</v>
+        <v>0.356190960000541</v>
       </c>
       <c r="DG115">
-        <v>0.07871264826386397</v>
+        <v>0.2721439294839928</v>
       </c>
       <c r="DH115">
-        <v>0.2938996696399993</v>
+        <v>0.5413680490974402</v>
       </c>
       <c r="DI115">
-        <v>0.3562341860204489</v>
+        <v>0.5227987246144021</v>
       </c>
       <c r="DJ115">
-        <v>0.2431632756872647</v>
+        <v>0.2461660751693067</v>
       </c>
       <c r="DK115">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
     </row>
     <row r="116" spans="1:128">
       <c r="A116" s="1">
-        <v>41365</v>
+        <v>42826</v>
       </c>
       <c r="DC116">
-        <v>0.4757402927666982</v>
+        <v>0.488748302320249</v>
       </c>
       <c r="DD116">
-        <v>1.120304227611913</v>
+        <v>0.4150443755970668</v>
       </c>
       <c r="DE116">
-        <v>0.5271182422051881</v>
+        <v>0.4080471899792752</v>
       </c>
       <c r="DF116">
-        <v>0.4264614073841408</v>
+        <v>0.3571496398164849</v>
       </c>
       <c r="DG116">
-        <v>0.06686808324630654</v>
+        <v>0.2719870541063456</v>
       </c>
       <c r="DH116">
-        <v>0.2722738763780721</v>
+        <v>0.5289737137373636</v>
       </c>
       <c r="DI116">
-        <v>0.3419800313931478</v>
+        <v>0.5042088317744162</v>
       </c>
       <c r="DJ116">
-        <v>0.247754272782161</v>
+        <v>0.2736816239035033</v>
       </c>
       <c r="DK116">
-        <v>-0.3858945379770188</v>
+        <v>0.3543020839962042</v>
       </c>
       <c r="DL116">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
     </row>
     <row r="117" spans="1:128">
       <c r="A117" s="1">
-        <v>41456</v>
+        <v>42917</v>
       </c>
       <c r="DD117">
-        <v>1.12141205812831</v>
+        <v>0.4146269957546296</v>
       </c>
       <c r="DE117">
-        <v>0.5295176300785025</v>
+        <v>0.407867247425202</v>
       </c>
       <c r="DF117">
-        <v>0.4273516015849289</v>
+        <v>0.356670299908513</v>
       </c>
       <c r="DG117">
-        <v>0.07279036575508525</v>
+        <v>0.2720654917951692</v>
       </c>
       <c r="DH117">
-        <v>0.2830867730090357</v>
+        <v>0.5351708814174019</v>
       </c>
       <c r="DI117">
-        <v>0.3491071087067983</v>
+        <v>0.5135037781944092</v>
       </c>
       <c r="DJ117">
-        <v>0.2454587742347129</v>
+        <v>0.259923849536405</v>
       </c>
       <c r="DK117">
-        <v>-0.2825854105206065</v>
+        <v>0.3179914128505155</v>
       </c>
       <c r="DL117">
-        <v>-0.125367684248052</v>
+        <v>0.5588536670596016</v>
       </c>
       <c r="DM117">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
     </row>
     <row r="118" spans="1:128">
       <c r="A118" s="1">
-        <v>41548</v>
+        <v>43009</v>
       </c>
       <c r="DE118">
-        <v>0.5283179361418453</v>
+        <v>0.4079572187022387</v>
       </c>
       <c r="DF118">
-        <v>0.4269065044845348</v>
+        <v>0.3569099698624989</v>
       </c>
       <c r="DG118">
-        <v>0.0698292245006959</v>
+        <v>0.2720262729507574</v>
       </c>
       <c r="DH118">
-        <v>0.2776803246935539</v>
+        <v>0.5320722975773827</v>
       </c>
       <c r="DI118">
-        <v>0.345543570049973</v>
+        <v>0.5088563049844127</v>
       </c>
       <c r="DJ118">
-        <v>0.2466065235084369</v>
+        <v>0.2668027367199541</v>
       </c>
       <c r="DK118">
-        <v>-0.3342399742488126</v>
+        <v>0.3361467484233598</v>
       </c>
       <c r="DL118">
-        <v>-0.2196942349879388</v>
+        <v>0.5353324087102191</v>
       </c>
       <c r="DM118">
-        <v>0.541076742718007</v>
+        <v>0.6400463325260437</v>
       </c>
       <c r="DN118">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
     </row>
     <row r="119" spans="1:128">
       <c r="A119" s="1">
-        <v>41640</v>
+        <v>43101</v>
       </c>
       <c r="DF119">
-        <v>0.4271290530347318</v>
+        <v>0.3567901348855059</v>
       </c>
       <c r="DG119">
-        <v>0.07130979512789057</v>
+        <v>0.2720458823729633</v>
       </c>
       <c r="DH119">
-        <v>0.2803835488512948</v>
+        <v>0.5336215894973924</v>
       </c>
       <c r="DI119">
-        <v>0.3473253393783857</v>
+        <v>0.511180041589411</v>
       </c>
       <c r="DJ119">
-        <v>0.2460326488715749</v>
+        <v>0.2633632931281796</v>
       </c>
       <c r="DK119">
-        <v>-0.3084126923847096</v>
+        <v>0.3270690806369376</v>
       </c>
       <c r="DL119">
-        <v>-0.1725309596179954</v>
+        <v>0.5470930378849104</v>
       </c>
       <c r="DM119">
-        <v>0.4508972855983391</v>
+        <v>0.6518411417802218</v>
       </c>
       <c r="DN119">
-        <v>0.4220994460685052</v>
+        <v>0.7764302717704987</v>
       </c>
       <c r="DO119">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
     </row>
     <row r="120" spans="1:128">
       <c r="A120" s="1">
-        <v>41730</v>
+        <v>43191</v>
       </c>
       <c r="DG120">
-        <v>0.07056950981429323</v>
+        <v>0.2720360776618604</v>
       </c>
       <c r="DH120">
-        <v>0.2790319367724243</v>
+        <v>0.5328469435373875</v>
       </c>
       <c r="DI120">
-        <v>0.3464344547141794</v>
+        <v>0.5100181732869118</v>
       </c>
       <c r="DJ120">
-        <v>0.2463195861900059</v>
+        <v>0.2650830149240668</v>
       </c>
       <c r="DK120">
-        <v>-0.3213263333167611</v>
+        <v>0.3316079145301487</v>
       </c>
       <c r="DL120">
-        <v>-0.1961125973029671</v>
+        <v>0.5412127232975648</v>
       </c>
       <c r="DM120">
-        <v>0.495987014158173</v>
+        <v>0.6459437371531327</v>
       </c>
       <c r="DN120">
-        <v>0.4719888145499782</v>
+        <v>0.7525574955678392</v>
       </c>
       <c r="DO120">
-        <v>0.3683981156967425</v>
+        <v>0.6390975905128384</v>
       </c>
       <c r="DP120">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
     </row>
     <row r="121" spans="1:128">
       <c r="A121" s="1">
-        <v>41821</v>
+        <v>43282</v>
       </c>
       <c r="DH121">
-        <v>0.2797077428118596</v>
+        <v>0.5332342665173899</v>
       </c>
       <c r="DI121">
-        <v>0.3468798970462825</v>
+        <v>0.5105991074381614</v>
       </c>
       <c r="DJ121">
-        <v>0.2461761175307904</v>
+        <v>0.2642231540261232</v>
       </c>
       <c r="DK121">
-        <v>-0.3148695128507353</v>
+        <v>0.3293384975835432</v>
       </c>
       <c r="DL121">
-        <v>-0.1843217784604813</v>
+        <v>0.5441528805912376</v>
       </c>
       <c r="DM121">
-        <v>0.4734421498782561</v>
+        <v>0.6488924394666773</v>
       </c>
       <c r="DN121">
-        <v>0.4470441303092417</v>
+        <v>0.764493883669169</v>
       </c>
       <c r="DO121">
-        <v>0.3607185479315453</v>
+        <v>0.6551629234188012</v>
       </c>
       <c r="DP121">
-        <v>0.7093817025649646</v>
+        <v>0.3747022977573667</v>
       </c>
       <c r="DQ121">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
     </row>
     <row r="122" spans="1:128">
       <c r="A122" s="1">
-        <v>41913</v>
+        <v>43374</v>
       </c>
       <c r="DI122">
-        <v>0.3466571758802309</v>
+        <v>0.5103086403625365</v>
       </c>
       <c r="DJ122">
-        <v>0.2462478518603982</v>
+        <v>0.264653084475095</v>
       </c>
       <c r="DK122">
-        <v>-0.3180979230837482</v>
+        <v>0.3304732060568459</v>
       </c>
       <c r="DL122">
-        <v>-0.1902171878817242</v>
+        <v>0.5426828019444012</v>
       </c>
       <c r="DM122">
-        <v>0.4847145820182145</v>
+        <v>0.647418088309905</v>
       </c>
       <c r="DN122">
-        <v>0.4595164724296099</v>
+        <v>0.7585256896185042</v>
       </c>
       <c r="DO122">
-        <v>0.3645583318141439</v>
+        <v>0.6471302569658198</v>
       </c>
       <c r="DP122">
-        <v>0.6551109606753267</v>
+        <v>0.4134130689146244</v>
       </c>
       <c r="DQ122">
-        <v>0.04605564502248959</v>
+        <v>0.4302078859921395</v>
       </c>
       <c r="DR122">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
     </row>
     <row r="123" spans="1:128">
       <c r="A123" s="1">
-        <v>42005</v>
+        <v>43466</v>
       </c>
       <c r="DJ123">
-        <v>0.2462119846955943</v>
+        <v>0.2644381192506091</v>
       </c>
       <c r="DK123">
-        <v>-0.3164837179672417</v>
+        <v>0.3299058518201946</v>
       </c>
       <c r="DL123">
-        <v>-0.1872694831711027</v>
+        <v>0.5434178412678194</v>
       </c>
       <c r="DM123">
-        <v>0.4790783659482353</v>
+        <v>0.6481552638882911</v>
       </c>
       <c r="DN123">
-        <v>0.4532803013694258</v>
+        <v>0.7615097866438366</v>
       </c>
       <c r="DO123">
-        <v>0.3626384398728446</v>
+        <v>0.6511465901923106</v>
       </c>
       <c r="DP123">
-        <v>0.6822463316201457</v>
+        <v>0.3940576833359956</v>
       </c>
       <c r="DQ123">
-        <v>0.1495225704011526</v>
+        <v>0.4195193843507815</v>
       </c>
       <c r="DR123">
-        <v>0.02840570147171118</v>
+        <v>-0.036234926639532</v>
       </c>
       <c r="DS123">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
     </row>
     <row r="124" spans="1:128">
       <c r="A124" s="1">
-        <v>42095</v>
+        <v>43556</v>
       </c>
       <c r="DK124">
-        <v>-0.317290820525495</v>
+        <v>0.3301895289385203</v>
       </c>
       <c r="DL124">
-        <v>-0.1887433355264135</v>
+        <v>0.5430503216061103</v>
       </c>
       <c r="DM124">
-        <v>0.4818964739832249</v>
+        <v>0.647786676099098</v>
       </c>
       <c r="DN124">
-        <v>0.4563983868995178</v>
+        <v>0.7600177381311704</v>
       </c>
       <c r="DO124">
-        <v>0.3635983858434942</v>
+        <v>0.6491384235790651</v>
       </c>
       <c r="DP124">
-        <v>0.6686786461477362</v>
+        <v>0.40373537612531</v>
       </c>
       <c r="DQ124">
-        <v>0.09778910771182112</v>
+        <v>0.4248636351714605</v>
       </c>
       <c r="DR124">
-        <v>0.009489702851021933</v>
+        <v>0.0450683760128659</v>
       </c>
       <c r="DS124">
-        <v>0.5413309289906566</v>
+        <v>-0.03671344824839344</v>
       </c>
       <c r="DT124">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
     </row>
     <row r="125" spans="1:128">
       <c r="A125" s="1">
-        <v>42186</v>
+        <v>43647</v>
       </c>
       <c r="DL125">
-        <v>-0.1880064093487581</v>
+        <v>0.5432340814369649</v>
       </c>
       <c r="DM125">
-        <v>0.4804874199657301</v>
+        <v>0.6479709699936946</v>
       </c>
       <c r="DN125">
-        <v>0.4548393441344718</v>
+        <v>0.7607637623875034</v>
       </c>
       <c r="DO125">
-        <v>0.3631184128581694</v>
+        <v>0.6501425068856879</v>
       </c>
       <c r="DP125">
-        <v>0.6754624888839409</v>
+        <v>0.3988965297306528</v>
       </c>
       <c r="DQ125">
-        <v>0.1236558390564869</v>
+        <v>0.422191509761121</v>
       </c>
       <c r="DR125">
-        <v>0.01894770216136656</v>
+        <v>0.004416724686666953</v>
       </c>
       <c r="DS125">
-        <v>0.4621476794163958</v>
+        <v>-0.06373193070953084</v>
       </c>
       <c r="DT125">
-        <v>0.379149709147475</v>
+        <v>0.3225953634500986</v>
       </c>
       <c r="DU125">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
     </row>
     <row r="126" spans="1:128">
       <c r="A126" s="1">
-        <v>42278</v>
+        <v>43739</v>
       </c>
       <c r="DM126">
-        <v>0.4811919469744775</v>
+        <v>0.6478788230463963</v>
       </c>
       <c r="DN126">
-        <v>0.4556188655169948</v>
+        <v>0.7603907502593369</v>
       </c>
       <c r="DO126">
-        <v>0.3633583993508318</v>
+        <v>0.6496404652323765</v>
       </c>
       <c r="DP126">
-        <v>0.6720705675158385</v>
+        <v>0.4013159529279814</v>
       </c>
       <c r="DQ126">
-        <v>0.110722473384154</v>
+        <v>0.4235275724662908</v>
       </c>
       <c r="DR126">
-        <v>0.01421870250619424</v>
+        <v>0.02474255034976643</v>
       </c>
       <c r="DS126">
-        <v>0.5017393042035262</v>
+        <v>-0.05022268947896214</v>
       </c>
       <c r="DT126">
-        <v>0.4325743289794255</v>
+        <v>0.2717167223207291</v>
       </c>
       <c r="DU126">
-        <v>0.41560477725035</v>
+        <v>0.04004655148291123</v>
       </c>
       <c r="DV126">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
     </row>
     <row r="127" spans="1:128">
       <c r="A127" s="1">
-        <v>42370</v>
+        <v>43831</v>
       </c>
       <c r="DN127">
-        <v>0.4552291048257333</v>
+        <v>0.7605772563234201</v>
       </c>
       <c r="DO127">
-        <v>0.3632384061045006</v>
+        <v>0.6498914860590321</v>
       </c>
       <c r="DP127">
-        <v>0.6737665281998897</v>
+        <v>0.400106241329317</v>
       </c>
       <c r="DQ127">
-        <v>0.1171891562203204</v>
+        <v>0.4228595411137059</v>
       </c>
       <c r="DR127">
-        <v>0.0165832023337804</v>
+        <v>0.01457963751821669</v>
       </c>
       <c r="DS127">
-        <v>0.481943491809961</v>
+        <v>-0.05697731009424649</v>
       </c>
       <c r="DT127">
-        <v>0.4058620190634502</v>
+        <v>0.2971560428854139</v>
       </c>
       <c r="DU127">
-        <v>0.4040884537896646</v>
+        <v>0.0974146129586579</v>
       </c>
       <c r="DV127">
-        <v>0.3466041618411014</v>
+        <v>0.002485177906987678</v>
       </c>
       <c r="DW127">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
     </row>
     <row r="128" spans="1:128">
       <c r="A128" s="1">
-        <v>42461</v>
+        <v>43922</v>
       </c>
       <c r="DO128">
-        <v>0.3632984027276662</v>
+        <v>0.6497659756457044</v>
       </c>
       <c r="DP128">
-        <v>0.6729185478578641</v>
+        <v>0.4007110971286492</v>
       </c>
       <c r="DQ128">
-        <v>0.1139558148022372</v>
+        <v>0.4231935567899984</v>
       </c>
       <c r="DR128">
-        <v>0.01540095241998732</v>
+        <v>0.01966109393399156</v>
       </c>
       <c r="DS128">
-        <v>0.4918413980067436</v>
+        <v>-0.05359999978660432</v>
       </c>
       <c r="DT128">
-        <v>0.4192181740214379</v>
+        <v>0.2844363826030715</v>
       </c>
       <c r="DU128">
-        <v>0.4098466155200073</v>
+        <v>0.06873058222078457</v>
       </c>
       <c r="DV128">
-        <v>0.3619430388962047</v>
+        <v>-0.0383519039829837</v>
       </c>
       <c r="DW128">
-        <v>0.2712026772181096</v>
+        <v>0.07008499958379664</v>
       </c>
       <c r="DX128">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
     </row>
     <row r="129" spans="1:144">
       <c r="A129" s="1">
-        <v>42552</v>
+        <v>44013</v>
       </c>
       <c r="DP129">
-        <v>0.6733425380288769</v>
+        <v>0.4004086692289831</v>
       </c>
       <c r="DQ129">
-        <v>0.1155724855112788</v>
+        <v>0.4230265489518522</v>
       </c>
       <c r="DR129">
-        <v>0.01599207737688386</v>
+        <v>0.01712036572610412</v>
       </c>
       <c r="DS129">
-        <v>0.4868924449083523</v>
+        <v>-0.0552886549404254</v>
       </c>
       <c r="DT129">
-        <v>0.4125400965424441</v>
+        <v>0.2907962127442427</v>
       </c>
       <c r="DU129">
-        <v>0.406967534654836</v>
+        <v>0.08307259758972124</v>
       </c>
       <c r="DV129">
-        <v>0.3542736003686531</v>
+        <v>-0.01793336303799801</v>
       </c>
       <c r="DW129">
-        <v>0.2724576802392871</v>
+        <v>0.09112973901735177</v>
       </c>
       <c r="DX129">
-        <v>0.5661567198175934</v>
+        <v>-1.692001297247127</v>
       </c>
       <c r="DY129">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
     </row>
     <row r="130" spans="1:144">
       <c r="A130" s="1">
-        <v>42644</v>
+        <v>44105</v>
       </c>
       <c r="DQ130">
-        <v>0.114764150156758</v>
+        <v>0.4231100528709253</v>
       </c>
       <c r="DR130">
-        <v>0.01569651489843559</v>
+        <v>0.01839072983004784</v>
       </c>
       <c r="DS130">
-        <v>0.4893669214575479</v>
+        <v>-0.05444432736351486</v>
       </c>
       <c r="DT130">
-        <v>0.415879135281941</v>
+        <v>0.287616297673657</v>
       </c>
       <c r="DU130">
-        <v>0.4084070750874217</v>
+        <v>0.07590158990525291</v>
       </c>
       <c r="DV130">
-        <v>0.3581083196324288</v>
+        <v>-0.02814263351049086</v>
       </c>
       <c r="DW130">
-        <v>0.2718301787286984</v>
+        <v>0.08060736930057422</v>
       </c>
       <c r="DX130">
-        <v>0.516579378377287</v>
+        <v>-1.427098286423338</v>
       </c>
       <c r="DY130">
-        <v>0.4856189389344302</v>
+        <v>-7.77289113451026</v>
       </c>
       <c r="DZ130">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
     </row>
     <row r="131" spans="1:144">
       <c r="A131" s="1">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="DR131">
-        <v>0.01584429613765972</v>
+        <v>0.01775554777807598</v>
       </c>
       <c r="DS131">
-        <v>0.4881296831829501</v>
+        <v>-0.05486649115197013</v>
       </c>
       <c r="DT131">
-        <v>0.4142096159121925</v>
+        <v>0.2892062552089498</v>
       </c>
       <c r="DU131">
-        <v>0.4076873048711288</v>
+        <v>0.07948709374748708</v>
       </c>
       <c r="DV131">
-        <v>0.356190960000541</v>
+        <v>-0.02303799827424444</v>
       </c>
       <c r="DW131">
-        <v>0.2721439294839928</v>
+        <v>0.085868554158963</v>
       </c>
       <c r="DX131">
-        <v>0.5413680490974402</v>
+        <v>-1.559549791835233</v>
       </c>
       <c r="DY131">
-        <v>0.5227987246144021</v>
+        <v>-6.81385787688939</v>
       </c>
       <c r="DZ131">
-        <v>0.2461660751693067</v>
+        <v>3.911909545579423</v>
       </c>
       <c r="EA131">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
     </row>
     <row r="132" spans="1:144">
       <c r="A132" s="1">
-        <v>42826</v>
+        <v>44287</v>
       </c>
       <c r="DS132">
-        <v>0.488748302320249</v>
+        <v>-0.0546554092577425</v>
       </c>
       <c r="DT132">
-        <v>0.4150443755970668</v>
+        <v>0.2884112764413034</v>
       </c>
       <c r="DU132">
-        <v>0.4080471899792752</v>
+        <v>0.07769434182637</v>
       </c>
       <c r="DV132">
-        <v>0.3571496398164849</v>
+        <v>-0.02559031589236765</v>
       </c>
       <c r="DW132">
-        <v>0.2719870541063456</v>
+        <v>0.08323796172976861</v>
       </c>
       <c r="DX132">
-        <v>0.5289737137373636</v>
+        <v>-1.493324039129285</v>
       </c>
       <c r="DY132">
-        <v>0.5042088317744162</v>
+        <v>-7.293374505699825</v>
       </c>
       <c r="DZ132">
-        <v>0.2736816239035033</v>
+        <v>1.6277122431764</v>
       </c>
       <c r="EA132">
-        <v>0.3543020839962042</v>
+        <v>2.383471073106014</v>
       </c>
       <c r="EB132">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
     </row>
     <row r="133" spans="1:144">
       <c r="A133" s="1">
-        <v>42917</v>
+        <v>44378</v>
       </c>
       <c r="DT133">
-        <v>0.4146269957546296</v>
+        <v>0.2888087658251266</v>
       </c>
       <c r="DU133">
-        <v>0.407867247425202</v>
+        <v>0.07859071778692854</v>
       </c>
       <c r="DV133">
-        <v>0.356670299908513</v>
+        <v>-0.02431415708330604</v>
       </c>
       <c r="DW133">
-        <v>0.2720654917951692</v>
+        <v>0.0845532579443658</v>
       </c>
       <c r="DX133">
-        <v>0.5351708814174019</v>
+        <v>-1.526436915482259</v>
       </c>
       <c r="DY133">
-        <v>0.5135037781944092</v>
+        <v>-7.053616191294608</v>
       </c>
       <c r="DZ133">
-        <v>0.259923849536405</v>
+        <v>2.769810894377911</v>
       </c>
       <c r="EA133">
-        <v>0.3179914128505155</v>
+        <v>3.40489030795586</v>
       </c>
       <c r="EB133">
-        <v>0.5588536670596016</v>
+        <v>-1.221630446175318</v>
       </c>
       <c r="EC133">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
     </row>
     <row r="134" spans="1:144">
       <c r="A134" s="1">
-        <v>43009</v>
+        <v>44470</v>
       </c>
       <c r="DU134">
-        <v>0.4079572187022387</v>
+        <v>0.07814252980664926</v>
       </c>
       <c r="DV134">
-        <v>0.3569099698624989</v>
+        <v>-0.02495223648783684</v>
       </c>
       <c r="DW134">
-        <v>0.2720262729507574</v>
+        <v>0.0838956098370672</v>
       </c>
       <c r="DX134">
-        <v>0.5320722975773827</v>
+        <v>-1.509880477305772</v>
       </c>
       <c r="DY134">
-        <v>0.5088563049844127</v>
+        <v>-7.173495348497216</v>
       </c>
       <c r="DZ134">
-        <v>0.2668027367199541</v>
+        <v>2.198761568777155</v>
       </c>
       <c r="EA134">
-        <v>0.3361467484233598</v>
+        <v>2.894180690530937</v>
       </c>
       <c r="EB134">
-        <v>0.5353324087102191</v>
+        <v>-0.9289767350664404</v>
       </c>
       <c r="EC134">
-        <v>0.6400463325260437</v>
+        <v>0.7241003535713425</v>
       </c>
       <c r="ED134">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
     </row>
     <row r="135" spans="1:144">
       <c r="A135" s="1">
-        <v>43101</v>
+        <v>44562</v>
       </c>
       <c r="DV135">
-        <v>0.3567901348855059</v>
+        <v>-0.02463319678557144</v>
       </c>
       <c r="DW135">
-        <v>0.2720458823729633</v>
+        <v>0.0842244338907165</v>
       </c>
       <c r="DX135">
-        <v>0.5336215894973924</v>
+        <v>-1.518158696394015</v>
       </c>
       <c r="DY135">
-        <v>0.511180041589411</v>
+        <v>-7.113555769895912</v>
       </c>
       <c r="DZ135">
-        <v>0.2633632931281796</v>
+        <v>2.484286231577533</v>
       </c>
       <c r="EA135">
-        <v>0.3270690806369376</v>
+        <v>3.149535499243399</v>
       </c>
       <c r="EB135">
-        <v>0.5470930378849104</v>
+        <v>-1.075303590620879</v>
       </c>
       <c r="EC135">
-        <v>0.6518411417802218</v>
+        <v>0.2696044712918848</v>
       </c>
       <c r="ED135">
-        <v>0.7764302717704987</v>
+        <v>1.776070816158343</v>
       </c>
       <c r="EE135">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
     </row>
     <row r="136" spans="1:144">
       <c r="A136" s="1">
-        <v>43191</v>
+        <v>44652</v>
       </c>
       <c r="DW136">
-        <v>0.2720360776618604</v>
+        <v>0.08406002186389186</v>
       </c>
       <c r="DX136">
-        <v>0.5328469435373875</v>
+        <v>-1.514019586849894</v>
       </c>
       <c r="DY136">
-        <v>0.5100181732869118</v>
+        <v>-7.143525559196564</v>
       </c>
       <c r="DZ136">
-        <v>0.2650830149240668</v>
+        <v>2.341523900177344</v>
       </c>
       <c r="EA136">
-        <v>0.3316079145301487</v>
+        <v>3.021858094887168</v>
       </c>
       <c r="EB136">
-        <v>0.5412127232975648</v>
+        <v>-1.00214016284366</v>
       </c>
       <c r="EC136">
-        <v>0.6459437371531327</v>
+        <v>0.4968524124316136</v>
       </c>
       <c r="ED136">
-        <v>0.7525574955678392</v>
+        <v>1.816973075965284</v>
       </c>
       <c r="EE136">
-        <v>0.6390975905128384</v>
+        <v>0.156989948514632</v>
       </c>
       <c r="EF136">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
     </row>
     <row r="137" spans="1:144">
       <c r="A137" s="1">
-        <v>43282</v>
+        <v>44743</v>
       </c>
       <c r="DX137">
-        <v>0.5332342665173899</v>
+        <v>-1.516089141621955</v>
       </c>
       <c r="DY137">
-        <v>0.5105991074381614</v>
+        <v>-7.128540664546238</v>
       </c>
       <c r="DZ137">
-        <v>0.2642231540261232</v>
+        <v>2.412905065877439</v>
       </c>
       <c r="EA137">
-        <v>0.3293384975835432</v>
+        <v>3.085696797065284</v>
       </c>
       <c r="EB137">
-        <v>0.5441528805912376</v>
+        <v>-1.038721876732269</v>
       </c>
       <c r="EC137">
-        <v>0.6488924394666773</v>
+        <v>0.3832284418617492</v>
       </c>
       <c r="ED137">
-        <v>0.764493883669169</v>
+        <v>1.796521946061813</v>
       </c>
       <c r="EE137">
-        <v>0.6551629234188012</v>
+        <v>0.4090797430778457</v>
       </c>
       <c r="EF137">
-        <v>0.3747022977573667</v>
+        <v>0.08975626216343534</v>
       </c>
       <c r="EG137">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
     </row>
     <row r="138" spans="1:144">
       <c r="A138" s="1">
-        <v>43374</v>
+        <v>44835</v>
       </c>
       <c r="DY138">
-        <v>0.5103086403625365</v>
+        <v>-7.1360331118714</v>
       </c>
       <c r="DZ138">
-        <v>0.264653084475095</v>
+        <v>2.377214483027392</v>
       </c>
       <c r="EA138">
-        <v>0.3304732060568459</v>
+        <v>3.053777445976226</v>
       </c>
       <c r="EB138">
-        <v>0.5426828019444012</v>
+        <v>-1.020431019787964</v>
       </c>
       <c r="EC138">
-        <v>0.647418088309905</v>
+        <v>0.4400404271466814</v>
       </c>
       <c r="ED138">
-        <v>0.7585256896185042</v>
+        <v>1.806747511013549</v>
       </c>
       <c r="EE138">
-        <v>0.6471302569658198</v>
+        <v>0.2830348457962388</v>
       </c>
       <c r="EF138">
-        <v>0.4134130689146244</v>
+        <v>0.01693194503423021</v>
       </c>
       <c r="EG138">
-        <v>0.4302078859921395</v>
+        <v>0.3043279081412894</v>
       </c>
       <c r="EH138">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
     </row>
     <row r="139" spans="1:144">
       <c r="A139" s="1">
-        <v>43466</v>
+        <v>44927</v>
       </c>
       <c r="DZ139">
-        <v>0.2644381192506091</v>
+        <v>2.395059774452415</v>
       </c>
       <c r="EA139">
-        <v>0.3299058518201946</v>
+        <v>3.069737121520755</v>
       </c>
       <c r="EB139">
-        <v>0.5434178412678194</v>
+        <v>-1.029576448260117</v>
       </c>
       <c r="EC139">
-        <v>0.6481552638882911</v>
+        <v>0.4116344345042153</v>
       </c>
       <c r="ED139">
-        <v>0.7615097866438366</v>
+        <v>1.801634728537681</v>
       </c>
       <c r="EE139">
-        <v>0.6511465901923106</v>
+        <v>0.3460572944370423</v>
       </c>
       <c r="EF139">
-        <v>0.3940576833359956</v>
+        <v>0.05334410359883278</v>
       </c>
       <c r="EG139">
-        <v>0.4195193843507815</v>
+        <v>0.3866269344056902</v>
       </c>
       <c r="EH139">
-        <v>-0.036234926639532</v>
+        <v>0.3257288096540296</v>
       </c>
       <c r="EI139">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
     </row>
     <row r="140" spans="1:144">
       <c r="A140" s="1">
-        <v>43556</v>
+        <v>45017</v>
       </c>
       <c r="EA140">
-        <v>0.3301895289385203</v>
+        <v>3.061757283748491</v>
       </c>
       <c r="EB140">
-        <v>0.5430503216061103</v>
+        <v>-1.025003734024041</v>
       </c>
       <c r="EC140">
-        <v>0.647786676099098</v>
+        <v>0.4258374308254483</v>
       </c>
       <c r="ED140">
-        <v>0.7600177381311704</v>
+        <v>1.804191119775615</v>
       </c>
       <c r="EE140">
-        <v>0.6491384235790651</v>
+        <v>0.3145460701166405</v>
       </c>
       <c r="EF140">
-        <v>0.40373537612531</v>
+        <v>0.0351380243165315</v>
       </c>
       <c r="EG140">
-        <v>0.4248636351714605</v>
+        <v>0.3454774212734898</v>
       </c>
       <c r="EH140">
-        <v>0.0450683760128659</v>
+        <v>0.2885187681754391</v>
       </c>
       <c r="EI140">
-        <v>-0.03671344824839344</v>
+        <v>-0.2078307781071371</v>
       </c>
       <c r="EJ140">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
     </row>
     <row r="141" spans="1:144">
       <c r="A141" s="1">
-        <v>43647</v>
+        <v>45108</v>
       </c>
       <c r="EB141">
-        <v>0.5432340814369649</v>
+        <v>-1.027290091142079</v>
       </c>
       <c r="EC141">
-        <v>0.6479709699936946</v>
+        <v>0.4187359326648318</v>
       </c>
       <c r="ED141">
-        <v>0.7607637623875034</v>
+        <v>1.802912924156648</v>
       </c>
       <c r="EE141">
-        <v>0.6501425068856879</v>
+        <v>0.3303016822768414</v>
       </c>
       <c r="EF141">
-        <v>0.3988965297306528</v>
+        <v>0.04424106395768214</v>
       </c>
       <c r="EG141">
-        <v>0.422191509761121</v>
+        <v>0.36605217783959</v>
       </c>
       <c r="EH141">
-        <v>0.004416724686666953</v>
+        <v>0.3071237889147344</v>
       </c>
       <c r="EI141">
-        <v>-0.06373193070953084</v>
+        <v>-0.09409311538706532</v>
       </c>
       <c r="EJ141">
-        <v>0.3225953634500986</v>
+        <v>-0.3857166215938255</v>
       </c>
       <c r="EK141">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
     </row>
     <row r="142" spans="1:144">
       <c r="A142" s="1">
-        <v>43739</v>
+        <v>45200</v>
       </c>
       <c r="EC142">
-        <v>0.6478788230463963</v>
+        <v>0.4222866817451401</v>
       </c>
       <c r="ED142">
-        <v>0.7603907502593369</v>
+        <v>1.803552021966132</v>
       </c>
       <c r="EE142">
-        <v>0.6496404652323765</v>
+        <v>0.322423876196741</v>
       </c>
       <c r="EF142">
-        <v>0.4013159529279814</v>
+        <v>0.03968954413710682</v>
       </c>
       <c r="EG142">
-        <v>0.4235275724662908</v>
+        <v>0.3557647995565399</v>
       </c>
       <c r="EH142">
-        <v>0.02474255034976643</v>
+        <v>0.2978212785450868</v>
       </c>
       <c r="EI142">
-        <v>-0.05022268947896214</v>
+        <v>-0.1509619467471012</v>
       </c>
       <c r="EJ142">
-        <v>0.2717167223207291</v>
+        <v>-0.4109615605684087</v>
       </c>
       <c r="EK142">
-        <v>0.04004655148291123</v>
+        <v>-0.009258372128847846</v>
       </c>
       <c r="EL142">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
     </row>
     <row r="143" spans="1:144">
       <c r="A143" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="ED143">
-        <v>0.7605772563234201</v>
+        <v>1.80323247306139</v>
       </c>
       <c r="EE143">
-        <v>0.6498914860590321</v>
+        <v>0.3263627792367912</v>
       </c>
       <c r="EF143">
-        <v>0.400106241329317</v>
+        <v>0.04196530404739448</v>
       </c>
       <c r="EG143">
-        <v>0.4228595411137059</v>
+        <v>0.3609084886980649</v>
       </c>
       <c r="EH143">
-        <v>0.01457963751821669</v>
+        <v>0.3024725337299106</v>
       </c>
       <c r="EI143">
-        <v>-0.05697731009424649</v>
+        <v>-0.1225275310670833</v>
       </c>
       <c r="EJ143">
-        <v>0.2971560428854139</v>
+        <v>-0.3983390910811171</v>
       </c>
       <c r="EK143">
-        <v>0.0974146129586579</v>
+        <v>-0.02316743941079034</v>
       </c>
       <c r="EL143">
-        <v>0.002485177906987678</v>
+        <v>-0.0624459300653643</v>
       </c>
       <c r="EM143">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
     </row>
     <row r="144" spans="1:144">
       <c r="A144" s="1">
-        <v>43922</v>
+        <v>45383</v>
       </c>
       <c r="EE144">
-        <v>0.6497659756457044</v>
+        <v>0.3243933277167661</v>
       </c>
       <c r="EF144">
-        <v>0.4007110971286492</v>
+        <v>0.04082742409225065</v>
       </c>
       <c r="EG144">
-        <v>0.4231935567899984</v>
+        <v>0.3583366441273024</v>
       </c>
       <c r="EH144">
-        <v>0.01966109393399156</v>
+        <v>0.3001469061374987</v>
       </c>
       <c r="EI144">
-        <v>-0.05359999978660432</v>
+        <v>-0.1367447389070922</v>
       </c>
       <c r="EJ144">
-        <v>0.2844363826030715</v>
+        <v>-0.4046503258247629</v>
       </c>
       <c r="EK144">
-        <v>0.06873058222078457</v>
+        <v>-0.01621290576981909</v>
       </c>
       <c r="EL144">
-        <v>-0.0383519039829837</v>
+        <v>-0.02886008109934235</v>
       </c>
       <c r="EM144">
-        <v>0.07008499958379664</v>
+        <v>-0.2176125275659884</v>
       </c>
       <c r="EN144">
-        <v>-1.162195275599549</v>
-      </c>
-    </row>
-    <row r="145" spans="1:160">
+        <v>-0.1426938562495702</v>
+      </c>
+    </row>
+    <row r="145" spans="1:148">
       <c r="A145" s="1">
-        <v>44013</v>
+        <v>45474</v>
       </c>
       <c r="EF145">
-        <v>0.4004086692289831</v>
+        <v>0.04139636406982257</v>
       </c>
       <c r="EG145">
-        <v>0.4230265489518522</v>
+        <v>0.3596225664126836</v>
       </c>
       <c r="EH145">
-        <v>0.01712036572610412</v>
+        <v>0.3013097199337046</v>
       </c>
       <c r="EI145">
-        <v>-0.0552886549404254</v>
+        <v>-0.1296361349870877</v>
       </c>
       <c r="EJ145">
-        <v>0.2907962127442427</v>
+        <v>-0.40149470845294</v>
       </c>
       <c r="EK145">
-        <v>0.08307259758972124</v>
+        <v>-0.01969017259030471</v>
       </c>
       <c r="EL145">
-        <v>-0.01793336303799801</v>
+        <v>-0.04565300558235333</v>
       </c>
       <c r="EM145">
-        <v>0.09112973901735177</v>
+        <v>-0.182886982848201</v>
       </c>
       <c r="EN145">
-        <v>-1.692001297247127</v>
+        <v>0.03545099163746869</v>
       </c>
       <c r="EO145">
-        <v>-5.854824619268521</v>
-      </c>
-    </row>
-    <row r="146" spans="1:160">
+        <v>0.08133076613059367</v>
+      </c>
+    </row>
+    <row r="146" spans="1:148">
       <c r="A146" s="1">
-        <v>44105</v>
+        <v>45566</v>
       </c>
       <c r="EG146">
-        <v>0.4231100528709253</v>
+        <v>0.358979605269993</v>
       </c>
       <c r="EH146">
-        <v>0.01839072983004784</v>
+        <v>0.3007283130356017</v>
       </c>
       <c r="EI146">
-        <v>-0.05444432736351486</v>
+        <v>-0.13319043694709</v>
       </c>
       <c r="EJ146">
-        <v>0.287616297673657</v>
+        <v>-0.4030725171388514</v>
       </c>
       <c r="EK146">
-        <v>0.07590158990525291</v>
+        <v>-0.0179515391800619</v>
       </c>
       <c r="EL146">
-        <v>-0.02814263351049086</v>
+        <v>-0.03725654334084784</v>
       </c>
       <c r="EM146">
-        <v>0.08060736930057422</v>
+        <v>-0.2002497552070947</v>
       </c>
       <c r="EN146">
-        <v>-1.427098286423338</v>
+        <v>-0.05362143230605077</v>
       </c>
       <c r="EO146">
-        <v>-7.77289113451026</v>
+        <v>0.007284362559816064</v>
       </c>
       <c r="EP146">
-        <v>-0.6564850592266236</v>
-      </c>
-    </row>
-    <row r="147" spans="1:160">
+        <v>-0.090455108035048</v>
+      </c>
+    </row>
+    <row r="147" spans="1:148">
       <c r="A147" s="1">
-        <v>44197</v>
+        <v>45658</v>
       </c>
       <c r="EH147">
-        <v>0.01775554777807598</v>
+        <v>0.3010190164846531</v>
       </c>
       <c r="EI147">
-        <v>-0.05486649115197013</v>
+        <v>-0.1314132859670888</v>
       </c>
       <c r="EJ147">
-        <v>0.2892062552089498</v>
+        <v>-0.4022836127958958</v>
       </c>
       <c r="EK147">
-        <v>0.07948709374748708</v>
+        <v>-0.01882085588518331</v>
       </c>
       <c r="EL147">
-        <v>-0.02303799827424444</v>
+        <v>-0.04145477446160058</v>
       </c>
       <c r="EM147">
-        <v>0.085868554158963</v>
+        <v>-0.1915683690276478</v>
       </c>
       <c r="EN147">
-        <v>-1.559549791835233</v>
+        <v>-0.009085220334291041</v>
       </c>
       <c r="EO147">
-        <v>-6.81385787688939</v>
+        <v>0.04430756434520487</v>
       </c>
       <c r="EP147">
-        <v>3.911909545579423</v>
+        <v>0.007378854399501047</v>
       </c>
       <c r="EQ147">
-        <v>4.426309542805707</v>
-      </c>
-    </row>
-    <row r="148" spans="1:160">
+        <v>-0.04771845303911565</v>
+      </c>
+    </row>
+    <row r="148" spans="1:148">
       <c r="A148" s="1">
-        <v>44287</v>
+        <v>45748</v>
       </c>
       <c r="EI148">
-        <v>-0.0546554092577425</v>
+        <v>-0.1323018614570894</v>
       </c>
       <c r="EJ148">
-        <v>0.2884112764413034</v>
+        <v>-0.4026780649673736</v>
       </c>
       <c r="EK148">
-        <v>0.07769434182637</v>
+        <v>-0.01838619753262261</v>
       </c>
       <c r="EL148">
-        <v>-0.02559031589236765</v>
+        <v>-0.03935565890122421</v>
       </c>
       <c r="EM148">
-        <v>0.08323796172976861</v>
+        <v>-0.1959090621173713</v>
       </c>
       <c r="EN148">
-        <v>-1.493324039129285</v>
+        <v>-0.0313533263201709</v>
       </c>
       <c r="EO148">
-        <v>-7.293374505699825</v>
+        <v>0.02579596345251047</v>
       </c>
       <c r="EP148">
-        <v>1.6277122431764</v>
+        <v>-0.04153812681777348</v>
       </c>
       <c r="EQ148">
-        <v>2.383471073106014</v>
+        <v>-0.1241840879756985</v>
       </c>
       <c r="ER148">
-        <v>-0.6363230239575632</v>
-      </c>
-    </row>
-    <row r="149" spans="1:160">
+        <v>0.1055152534313617</v>
+      </c>
+    </row>
+    <row r="149" spans="1:148">
       <c r="A149" s="1">
-        <v>44378</v>
+        <v>45839</v>
       </c>
       <c r="EJ149">
-        <v>0.2888087658251266</v>
+        <v>-0.4024808388816347</v>
       </c>
       <c r="EK149">
-        <v>0.07859071778692854</v>
+        <v>-0.01860352670890296</v>
       </c>
       <c r="EL149">
-        <v>-0.02431415708330604</v>
+        <v>-0.04040521668141239</v>
       </c>
       <c r="EM149">
-        <v>0.0845532579443658</v>
+        <v>-0.1937387155725095</v>
       </c>
       <c r="EN149">
-        <v>-1.526436915482259</v>
+        <v>-0.02021927332723097</v>
       </c>
       <c r="EO149">
-        <v>-7.053616191294608</v>
+        <v>0.03505176389885767</v>
       </c>
       <c r="EP149">
-        <v>2.769810894377911</v>
+        <v>-0.01707963620913621</v>
       </c>
       <c r="EQ149">
-        <v>3.40489030795586</v>
+        <v>-0.08595127050740708</v>
       </c>
       <c r="ER149">
-        <v>-1.221630446175318</v>
-      </c>
-      <c r="ES149">
-        <v>-0.184891410987573</v>
-      </c>
-    </row>
-    <row r="150" spans="1:160">
+        <v>0.2585977416031833</v>
+      </c>
+    </row>
+    <row r="150" spans="1:148">
       <c r="A150" s="1">
-        <v>44470</v>
+        <v>45931</v>
       </c>
       <c r="EK150">
-        <v>0.07814252980664926</v>
+        <v>-0.01849486212076278</v>
       </c>
       <c r="EL150">
-        <v>-0.02495223648783684</v>
+        <v>-0.0398804377913183</v>
       </c>
       <c r="EM150">
-        <v>0.0838956098370672</v>
+        <v>-0.1948238888449404</v>
       </c>
       <c r="EN150">
-        <v>-1.509880477305772</v>
+        <v>-0.02578629982370094</v>
       </c>
       <c r="EO150">
-        <v>-7.173495348497216</v>
+        <v>0.03042386367568407</v>
       </c>
       <c r="EP150">
-        <v>2.198761568777155</v>
+        <v>-0.02930888151345484</v>
       </c>
       <c r="EQ150">
-        <v>2.894180690530937</v>
+        <v>-0.1050676792415528</v>
       </c>
       <c r="ER150">
-        <v>-0.9289767350664404</v>
-      </c>
-      <c r="ES150">
-        <v>0.7241003535713425</v>
-      </c>
-      <c r="ET150">
-        <v>1.857875335772226</v>
-      </c>
-    </row>
-    <row r="151" spans="1:160">
+        <v>0.1820564975172725</v>
+      </c>
+    </row>
+    <row r="151" spans="1:148">
       <c r="A151" s="1">
-        <v>44562</v>
+        <v>46023</v>
       </c>
       <c r="EL151">
-        <v>-0.02463319678557144</v>
+        <v>-0.04014282723636535</v>
       </c>
       <c r="EM151">
-        <v>0.0842244338907165</v>
+        <v>-0.194281302208725</v>
       </c>
       <c r="EN151">
-        <v>-1.518158696394015</v>
+        <v>-0.02300278657546596</v>
       </c>
       <c r="EO151">
-        <v>-7.113555769895912</v>
+        <v>0.03273781378727086</v>
       </c>
       <c r="EP151">
-        <v>2.484286231577533</v>
+        <v>-0.02319425886129553</v>
       </c>
       <c r="EQ151">
-        <v>3.149535499243399</v>
+        <v>-0.09550947487447994</v>
       </c>
       <c r="ER151">
-        <v>-1.075303590620879</v>
-      </c>
-      <c r="ES151">
-        <v>0.2696044712918848</v>
-      </c>
-      <c r="ET151">
-        <v>1.776070816158343</v>
-      </c>
-      <c r="EU151">
-        <v>0.6611695376410593</v>
-      </c>
-    </row>
-    <row r="152" spans="1:160">
+        <v>0.2203271195602279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:148">
       <c r="A152" s="1">
-        <v>44652</v>
+        <v>46113</v>
       </c>
       <c r="EM152">
-        <v>0.08406002186389186</v>
+        <v>-0.1945525955268327</v>
       </c>
       <c r="EN152">
-        <v>-1.514019586849894</v>
+        <v>-0.02439454319958345</v>
       </c>
       <c r="EO152">
-        <v>-7.143525559196564</v>
+        <v>0.03158083873147746</v>
       </c>
       <c r="EP152">
-        <v>2.341523900177344</v>
+        <v>-0.02625157018737519</v>
       </c>
       <c r="EQ152">
-        <v>3.021858094887168</v>
+        <v>-0.1002885770580164</v>
       </c>
       <c r="ER152">
-        <v>-1.00214016284366</v>
-      </c>
-      <c r="ES152">
-        <v>0.4968524124316136</v>
-      </c>
-      <c r="ET152">
-        <v>1.816973075965284</v>
-      </c>
-      <c r="EU152">
-        <v>0.156989948514632</v>
-      </c>
-      <c r="EV152">
-        <v>-0.05589237209497491</v>
-      </c>
-    </row>
-    <row r="153" spans="1:160">
+        <v>0.2011918085387502</v>
+      </c>
+    </row>
+    <row r="153" spans="1:148">
       <c r="A153" s="1">
-        <v>44743</v>
+        <v>46204</v>
       </c>
       <c r="EN153">
-        <v>-1.516089141621955</v>
+        <v>-0.0236986648875247</v>
       </c>
       <c r="EO153">
-        <v>-7.128540664546238</v>
+        <v>0.03215932625937416</v>
       </c>
       <c r="EP153">
-        <v>2.412905065877439</v>
+        <v>-0.02472291452433536</v>
       </c>
       <c r="EQ153">
-        <v>3.085696797065284</v>
+        <v>-0.09789902596624817</v>
       </c>
       <c r="ER153">
-        <v>-1.038721876732269</v>
-      </c>
-      <c r="ES153">
-        <v>0.3832284418617492</v>
-      </c>
-      <c r="ET153">
-        <v>1.796521946061813</v>
-      </c>
-      <c r="EU153">
-        <v>0.4090797430778457</v>
-      </c>
-      <c r="EV153">
-        <v>0.08975626216343534</v>
-      </c>
-      <c r="EW153">
-        <v>0.468925960670091</v>
-      </c>
-    </row>
-    <row r="154" spans="1:160">
+        <v>0.210759464049489</v>
+      </c>
+    </row>
+    <row r="154" spans="1:148">
       <c r="A154" s="1">
-        <v>44835</v>
+        <v>46296</v>
       </c>
       <c r="EO154">
-        <v>-7.1360331118714</v>
+        <v>0.03187008249542581</v>
       </c>
       <c r="EP154">
-        <v>2.377214483027392</v>
+        <v>-0.02548724235585527</v>
       </c>
       <c r="EQ154">
-        <v>3.053777445976226</v>
+        <v>-0.09909380151213226</v>
       </c>
       <c r="ER154">
-        <v>-1.020431019787964</v>
-      </c>
-      <c r="ES154">
-        <v>0.4400404271466814</v>
-      </c>
-      <c r="ET154">
-        <v>1.806747511013549</v>
-      </c>
-      <c r="EU154">
-        <v>0.2830348457962388</v>
-      </c>
-      <c r="EV154">
-        <v>0.01693194503423021</v>
-      </c>
-      <c r="EW154">
-        <v>0.3043279081412894</v>
-      </c>
-      <c r="EX154">
-        <v>0.2513087266968487</v>
-      </c>
-    </row>
-    <row r="155" spans="1:160">
+        <v>0.2059756362941196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:148">
       <c r="A155" s="1">
-        <v>44927</v>
+        <v>46388</v>
       </c>
       <c r="EP155">
-        <v>2.395059774452415</v>
+        <v>-0.02510507844009532</v>
       </c>
       <c r="EQ155">
-        <v>3.069737121520755</v>
+        <v>-0.09849641373919021</v>
       </c>
       <c r="ER155">
-        <v>-1.029576448260117</v>
-      </c>
-      <c r="ES155">
-        <v>0.4116344345042153</v>
-      </c>
-      <c r="ET155">
-        <v>1.801634728537681</v>
-      </c>
-      <c r="EU155">
-        <v>0.3460572944370423</v>
-      </c>
-      <c r="EV155">
-        <v>0.05334410359883278</v>
-      </c>
-      <c r="EW155">
-        <v>0.3866269344056902</v>
-      </c>
-      <c r="EX155">
-        <v>0.3257288096540296</v>
-      </c>
-      <c r="EY155">
-        <v>0.01964454733300644</v>
-      </c>
-    </row>
-    <row r="156" spans="1:160">
+        <v>0.2083675501718043</v>
+      </c>
+    </row>
+    <row r="156" spans="1:148">
       <c r="A156" s="1">
-        <v>45017</v>
+        <v>46478</v>
       </c>
       <c r="EQ156">
-        <v>3.061757283748491</v>
+        <v>-0.09879510762566124</v>
       </c>
       <c r="ER156">
-        <v>-1.025003734024041</v>
-      </c>
-      <c r="ES156">
-        <v>0.4258374308254483</v>
-      </c>
-      <c r="ET156">
-        <v>1.804191119775615</v>
-      </c>
-      <c r="EU156">
-        <v>0.3145460701166405</v>
-      </c>
-      <c r="EV156">
-        <v>0.0351380243165315</v>
-      </c>
-      <c r="EW156">
-        <v>0.3454774212734898</v>
-      </c>
-      <c r="EX156">
-        <v>0.2885187681754391</v>
-      </c>
-      <c r="EY156">
-        <v>-0.2078307781071371</v>
-      </c>
-      <c r="EZ156">
-        <v>-0.4362064995429919</v>
-      </c>
-    </row>
-    <row r="157" spans="1:160">
+        <v>0.207171593232962</v>
+      </c>
+    </row>
+    <row r="157" spans="1:148">
       <c r="A157" s="1">
-        <v>45108</v>
+        <v>46569</v>
       </c>
       <c r="ER157">
-        <v>-1.027290091142079</v>
-      </c>
-      <c r="ES157">
-        <v>0.4187359326648318</v>
-      </c>
-      <c r="ET157">
-        <v>1.802912924156648</v>
-      </c>
-      <c r="EU157">
-        <v>0.3303016822768414</v>
-      </c>
-      <c r="EV157">
-        <v>0.04424106395768214</v>
-      </c>
-      <c r="EW157">
-        <v>0.36605217783959</v>
-      </c>
-      <c r="EX157">
-        <v>0.3071237889147344</v>
-      </c>
-      <c r="EY157">
-        <v>-0.09409311538706532</v>
-      </c>
-      <c r="EZ157">
-        <v>-0.3857166215938255</v>
-      </c>
-      <c r="FA157">
-        <v>-0.03707650669273283</v>
-      </c>
-    </row>
-    <row r="158" spans="1:160">
-      <c r="A158" s="1">
-        <v>45200</v>
-      </c>
-      <c r="ES158">
-        <v>0.4222866817451401</v>
-      </c>
-      <c r="ET158">
-        <v>1.803552021966132</v>
-      </c>
-      <c r="EU158">
-        <v>0.322423876196741</v>
-      </c>
-      <c r="EV158">
-        <v>0.03968954413710682</v>
-      </c>
-      <c r="EW158">
-        <v>0.3557647995565399</v>
-      </c>
-      <c r="EX158">
-        <v>0.2978212785450868</v>
-      </c>
-      <c r="EY158">
-        <v>-0.1509619467471012</v>
-      </c>
-      <c r="EZ158">
-        <v>-0.4109615605684087</v>
-      </c>
-      <c r="FA158">
-        <v>-0.009258372128847846</v>
-      </c>
-      <c r="FB158">
-        <v>0.004725767866679595</v>
-      </c>
-    </row>
-    <row r="159" spans="1:160">
-      <c r="A159" s="1">
-        <v>45292</v>
-      </c>
-      <c r="ET159">
-        <v>1.80323247306139</v>
-      </c>
-      <c r="EU159">
-        <v>0.3263627792367912</v>
-      </c>
-      <c r="EV159">
-        <v>0.04196530404739448</v>
-      </c>
-      <c r="EW159">
-        <v>0.3609084886980649</v>
-      </c>
-      <c r="EX159">
-        <v>0.3024725337299106</v>
-      </c>
-      <c r="EY159">
-        <v>-0.1225275310670833</v>
-      </c>
-      <c r="EZ159">
-        <v>-0.3983390910811171</v>
-      </c>
-      <c r="FA159">
-        <v>-0.02316743941079034</v>
-      </c>
-      <c r="FB159">
-        <v>-0.0624459300653643</v>
-      </c>
-      <c r="FC159">
-        <v>-0.1481614381304136</v>
-      </c>
-    </row>
-    <row r="160" spans="1:160">
-      <c r="A160" s="1">
-        <v>45383</v>
-      </c>
-      <c r="EU160">
-        <v>0.3243933277167661</v>
-      </c>
-      <c r="EV160">
-        <v>0.04082742409225065</v>
-      </c>
-      <c r="EW160">
-        <v>0.3583366441273024</v>
-      </c>
-      <c r="EX160">
-        <v>0.3001469061374987</v>
-      </c>
-      <c r="EY160">
-        <v>-0.1367447389070922</v>
-      </c>
-      <c r="EZ160">
-        <v>-0.4046503258247629</v>
-      </c>
-      <c r="FA160">
-        <v>-0.01621290576981909</v>
-      </c>
-      <c r="FB160">
-        <v>-0.02886008109934235</v>
-      </c>
-      <c r="FC160">
-        <v>-0.2176125275659884</v>
-      </c>
-      <c r="FD160">
-        <v>-0.1426938562495702</v>
-      </c>
-    </row>
-    <row r="161" spans="1:164">
-      <c r="A161" s="1">
-        <v>45474</v>
-      </c>
-      <c r="EV161">
-        <v>0.04139636406982257</v>
-      </c>
-      <c r="EW161">
-        <v>0.3596225664126836</v>
-      </c>
-      <c r="EX161">
-        <v>0.3013097199337046</v>
-      </c>
-      <c r="EY161">
-        <v>-0.1296361349870877</v>
-      </c>
-      <c r="EZ161">
-        <v>-0.40149470845294</v>
-      </c>
-      <c r="FA161">
-        <v>-0.01969017259030471</v>
-      </c>
-      <c r="FB161">
-        <v>-0.04565300558235333</v>
-      </c>
-      <c r="FC161">
-        <v>-0.182886982848201</v>
-      </c>
-      <c r="FD161">
-        <v>0.03545099163746869</v>
-      </c>
-      <c r="FE161">
-        <v>0.08133076613059367</v>
-      </c>
-    </row>
-    <row r="162" spans="1:164">
-      <c r="A162" s="1">
-        <v>45566</v>
-      </c>
-      <c r="EW162">
-        <v>0.358979605269993</v>
-      </c>
-      <c r="EX162">
-        <v>0.3007283130356017</v>
-      </c>
-      <c r="EY162">
-        <v>-0.13319043694709</v>
-      </c>
-      <c r="EZ162">
-        <v>-0.4030725171388514</v>
-      </c>
-      <c r="FA162">
-        <v>-0.0179515391800619</v>
-      </c>
-      <c r="FB162">
-        <v>-0.03725654334084784</v>
-      </c>
-      <c r="FC162">
-        <v>-0.2002497552070947</v>
-      </c>
-      <c r="FD162">
-        <v>-0.05362143230605077</v>
-      </c>
-      <c r="FE162">
-        <v>0.007284362559816064</v>
-      </c>
-      <c r="FF162">
-        <v>-0.090455108035048</v>
-      </c>
-    </row>
-    <row r="163" spans="1:164">
-      <c r="A163" s="1">
-        <v>45658</v>
-      </c>
-      <c r="EX163">
-        <v>0.3010190164846531</v>
-      </c>
-      <c r="EY163">
-        <v>-0.1314132859670888</v>
-      </c>
-      <c r="EZ163">
-        <v>-0.4022836127958958</v>
-      </c>
-      <c r="FA163">
-        <v>-0.01882085588518331</v>
-      </c>
-      <c r="FB163">
-        <v>-0.04145477446160058</v>
-      </c>
-      <c r="FC163">
-        <v>-0.1915683690276478</v>
-      </c>
-      <c r="FD163">
-        <v>-0.009085220334291041</v>
-      </c>
-      <c r="FE163">
-        <v>0.04430756434520487</v>
-      </c>
-      <c r="FF163">
-        <v>0.007378854399501047</v>
-      </c>
-      <c r="FG163">
-        <v>-0.04771845303911565</v>
-      </c>
-    </row>
-    <row r="164" spans="1:164">
-      <c r="A164" s="1">
-        <v>45748</v>
-      </c>
-      <c r="EY164">
-        <v>-0.1323018614570894</v>
-      </c>
-      <c r="EZ164">
-        <v>-0.4026780649673736</v>
-      </c>
-      <c r="FA164">
-        <v>-0.01838619753262261</v>
-      </c>
-      <c r="FB164">
-        <v>-0.03935565890122421</v>
-      </c>
-      <c r="FC164">
-        <v>-0.1959090621173713</v>
-      </c>
-      <c r="FD164">
-        <v>-0.0313533263201709</v>
-      </c>
-      <c r="FE164">
-        <v>0.02579596345251047</v>
-      </c>
-      <c r="FF164">
-        <v>-0.04153812681777348</v>
-      </c>
-      <c r="FG164">
-        <v>-0.1241840879756985</v>
-      </c>
-      <c r="FH164">
-        <v>0.1055152534313617</v>
-      </c>
-    </row>
-    <row r="165" spans="1:164">
-      <c r="A165" s="1">
-        <v>45839</v>
-      </c>
-      <c r="EZ165">
-        <v>-0.4024808388816347</v>
-      </c>
-      <c r="FA165">
-        <v>-0.01860352670890296</v>
-      </c>
-      <c r="FB165">
-        <v>-0.04040521668141239</v>
-      </c>
-      <c r="FC165">
-        <v>-0.1937387155725095</v>
-      </c>
-      <c r="FD165">
-        <v>-0.02021927332723097</v>
-      </c>
-      <c r="FE165">
-        <v>0.03505176389885767</v>
-      </c>
-      <c r="FF165">
-        <v>-0.01707963620913621</v>
-      </c>
-      <c r="FG165">
-        <v>-0.08595127050740708</v>
-      </c>
-      <c r="FH165">
-        <v>0.2585977416031833</v>
-      </c>
-    </row>
-    <row r="166" spans="1:164">
-      <c r="A166" s="1">
-        <v>45931</v>
-      </c>
-      <c r="FA166">
-        <v>-0.01849486212076278</v>
-      </c>
-      <c r="FB166">
-        <v>-0.0398804377913183</v>
-      </c>
-      <c r="FC166">
-        <v>-0.1948238888449404</v>
-      </c>
-      <c r="FD166">
-        <v>-0.02578629982370094</v>
-      </c>
-      <c r="FE166">
-        <v>0.03042386367568407</v>
-      </c>
-      <c r="FF166">
-        <v>-0.02930888151345484</v>
-      </c>
-      <c r="FG166">
-        <v>-0.1050676792415528</v>
-      </c>
-      <c r="FH166">
-        <v>0.1820564975172725</v>
-      </c>
-    </row>
-    <row r="167" spans="1:164">
-      <c r="A167" s="1">
-        <v>46023</v>
-      </c>
-      <c r="FB167">
-        <v>-0.04014282723636535</v>
-      </c>
-      <c r="FC167">
-        <v>-0.194281302208725</v>
-      </c>
-      <c r="FD167">
-        <v>-0.02300278657546596</v>
-      </c>
-      <c r="FE167">
-        <v>0.03273781378727086</v>
-      </c>
-      <c r="FF167">
-        <v>-0.02319425886129553</v>
-      </c>
-      <c r="FG167">
-        <v>-0.09550947487447994</v>
-      </c>
-      <c r="FH167">
-        <v>0.2203271195602279</v>
-      </c>
-    </row>
-    <row r="168" spans="1:164">
-      <c r="A168" s="1">
-        <v>46113</v>
-      </c>
-      <c r="FC168">
-        <v>-0.1945525955268327</v>
-      </c>
-      <c r="FD168">
-        <v>-0.02439454319958345</v>
-      </c>
-      <c r="FE168">
-        <v>0.03158083873147746</v>
-      </c>
-      <c r="FF168">
-        <v>-0.02625157018737519</v>
-      </c>
-      <c r="FG168">
-        <v>-0.1002885770580164</v>
-      </c>
-      <c r="FH168">
-        <v>0.2011918085387502</v>
-      </c>
-    </row>
-    <row r="169" spans="1:164">
-      <c r="A169" s="1">
-        <v>46204</v>
-      </c>
-      <c r="FD169">
-        <v>-0.0236986648875247</v>
-      </c>
-      <c r="FE169">
-        <v>0.03215932625937416</v>
-      </c>
-      <c r="FF169">
-        <v>-0.02472291452433536</v>
-      </c>
-      <c r="FG169">
-        <v>-0.09789902596624817</v>
-      </c>
-      <c r="FH169">
-        <v>0.210759464049489</v>
-      </c>
-    </row>
-    <row r="170" spans="1:164">
-      <c r="A170" s="1">
-        <v>46296</v>
-      </c>
-      <c r="FE170">
-        <v>0.03187008249542581</v>
-      </c>
-      <c r="FF170">
-        <v>-0.02548724235585527</v>
-      </c>
-      <c r="FG170">
-        <v>-0.09909380151213226</v>
-      </c>
-      <c r="FH170">
-        <v>0.2059756362941196</v>
-      </c>
-    </row>
-    <row r="171" spans="1:164">
-      <c r="A171" s="1">
-        <v>46388</v>
-      </c>
-      <c r="FF171">
-        <v>-0.02510507844009532</v>
-      </c>
-      <c r="FG171">
-        <v>-0.09849641373919021</v>
-      </c>
-      <c r="FH171">
-        <v>0.2083675501718043</v>
-      </c>
-    </row>
-    <row r="172" spans="1:164">
-      <c r="A172" s="1">
-        <v>46478</v>
-      </c>
-      <c r="FG172">
-        <v>-0.09879510762566124</v>
-      </c>
-      <c r="FH172">
-        <v>0.207171593232962</v>
-      </c>
-    </row>
-    <row r="173" spans="1:164">
-      <c r="A173" s="1">
-        <v>46569</v>
-      </c>
-      <c r="FH173">
         <v>0.2077695717023831</v>
       </c>
     </row>
